--- a/sigmaaie/modules/core/doc/roh-core.xlsx
+++ b/sigmaaie/modules/core/doc/roh-core.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="603">
   <si>
     <t>vivo</t>
   </si>
@@ -1593,6 +1593,9 @@
   </si>
   <si>
     <t>degreeCandidacy</t>
+  </si>
+  <si>
+    <t>vivo:AdviseeRole</t>
   </si>
   <si>
     <t>FacultyMentoringRelationship</t>
@@ -2293,7 +2296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M625"/>
+  <dimension ref="A1:M626"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -11262,8 +11265,8 @@
       <c r="H544" t="s" s="41">
         <v>37</v>
       </c>
-      <c r="I544" t="s" s="45">
-        <v>220</v>
+      <c r="I544" t="s" s="41">
+        <v>527</v>
       </c>
     </row>
     <row r="545">
@@ -11271,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="D545" s="41" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E545" s="41"/>
       <c r="F545" s="41"/>
@@ -11281,7 +11284,7 @@
         <v>0</v>
       </c>
       <c r="D546" s="41" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E546" s="41"/>
       <c r="F546" s="41"/>
@@ -11291,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="D547" s="41" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E547" s="41"/>
       <c r="F547" s="41"/>
@@ -11301,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="D548" s="41" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E548" s="41"/>
       <c r="F548" s="41"/>
@@ -11311,7 +11314,7 @@
         <v>4</v>
       </c>
       <c r="C549" s="19" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D549" s="19"/>
       <c r="E549" s="19"/>
@@ -11357,7 +11360,7 @@
         <v>37</v>
       </c>
       <c r="I551" t="s" s="41">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="552">
@@ -11365,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="C552" s="41" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D552" s="41"/>
       <c r="E552" s="41"/>
@@ -11374,10 +11377,10 @@
         <v>4</v>
       </c>
       <c r="H552" t="s" s="19">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I552" t="s" s="41">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="553">
@@ -11411,7 +11414,7 @@
         <v>37</v>
       </c>
       <c r="I554" t="s" s="41">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="555">
@@ -11466,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="C559" s="41" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D559" s="41"/>
       <c r="E559" s="41"/>
@@ -11475,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s" s="41">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I559" t="s" s="45">
         <v>18</v>
@@ -11501,7 +11504,7 @@
         <v>4</v>
       </c>
       <c r="H560" t="s" s="19">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I560" t="s" s="7">
         <v>20</v>
@@ -11518,7 +11521,7 @@
         <v>4</v>
       </c>
       <c r="H561" t="s" s="20">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I561" t="s" s="41">
         <v>15</v>
@@ -11572,7 +11575,7 @@
         <v>37</v>
       </c>
       <c r="I564" t="s" s="41">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="565">
@@ -11586,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="s" s="41">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I565" t="s" s="31">
         <v>115</v>
@@ -11597,7 +11600,7 @@
         <v>4</v>
       </c>
       <c r="D566" s="19" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E566" s="19"/>
       <c r="F566" s="19"/>
@@ -11607,7 +11610,7 @@
         <v>4</v>
       </c>
       <c r="D567" s="19" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E567" s="19"/>
       <c r="F567" s="19"/>
@@ -11617,7 +11620,7 @@
         <v>4</v>
       </c>
       <c r="D568" s="19" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E568" s="19"/>
       <c r="F568" s="19"/>
@@ -11627,7 +11630,7 @@
         <v>4</v>
       </c>
       <c r="D569" s="19" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E569" s="19"/>
       <c r="F569" s="19"/>
@@ -11637,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="C570" s="41" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D570" s="41"/>
       <c r="E570" s="41"/>
@@ -11655,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="K570" t="s" s="41">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L570" t="s" s="11">
         <v>72</v>
@@ -11672,7 +11675,7 @@
         <v>4</v>
       </c>
       <c r="H571" t="s" s="20">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I571" t="s" s="45">
         <v>220</v>
@@ -11700,7 +11703,7 @@
         <v>4</v>
       </c>
       <c r="D573" s="19" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E573" s="19"/>
       <c r="F573" s="19"/>
@@ -11710,7 +11713,7 @@
         <v>4</v>
       </c>
       <c r="D574" s="19" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E574" s="19"/>
       <c r="F574" s="19"/>
@@ -11720,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="D575" s="41" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E575" s="41"/>
       <c r="F575" s="41"/>
@@ -11730,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="D576" s="41" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E576" s="41"/>
       <c r="F576" s="41"/>
@@ -11740,7 +11743,7 @@
         <v>4</v>
       </c>
       <c r="E577" s="19" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F577" s="19"/>
     </row>
@@ -11749,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="D578" s="41" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E578" s="41"/>
       <c r="F578" s="41"/>
@@ -11759,7 +11762,7 @@
         <v>4</v>
       </c>
       <c r="E579" s="19" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F579" s="19"/>
     </row>
@@ -11768,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="D580" s="41" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E580" s="41"/>
       <c r="F580" s="41"/>
@@ -11778,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="D581" s="41" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E581" s="41"/>
       <c r="F581" s="41"/>
@@ -11788,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="E582" s="41" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F582" s="41"/>
     </row>
@@ -11797,7 +11800,7 @@
         <v>4</v>
       </c>
       <c r="D583" s="19" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E583" s="19"/>
       <c r="F583" s="19"/>
@@ -11807,7 +11810,7 @@
         <v>4</v>
       </c>
       <c r="D584" s="19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E584" s="19"/>
       <c r="F584" s="19"/>
@@ -11817,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="D585" s="41" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E585" s="41"/>
       <c r="F585" s="41"/>
@@ -11827,7 +11830,7 @@
         <v>4</v>
       </c>
       <c r="D586" s="19" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E586" s="19"/>
       <c r="F586" s="19"/>
@@ -11837,7 +11840,7 @@
         <v>4</v>
       </c>
       <c r="D587" s="19" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E587" s="19"/>
       <c r="F587" s="19"/>
@@ -11847,7 +11850,7 @@
         <v>4</v>
       </c>
       <c r="C588" s="19" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D588" s="19"/>
       <c r="E588" s="19"/>
@@ -11893,7 +11896,7 @@
         <v>37</v>
       </c>
       <c r="I590" t="s" s="19">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="591">
@@ -11901,7 +11904,7 @@
         <v>4</v>
       </c>
       <c r="C591" s="19" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D591" s="19"/>
       <c r="E591" s="19"/>
@@ -11947,7 +11950,7 @@
         <v>37</v>
       </c>
       <c r="I593" t="s" s="41">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="594">
@@ -11955,7 +11958,7 @@
         <v>4</v>
       </c>
       <c r="D594" s="19" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E594" s="19"/>
       <c r="F594" s="19"/>
@@ -11966,7 +11969,7 @@
         <v>149</v>
       </c>
       <c r="I594" t="s" s="19">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="595">
@@ -11974,7 +11977,7 @@
         <v>4</v>
       </c>
       <c r="D595" s="19" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E595" s="19"/>
       <c r="F595" s="19"/>
@@ -11985,7 +11988,7 @@
         <v>149</v>
       </c>
       <c r="I595" t="s" s="19">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="596">
@@ -11993,7 +11996,7 @@
         <v>4</v>
       </c>
       <c r="D596" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E596" s="19"/>
       <c r="F596" s="19"/>
@@ -12004,7 +12007,7 @@
         <v>149</v>
       </c>
       <c r="I596" t="s" s="19">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="597">
@@ -12035,7 +12038,7 @@
         <v>4</v>
       </c>
       <c r="B599" s="19" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C599" s="19"/>
       <c r="D599" s="19"/>
@@ -12047,20 +12050,20 @@
         <v>4</v>
       </c>
       <c r="B600" s="19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C600" s="19"/>
       <c r="D600" s="19"/>
       <c r="E600" s="19"/>
       <c r="F600" s="19"/>
-      <c r="G600" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H600" t="s" s="20">
-        <v>324</v>
-      </c>
-      <c r="I600" t="s" s="19">
-        <v>577</v>
+      <c r="G600" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="H600" t="s" s="35">
+        <v>297</v>
+      </c>
+      <c r="I600" t="s" s="27">
+        <v>298</v>
       </c>
     </row>
     <row r="601">
@@ -12070,117 +12073,108 @@
       <c r="D601" s="19"/>
       <c r="E601" s="19"/>
       <c r="F601" s="19"/>
-      <c r="G601" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H601" t="s" s="19">
-        <v>190</v>
+      <c r="G601" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H601" t="s" s="20">
+        <v>324</v>
       </c>
       <c r="I601" t="s" s="19">
         <v>578</v>
       </c>
     </row>
     <row r="602">
-      <c r="B602" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C602" s="19" t="s">
-        <v>579</v>
-      </c>
+      <c r="A602" s="19"/>
+      <c r="B602" s="19"/>
+      <c r="C602" s="19"/>
       <c r="D602" s="19"/>
       <c r="E602" s="19"/>
       <c r="F602" s="19"/>
+      <c r="G602" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H602" t="s" s="19">
+        <v>190</v>
+      </c>
+      <c r="I602" t="s" s="19">
+        <v>579</v>
+      </c>
     </row>
     <row r="603">
+      <c r="B603" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="C603" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D603" s="19" t="s">
         <v>580</v>
       </c>
+      <c r="D603" s="19"/>
       <c r="E603" s="19"/>
       <c r="F603" s="19"/>
-      <c r="J603" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K603" t="s" s="20">
+    </row>
+    <row r="604">
+      <c r="C604" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D604" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="L603" t="s" s="11">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="B604" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C604" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="D604" s="19"/>
       <c r="E604" s="19"/>
       <c r="F604" s="19"/>
       <c r="J604" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K604" t="s" s="20">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L604" t="s" s="11">
         <v>515</v>
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="B605" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="C605" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="C605" s="19" t="s">
+        <v>581</v>
+      </c>
       <c r="D605" s="19"/>
       <c r="E605" s="19"/>
       <c r="F605" s="19"/>
-      <c r="G605" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H605" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I605" t="s" s="41">
-        <v>51</v>
-      </c>
-      <c r="J605" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K605" t="s" s="41">
-        <v>13</v>
+      <c r="J605" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K605" t="s" s="20">
+        <v>582</v>
       </c>
       <c r="L605" t="s" s="11">
-        <v>6</v>
+        <v>515</v>
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="19"/>
-      <c r="B606" s="19"/>
+      <c r="A606" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B606" s="19" t="s">
+        <v>583</v>
+      </c>
       <c r="C606" s="19"/>
       <c r="D606" s="19"/>
       <c r="E606" s="19"/>
       <c r="F606" s="19"/>
-      <c r="G606" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H606" t="s" s="19">
-        <v>583</v>
-      </c>
-      <c r="I606" t="s" s="45">
-        <v>12</v>
+      <c r="G606" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H606" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I606" t="s" s="41">
+        <v>51</v>
       </c>
       <c r="J606" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K606" t="s" s="41">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="L606" t="s" s="11">
         <v>6</v>
@@ -12193,101 +12187,116 @@
       <c r="D607" s="19"/>
       <c r="E607" s="19"/>
       <c r="F607" s="19"/>
-      <c r="G607" s="19"/>
-      <c r="H607" s="19"/>
-      <c r="I607" s="19"/>
-      <c r="J607" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K607" t="s" s="19">
-        <v>5</v>
+      <c r="G607" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H607" t="s" s="19">
+        <v>584</v>
+      </c>
+      <c r="I607" t="s" s="45">
+        <v>12</v>
+      </c>
+      <c r="J607" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K607" t="s" s="41">
+        <v>52</v>
       </c>
       <c r="L607" t="s" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="608">
-      <c r="B608" s="1" t="s">
+      <c r="A608" s="19"/>
+      <c r="B608" s="19"/>
+      <c r="C608" s="19"/>
+      <c r="D608" s="19"/>
+      <c r="E608" s="19"/>
+      <c r="F608" s="19"/>
+      <c r="G608" s="19"/>
+      <c r="H608" s="19"/>
+      <c r="I608" s="19"/>
+      <c r="J608" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K608" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L608" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="B609" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C608" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D608" s="1"/>
-      <c r="E608" s="1"/>
-      <c r="F608" s="1"/>
-    </row>
-    <row r="609">
-      <c r="B609" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C609" s="41" t="s">
+      <c r="C609" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D609" s="41"/>
-      <c r="E609" s="41"/>
-      <c r="F609" s="41"/>
-      <c r="J609" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K609" t="s" s="41">
-        <v>52</v>
-      </c>
-      <c r="L609" t="s" s="11">
-        <v>6</v>
-      </c>
+      <c r="D609" s="1"/>
+      <c r="E609" s="1"/>
+      <c r="F609" s="1"/>
     </row>
     <row r="610">
       <c r="B610" s="41" t="s">
         <v>0</v>
       </c>
       <c r="C610" s="41" t="s">
-        <v>434</v>
+        <v>586</v>
       </c>
       <c r="D610" s="41"/>
       <c r="E610" s="41"/>
       <c r="F610" s="41"/>
-      <c r="G610" t="s" s="43">
+      <c r="J610" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K610" t="s" s="41">
+        <v>52</v>
+      </c>
+      <c r="L610" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="B611" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C611" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="D611" s="41"/>
+      <c r="E611" s="41"/>
+      <c r="F611" s="41"/>
+      <c r="G611" t="s" s="43">
         <v>68</v>
       </c>
-      <c r="H610" t="s" s="43">
+      <c r="H611" t="s" s="43">
         <v>112</v>
       </c>
-      <c r="I610" t="s" s="41">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" s="27" t="s">
+      <c r="I611" t="s" s="41">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="B611" s="27" t="s">
-        <v>587</v>
-      </c>
-      <c r="C611" s="27"/>
-      <c r="D611" s="27"/>
-      <c r="E611" s="27"/>
-      <c r="F611" s="27"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B612" s="19" t="s">
+      <c r="B612" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="C612" s="19"/>
-      <c r="D612" s="19"/>
-      <c r="E612" s="19"/>
-      <c r="F612" s="19"/>
+      <c r="C612" s="27"/>
+      <c r="D612" s="27"/>
+      <c r="E612" s="27"/>
+      <c r="F612" s="27"/>
     </row>
     <row r="613">
+      <c r="A613" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="B613" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C613" s="19" t="s">
         <v>589</v>
       </c>
+      <c r="C613" s="19"/>
       <c r="D613" s="19"/>
       <c r="E613" s="19"/>
       <c r="F613" s="19"/>
@@ -12424,8 +12433,19 @@
       <c r="E625" s="19"/>
       <c r="F625" s="19"/>
     </row>
+    <row r="626">
+      <c r="B626" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C626" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="D626" s="19"/>
+      <c r="E626" s="19"/>
+      <c r="F626" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="588">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C3:F3"/>
@@ -12989,18 +13009,18 @@
     <mergeCell ref="B599:F599"/>
     <mergeCell ref="B600:F600"/>
     <mergeCell ref="A601:F601"/>
-    <mergeCell ref="C602:F602"/>
-    <mergeCell ref="D603:F603"/>
-    <mergeCell ref="C604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A607:I607"/>
-    <mergeCell ref="C608:F608"/>
+    <mergeCell ref="A602:F602"/>
+    <mergeCell ref="C603:F603"/>
+    <mergeCell ref="D604:F604"/>
+    <mergeCell ref="C605:F605"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="A607:F607"/>
+    <mergeCell ref="A608:I608"/>
     <mergeCell ref="C609:F609"/>
     <mergeCell ref="C610:F610"/>
-    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="C611:F611"/>
     <mergeCell ref="B612:F612"/>
-    <mergeCell ref="C613:F613"/>
+    <mergeCell ref="B613:F613"/>
     <mergeCell ref="C614:F614"/>
     <mergeCell ref="C615:F615"/>
     <mergeCell ref="C616:F616"/>
@@ -13013,6 +13033,7 @@
     <mergeCell ref="C623:F623"/>
     <mergeCell ref="C624:F624"/>
     <mergeCell ref="C625:F625"/>
+    <mergeCell ref="C626:F626"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/sigmaaie/modules/core/doc/roh-core.xlsx
+++ b/sigmaaie/modules/core/doc/roh-core.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="601">
   <si>
     <t>vivo</t>
   </si>
@@ -1362,9 +1362,6 @@
   </si>
   <si>
     <t>roh:FundingProgram or roh:FundingSource</t>
-  </si>
-  <si>
-    <t>FundingAgency</t>
   </si>
   <si>
     <t>FundingProgram</t>
@@ -2293,7 +2290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M633"/>
+  <dimension ref="A1:M632"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8227,41 +8224,56 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="B375" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C375" s="19" t="s">
         <v>450</v>
       </c>
+      <c r="C375" s="19"/>
       <c r="D375" s="19"/>
       <c r="E375" s="19"/>
       <c r="F375" s="19"/>
+      <c r="G375" t="s" s="43">
+        <v>68</v>
+      </c>
+      <c r="H375" t="s" s="43">
+        <v>112</v>
+      </c>
+      <c r="I375" t="s" s="19">
+        <v>438</v>
+      </c>
+      <c r="J375" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K375" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L375" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="376">
-      <c r="A376" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B376" s="19" t="s">
-        <v>451</v>
-      </c>
+      <c r="A376" s="19"/>
+      <c r="B376" s="19"/>
       <c r="C376" s="19"/>
       <c r="D376" s="19"/>
       <c r="E376" s="19"/>
       <c r="F376" s="19"/>
-      <c r="G376" t="s" s="43">
-        <v>68</v>
-      </c>
-      <c r="H376" t="s" s="43">
-        <v>112</v>
-      </c>
-      <c r="I376" t="s" s="19">
-        <v>438</v>
+      <c r="G376" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H376" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I376" t="s" s="41">
+        <v>51</v>
       </c>
       <c r="J376" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K376" t="s" s="41">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="L376" t="s" s="11">
         <v>6</v>
@@ -8274,20 +8286,20 @@
       <c r="D377" s="19"/>
       <c r="E377" s="19"/>
       <c r="F377" s="19"/>
-      <c r="G377" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H377" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I377" t="s" s="41">
-        <v>51</v>
-      </c>
-      <c r="J377" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K377" t="s" s="41">
-        <v>56</v>
+      <c r="G377" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H377" t="s" s="19">
+        <v>451</v>
+      </c>
+      <c r="I377" t="s" s="19">
+        <v>452</v>
+      </c>
+      <c r="J377" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K377" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L377" t="s" s="11">
         <v>6</v>
@@ -8300,23 +8312,14 @@
       <c r="D378" s="19"/>
       <c r="E378" s="19"/>
       <c r="F378" s="19"/>
-      <c r="G378" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H378" t="s" s="19">
-        <v>452</v>
-      </c>
-      <c r="I378" t="s" s="19">
-        <v>453</v>
-      </c>
-      <c r="J378" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K378" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L378" t="s" s="11">
-        <v>6</v>
+      <c r="G378" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="H378" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="I378" t="s" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="379">
@@ -8326,14 +8329,14 @@
       <c r="D379" s="19"/>
       <c r="E379" s="19"/>
       <c r="F379" s="19"/>
-      <c r="G379" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="H379" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="I379" t="s" s="5">
-        <v>55</v>
+      <c r="G379" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H379" t="s" s="19">
+        <v>453</v>
+      </c>
+      <c r="I379" t="s" s="41">
+        <v>454</v>
       </c>
     </row>
     <row r="380">
@@ -8343,135 +8346,144 @@
       <c r="D380" s="19"/>
       <c r="E380" s="19"/>
       <c r="F380" s="19"/>
-      <c r="G380" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H380" t="s" s="19">
-        <v>454</v>
-      </c>
-      <c r="I380" t="s" s="41">
+      <c r="G380" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H380" t="s" s="41">
+        <v>105</v>
+      </c>
+      <c r="I380" t="s" s="19">
         <v>455</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="19"/>
-      <c r="B381" s="19"/>
+      <c r="A381" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B381" s="19" t="s">
+        <v>456</v>
+      </c>
       <c r="C381" s="19"/>
       <c r="D381" s="19"/>
       <c r="E381" s="19"/>
       <c r="F381" s="19"/>
-      <c r="G381" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H381" t="s" s="41">
-        <v>105</v>
+      <c r="G381" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H381" t="s" s="19">
+        <v>457</v>
       </c>
       <c r="I381" t="s" s="19">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B382" s="19" t="s">
-        <v>457</v>
-      </c>
+      <c r="A382" s="19"/>
+      <c r="B382" s="19"/>
       <c r="C382" s="19"/>
       <c r="D382" s="19"/>
       <c r="E382" s="19"/>
       <c r="F382" s="19"/>
-      <c r="G382" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H382" t="s" s="19">
+      <c r="G382" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H382" t="s" s="20">
+        <v>453</v>
+      </c>
+      <c r="I382" t="s" s="41">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B383" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="I382" t="s" s="19">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="19"/>
-      <c r="B383" s="19"/>
-      <c r="C383" s="19"/>
-      <c r="D383" s="19"/>
-      <c r="E383" s="19"/>
-      <c r="F383" s="19"/>
-      <c r="G383" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H383" t="s" s="20">
-        <v>454</v>
-      </c>
-      <c r="I383" t="s" s="41">
-        <v>455</v>
+      <c r="C383" s="31"/>
+      <c r="D383" s="31"/>
+      <c r="E383" s="31"/>
+      <c r="F383" s="31"/>
+      <c r="G383" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H383" t="s" s="19">
+        <v>459</v>
+      </c>
+      <c r="I383" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="B384" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="C384" s="31"/>
-      <c r="D384" s="31"/>
-      <c r="E384" s="31"/>
-      <c r="F384" s="31"/>
-      <c r="G384" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H384" t="s" s="19">
+      <c r="B384" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C384" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="I384" t="s" s="45">
-        <v>18</v>
+      <c r="D384" s="35"/>
+      <c r="E384" s="35"/>
+      <c r="F384" s="35"/>
+      <c r="J384" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K384" t="s" s="35">
+        <v>461</v>
+      </c>
+      <c r="L384" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
-      <c r="B385" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C385" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="D385" s="35"/>
-      <c r="E385" s="35"/>
-      <c r="F385" s="35"/>
-      <c r="J385" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K385" t="s" s="35">
+      <c r="C385" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D385" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="L385" t="s" s="17">
-        <v>3</v>
+      <c r="E385" s="19"/>
+      <c r="F385" s="19"/>
+      <c r="G385" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H385" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I385" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="J385" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K385" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L385" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="386">
-      <c r="C386" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D386" s="19" t="s">
-        <v>463</v>
-      </c>
+      <c r="A386" s="19"/>
+      <c r="B386" s="19"/>
+      <c r="C386" s="19"/>
+      <c r="D386" s="19"/>
       <c r="E386" s="19"/>
       <c r="F386" s="19"/>
       <c r="G386" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H386" t="s" s="41">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I386" t="s" s="41">
-        <v>51</v>
+        <v>463</v>
       </c>
       <c r="J386" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K386" t="s" s="41">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="L386" t="s" s="11">
         <v>6</v>
@@ -8484,63 +8496,57 @@
       <c r="D387" s="19"/>
       <c r="E387" s="19"/>
       <c r="F387" s="19"/>
-      <c r="G387" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H387" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I387" t="s" s="41">
-        <v>464</v>
-      </c>
-      <c r="J387" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K387" t="s" s="41">
-        <v>56</v>
+      <c r="G387" s="19"/>
+      <c r="H387" s="19"/>
+      <c r="I387" s="19"/>
+      <c r="J387" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K387" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L387" t="s" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="19"/>
-      <c r="B388" s="19"/>
-      <c r="C388" s="19"/>
-      <c r="D388" s="19"/>
-      <c r="E388" s="19"/>
-      <c r="F388" s="19"/>
-      <c r="G388" s="19"/>
-      <c r="H388" s="19"/>
-      <c r="I388" s="19"/>
-      <c r="J388" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K388" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L388" t="s" s="11">
-        <v>6</v>
+      <c r="C388" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D388" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E388" s="35"/>
+      <c r="F388" s="35"/>
+      <c r="G388" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H388" t="s" s="41">
+        <v>315</v>
+      </c>
+      <c r="I388" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J388" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K388" t="s" s="35">
+        <v>465</v>
+      </c>
+      <c r="L388" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="389">
-      <c r="C389" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D389" s="35" t="s">
-        <v>465</v>
-      </c>
+      <c r="A389" s="35"/>
+      <c r="B389" s="35"/>
+      <c r="C389" s="35"/>
+      <c r="D389" s="35"/>
       <c r="E389" s="35"/>
       <c r="F389" s="35"/>
-      <c r="G389" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H389" t="s" s="41">
-        <v>315</v>
-      </c>
-      <c r="I389" t="s" s="45">
-        <v>18</v>
-      </c>
+      <c r="G389" s="35"/>
+      <c r="H389" s="35"/>
+      <c r="I389" s="35"/>
       <c r="J389" t="s" s="35">
         <v>60</v>
       </c>
@@ -8552,23 +8558,21 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="35"/>
-      <c r="B390" s="35"/>
-      <c r="C390" s="35"/>
-      <c r="D390" s="35"/>
-      <c r="E390" s="35"/>
+      <c r="D390" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E390" s="35" t="s">
+        <v>467</v>
+      </c>
       <c r="F390" s="35"/>
-      <c r="G390" s="35"/>
-      <c r="H390" s="35"/>
-      <c r="I390" s="35"/>
-      <c r="J390" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K390" t="s" s="35">
-        <v>467</v>
-      </c>
-      <c r="L390" t="s" s="17">
-        <v>3</v>
+      <c r="J390" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K390" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L390" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="391">
@@ -8579,49 +8583,57 @@
         <v>468</v>
       </c>
       <c r="F391" s="35"/>
-      <c r="J391" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K391" t="s" s="41">
-        <v>2</v>
-      </c>
-      <c r="L391" t="s" s="11">
+    </row>
+    <row r="392">
+      <c r="B392" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C392" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D392" s="35"/>
+      <c r="E392" s="35"/>
+      <c r="F392" s="35"/>
+      <c r="G392" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="H392" t="s" s="35">
+        <v>298</v>
+      </c>
+      <c r="I392" t="s" s="27">
+        <v>299</v>
+      </c>
+      <c r="J392" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K392" t="s" s="35">
+        <v>300</v>
+      </c>
+      <c r="L392" t="s" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="392">
-      <c r="D392" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E392" s="35" t="s">
-        <v>469</v>
-      </c>
-      <c r="F392" s="35"/>
-    </row>
     <row r="393">
-      <c r="B393" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C393" s="35" t="s">
-        <v>297</v>
-      </c>
+      <c r="A393" s="35"/>
+      <c r="B393" s="35"/>
+      <c r="C393" s="35"/>
       <c r="D393" s="35"/>
       <c r="E393" s="35"/>
       <c r="F393" s="35"/>
-      <c r="G393" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="H393" t="s" s="35">
-        <v>298</v>
-      </c>
-      <c r="I393" t="s" s="27">
-        <v>299</v>
-      </c>
-      <c r="J393" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K393" t="s" s="35">
-        <v>300</v>
+      <c r="G393" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H393" t="s" s="20">
+        <v>301</v>
+      </c>
+      <c r="I393" t="s" s="45">
+        <v>221</v>
+      </c>
+      <c r="J393" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K393" t="s" s="20">
+        <v>302</v>
       </c>
       <c r="L393" t="s" s="11">
         <v>6</v>
@@ -8634,20 +8646,20 @@
       <c r="D394" s="35"/>
       <c r="E394" s="35"/>
       <c r="F394" s="35"/>
-      <c r="G394" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H394" t="s" s="20">
-        <v>301</v>
+      <c r="G394" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H394" t="s" s="19">
+        <v>303</v>
       </c>
       <c r="I394" t="s" s="45">
         <v>221</v>
       </c>
-      <c r="J394" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K394" t="s" s="20">
-        <v>302</v>
+      <c r="J394" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K394" t="s" s="35">
+        <v>304</v>
       </c>
       <c r="L394" t="s" s="11">
         <v>6</v>
@@ -8660,20 +8672,20 @@
       <c r="D395" s="35"/>
       <c r="E395" s="35"/>
       <c r="F395" s="35"/>
-      <c r="G395" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H395" t="s" s="19">
-        <v>303</v>
-      </c>
-      <c r="I395" t="s" s="45">
-        <v>221</v>
-      </c>
-      <c r="J395" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K395" t="s" s="35">
-        <v>304</v>
+      <c r="G395" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H395" t="s" s="41">
+        <v>305</v>
+      </c>
+      <c r="I395" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J395" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K395" t="s" s="41">
+        <v>52</v>
       </c>
       <c r="L395" t="s" s="11">
         <v>6</v>
@@ -8686,23 +8698,23 @@
       <c r="D396" s="35"/>
       <c r="E396" s="35"/>
       <c r="F396" s="35"/>
-      <c r="G396" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H396" t="s" s="41">
-        <v>305</v>
-      </c>
-      <c r="I396" t="s" s="41">
-        <v>15</v>
-      </c>
-      <c r="J396" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K396" t="s" s="41">
-        <v>52</v>
+      <c r="G396" t="s" s="36">
+        <v>60</v>
+      </c>
+      <c r="H396" t="s" s="36">
+        <v>306</v>
+      </c>
+      <c r="I396" t="s" s="35">
+        <v>307</v>
+      </c>
+      <c r="J396" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K396" t="s" s="35">
+        <v>308</v>
       </c>
       <c r="L396" t="s" s="11">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="397">
@@ -8712,20 +8724,20 @@
       <c r="D397" s="35"/>
       <c r="E397" s="35"/>
       <c r="F397" s="35"/>
-      <c r="G397" t="s" s="36">
-        <v>60</v>
-      </c>
-      <c r="H397" t="s" s="36">
-        <v>306</v>
-      </c>
-      <c r="I397" t="s" s="35">
-        <v>307</v>
+      <c r="G397" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H397" t="s" s="41">
+        <v>309</v>
+      </c>
+      <c r="I397" t="s" s="41">
+        <v>310</v>
       </c>
       <c r="J397" t="s" s="35">
         <v>60</v>
       </c>
       <c r="K397" t="s" s="35">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L397" t="s" s="11">
         <v>72</v>
@@ -8738,23 +8750,23 @@
       <c r="D398" s="35"/>
       <c r="E398" s="35"/>
       <c r="F398" s="35"/>
-      <c r="G398" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H398" t="s" s="41">
-        <v>309</v>
-      </c>
-      <c r="I398" t="s" s="41">
-        <v>310</v>
-      </c>
-      <c r="J398" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K398" t="s" s="35">
-        <v>311</v>
+      <c r="G398" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H398" t="s" s="20">
+        <v>312</v>
+      </c>
+      <c r="I398" t="s" s="45">
+        <v>12</v>
+      </c>
+      <c r="J398" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K398" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L398" t="s" s="11">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="399">
@@ -8768,19 +8780,19 @@
         <v>4</v>
       </c>
       <c r="H399" t="s" s="20">
-        <v>312</v>
-      </c>
-      <c r="I399" t="s" s="45">
-        <v>12</v>
-      </c>
-      <c r="J399" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K399" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L399" t="s" s="11">
-        <v>6</v>
+        <v>313</v>
+      </c>
+      <c r="I399" t="s" s="19">
+        <v>164</v>
+      </c>
+      <c r="J399" t="s" s="36">
+        <v>60</v>
+      </c>
+      <c r="K399" t="s" s="36">
+        <v>314</v>
+      </c>
+      <c r="L399" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -8790,23 +8802,14 @@
       <c r="D400" s="35"/>
       <c r="E400" s="35"/>
       <c r="F400" s="35"/>
-      <c r="G400" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H400" t="s" s="20">
-        <v>313</v>
-      </c>
-      <c r="I400" t="s" s="19">
-        <v>164</v>
-      </c>
-      <c r="J400" t="s" s="36">
-        <v>60</v>
-      </c>
-      <c r="K400" t="s" s="36">
-        <v>314</v>
-      </c>
-      <c r="L400" t="s" s="17">
-        <v>3</v>
+      <c r="G400" t="s" s="42">
+        <v>0</v>
+      </c>
+      <c r="H400" t="s" s="42">
+        <v>315</v>
+      </c>
+      <c r="I400" t="s" s="45">
+        <v>12</v>
       </c>
     </row>
     <row r="401">
@@ -8816,60 +8819,63 @@
       <c r="D401" s="35"/>
       <c r="E401" s="35"/>
       <c r="F401" s="35"/>
-      <c r="G401" t="s" s="42">
-        <v>0</v>
-      </c>
-      <c r="H401" t="s" s="42">
-        <v>315</v>
-      </c>
-      <c r="I401" t="s" s="45">
-        <v>12</v>
+      <c r="G401" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H401" t="s" s="20">
+        <v>316</v>
+      </c>
+      <c r="I401" t="s" s="41">
+        <v>38</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="35"/>
-      <c r="B402" s="35"/>
-      <c r="C402" s="35"/>
-      <c r="D402" s="35"/>
-      <c r="E402" s="35"/>
-      <c r="F402" s="35"/>
-      <c r="G402" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H402" t="s" s="20">
-        <v>316</v>
-      </c>
-      <c r="I402" t="s" s="41">
-        <v>38</v>
-      </c>
+      <c r="C402" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D402" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="E402" s="41"/>
+      <c r="F402" s="41"/>
     </row>
     <row r="403">
-      <c r="C403" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D403" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="E403" s="41"/>
-      <c r="F403" s="41"/>
+      <c r="C403" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D403" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E403" s="35"/>
+      <c r="F403" s="35"/>
+      <c r="J403" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K403" t="s" s="35">
+        <v>304</v>
+      </c>
+      <c r="L403" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="404">
-      <c r="C404" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D404" s="35" t="s">
-        <v>318</v>
-      </c>
+      <c r="A404" s="35"/>
+      <c r="B404" s="35"/>
+      <c r="C404" s="35"/>
+      <c r="D404" s="35"/>
       <c r="E404" s="35"/>
       <c r="F404" s="35"/>
-      <c r="J404" t="s" s="35">
+      <c r="G404" s="35"/>
+      <c r="H404" s="35"/>
+      <c r="I404" s="35"/>
+      <c r="J404" t="s" s="36">
         <v>60</v>
       </c>
-      <c r="K404" t="s" s="35">
-        <v>304</v>
-      </c>
-      <c r="L404" t="s" s="11">
-        <v>6</v>
+      <c r="K404" t="s" s="36">
+        <v>319</v>
+      </c>
+      <c r="L404" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -8882,11 +8888,11 @@
       <c r="G405" s="35"/>
       <c r="H405" s="35"/>
       <c r="I405" s="35"/>
-      <c r="J405" t="s" s="36">
+      <c r="J405" t="s" s="35">
         <v>60</v>
       </c>
-      <c r="K405" t="s" s="36">
-        <v>319</v>
+      <c r="K405" t="s" s="35">
+        <v>308</v>
       </c>
       <c r="L405" t="s" s="17">
         <v>3</v>
@@ -8906,171 +8912,160 @@
         <v>60</v>
       </c>
       <c r="K406" t="s" s="35">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L406" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="35"/>
-      <c r="B407" s="35"/>
-      <c r="C407" s="35"/>
-      <c r="D407" s="35"/>
-      <c r="E407" s="35"/>
+      <c r="D407" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E407" s="35" t="s">
+        <v>320</v>
+      </c>
       <c r="F407" s="35"/>
-      <c r="G407" s="35"/>
-      <c r="H407" s="35"/>
-      <c r="I407" s="35"/>
+      <c r="G407" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H407" t="s" s="41">
+        <v>309</v>
+      </c>
+      <c r="I407" t="s" s="35">
+        <v>321</v>
+      </c>
       <c r="J407" t="s" s="35">
         <v>60</v>
       </c>
       <c r="K407" t="s" s="35">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="L407" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="408">
-      <c r="D408" s="35" t="s">
+      <c r="E408" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="F408" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G408" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H408" t="s" s="41">
+        <v>14</v>
+      </c>
+      <c r="I408" t="s" s="41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="31"/>
+      <c r="B409" s="31"/>
+      <c r="C409" s="31"/>
+      <c r="D409" s="31"/>
+      <c r="E409" s="31"/>
+      <c r="F409" s="31"/>
+      <c r="G409" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H409" t="s" s="19">
+        <v>325</v>
+      </c>
+      <c r="I409" t="s" s="19">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="E410" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F410" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="D411" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E411" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F411" s="19"/>
+    </row>
+    <row r="412">
+      <c r="D412" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E412" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="F412" s="41"/>
+      <c r="G412" t="s" s="35">
         <v>60</v>
       </c>
-      <c r="E408" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="F408" s="35"/>
-      <c r="G408" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H408" t="s" s="41">
-        <v>309</v>
-      </c>
-      <c r="I408" t="s" s="35">
-        <v>321</v>
-      </c>
-      <c r="J408" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K408" t="s" s="35">
-        <v>322</v>
-      </c>
-      <c r="L408" t="s" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="E409" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="F409" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="G409" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H409" t="s" s="41">
-        <v>14</v>
-      </c>
-      <c r="I409" t="s" s="41">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="31"/>
-      <c r="B410" s="31"/>
-      <c r="C410" s="31"/>
-      <c r="D410" s="31"/>
-      <c r="E410" s="31"/>
-      <c r="F410" s="31"/>
-      <c r="G410" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H410" t="s" s="19">
-        <v>325</v>
-      </c>
-      <c r="I410" t="s" s="19">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="E411" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F411" s="19" t="s">
+      <c r="H412" t="s" s="35">
+        <v>330</v>
+      </c>
+      <c r="I412" t="s" s="35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="E413" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F413" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="D414" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E414" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="F414" s="41"/>
+    </row>
+    <row r="415">
+      <c r="D415" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E415" s="19" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="412">
-      <c r="D412" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E412" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="F412" s="19"/>
-    </row>
-    <row r="413">
-      <c r="D413" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E413" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="F413" s="41"/>
-      <c r="G413" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="H413" t="s" s="35">
-        <v>330</v>
-      </c>
-      <c r="I413" t="s" s="35">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="E414" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F414" s="19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="D415" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E415" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="F415" s="41"/>
+      <c r="F415" s="19"/>
     </row>
     <row r="416">
       <c r="D416" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E416" s="19" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F416" s="19"/>
     </row>
     <row r="417">
+      <c r="C417" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="D417" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E417" s="19" t="s">
-        <v>334</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E417" s="19"/>
       <c r="F417" s="19"/>
     </row>
     <row r="418">
-      <c r="C418" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="D418" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="E418" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="E418" s="19" t="s">
+        <v>336</v>
+      </c>
       <c r="F418" s="19"/>
     </row>
     <row r="419">
@@ -9078,55 +9073,66 @@
         <v>4</v>
       </c>
       <c r="E419" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F419" s="19"/>
     </row>
     <row r="420">
-      <c r="D420" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E420" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="F420" s="19"/>
+      <c r="C420" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D420" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="E420" s="35"/>
+      <c r="F420" s="35"/>
     </row>
     <row r="421">
       <c r="C421" s="35" t="s">
         <v>60</v>
       </c>
       <c r="D421" s="35" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E421" s="35"/>
       <c r="F421" s="35"/>
+      <c r="G421" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H421" t="s" s="41">
+        <v>315</v>
+      </c>
+      <c r="I421" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J421" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K421" t="s" s="35">
+        <v>339</v>
+      </c>
+      <c r="L421" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="422">
-      <c r="C422" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D422" s="35" t="s">
-        <v>338</v>
-      </c>
+      <c r="A422" s="35"/>
+      <c r="B422" s="35"/>
+      <c r="C422" s="35"/>
+      <c r="D422" s="35"/>
       <c r="E422" s="35"/>
       <c r="F422" s="35"/>
-      <c r="G422" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H422" t="s" s="41">
-        <v>315</v>
-      </c>
-      <c r="I422" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J422" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K422" t="s" s="35">
-        <v>339</v>
-      </c>
-      <c r="L422" t="s" s="17">
-        <v>3</v>
+      <c r="G422" s="35"/>
+      <c r="H422" s="35"/>
+      <c r="I422" s="35"/>
+      <c r="J422" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K422" t="s" s="19">
+        <v>340</v>
+      </c>
+      <c r="L422" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="423">
@@ -9139,14 +9145,14 @@
       <c r="G423" s="35"/>
       <c r="H423" s="35"/>
       <c r="I423" s="35"/>
-      <c r="J423" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K423" t="s" s="19">
-        <v>340</v>
-      </c>
-      <c r="L423" t="s" s="11">
-        <v>6</v>
+      <c r="J423" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K423" t="s" s="35">
+        <v>341</v>
+      </c>
+      <c r="L423" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -9159,227 +9165,227 @@
       <c r="G424" s="35"/>
       <c r="H424" s="35"/>
       <c r="I424" s="35"/>
-      <c r="J424" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K424" t="s" s="35">
-        <v>341</v>
+      <c r="J424" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K424" t="s" s="41">
+        <v>342</v>
       </c>
       <c r="L424" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="35"/>
-      <c r="B425" s="35"/>
-      <c r="C425" s="35"/>
-      <c r="D425" s="35"/>
-      <c r="E425" s="35"/>
+      <c r="D425" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E425" s="35" t="s">
+        <v>343</v>
+      </c>
       <c r="F425" s="35"/>
-      <c r="G425" s="35"/>
-      <c r="H425" s="35"/>
-      <c r="I425" s="35"/>
-      <c r="J425" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K425" t="s" s="41">
-        <v>342</v>
-      </c>
-      <c r="L425" t="s" s="17">
-        <v>3</v>
-      </c>
     </row>
     <row r="426">
-      <c r="D426" s="35" t="s">
+      <c r="C426" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D426" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E426" s="19"/>
+      <c r="F426" s="19"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E426" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="F426" s="35"/>
-    </row>
-    <row r="427">
-      <c r="C427" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D427" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="E427" s="19"/>
-      <c r="F427" s="19"/>
+      <c r="D427" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="E427" s="35"/>
+      <c r="F427" s="35"/>
+      <c r="G427" t="s" s="25">
+        <v>346</v>
+      </c>
+      <c r="H427" t="s" s="25">
+        <v>347</v>
+      </c>
+      <c r="I427" t="s" s="35">
+        <v>62</v>
+      </c>
     </row>
     <row r="428">
-      <c r="C428" s="35" t="s">
+      <c r="D428" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E428" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="F428" s="19"/>
+    </row>
+    <row r="429">
+      <c r="D429" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D428" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="E428" s="35"/>
-      <c r="F428" s="35"/>
-      <c r="G428" t="s" s="25">
-        <v>346</v>
-      </c>
-      <c r="H428" t="s" s="25">
-        <v>347</v>
-      </c>
-      <c r="I428" t="s" s="35">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="D429" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E429" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="F429" s="19"/>
+      <c r="E429" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="F429" s="35"/>
     </row>
     <row r="430">
       <c r="D430" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E430" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F430" s="35"/>
+      <c r="G430" t="s" s="25">
+        <v>346</v>
+      </c>
+      <c r="H430" t="s" s="25">
+        <v>347</v>
+      </c>
+      <c r="I430" t="s" s="35">
+        <v>351</v>
+      </c>
+      <c r="J430" t="s" s="36">
+        <v>60</v>
+      </c>
+      <c r="K430" t="s" s="36">
+        <v>319</v>
+      </c>
+      <c r="L430" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="431">
-      <c r="D431" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E431" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="F431" s="35"/>
-      <c r="G431" t="s" s="25">
-        <v>346</v>
-      </c>
-      <c r="H431" t="s" s="25">
-        <v>347</v>
-      </c>
-      <c r="I431" t="s" s="35">
-        <v>351</v>
-      </c>
-      <c r="J431" t="s" s="36">
-        <v>60</v>
-      </c>
-      <c r="K431" t="s" s="36">
-        <v>319</v>
-      </c>
-      <c r="L431" t="s" s="17">
-        <v>3</v>
-      </c>
+      <c r="C431" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D431" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="E431" s="41"/>
+      <c r="F431" s="41"/>
     </row>
     <row r="432">
-      <c r="C432" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D432" s="41" t="s">
+      <c r="C432" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D432" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="E432" s="41"/>
-      <c r="F432" s="41"/>
+      <c r="E432" s="19"/>
+      <c r="F432" s="19"/>
     </row>
     <row r="433">
       <c r="C433" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D433" s="19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E433" s="19"/>
       <c r="F433" s="19"/>
+      <c r="G433" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H433" t="s" s="20">
+        <v>354</v>
+      </c>
+      <c r="I433" t="s" s="45">
+        <v>221</v>
+      </c>
+      <c r="J433" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K433" t="s" s="19">
+        <v>355</v>
+      </c>
+      <c r="L433" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="434">
-      <c r="C434" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D434" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="E434" s="19"/>
-      <c r="F434" s="19"/>
-      <c r="G434" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H434" t="s" s="20">
-        <v>354</v>
-      </c>
-      <c r="I434" t="s" s="45">
-        <v>221</v>
-      </c>
-      <c r="J434" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K434" t="s" s="19">
-        <v>355</v>
-      </c>
-      <c r="L434" t="s" s="11">
-        <v>6</v>
+      <c r="C434" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D434" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="E434" s="41"/>
+      <c r="F434" s="41"/>
+      <c r="G434" t="s" s="25">
+        <v>357</v>
+      </c>
+      <c r="H434" t="s" s="25">
+        <v>358</v>
+      </c>
+      <c r="I434" t="s" s="35">
+        <v>62</v>
       </c>
     </row>
     <row r="435">
-      <c r="C435" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D435" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="E435" s="41"/>
-      <c r="F435" s="41"/>
-      <c r="G435" t="s" s="25">
-        <v>357</v>
-      </c>
-      <c r="H435" t="s" s="25">
-        <v>358</v>
-      </c>
-      <c r="I435" t="s" s="35">
-        <v>62</v>
+      <c r="C435" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D435" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="E435" s="35"/>
+      <c r="F435" s="35"/>
+      <c r="G435" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H435" t="s" s="41">
+        <v>315</v>
+      </c>
+      <c r="I435" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J435" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K435" t="s" s="41">
+        <v>342</v>
+      </c>
+      <c r="L435" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
-      <c r="C436" s="35" t="s">
+      <c r="D436" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D436" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="E436" s="35"/>
+      <c r="E436" s="35" t="s">
+        <v>360</v>
+      </c>
       <c r="F436" s="35"/>
-      <c r="G436" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H436" t="s" s="41">
-        <v>315</v>
-      </c>
-      <c r="I436" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J436" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K436" t="s" s="41">
-        <v>342</v>
+      <c r="J436" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K436" t="s" s="35">
+        <v>339</v>
       </c>
       <c r="L436" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="437">
-      <c r="D437" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E437" s="35" t="s">
-        <v>360</v>
-      </c>
+      <c r="A437" s="35"/>
+      <c r="B437" s="35"/>
+      <c r="C437" s="35"/>
+      <c r="D437" s="35"/>
+      <c r="E437" s="35"/>
       <c r="F437" s="35"/>
+      <c r="G437" s="35"/>
+      <c r="H437" s="35"/>
+      <c r="I437" s="35"/>
       <c r="J437" t="s" s="35">
         <v>60</v>
       </c>
       <c r="K437" t="s" s="35">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="L437" t="s" s="17">
         <v>3</v>
@@ -9399,82 +9405,88 @@
         <v>60</v>
       </c>
       <c r="K438" t="s" s="35">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L438" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="35"/>
-      <c r="B439" s="35"/>
-      <c r="C439" s="35"/>
-      <c r="D439" s="35"/>
-      <c r="E439" s="35"/>
-      <c r="F439" s="35"/>
-      <c r="G439" s="35"/>
-      <c r="H439" s="35"/>
-      <c r="I439" s="35"/>
-      <c r="J439" t="s" s="35">
+      <c r="E439" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="K439" t="s" s="35">
-        <v>311</v>
-      </c>
-      <c r="L439" t="s" s="17">
-        <v>3</v>
+      <c r="F439" s="35" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="440">
-      <c r="E440" s="35" t="s">
+      <c r="C440" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D440" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="E440" s="19"/>
+      <c r="F440" s="19"/>
+    </row>
+    <row r="441">
+      <c r="D441" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E441" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F441" s="19"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F440" s="35" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="C441" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D441" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="E441" s="19"/>
-      <c r="F441" s="19"/>
-    </row>
-    <row r="442">
-      <c r="D442" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E442" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="F442" s="19"/>
+      <c r="D442" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="E442" s="35"/>
+      <c r="F442" s="35"/>
+      <c r="G442" t="s" s="42">
+        <v>0</v>
+      </c>
+      <c r="H442" t="s" s="42">
+        <v>365</v>
+      </c>
+      <c r="I442" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J442" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K442" t="s" s="41">
+        <v>56</v>
+      </c>
+      <c r="L442" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="443">
-      <c r="C443" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D443" s="35" t="s">
-        <v>364</v>
-      </c>
+      <c r="A443" s="35"/>
+      <c r="B443" s="35"/>
+      <c r="C443" s="35"/>
+      <c r="D443" s="35"/>
       <c r="E443" s="35"/>
       <c r="F443" s="35"/>
-      <c r="G443" t="s" s="42">
-        <v>0</v>
-      </c>
-      <c r="H443" t="s" s="42">
-        <v>365</v>
-      </c>
-      <c r="I443" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J443" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K443" t="s" s="41">
-        <v>56</v>
+      <c r="G443" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H443" t="s" s="41">
+        <v>14</v>
+      </c>
+      <c r="I443" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J443" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K443" t="s" s="19">
+        <v>366</v>
       </c>
       <c r="L443" t="s" s="11">
         <v>6</v>
@@ -9487,23 +9499,23 @@
       <c r="D444" s="35"/>
       <c r="E444" s="35"/>
       <c r="F444" s="35"/>
-      <c r="G444" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H444" t="s" s="41">
-        <v>14</v>
-      </c>
-      <c r="I444" t="s" s="41">
-        <v>15</v>
-      </c>
-      <c r="J444" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K444" t="s" s="19">
-        <v>366</v>
+      <c r="G444" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H444" t="s" s="19">
+        <v>121</v>
+      </c>
+      <c r="I444" t="s" s="19">
+        <v>195</v>
+      </c>
+      <c r="J444" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K444" t="s" s="20">
+        <v>367</v>
       </c>
       <c r="L444" t="s" s="11">
-        <v>6</v>
+        <v>368</v>
       </c>
     </row>
     <row r="445">
@@ -9513,23 +9525,14 @@
       <c r="D445" s="35"/>
       <c r="E445" s="35"/>
       <c r="F445" s="35"/>
-      <c r="G445" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H445" t="s" s="19">
-        <v>121</v>
-      </c>
-      <c r="I445" t="s" s="19">
-        <v>195</v>
-      </c>
-      <c r="J445" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K445" t="s" s="20">
-        <v>367</v>
-      </c>
-      <c r="L445" t="s" s="11">
-        <v>368</v>
+      <c r="G445" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="H445" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="I445" t="s" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="446">
@@ -9539,14 +9542,14 @@
       <c r="D446" s="35"/>
       <c r="E446" s="35"/>
       <c r="F446" s="35"/>
-      <c r="G446" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="H446" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="I446" t="s" s="5">
-        <v>55</v>
+      <c r="G446" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H446" t="s" s="19">
+        <v>369</v>
+      </c>
+      <c r="I446" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="447">
@@ -9556,14 +9559,14 @@
       <c r="D447" s="35"/>
       <c r="E447" s="35"/>
       <c r="F447" s="35"/>
-      <c r="G447" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H447" t="s" s="19">
-        <v>369</v>
-      </c>
-      <c r="I447" t="s" s="45">
-        <v>18</v>
+      <c r="G447" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H447" t="s" s="20">
+        <v>370</v>
+      </c>
+      <c r="I447" t="s" s="19">
+        <v>371</v>
       </c>
     </row>
     <row r="448">
@@ -9577,10 +9580,10 @@
         <v>4</v>
       </c>
       <c r="H448" t="s" s="20">
-        <v>370</v>
-      </c>
-      <c r="I448" t="s" s="19">
-        <v>371</v>
+        <v>372</v>
+      </c>
+      <c r="I448" t="s" s="45">
+        <v>221</v>
       </c>
     </row>
     <row r="449">
@@ -9590,60 +9593,60 @@
       <c r="D449" s="35"/>
       <c r="E449" s="35"/>
       <c r="F449" s="35"/>
-      <c r="G449" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H449" t="s" s="20">
-        <v>372</v>
+      <c r="G449" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H449" t="s" s="41">
+        <v>315</v>
       </c>
       <c r="I449" t="s" s="45">
-        <v>221</v>
+        <v>18</v>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="35"/>
-      <c r="B450" s="35"/>
-      <c r="C450" s="35"/>
-      <c r="D450" s="35"/>
-      <c r="E450" s="35"/>
-      <c r="F450" s="35"/>
-      <c r="G450" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H450" t="s" s="41">
-        <v>315</v>
-      </c>
-      <c r="I450" t="s" s="45">
-        <v>18</v>
-      </c>
+      <c r="C450" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D450" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="E450" s="19"/>
+      <c r="F450" s="19"/>
     </row>
     <row r="451">
-      <c r="C451" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D451" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="E451" s="19"/>
-      <c r="F451" s="19"/>
+      <c r="C451" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D451" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E451" s="35"/>
+      <c r="F451" s="35"/>
+      <c r="G451" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H451" t="s" s="41">
+        <v>305</v>
+      </c>
+      <c r="I451" t="s" s="41">
+        <v>15</v>
+      </c>
     </row>
     <row r="452">
-      <c r="C452" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D452" s="35" t="s">
-        <v>373</v>
-      </c>
+      <c r="A452" s="35"/>
+      <c r="B452" s="35"/>
+      <c r="C452" s="35"/>
+      <c r="D452" s="35"/>
       <c r="E452" s="35"/>
       <c r="F452" s="35"/>
-      <c r="G452" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H452" t="s" s="41">
-        <v>305</v>
-      </c>
-      <c r="I452" t="s" s="41">
-        <v>15</v>
+      <c r="G452" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="H452" t="s" s="35">
+        <v>374</v>
+      </c>
+      <c r="I452" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="453">
@@ -9653,11 +9656,11 @@
       <c r="D453" s="35"/>
       <c r="E453" s="35"/>
       <c r="F453" s="35"/>
-      <c r="G453" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="H453" t="s" s="35">
-        <v>374</v>
+      <c r="G453" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H453" t="s" s="41">
+        <v>315</v>
       </c>
       <c r="I453" t="s" s="45">
         <v>18</v>
@@ -9670,62 +9673,63 @@
       <c r="D454" s="35"/>
       <c r="E454" s="35"/>
       <c r="F454" s="35"/>
-      <c r="G454" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H454" t="s" s="41">
-        <v>315</v>
-      </c>
-      <c r="I454" t="s" s="45">
-        <v>18</v>
+      <c r="G454" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H454" t="s" s="20">
+        <v>375</v>
+      </c>
+      <c r="I454" t="s" s="19">
+        <v>376</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="35"/>
-      <c r="B455" s="35"/>
-      <c r="C455" s="35"/>
-      <c r="D455" s="35"/>
-      <c r="E455" s="35"/>
-      <c r="F455" s="35"/>
-      <c r="G455" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H455" t="s" s="20">
-        <v>375</v>
-      </c>
-      <c r="I455" t="s" s="19">
-        <v>376</v>
-      </c>
+      <c r="D455" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E455" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="F455" s="19"/>
     </row>
     <row r="456">
-      <c r="D456" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="E456" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="F456" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="F456" s="19" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="457">
       <c r="E457" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F457" s="19" t="s">
-        <v>378</v>
+        <v>379</v>
+      </c>
+      <c r="G457" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H457" t="s" s="19">
+        <v>375</v>
+      </c>
+      <c r="I457" t="s" s="19">
+        <v>376</v>
       </c>
     </row>
     <row r="458">
+      <c r="D458" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="E458" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F458" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="G458" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H458" t="s" s="19">
-        <v>375</v>
+        <v>380</v>
+      </c>
+      <c r="F458" s="19"/>
+      <c r="G458" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H458" t="s" s="20">
+        <v>381</v>
       </c>
       <c r="I458" t="s" s="19">
         <v>376</v>
@@ -9736,27 +9740,27 @@
         <v>4</v>
       </c>
       <c r="E459" s="19" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F459" s="19"/>
-      <c r="G459" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H459" t="s" s="20">
-        <v>381</v>
-      </c>
-      <c r="I459" t="s" s="19">
-        <v>376</v>
+      <c r="G459" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H459" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="I459" t="s" s="41">
+        <v>103</v>
       </c>
     </row>
     <row r="460">
-      <c r="D460" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E460" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="F460" s="19"/>
+      <c r="D460" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E460" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="F460" s="41"/>
       <c r="G460" t="s" s="41">
         <v>0</v>
       </c>
@@ -9764,62 +9768,64 @@
         <v>37</v>
       </c>
       <c r="I460" t="s" s="41">
-        <v>103</v>
+        <v>384</v>
       </c>
     </row>
     <row r="461">
-      <c r="D461" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E461" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="F461" s="41"/>
-      <c r="G461" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H461" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I461" t="s" s="41">
-        <v>384</v>
-      </c>
+      <c r="D461" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E461" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="F461" s="19"/>
     </row>
     <row r="462">
+      <c r="C462" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="D462" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E462" s="19" t="s">
-        <v>385</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="E462" s="19"/>
       <c r="F462" s="19"/>
     </row>
     <row r="463">
-      <c r="C463" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D463" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="E463" s="19"/>
-      <c r="F463" s="19"/>
+      <c r="D463" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E463" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="F463" s="35"/>
+      <c r="J463" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K463" t="s" s="35">
+        <v>304</v>
+      </c>
+      <c r="L463" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="464">
-      <c r="D464" s="35" t="s">
+      <c r="A464" s="35"/>
+      <c r="B464" s="35"/>
+      <c r="C464" s="35"/>
+      <c r="D464" s="35"/>
+      <c r="E464" s="35"/>
+      <c r="F464" s="35"/>
+      <c r="G464" s="35"/>
+      <c r="H464" s="35"/>
+      <c r="I464" s="35"/>
+      <c r="J464" t="s" s="36">
         <v>60</v>
       </c>
-      <c r="E464" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="F464" s="35"/>
-      <c r="J464" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K464" t="s" s="35">
-        <v>304</v>
-      </c>
-      <c r="L464" t="s" s="11">
-        <v>6</v>
+      <c r="K464" t="s" s="36">
+        <v>319</v>
+      </c>
+      <c r="L464" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -9832,11 +9838,11 @@
       <c r="G465" s="35"/>
       <c r="H465" s="35"/>
       <c r="I465" s="35"/>
-      <c r="J465" t="s" s="36">
+      <c r="J465" t="s" s="35">
         <v>60</v>
       </c>
-      <c r="K465" t="s" s="36">
-        <v>319</v>
+      <c r="K465" t="s" s="35">
+        <v>308</v>
       </c>
       <c r="L465" t="s" s="17">
         <v>3</v>
@@ -9856,90 +9862,78 @@
         <v>60</v>
       </c>
       <c r="K466" t="s" s="35">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L466" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="35"/>
-      <c r="B467" s="35"/>
-      <c r="C467" s="35"/>
-      <c r="D467" s="35"/>
-      <c r="E467" s="35"/>
-      <c r="F467" s="35"/>
-      <c r="G467" s="35"/>
-      <c r="H467" s="35"/>
-      <c r="I467" s="35"/>
+      <c r="E467" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F467" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G467" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H467" t="s" s="41">
+        <v>309</v>
+      </c>
+      <c r="I467" t="s" s="35">
+        <v>321</v>
+      </c>
       <c r="J467" t="s" s="35">
         <v>60</v>
       </c>
       <c r="K467" t="s" s="35">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="L467" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="468">
-      <c r="E468" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F468" s="35" t="s">
-        <v>320</v>
+      <c r="E468" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="F468" s="31" t="s">
+        <v>324</v>
       </c>
       <c r="G468" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H468" t="s" s="41">
-        <v>309</v>
-      </c>
-      <c r="I468" t="s" s="35">
-        <v>321</v>
-      </c>
-      <c r="J468" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K468" t="s" s="35">
-        <v>322</v>
-      </c>
-      <c r="L468" t="s" s="17">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="I468" t="s" s="41">
+        <v>15</v>
       </c>
     </row>
     <row r="469">
-      <c r="E469" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="F469" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="G469" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H469" t="s" s="41">
-        <v>14</v>
-      </c>
-      <c r="I469" t="s" s="41">
-        <v>15</v>
+      <c r="A469" s="31"/>
+      <c r="B469" s="31"/>
+      <c r="C469" s="31"/>
+      <c r="D469" s="31"/>
+      <c r="E469" s="31"/>
+      <c r="F469" s="31"/>
+      <c r="G469" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H469" t="s" s="19">
+        <v>325</v>
+      </c>
+      <c r="I469" t="s" s="19">
+        <v>326</v>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="31"/>
-      <c r="B470" s="31"/>
-      <c r="C470" s="31"/>
-      <c r="D470" s="31"/>
-      <c r="E470" s="31"/>
-      <c r="F470" s="31"/>
-      <c r="G470" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H470" t="s" s="19">
-        <v>325</v>
-      </c>
-      <c r="I470" t="s" s="19">
-        <v>326</v>
+      <c r="E470" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F470" s="19" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="471">
@@ -9947,48 +9941,48 @@
         <v>4</v>
       </c>
       <c r="F471" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="E472" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F472" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="G472" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="H472" t="s" s="35">
+        <v>330</v>
+      </c>
+      <c r="I472" t="s" s="35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="E473" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F473" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="E474" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F474" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="E475" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F475" s="19" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="E472" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F472" s="19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="E473" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F473" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="G473" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="H473" t="s" s="35">
-        <v>330</v>
-      </c>
-      <c r="I473" t="s" s="35">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="E474" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F474" s="19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="E475" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F475" s="41" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="476">
@@ -9996,51 +9990,63 @@
         <v>4</v>
       </c>
       <c r="F476" s="19" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="477">
+      <c r="D477" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="E477" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F477" s="19" t="s">
-        <v>334</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="F477" s="19"/>
     </row>
     <row r="478">
-      <c r="D478" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E478" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="F478" s="19"/>
+      <c r="D478" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E478" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="F478" s="35"/>
+      <c r="G478" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H478" t="s" s="41">
+        <v>315</v>
+      </c>
+      <c r="I478" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J478" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K478" t="s" s="35">
+        <v>339</v>
+      </c>
+      <c r="L478" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="479">
-      <c r="D479" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E479" s="35" t="s">
-        <v>338</v>
-      </c>
+      <c r="A479" s="35"/>
+      <c r="B479" s="35"/>
+      <c r="C479" s="35"/>
+      <c r="D479" s="35"/>
+      <c r="E479" s="35"/>
       <c r="F479" s="35"/>
-      <c r="G479" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H479" t="s" s="41">
-        <v>315</v>
-      </c>
-      <c r="I479" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J479" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K479" t="s" s="35">
-        <v>339</v>
-      </c>
-      <c r="L479" t="s" s="17">
-        <v>3</v>
+      <c r="G479" s="35"/>
+      <c r="H479" s="35"/>
+      <c r="I479" s="35"/>
+      <c r="J479" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K479" t="s" s="19">
+        <v>340</v>
+      </c>
+      <c r="L479" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="480">
@@ -10053,14 +10059,14 @@
       <c r="G480" s="35"/>
       <c r="H480" s="35"/>
       <c r="I480" s="35"/>
-      <c r="J480" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K480" t="s" s="19">
-        <v>340</v>
-      </c>
-      <c r="L480" t="s" s="11">
-        <v>6</v>
+      <c r="J480" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K480" t="s" s="35">
+        <v>341</v>
+      </c>
+      <c r="L480" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -10073,77 +10079,65 @@
       <c r="G481" s="35"/>
       <c r="H481" s="35"/>
       <c r="I481" s="35"/>
-      <c r="J481" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K481" t="s" s="35">
-        <v>341</v>
+      <c r="J481" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K481" t="s" s="41">
+        <v>342</v>
       </c>
       <c r="L481" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="35"/>
-      <c r="B482" s="35"/>
-      <c r="C482" s="35"/>
-      <c r="D482" s="35"/>
-      <c r="E482" s="35"/>
-      <c r="F482" s="35"/>
-      <c r="G482" s="35"/>
-      <c r="H482" s="35"/>
-      <c r="I482" s="35"/>
-      <c r="J482" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K482" t="s" s="41">
-        <v>342</v>
-      </c>
-      <c r="L482" t="s" s="17">
-        <v>3</v>
+      <c r="E482" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F482" s="35" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="483">
-      <c r="E483" s="35" t="s">
+      <c r="D483" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E483" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="F483" s="19"/>
+    </row>
+    <row r="484">
+      <c r="D484" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F483" s="35" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="D484" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E484" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="F484" s="19"/>
+      <c r="E484" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="F484" s="35"/>
+      <c r="G484" t="s" s="25">
+        <v>346</v>
+      </c>
+      <c r="H484" t="s" s="25">
+        <v>347</v>
+      </c>
+      <c r="I484" t="s" s="35">
+        <v>62</v>
+      </c>
     </row>
     <row r="485">
-      <c r="D485" s="35" t="s">
+      <c r="E485" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F485" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="E486" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E485" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="F485" s="35"/>
-      <c r="G485" t="s" s="25">
-        <v>346</v>
-      </c>
-      <c r="H485" t="s" s="25">
-        <v>347</v>
-      </c>
-      <c r="I485" t="s" s="35">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="E486" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F486" s="19" t="s">
-        <v>348</v>
+      <c r="F486" s="35" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="487">
@@ -10151,107 +10145,108 @@
         <v>60</v>
       </c>
       <c r="F487" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
+      </c>
+      <c r="G487" t="s" s="25">
+        <v>346</v>
+      </c>
+      <c r="H487" t="s" s="25">
+        <v>347</v>
+      </c>
+      <c r="I487" t="s" s="35">
+        <v>351</v>
+      </c>
+      <c r="J487" t="s" s="36">
+        <v>60</v>
+      </c>
+      <c r="K487" t="s" s="36">
+        <v>319</v>
+      </c>
+      <c r="L487" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
-      <c r="E488" s="35" t="s">
+      <c r="D488" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E488" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="F488" s="19"/>
+    </row>
+    <row r="489">
+      <c r="D489" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F488" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="G488" t="s" s="25">
-        <v>346</v>
-      </c>
-      <c r="H488" t="s" s="25">
-        <v>347</v>
-      </c>
-      <c r="I488" t="s" s="35">
-        <v>351</v>
-      </c>
-      <c r="J488" t="s" s="36">
+      <c r="E489" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="F489" s="35"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="K488" t="s" s="36">
-        <v>319</v>
-      </c>
-      <c r="L488" t="s" s="17">
+      <c r="D490" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="E490" s="35"/>
+      <c r="F490" s="35"/>
+      <c r="G490" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H490" t="s" s="20">
+        <v>392</v>
+      </c>
+      <c r="I490" t="s" s="45">
+        <v>221</v>
+      </c>
+      <c r="J490" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K490" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L490" t="s" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="489">
-      <c r="D489" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E489" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="F489" s="19"/>
-    </row>
-    <row r="490">
-      <c r="D490" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E490" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="F490" s="35"/>
-    </row>
     <row r="491">
-      <c r="C491" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D491" s="35" t="s">
-        <v>391</v>
-      </c>
+      <c r="A491" s="35"/>
+      <c r="B491" s="35"/>
+      <c r="C491" s="35"/>
+      <c r="D491" s="35"/>
       <c r="E491" s="35"/>
       <c r="F491" s="35"/>
-      <c r="G491" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H491" t="s" s="20">
-        <v>392</v>
-      </c>
-      <c r="I491" t="s" s="45">
-        <v>221</v>
-      </c>
+      <c r="G491" s="35"/>
+      <c r="H491" s="35"/>
+      <c r="I491" s="35"/>
       <c r="J491" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K491" t="s" s="41">
-        <v>2</v>
+        <v>342</v>
       </c>
       <c r="L491" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="35"/>
-      <c r="B492" s="35"/>
-      <c r="C492" s="35"/>
-      <c r="D492" s="35"/>
-      <c r="E492" s="35"/>
-      <c r="F492" s="35"/>
-      <c r="G492" s="35"/>
-      <c r="H492" s="35"/>
-      <c r="I492" s="35"/>
-      <c r="J492" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K492" t="s" s="41">
-        <v>342</v>
-      </c>
-      <c r="L492" t="s" s="17">
-        <v>3</v>
-      </c>
+      <c r="D492" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E492" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="F492" s="19"/>
     </row>
     <row r="493">
       <c r="D493" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E493" s="19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F493" s="19"/>
     </row>
@@ -10260,7 +10255,7 @@
         <v>4</v>
       </c>
       <c r="E494" s="19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F494" s="19"/>
     </row>
@@ -10269,7 +10264,7 @@
         <v>4</v>
       </c>
       <c r="E495" s="19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F495" s="19"/>
     </row>
@@ -10278,36 +10273,53 @@
         <v>4</v>
       </c>
       <c r="E496" s="19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F496" s="19"/>
     </row>
     <row r="497">
-      <c r="D497" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E497" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="F497" s="19"/>
+      <c r="C497" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D497" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="E497" s="35"/>
+      <c r="F497" s="35"/>
     </row>
     <row r="498">
-      <c r="C498" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D498" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="E498" s="35"/>
-      <c r="F498" s="35"/>
+      <c r="A498" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B498" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="C498" s="19"/>
+      <c r="D498" s="19"/>
+      <c r="E498" s="19"/>
+      <c r="F498" s="19"/>
+      <c r="G498" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H498" t="s" s="19">
+        <v>437</v>
+      </c>
+      <c r="I498" t="s" s="19">
+        <v>438</v>
+      </c>
+      <c r="J498" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K498" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L498" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="499">
-      <c r="A499" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B499" s="19" t="s">
-        <v>470</v>
-      </c>
+      <c r="A499" s="19"/>
+      <c r="B499" s="19"/>
       <c r="C499" s="19"/>
       <c r="D499" s="19"/>
       <c r="E499" s="19"/>
@@ -10316,16 +10328,16 @@
         <v>4</v>
       </c>
       <c r="H499" t="s" s="19">
-        <v>437</v>
-      </c>
-      <c r="I499" t="s" s="19">
-        <v>438</v>
+        <v>121</v>
+      </c>
+      <c r="I499" t="s" s="13">
+        <v>95</v>
       </c>
       <c r="J499" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K499" t="s" s="41">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L499" t="s" s="17">
         <v>3</v>
@@ -10338,23 +10350,23 @@
       <c r="D500" s="19"/>
       <c r="E500" s="19"/>
       <c r="F500" s="19"/>
-      <c r="G500" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H500" t="s" s="19">
-        <v>121</v>
-      </c>
-      <c r="I500" t="s" s="13">
-        <v>95</v>
+      <c r="G500" t="s" s="25">
+        <v>346</v>
+      </c>
+      <c r="H500" t="s" s="25">
+        <v>347</v>
+      </c>
+      <c r="I500" t="s" s="19">
+        <v>470</v>
       </c>
       <c r="J500" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K500" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="L500" t="s" s="17">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="L500" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="501">
@@ -10364,20 +10376,20 @@
       <c r="D501" s="19"/>
       <c r="E501" s="19"/>
       <c r="F501" s="19"/>
-      <c r="G501" t="s" s="25">
-        <v>346</v>
-      </c>
-      <c r="H501" t="s" s="25">
-        <v>347</v>
-      </c>
-      <c r="I501" t="s" s="19">
+      <c r="G501" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H501" t="s" s="20">
         <v>471</v>
       </c>
+      <c r="I501" t="s" s="35">
+        <v>128</v>
+      </c>
       <c r="J501" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K501" t="s" s="41">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L501" t="s" s="11">
         <v>6</v>
@@ -10390,20 +10402,20 @@
       <c r="D502" s="19"/>
       <c r="E502" s="19"/>
       <c r="F502" s="19"/>
-      <c r="G502" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H502" t="s" s="20">
+      <c r="G502" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H502" t="s" s="19">
         <v>472</v>
       </c>
-      <c r="I502" t="s" s="35">
-        <v>128</v>
-      </c>
-      <c r="J502" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K502" t="s" s="41">
-        <v>56</v>
+      <c r="I502" t="s" s="19">
+        <v>473</v>
+      </c>
+      <c r="J502" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K502" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L502" t="s" s="11">
         <v>6</v>
@@ -10420,19 +10432,10 @@
         <v>4</v>
       </c>
       <c r="H503" t="s" s="19">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I503" t="s" s="19">
-        <v>474</v>
-      </c>
-      <c r="J503" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K503" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L503" t="s" s="11">
-        <v>6</v>
+        <v>446</v>
       </c>
     </row>
     <row r="504">
@@ -10442,14 +10445,14 @@
       <c r="D504" s="19"/>
       <c r="E504" s="19"/>
       <c r="F504" s="19"/>
-      <c r="G504" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H504" t="s" s="19">
-        <v>475</v>
-      </c>
-      <c r="I504" t="s" s="19">
-        <v>446</v>
+      <c r="G504" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="H504" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="I504" t="s" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="505">
@@ -10459,14 +10462,14 @@
       <c r="D505" s="19"/>
       <c r="E505" s="19"/>
       <c r="F505" s="19"/>
-      <c r="G505" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="H505" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="I505" t="s" s="5">
-        <v>55</v>
+      <c r="G505" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H505" t="s" s="19">
+        <v>475</v>
+      </c>
+      <c r="I505" t="s" s="19">
+        <v>376</v>
       </c>
     </row>
     <row r="506">
@@ -10480,10 +10483,10 @@
         <v>4</v>
       </c>
       <c r="H506" t="s" s="19">
+        <v>149</v>
+      </c>
+      <c r="I506" t="s" s="19">
         <v>476</v>
-      </c>
-      <c r="I506" t="s" s="19">
-        <v>376</v>
       </c>
     </row>
     <row r="507">
@@ -10493,14 +10496,14 @@
       <c r="D507" s="19"/>
       <c r="E507" s="19"/>
       <c r="F507" s="19"/>
-      <c r="G507" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H507" t="s" s="19">
-        <v>149</v>
+      <c r="G507" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H507" t="s" s="41">
+        <v>105</v>
       </c>
       <c r="I507" t="s" s="19">
-        <v>477</v>
+        <v>455</v>
       </c>
     </row>
     <row r="508">
@@ -10514,10 +10517,10 @@
         <v>0</v>
       </c>
       <c r="H508" t="s" s="41">
-        <v>105</v>
-      </c>
-      <c r="I508" t="s" s="19">
-        <v>456</v>
+        <v>37</v>
+      </c>
+      <c r="I508" t="s" s="15">
+        <v>48</v>
       </c>
     </row>
     <row r="509">
@@ -10527,80 +10530,74 @@
       <c r="D509" s="19"/>
       <c r="E509" s="19"/>
       <c r="F509" s="19"/>
-      <c r="G509" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H509" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I509" t="s" s="15">
-        <v>48</v>
+      <c r="G509" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H509" t="s" s="19">
+        <v>190</v>
+      </c>
+      <c r="I509" t="s" s="19">
+        <v>477</v>
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="19"/>
-      <c r="B510" s="19"/>
-      <c r="C510" s="19"/>
+      <c r="B510" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C510" s="19" t="s">
+        <v>478</v>
+      </c>
       <c r="D510" s="19"/>
       <c r="E510" s="19"/>
       <c r="F510" s="19"/>
-      <c r="G510" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H510" t="s" s="19">
-        <v>190</v>
+      <c r="G510" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H510" t="s" s="20">
+        <v>475</v>
       </c>
       <c r="I510" t="s" s="19">
-        <v>478</v>
+        <v>376</v>
       </c>
     </row>
     <row r="511">
-      <c r="B511" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C511" s="19" t="s">
+      <c r="A511" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B511" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D511" s="19"/>
-      <c r="E511" s="19"/>
-      <c r="F511" s="19"/>
+      <c r="C511" s="21"/>
+      <c r="D511" s="21"/>
+      <c r="E511" s="21"/>
+      <c r="F511" s="21"/>
       <c r="G511" t="s" s="20">
         <v>4</v>
       </c>
       <c r="H511" t="s" s="20">
-        <v>476</v>
-      </c>
-      <c r="I511" t="s" s="19">
-        <v>376</v>
+        <v>480</v>
+      </c>
+      <c r="I511" t="s" s="45">
+        <v>12</v>
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="21" t="s">
+      <c r="B512" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B512" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="C512" s="21"/>
+      <c r="C512" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="D512" s="21"/>
       <c r="E512" s="21"/>
       <c r="F512" s="21"/>
-      <c r="G512" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H512" t="s" s="20">
-        <v>481</v>
-      </c>
-      <c r="I512" t="s" s="45">
-        <v>12</v>
-      </c>
     </row>
     <row r="513">
       <c r="B513" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C513" s="21" t="s">
-        <v>107</v>
+        <v>481</v>
       </c>
       <c r="D513" s="21"/>
       <c r="E513" s="21"/>
@@ -10622,85 +10619,94 @@
         <v>58</v>
       </c>
       <c r="C515" s="21" t="s">
-        <v>483</v>
+        <v>111</v>
       </c>
       <c r="D515" s="21"/>
       <c r="E515" s="21"/>
       <c r="F515" s="21"/>
     </row>
     <row r="516">
-      <c r="B516" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C516" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D516" s="21"/>
-      <c r="E516" s="21"/>
-      <c r="F516" s="21"/>
+      <c r="A516" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="B516" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="C516" s="27"/>
+      <c r="D516" s="27"/>
+      <c r="E516" s="27"/>
+      <c r="F516" s="27"/>
     </row>
     <row r="517">
-      <c r="A517" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="B517" s="27" t="s">
+      <c r="A517" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B517" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="C517" s="27"/>
-      <c r="D517" s="27"/>
-      <c r="E517" s="27"/>
-      <c r="F517" s="27"/>
+      <c r="C517" s="19"/>
+      <c r="D517" s="19"/>
+      <c r="E517" s="19"/>
+      <c r="F517" s="19"/>
+      <c r="G517" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H517" t="s" s="19">
+        <v>486</v>
+      </c>
+      <c r="I517" t="s" s="19">
+        <v>476</v>
+      </c>
+      <c r="J517" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K517" t="s" s="19">
+        <v>487</v>
+      </c>
+      <c r="L517" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="518">
-      <c r="A518" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="B518" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="C518" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="C518" s="19" t="s">
+        <v>488</v>
+      </c>
       <c r="D518" s="19"/>
       <c r="E518" s="19"/>
       <c r="F518" s="19"/>
-      <c r="G518" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H518" t="s" s="19">
-        <v>487</v>
-      </c>
-      <c r="I518" t="s" s="19">
-        <v>477</v>
-      </c>
-      <c r="J518" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K518" t="s" s="19">
-        <v>488</v>
-      </c>
-      <c r="L518" t="s" s="11">
-        <v>6</v>
-      </c>
     </row>
     <row r="519">
-      <c r="B519" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="C519" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D519" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="D519" s="19"/>
       <c r="E519" s="19"/>
       <c r="F519" s="19"/>
+      <c r="J519" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K519" t="s" s="20">
+        <v>490</v>
+      </c>
+      <c r="L519" t="s" s="11">
+        <v>110</v>
+      </c>
     </row>
     <row r="520">
-      <c r="C520" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D520" s="19" t="s">
-        <v>490</v>
-      </c>
+      <c r="A520" s="19"/>
+      <c r="B520" s="19"/>
+      <c r="C520" s="19"/>
+      <c r="D520" s="19"/>
       <c r="E520" s="19"/>
       <c r="F520" s="19"/>
+      <c r="G520" s="19"/>
+      <c r="H520" s="19"/>
+      <c r="I520" s="19"/>
       <c r="J520" t="s" s="20">
         <v>4</v>
       </c>
@@ -10708,37 +10714,37 @@
         <v>491</v>
       </c>
       <c r="L520" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="D521" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E521" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="F521" s="19"/>
+      <c r="J521" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K521" t="s" s="19">
+        <v>490</v>
+      </c>
+      <c r="L521" t="s" s="11">
         <v>110</v>
       </c>
     </row>
-    <row r="521">
-      <c r="A521" s="19"/>
-      <c r="B521" s="19"/>
-      <c r="C521" s="19"/>
-      <c r="D521" s="19"/>
-      <c r="E521" s="19"/>
-      <c r="F521" s="19"/>
-      <c r="G521" s="19"/>
-      <c r="H521" s="19"/>
-      <c r="I521" s="19"/>
-      <c r="J521" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K521" t="s" s="20">
-        <v>492</v>
-      </c>
-      <c r="L521" t="s" s="11">
-        <v>6</v>
-      </c>
-    </row>
     <row r="522">
-      <c r="D522" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E522" s="19" t="s">
-        <v>493</v>
-      </c>
+      <c r="A522" s="19"/>
+      <c r="B522" s="19"/>
+      <c r="C522" s="19"/>
+      <c r="D522" s="19"/>
+      <c r="E522" s="19"/>
       <c r="F522" s="19"/>
+      <c r="G522" s="19"/>
+      <c r="H522" s="19"/>
+      <c r="I522" s="19"/>
       <c r="J522" t="s" s="19">
         <v>4</v>
       </c>
@@ -10746,47 +10752,50 @@
         <v>491</v>
       </c>
       <c r="L522" t="s" s="11">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="19"/>
-      <c r="B523" s="19"/>
-      <c r="C523" s="19"/>
+      <c r="B523" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C523" s="19" t="s">
+        <v>493</v>
+      </c>
       <c r="D523" s="19"/>
       <c r="E523" s="19"/>
       <c r="F523" s="19"/>
-      <c r="G523" s="19"/>
-      <c r="H523" s="19"/>
-      <c r="I523" s="19"/>
       <c r="J523" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K523" t="s" s="19">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L523" t="s" s="11">
-        <v>6</v>
+        <v>495</v>
       </c>
     </row>
     <row r="524">
-      <c r="B524" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C524" s="19" t="s">
-        <v>494</v>
-      </c>
+      <c r="A524" s="19"/>
+      <c r="B524" s="19"/>
+      <c r="C524" s="19"/>
       <c r="D524" s="19"/>
       <c r="E524" s="19"/>
       <c r="F524" s="19"/>
-      <c r="J524" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K524" t="s" s="19">
-        <v>495</v>
+      <c r="G524" s="19"/>
+      <c r="H524" s="19"/>
+      <c r="I524" s="19"/>
+      <c r="J524" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K524" t="s" s="20">
+        <v>496</v>
       </c>
       <c r="L524" t="s" s="11">
-        <v>496</v>
+        <v>6</v>
+      </c>
+      <c r="M524" t="s" s="11">
+        <v>497</v>
       </c>
     </row>
     <row r="525">
@@ -10799,87 +10808,90 @@
       <c r="G525" s="19"/>
       <c r="H525" s="19"/>
       <c r="I525" s="19"/>
-      <c r="J525" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K525" t="s" s="20">
-        <v>497</v>
+      <c r="J525" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K525" t="s" s="19">
+        <v>498</v>
       </c>
       <c r="L525" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="M525" t="s" s="11">
-        <v>498</v>
-      </c>
     </row>
     <row r="526">
-      <c r="A526" s="19"/>
-      <c r="B526" s="19"/>
-      <c r="C526" s="19"/>
+      <c r="B526" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C526" s="19" t="s">
+        <v>499</v>
+      </c>
       <c r="D526" s="19"/>
       <c r="E526" s="19"/>
       <c r="F526" s="19"/>
-      <c r="G526" s="19"/>
-      <c r="H526" s="19"/>
-      <c r="I526" s="19"/>
-      <c r="J526" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K526" t="s" s="19">
-        <v>499</v>
-      </c>
-      <c r="L526" t="s" s="11">
-        <v>6</v>
-      </c>
     </row>
     <row r="527">
-      <c r="B527" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C527" s="19" t="s">
+      <c r="A527" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B527" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="D527" s="19"/>
-      <c r="E527" s="19"/>
-      <c r="F527" s="19"/>
+      <c r="C527" s="21"/>
+      <c r="D527" s="21"/>
+      <c r="E527" s="21"/>
+      <c r="F527" s="21"/>
     </row>
     <row r="528">
-      <c r="A528" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B528" s="21" t="s">
+      <c r="A528" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B528" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="C528" s="21"/>
-      <c r="D528" s="21"/>
-      <c r="E528" s="21"/>
-      <c r="F528" s="21"/>
+      <c r="C528" s="41"/>
+      <c r="D528" s="41"/>
+      <c r="E528" s="41"/>
+      <c r="F528" s="41"/>
+      <c r="G528" t="s" s="43">
+        <v>68</v>
+      </c>
+      <c r="H528" t="s" s="43">
+        <v>112</v>
+      </c>
+      <c r="I528" t="s" s="41">
+        <v>103</v>
+      </c>
+      <c r="J528" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K528" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L528" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="529">
-      <c r="A529" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B529" s="41" t="s">
-        <v>502</v>
-      </c>
+      <c r="A529" s="41"/>
+      <c r="B529" s="41"/>
       <c r="C529" s="41"/>
       <c r="D529" s="41"/>
       <c r="E529" s="41"/>
       <c r="F529" s="41"/>
-      <c r="G529" t="s" s="43">
-        <v>68</v>
-      </c>
-      <c r="H529" t="s" s="43">
-        <v>112</v>
-      </c>
-      <c r="I529" t="s" s="41">
-        <v>103</v>
+      <c r="G529" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H529" t="s" s="20">
+        <v>502</v>
+      </c>
+      <c r="I529" t="s" s="45">
+        <v>12</v>
       </c>
       <c r="J529" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K529" t="s" s="41">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L529" t="s" s="17">
         <v>3</v>
@@ -10892,23 +10904,23 @@
       <c r="D530" s="41"/>
       <c r="E530" s="41"/>
       <c r="F530" s="41"/>
-      <c r="G530" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H530" t="s" s="20">
+      <c r="G530" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H530" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I530" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="J530" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K530" t="s" s="19">
         <v>503</v>
       </c>
-      <c r="I530" t="s" s="45">
-        <v>12</v>
-      </c>
-      <c r="J530" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K530" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="L530" t="s" s="17">
-        <v>3</v>
+      <c r="L530" t="s" s="11">
+        <v>117</v>
       </c>
     </row>
     <row r="531">
@@ -10918,23 +10930,23 @@
       <c r="D531" s="41"/>
       <c r="E531" s="41"/>
       <c r="F531" s="41"/>
-      <c r="G531" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H531" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I531" t="s" s="41">
-        <v>51</v>
-      </c>
-      <c r="J531" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K531" t="s" s="19">
-        <v>504</v>
+      <c r="G531" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H531" t="s" s="19">
+        <v>437</v>
+      </c>
+      <c r="I531" t="s" s="19">
+        <v>438</v>
+      </c>
+      <c r="J531" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K531" t="s" s="41">
+        <v>52</v>
       </c>
       <c r="L531" t="s" s="11">
-        <v>117</v>
+        <v>6</v>
       </c>
     </row>
     <row r="532">
@@ -10948,16 +10960,16 @@
         <v>4</v>
       </c>
       <c r="H532" t="s" s="19">
-        <v>437</v>
+        <v>177</v>
       </c>
       <c r="I532" t="s" s="19">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="J532" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K532" t="s" s="41">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L532" t="s" s="11">
         <v>6</v>
@@ -10974,19 +10986,19 @@
         <v>4</v>
       </c>
       <c r="H533" t="s" s="19">
-        <v>177</v>
+        <v>505</v>
       </c>
       <c r="I533" t="s" s="19">
-        <v>505</v>
-      </c>
-      <c r="J533" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K533" t="s" s="41">
-        <v>56</v>
+        <v>506</v>
+      </c>
+      <c r="J533" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K533" t="s" s="20">
+        <v>507</v>
       </c>
       <c r="L533" t="s" s="11">
-        <v>6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="534">
@@ -11000,19 +11012,19 @@
         <v>4</v>
       </c>
       <c r="H534" t="s" s="19">
-        <v>506</v>
-      </c>
-      <c r="I534" t="s" s="19">
-        <v>507</v>
-      </c>
-      <c r="J534" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K534" t="s" s="20">
-        <v>508</v>
+        <v>121</v>
+      </c>
+      <c r="I534" t="s" s="13">
+        <v>95</v>
+      </c>
+      <c r="J534" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K534" t="s" s="19">
+        <v>366</v>
       </c>
       <c r="L534" t="s" s="11">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="535">
@@ -11026,19 +11038,19 @@
         <v>4</v>
       </c>
       <c r="H535" t="s" s="19">
-        <v>121</v>
-      </c>
-      <c r="I535" t="s" s="13">
-        <v>95</v>
+        <v>508</v>
+      </c>
+      <c r="I535" t="s" s="19">
+        <v>509</v>
       </c>
       <c r="J535" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K535" t="s" s="19">
-        <v>366</v>
+        <v>510</v>
       </c>
       <c r="L535" t="s" s="11">
-        <v>6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="536">
@@ -11052,19 +11064,19 @@
         <v>4</v>
       </c>
       <c r="H536" t="s" s="19">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="I536" t="s" s="19">
-        <v>510</v>
-      </c>
-      <c r="J536" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K536" t="s" s="19">
+        <v>446</v>
+      </c>
+      <c r="J536" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K536" t="s" s="20">
         <v>511</v>
       </c>
       <c r="L536" t="s" s="11">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="537">
@@ -11074,14 +11086,14 @@
       <c r="D537" s="41"/>
       <c r="E537" s="41"/>
       <c r="F537" s="41"/>
-      <c r="G537" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H537" t="s" s="19">
-        <v>475</v>
-      </c>
-      <c r="I537" t="s" s="19">
-        <v>446</v>
+      <c r="G537" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="H537" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="I537" t="s" s="5">
+        <v>55</v>
       </c>
       <c r="J537" t="s" s="20">
         <v>4</v>
@@ -11090,7 +11102,7 @@
         <v>512</v>
       </c>
       <c r="L537" t="s" s="11">
-        <v>6</v>
+        <v>513</v>
       </c>
     </row>
     <row r="538">
@@ -11100,23 +11112,23 @@
       <c r="D538" s="41"/>
       <c r="E538" s="41"/>
       <c r="F538" s="41"/>
-      <c r="G538" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="H538" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="I538" t="s" s="5">
-        <v>55</v>
+      <c r="G538" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H538" t="s" s="19">
+        <v>129</v>
+      </c>
+      <c r="I538" t="s" s="19">
+        <v>130</v>
       </c>
       <c r="J538" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K538" t="s" s="20">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L538" t="s" s="11">
-        <v>514</v>
+        <v>6</v>
       </c>
     </row>
     <row r="539">
@@ -11130,10 +11142,10 @@
         <v>4</v>
       </c>
       <c r="H539" t="s" s="19">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="I539" t="s" s="19">
-        <v>130</v>
+        <v>476</v>
       </c>
       <c r="J539" t="s" s="20">
         <v>4</v>
@@ -11142,7 +11154,7 @@
         <v>515</v>
       </c>
       <c r="L539" t="s" s="11">
-        <v>6</v>
+        <v>368</v>
       </c>
     </row>
     <row r="540">
@@ -11156,19 +11168,19 @@
         <v>4</v>
       </c>
       <c r="H540" t="s" s="19">
-        <v>149</v>
+        <v>516</v>
       </c>
       <c r="I540" t="s" s="19">
-        <v>477</v>
-      </c>
-      <c r="J540" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K540" t="s" s="20">
-        <v>516</v>
+        <v>376</v>
+      </c>
+      <c r="J540" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K540" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L540" t="s" s="11">
-        <v>368</v>
+        <v>6</v>
       </c>
     </row>
     <row r="541">
@@ -11178,23 +11190,14 @@
       <c r="D541" s="41"/>
       <c r="E541" s="41"/>
       <c r="F541" s="41"/>
-      <c r="G541" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H541" t="s" s="19">
+      <c r="G541" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H541" t="s" s="41">
+        <v>105</v>
+      </c>
+      <c r="I541" t="s" s="41">
         <v>517</v>
-      </c>
-      <c r="I541" t="s" s="19">
-        <v>376</v>
-      </c>
-      <c r="J541" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K541" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L541" t="s" s="11">
-        <v>6</v>
       </c>
     </row>
     <row r="542">
@@ -11208,10 +11211,10 @@
         <v>0</v>
       </c>
       <c r="H542" t="s" s="41">
-        <v>105</v>
-      </c>
-      <c r="I542" t="s" s="41">
-        <v>518</v>
+        <v>37</v>
+      </c>
+      <c r="I542" t="s" s="15">
+        <v>48</v>
       </c>
     </row>
     <row r="543">
@@ -11221,44 +11224,47 @@
       <c r="D543" s="41"/>
       <c r="E543" s="41"/>
       <c r="F543" s="41"/>
-      <c r="G543" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H543" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I543" t="s" s="15">
-        <v>48</v>
+      <c r="G543" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H543" t="s" s="19">
+        <v>190</v>
+      </c>
+      <c r="I543" t="s" s="19">
+        <v>518</v>
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="41"/>
-      <c r="B544" s="41"/>
-      <c r="C544" s="41"/>
-      <c r="D544" s="41"/>
-      <c r="E544" s="41"/>
-      <c r="F544" s="41"/>
-      <c r="G544" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H544" t="s" s="19">
-        <v>190</v>
-      </c>
-      <c r="I544" t="s" s="19">
+      <c r="A544" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B544" s="19" t="s">
         <v>519</v>
       </c>
+      <c r="C544" s="19"/>
+      <c r="D544" s="19"/>
+      <c r="E544" s="19"/>
+      <c r="F544" s="19"/>
+      <c r="J544" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K544" t="s" s="20">
+        <v>520</v>
+      </c>
+      <c r="L544" t="s" s="11">
+        <v>368</v>
+      </c>
     </row>
     <row r="545">
-      <c r="A545" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B545" s="19" t="s">
-        <v>520</v>
-      </c>
+      <c r="A545" s="19"/>
+      <c r="B545" s="19"/>
       <c r="C545" s="19"/>
       <c r="D545" s="19"/>
       <c r="E545" s="19"/>
       <c r="F545" s="19"/>
+      <c r="G545" s="19"/>
+      <c r="H545" s="19"/>
+      <c r="I545" s="19"/>
       <c r="J545" t="s" s="20">
         <v>4</v>
       </c>
@@ -11266,59 +11272,56 @@
         <v>521</v>
       </c>
       <c r="L545" t="s" s="11">
-        <v>368</v>
+        <v>6</v>
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="19"/>
-      <c r="B546" s="19"/>
-      <c r="C546" s="19"/>
-      <c r="D546" s="19"/>
-      <c r="E546" s="19"/>
-      <c r="F546" s="19"/>
-      <c r="G546" s="19"/>
-      <c r="H546" s="19"/>
-      <c r="I546" s="19"/>
-      <c r="J546" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K546" t="s" s="20">
+      <c r="A546" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B546" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="L546" t="s" s="11">
-        <v>6</v>
-      </c>
+      <c r="C546" s="41"/>
+      <c r="D546" s="41"/>
+      <c r="E546" s="41"/>
+      <c r="F546" s="41"/>
     </row>
     <row r="547">
-      <c r="A547" s="41" t="s">
-        <v>0</v>
-      </c>
       <c r="B547" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C547" s="41" t="s">
         <v>523</v>
       </c>
-      <c r="C547" s="41"/>
       <c r="D547" s="41"/>
       <c r="E547" s="41"/>
       <c r="F547" s="41"/>
+      <c r="G547" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H547" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I547" t="s" s="41">
+        <v>51</v>
+      </c>
     </row>
     <row r="548">
-      <c r="B548" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C548" s="41" t="s">
-        <v>524</v>
-      </c>
+      <c r="A548" s="41"/>
+      <c r="B548" s="41"/>
+      <c r="C548" s="41"/>
       <c r="D548" s="41"/>
       <c r="E548" s="41"/>
       <c r="F548" s="41"/>
-      <c r="G548" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H548" t="s" s="41">
-        <v>50</v>
+      <c r="G548" t="s" s="42">
+        <v>0</v>
+      </c>
+      <c r="H548" t="s" s="42">
+        <v>524</v>
       </c>
       <c r="I548" t="s" s="41">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="549">
@@ -11328,14 +11331,14 @@
       <c r="D549" s="41"/>
       <c r="E549" s="41"/>
       <c r="F549" s="41"/>
-      <c r="G549" t="s" s="42">
-        <v>0</v>
-      </c>
-      <c r="H549" t="s" s="42">
-        <v>525</v>
-      </c>
-      <c r="I549" t="s" s="41">
-        <v>70</v>
+      <c r="G549" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H549" t="s" s="41">
+        <v>19</v>
+      </c>
+      <c r="I549" t="s" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="550">
@@ -11349,28 +11352,21 @@
         <v>0</v>
       </c>
       <c r="H550" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="I550" t="s" s="7">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="I550" t="s" s="41">
+        <v>525</v>
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="41"/>
-      <c r="B551" s="41"/>
-      <c r="C551" s="41"/>
-      <c r="D551" s="41"/>
+      <c r="C551" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D551" s="41" t="s">
+        <v>526</v>
+      </c>
       <c r="E551" s="41"/>
       <c r="F551" s="41"/>
-      <c r="G551" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H551" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I551" t="s" s="41">
-        <v>526</v>
-      </c>
     </row>
     <row r="552">
       <c r="C552" s="41" t="s">
@@ -11403,22 +11399,29 @@
       <c r="F554" s="41"/>
     </row>
     <row r="555">
-      <c r="C555" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D555" s="41" t="s">
+      <c r="B555" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C555" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="E555" s="41"/>
-      <c r="F555" s="41"/>
+      <c r="D555" s="19"/>
+      <c r="E555" s="19"/>
+      <c r="F555" s="19"/>
+      <c r="G555" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H555" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I555" t="s" s="41">
+        <v>51</v>
+      </c>
     </row>
     <row r="556">
-      <c r="B556" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C556" s="19" t="s">
-        <v>531</v>
-      </c>
+      <c r="A556" s="19"/>
+      <c r="B556" s="19"/>
+      <c r="C556" s="19"/>
       <c r="D556" s="19"/>
       <c r="E556" s="19"/>
       <c r="F556" s="19"/>
@@ -11426,10 +11429,10 @@
         <v>0</v>
       </c>
       <c r="H556" t="s" s="41">
-        <v>50</v>
+        <v>305</v>
       </c>
       <c r="I556" t="s" s="41">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="557">
@@ -11443,47 +11446,47 @@
         <v>0</v>
       </c>
       <c r="H557" t="s" s="41">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="I557" t="s" s="41">
-        <v>15</v>
+        <v>531</v>
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="19"/>
-      <c r="B558" s="19"/>
-      <c r="C558" s="19"/>
-      <c r="D558" s="19"/>
-      <c r="E558" s="19"/>
-      <c r="F558" s="19"/>
-      <c r="G558" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H558" t="s" s="41">
-        <v>37</v>
+      <c r="B558" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C558" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="D558" s="41"/>
+      <c r="E558" s="41"/>
+      <c r="F558" s="41"/>
+      <c r="G558" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H558" t="s" s="19">
+        <v>533</v>
       </c>
       <c r="I558" t="s" s="41">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="559">
-      <c r="B559" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C559" s="41" t="s">
-        <v>533</v>
-      </c>
+      <c r="A559" s="41"/>
+      <c r="B559" s="41"/>
+      <c r="C559" s="41"/>
       <c r="D559" s="41"/>
       <c r="E559" s="41"/>
       <c r="F559" s="41"/>
-      <c r="G559" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H559" t="s" s="19">
-        <v>534</v>
+      <c r="G559" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H559" t="s" s="41">
+        <v>305</v>
       </c>
       <c r="I559" t="s" s="41">
-        <v>535</v>
+        <v>15</v>
       </c>
     </row>
     <row r="560">
@@ -11497,10 +11500,10 @@
         <v>0</v>
       </c>
       <c r="H560" t="s" s="41">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="I560" t="s" s="41">
-        <v>15</v>
+        <v>535</v>
       </c>
     </row>
     <row r="561">
@@ -11510,39 +11513,32 @@
       <c r="D561" s="41"/>
       <c r="E561" s="41"/>
       <c r="F561" s="41"/>
-      <c r="G561" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H561" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I561" t="s" s="41">
-        <v>536</v>
+      <c r="G561" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H561" t="s" s="20">
+        <v>226</v>
+      </c>
+      <c r="I561" t="s" s="35">
+        <v>62</v>
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="41"/>
-      <c r="B562" s="41"/>
-      <c r="C562" s="41"/>
-      <c r="D562" s="41"/>
-      <c r="E562" s="41"/>
-      <c r="F562" s="41"/>
-      <c r="G562" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H562" t="s" s="20">
-        <v>226</v>
-      </c>
-      <c r="I562" t="s" s="35">
-        <v>62</v>
-      </c>
+      <c r="C562" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D562" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E562" s="19"/>
+      <c r="F562" s="19"/>
     </row>
     <row r="563">
       <c r="C563" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D563" s="19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E563" s="19"/>
       <c r="F563" s="19"/>
@@ -11552,48 +11548,55 @@
         <v>4</v>
       </c>
       <c r="D564" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E564" s="19"/>
       <c r="F564" s="19"/>
     </row>
     <row r="565">
-      <c r="C565" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D565" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E565" s="19"/>
-      <c r="F565" s="19"/>
+      <c r="B565" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C565" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="D565" s="41"/>
+      <c r="E565" s="41"/>
+      <c r="F565" s="41"/>
+      <c r="G565" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H565" t="s" s="41">
+        <v>537</v>
+      </c>
+      <c r="I565" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J565" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="K565" t="s" s="35">
+        <v>300</v>
+      </c>
+      <c r="L565" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="566">
-      <c r="B566" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C566" s="41" t="s">
-        <v>537</v>
-      </c>
+      <c r="A566" s="41"/>
+      <c r="B566" s="41"/>
+      <c r="C566" s="41"/>
       <c r="D566" s="41"/>
       <c r="E566" s="41"/>
       <c r="F566" s="41"/>
-      <c r="G566" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H566" t="s" s="41">
+      <c r="G566" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H566" t="s" s="19">
         <v>538</v>
       </c>
-      <c r="I566" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J566" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K566" t="s" s="35">
-        <v>300</v>
-      </c>
-      <c r="L566" t="s" s="17">
-        <v>3</v>
+      <c r="I566" t="s" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="567">
@@ -11603,14 +11606,14 @@
       <c r="D567" s="41"/>
       <c r="E567" s="41"/>
       <c r="F567" s="41"/>
-      <c r="G567" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H567" t="s" s="19">
+      <c r="G567" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H567" t="s" s="20">
         <v>539</v>
       </c>
-      <c r="I567" t="s" s="7">
-        <v>20</v>
+      <c r="I567" t="s" s="41">
+        <v>15</v>
       </c>
     </row>
     <row r="568">
@@ -11620,14 +11623,14 @@
       <c r="D568" s="41"/>
       <c r="E568" s="41"/>
       <c r="F568" s="41"/>
-      <c r="G568" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H568" t="s" s="20">
-        <v>540</v>
+      <c r="G568" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H568" t="s" s="41">
+        <v>50</v>
       </c>
       <c r="I568" t="s" s="41">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="569">
@@ -11641,10 +11644,10 @@
         <v>0</v>
       </c>
       <c r="H569" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I569" t="s" s="41">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="I569" t="s" s="13">
+        <v>95</v>
       </c>
     </row>
     <row r="570">
@@ -11658,10 +11661,10 @@
         <v>0</v>
       </c>
       <c r="H570" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="I570" t="s" s="13">
-        <v>95</v>
+        <v>37</v>
+      </c>
+      <c r="I570" t="s" s="41">
+        <v>540</v>
       </c>
     </row>
     <row r="571">
@@ -11675,28 +11678,21 @@
         <v>0</v>
       </c>
       <c r="H571" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I571" t="s" s="41">
         <v>541</v>
       </c>
+      <c r="I571" t="s" s="31">
+        <v>115</v>
+      </c>
     </row>
     <row r="572">
-      <c r="A572" s="41"/>
-      <c r="B572" s="41"/>
-      <c r="C572" s="41"/>
-      <c r="D572" s="41"/>
-      <c r="E572" s="41"/>
-      <c r="F572" s="41"/>
-      <c r="G572" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H572" t="s" s="41">
+      <c r="C572" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D572" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="I572" t="s" s="31">
-        <v>115</v>
-      </c>
+      <c r="E572" s="19"/>
+      <c r="F572" s="19"/>
     </row>
     <row r="573">
       <c r="C573" s="19" t="s">
@@ -11729,42 +11725,49 @@
       <c r="F575" s="19"/>
     </row>
     <row r="576">
-      <c r="C576" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D576" s="19" t="s">
+      <c r="B576" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C576" s="41" t="s">
         <v>546</v>
       </c>
-      <c r="E576" s="19"/>
-      <c r="F576" s="19"/>
+      <c r="D576" s="41"/>
+      <c r="E576" s="41"/>
+      <c r="F576" s="41"/>
+      <c r="G576" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H576" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I576" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="J576" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K576" t="s" s="41">
+        <v>547</v>
+      </c>
+      <c r="L576" t="s" s="11">
+        <v>72</v>
+      </c>
     </row>
     <row r="577">
-      <c r="B577" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C577" s="41" t="s">
-        <v>547</v>
-      </c>
+      <c r="A577" s="41"/>
+      <c r="B577" s="41"/>
+      <c r="C577" s="41"/>
       <c r="D577" s="41"/>
       <c r="E577" s="41"/>
       <c r="F577" s="41"/>
-      <c r="G577" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H577" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I577" t="s" s="41">
-        <v>51</v>
-      </c>
-      <c r="J577" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K577" t="s" s="41">
+      <c r="G577" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H577" t="s" s="20">
         <v>548</v>
       </c>
-      <c r="L577" t="s" s="11">
-        <v>72</v>
+      <c r="I577" t="s" s="45">
+        <v>221</v>
       </c>
     </row>
     <row r="578">
@@ -11774,32 +11777,25 @@
       <c r="D578" s="41"/>
       <c r="E578" s="41"/>
       <c r="F578" s="41"/>
-      <c r="G578" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H578" t="s" s="20">
-        <v>549</v>
+      <c r="G578" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H578" t="s" s="41">
+        <v>37</v>
       </c>
       <c r="I578" t="s" s="45">
         <v>221</v>
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="41"/>
-      <c r="B579" s="41"/>
-      <c r="C579" s="41"/>
-      <c r="D579" s="41"/>
-      <c r="E579" s="41"/>
-      <c r="F579" s="41"/>
-      <c r="G579" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H579" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I579" t="s" s="45">
-        <v>221</v>
-      </c>
+      <c r="C579" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D579" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="E579" s="19"/>
+      <c r="F579" s="19"/>
     </row>
     <row r="580">
       <c r="C580" s="19" t="s">
@@ -11812,14 +11808,14 @@
       <c r="F580" s="19"/>
     </row>
     <row r="581">
-      <c r="C581" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D581" s="19" t="s">
+      <c r="C581" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D581" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="E581" s="19"/>
-      <c r="F581" s="19"/>
+      <c r="E581" s="41"/>
+      <c r="F581" s="41"/>
     </row>
     <row r="582">
       <c r="C582" s="41" t="s">
@@ -11832,42 +11828,42 @@
       <c r="F582" s="41"/>
     </row>
     <row r="583">
-      <c r="C583" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D583" s="41" t="s">
+      <c r="D583" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E583" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="E583" s="41"/>
-      <c r="F583" s="41"/>
+      <c r="F583" s="19"/>
     </row>
     <row r="584">
-      <c r="D584" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E584" s="19" t="s">
+      <c r="C584" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D584" s="41" t="s">
         <v>554</v>
       </c>
-      <c r="F584" s="19"/>
+      <c r="E584" s="41"/>
+      <c r="F584" s="41"/>
     </row>
     <row r="585">
-      <c r="C585" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D585" s="41" t="s">
+      <c r="D585" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E585" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="E585" s="41"/>
-      <c r="F585" s="41"/>
+      <c r="F585" s="19"/>
     </row>
     <row r="586">
-      <c r="D586" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E586" s="19" t="s">
+      <c r="C586" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D586" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="F586" s="19"/>
+      <c r="E586" s="41"/>
+      <c r="F586" s="41"/>
     </row>
     <row r="587">
       <c r="C587" s="41" t="s">
@@ -11880,23 +11876,23 @@
       <c r="F587" s="41"/>
     </row>
     <row r="588">
-      <c r="C588" s="41" t="s">
-        <v>0</v>
-      </c>
       <c r="D588" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E588" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="E588" s="41"/>
       <c r="F588" s="41"/>
     </row>
     <row r="589">
-      <c r="D589" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E589" s="41" t="s">
+      <c r="C589" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D589" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="F589" s="41"/>
+      <c r="E589" s="19"/>
+      <c r="F589" s="19"/>
     </row>
     <row r="590">
       <c r="C590" s="19" t="s">
@@ -11909,24 +11905,24 @@
       <c r="F590" s="19"/>
     </row>
     <row r="591">
-      <c r="C591" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D591" s="19" t="s">
+      <c r="C591" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D591" s="41" t="s">
         <v>561</v>
       </c>
-      <c r="E591" s="19"/>
-      <c r="F591" s="19"/>
+      <c r="E591" s="41"/>
+      <c r="F591" s="41"/>
     </row>
     <row r="592">
-      <c r="C592" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D592" s="41" t="s">
+      <c r="C592" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D592" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="E592" s="41"/>
-      <c r="F592" s="41"/>
+      <c r="E592" s="19"/>
+      <c r="F592" s="19"/>
     </row>
     <row r="593">
       <c r="C593" s="19" t="s">
@@ -11939,22 +11935,29 @@
       <c r="F593" s="19"/>
     </row>
     <row r="594">
+      <c r="B594" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="C594" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D594" s="19" t="s">
         <v>564</v>
       </c>
+      <c r="D594" s="19"/>
       <c r="E594" s="19"/>
       <c r="F594" s="19"/>
+      <c r="G594" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H594" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I594" t="s" s="41">
+        <v>51</v>
+      </c>
     </row>
     <row r="595">
-      <c r="B595" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C595" s="19" t="s">
-        <v>565</v>
-      </c>
+      <c r="A595" s="19"/>
+      <c r="B595" s="19"/>
+      <c r="C595" s="19"/>
       <c r="D595" s="19"/>
       <c r="E595" s="19"/>
       <c r="F595" s="19"/>
@@ -11962,10 +11965,10 @@
         <v>0</v>
       </c>
       <c r="H595" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I595" t="s" s="41">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="I595" t="s" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="596">
@@ -11979,16 +11982,19 @@
         <v>0</v>
       </c>
       <c r="H596" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="I596" t="s" s="7">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="I596" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="19"/>
-      <c r="B597" s="19"/>
-      <c r="C597" s="19"/>
+      <c r="B597" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C597" s="19" t="s">
+        <v>565</v>
+      </c>
       <c r="D597" s="19"/>
       <c r="E597" s="19"/>
       <c r="F597" s="19"/>
@@ -11996,30 +12002,27 @@
         <v>0</v>
       </c>
       <c r="H597" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I597" t="s" s="19">
-        <v>97</v>
+        <v>50</v>
+      </c>
+      <c r="I597" t="s" s="41">
+        <v>51</v>
       </c>
     </row>
     <row r="598">
-      <c r="B598" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C598" s="19" t="s">
-        <v>566</v>
-      </c>
+      <c r="A598" s="19"/>
+      <c r="B598" s="19"/>
+      <c r="C598" s="19"/>
       <c r="D598" s="19"/>
       <c r="E598" s="19"/>
       <c r="F598" s="19"/>
-      <c r="G598" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H598" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I598" t="s" s="41">
-        <v>51</v>
+      <c r="G598" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H598" t="s" s="19">
+        <v>149</v>
+      </c>
+      <c r="I598" t="s" s="35">
+        <v>193</v>
       </c>
     </row>
     <row r="599">
@@ -12029,31 +12032,33 @@
       <c r="D599" s="19"/>
       <c r="E599" s="19"/>
       <c r="F599" s="19"/>
-      <c r="G599" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H599" t="s" s="19">
-        <v>149</v>
-      </c>
-      <c r="I599" t="s" s="35">
-        <v>193</v>
+      <c r="G599" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H599" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="I599" t="s" s="41">
+        <v>566</v>
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="19"/>
-      <c r="B600" s="19"/>
-      <c r="C600" s="19"/>
-      <c r="D600" s="19"/>
+      <c r="C600" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D600" s="19" t="s">
+        <v>567</v>
+      </c>
       <c r="E600" s="19"/>
       <c r="F600" s="19"/>
-      <c r="G600" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H600" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I600" t="s" s="41">
-        <v>567</v>
+      <c r="G600" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H600" t="s" s="19">
+        <v>149</v>
+      </c>
+      <c r="I600" t="s" s="19">
+        <v>568</v>
       </c>
     </row>
     <row r="601">
@@ -12061,7 +12066,7 @@
         <v>4</v>
       </c>
       <c r="D601" s="19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E601" s="19"/>
       <c r="F601" s="19"/>
@@ -12072,7 +12077,7 @@
         <v>149</v>
       </c>
       <c r="I601" t="s" s="19">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="602">
@@ -12080,7 +12085,7 @@
         <v>4</v>
       </c>
       <c r="D602" s="19" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E602" s="19"/>
       <c r="F602" s="19"/>
@@ -12091,47 +12096,40 @@
         <v>149</v>
       </c>
       <c r="I602" t="s" s="19">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="603">
-      <c r="C603" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D603" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="E603" s="19"/>
-      <c r="F603" s="19"/>
-      <c r="G603" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H603" t="s" s="19">
-        <v>149</v>
-      </c>
-      <c r="I603" t="s" s="19">
+      <c r="A603" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B603" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="C603" s="41"/>
+      <c r="D603" s="41"/>
+      <c r="E603" s="41"/>
+      <c r="F603" s="41"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C604" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D604" s="19"/>
+      <c r="E604" s="19"/>
+      <c r="F604" s="19"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B605" s="19" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B604" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="C604" s="41"/>
-      <c r="D604" s="41"/>
-      <c r="E604" s="41"/>
-      <c r="F604" s="41"/>
-    </row>
-    <row r="605">
-      <c r="B605" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C605" s="19" t="s">
-        <v>385</v>
-      </c>
+      <c r="C605" s="19"/>
       <c r="D605" s="19"/>
       <c r="E605" s="19"/>
       <c r="F605" s="19"/>
@@ -12147,26 +12145,31 @@
       <c r="D606" s="19"/>
       <c r="E606" s="19"/>
       <c r="F606" s="19"/>
+      <c r="G606" t="s" s="35">
+        <v>60</v>
+      </c>
+      <c r="H606" t="s" s="35">
+        <v>298</v>
+      </c>
+      <c r="I606" t="s" s="27">
+        <v>299</v>
+      </c>
     </row>
     <row r="607">
-      <c r="A607" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B607" s="19" t="s">
-        <v>575</v>
-      </c>
+      <c r="A607" s="19"/>
+      <c r="B607" s="19"/>
       <c r="C607" s="19"/>
       <c r="D607" s="19"/>
       <c r="E607" s="19"/>
       <c r="F607" s="19"/>
-      <c r="G607" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="H607" t="s" s="35">
-        <v>298</v>
-      </c>
-      <c r="I607" t="s" s="27">
-        <v>299</v>
+      <c r="G607" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H607" t="s" s="20">
+        <v>325</v>
+      </c>
+      <c r="I607" t="s" s="19">
+        <v>575</v>
       </c>
     </row>
     <row r="608">
@@ -12176,108 +12179,117 @@
       <c r="D608" s="19"/>
       <c r="E608" s="19"/>
       <c r="F608" s="19"/>
-      <c r="G608" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H608" t="s" s="20">
-        <v>325</v>
+      <c r="G608" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H608" t="s" s="19">
+        <v>190</v>
       </c>
       <c r="I608" t="s" s="19">
         <v>576</v>
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="19"/>
-      <c r="B609" s="19"/>
-      <c r="C609" s="19"/>
+      <c r="B609" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C609" s="19" t="s">
+        <v>577</v>
+      </c>
       <c r="D609" s="19"/>
       <c r="E609" s="19"/>
       <c r="F609" s="19"/>
-      <c r="G609" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H609" t="s" s="19">
-        <v>190</v>
-      </c>
-      <c r="I609" t="s" s="19">
-        <v>577</v>
-      </c>
     </row>
     <row r="610">
-      <c r="B610" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="C610" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D610" s="19" t="s">
         <v>578</v>
       </c>
-      <c r="D610" s="19"/>
       <c r="E610" s="19"/>
       <c r="F610" s="19"/>
+      <c r="J610" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K610" t="s" s="20">
+        <v>579</v>
+      </c>
+      <c r="L610" t="s" s="11">
+        <v>513</v>
+      </c>
     </row>
     <row r="611">
+      <c r="B611" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="C611" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D611" s="19" t="s">
-        <v>579</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="D611" s="19"/>
       <c r="E611" s="19"/>
       <c r="F611" s="19"/>
       <c r="J611" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K611" t="s" s="20">
+        <v>579</v>
+      </c>
+      <c r="L611" t="s" s="11">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B612" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="L611" t="s" s="11">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="B612" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C612" s="19" t="s">
-        <v>579</v>
-      </c>
+      <c r="C612" s="19"/>
       <c r="D612" s="19"/>
       <c r="E612" s="19"/>
       <c r="F612" s="19"/>
-      <c r="J612" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K612" t="s" s="20">
-        <v>580</v>
+      <c r="G612" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H612" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I612" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="J612" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K612" t="s" s="41">
+        <v>13</v>
       </c>
       <c r="L612" t="s" s="11">
-        <v>514</v>
+        <v>6</v>
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B613" s="19" t="s">
-        <v>581</v>
-      </c>
+      <c r="A613" s="19"/>
+      <c r="B613" s="19"/>
       <c r="C613" s="19"/>
       <c r="D613" s="19"/>
       <c r="E613" s="19"/>
       <c r="F613" s="19"/>
-      <c r="G613" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H613" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I613" t="s" s="41">
-        <v>51</v>
+      <c r="G613" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H613" t="s" s="19">
+        <v>581</v>
+      </c>
+      <c r="I613" t="s" s="45">
+        <v>12</v>
       </c>
       <c r="J613" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K613" t="s" s="41">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="L613" t="s" s="11">
         <v>6</v>
@@ -12290,55 +12302,49 @@
       <c r="D614" s="19"/>
       <c r="E614" s="19"/>
       <c r="F614" s="19"/>
-      <c r="G614" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H614" t="s" s="19">
-        <v>582</v>
-      </c>
-      <c r="I614" t="s" s="45">
-        <v>12</v>
-      </c>
-      <c r="J614" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K614" t="s" s="41">
-        <v>52</v>
+      <c r="G614" s="19"/>
+      <c r="H614" s="19"/>
+      <c r="I614" s="19"/>
+      <c r="J614" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K614" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L614" t="s" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="19"/>
-      <c r="B615" s="19"/>
-      <c r="C615" s="19"/>
-      <c r="D615" s="19"/>
-      <c r="E615" s="19"/>
-      <c r="F615" s="19"/>
-      <c r="G615" s="19"/>
-      <c r="H615" s="19"/>
-      <c r="I615" s="19"/>
-      <c r="J615" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K615" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L615" t="s" s="11">
+      <c r="B615" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D615" s="1"/>
+      <c r="E615" s="1"/>
+      <c r="F615" s="1"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C616" s="41" t="s">
+        <v>583</v>
+      </c>
+      <c r="D616" s="41"/>
+      <c r="E616" s="41"/>
+      <c r="F616" s="41"/>
+      <c r="J616" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K616" t="s" s="41">
+        <v>52</v>
+      </c>
+      <c r="L616" t="s" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="616">
-      <c r="B616" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C616" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D616" s="1"/>
-      <c r="E616" s="1"/>
-      <c r="F616" s="1"/>
     </row>
     <row r="617">
       <c r="B617" s="41" t="s">
@@ -12350,56 +12356,47 @@
       <c r="D617" s="41"/>
       <c r="E617" s="41"/>
       <c r="F617" s="41"/>
-      <c r="J617" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K617" t="s" s="41">
-        <v>52</v>
-      </c>
-      <c r="L617" t="s" s="11">
-        <v>6</v>
+      <c r="G617" t="s" s="43">
+        <v>68</v>
+      </c>
+      <c r="H617" t="s" s="43">
+        <v>112</v>
+      </c>
+      <c r="I617" t="s" s="41">
+        <v>585</v>
       </c>
     </row>
     <row r="618">
-      <c r="B618" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C618" s="41" t="s">
-        <v>585</v>
-      </c>
-      <c r="D618" s="41"/>
-      <c r="E618" s="41"/>
-      <c r="F618" s="41"/>
-      <c r="G618" t="s" s="43">
-        <v>68</v>
-      </c>
-      <c r="H618" t="s" s="43">
-        <v>112</v>
-      </c>
-      <c r="I618" t="s" s="41">
+      <c r="A618" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="B618" s="27" t="s">
         <v>586</v>
       </c>
+      <c r="C618" s="27"/>
+      <c r="D618" s="27"/>
+      <c r="E618" s="27"/>
+      <c r="F618" s="27"/>
     </row>
     <row r="619">
-      <c r="A619" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="B619" s="27" t="s">
+      <c r="A619" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B619" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="C619" s="27"/>
-      <c r="D619" s="27"/>
-      <c r="E619" s="27"/>
-      <c r="F619" s="27"/>
+      <c r="C619" s="19"/>
+      <c r="D619" s="19"/>
+      <c r="E619" s="19"/>
+      <c r="F619" s="19"/>
     </row>
     <row r="620">
-      <c r="A620" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="B620" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C620" s="19" t="s">
         <v>588</v>
       </c>
-      <c r="C620" s="19"/>
       <c r="D620" s="19"/>
       <c r="E620" s="19"/>
       <c r="F620" s="19"/>
@@ -12536,19 +12533,8 @@
       <c r="E632" s="19"/>
       <c r="F632" s="19"/>
     </row>
-    <row r="633">
-      <c r="B633" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C633" s="19" t="s">
-        <v>601</v>
-      </c>
-      <c r="D633" s="19"/>
-      <c r="E633" s="19"/>
-      <c r="F633" s="19"/>
-    </row>
   </sheetData>
-  <mergeCells count="595">
+  <mergeCells count="594">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C3:F3"/>
@@ -12904,25 +12890,25 @@
     <mergeCell ref="A372:F372"/>
     <mergeCell ref="A373:F373"/>
     <mergeCell ref="B374:F374"/>
-    <mergeCell ref="C375:F375"/>
-    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="A376:F376"/>
     <mergeCell ref="A377:F377"/>
     <mergeCell ref="A378:F378"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A380:F380"/>
-    <mergeCell ref="A381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="A383:F383"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="C385:F385"/>
-    <mergeCell ref="D386:F386"/>
-    <mergeCell ref="A387:F387"/>
-    <mergeCell ref="A388:I388"/>
-    <mergeCell ref="D389:F389"/>
-    <mergeCell ref="A390:I390"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="A382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="C384:F384"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="A386:F386"/>
+    <mergeCell ref="A387:I387"/>
+    <mergeCell ref="D388:F388"/>
+    <mergeCell ref="A389:I389"/>
+    <mergeCell ref="E390:F390"/>
     <mergeCell ref="E391:F391"/>
-    <mergeCell ref="E392:F392"/>
-    <mergeCell ref="C393:F393"/>
+    <mergeCell ref="C392:F392"/>
+    <mergeCell ref="A393:F393"/>
     <mergeCell ref="A394:F394"/>
     <mergeCell ref="A395:F395"/>
     <mergeCell ref="A396:F396"/>
@@ -12931,85 +12917,85 @@
     <mergeCell ref="A399:F399"/>
     <mergeCell ref="A400:F400"/>
     <mergeCell ref="A401:F401"/>
-    <mergeCell ref="A402:F402"/>
+    <mergeCell ref="D402:F402"/>
     <mergeCell ref="D403:F403"/>
-    <mergeCell ref="D404:F404"/>
+    <mergeCell ref="A404:I404"/>
     <mergeCell ref="A405:I405"/>
     <mergeCell ref="A406:I406"/>
-    <mergeCell ref="A407:I407"/>
-    <mergeCell ref="E408:F408"/>
-    <mergeCell ref="A410:F410"/>
+    <mergeCell ref="E407:F407"/>
+    <mergeCell ref="A409:F409"/>
+    <mergeCell ref="E411:F411"/>
     <mergeCell ref="E412:F412"/>
-    <mergeCell ref="E413:F413"/>
+    <mergeCell ref="E414:F414"/>
     <mergeCell ref="E415:F415"/>
     <mergeCell ref="E416:F416"/>
-    <mergeCell ref="E417:F417"/>
-    <mergeCell ref="D418:F418"/>
+    <mergeCell ref="D417:F417"/>
+    <mergeCell ref="E418:F418"/>
     <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E420:F420"/>
+    <mergeCell ref="D420:F420"/>
     <mergeCell ref="D421:F421"/>
-    <mergeCell ref="D422:F422"/>
+    <mergeCell ref="A422:I422"/>
     <mergeCell ref="A423:I423"/>
     <mergeCell ref="A424:I424"/>
-    <mergeCell ref="A425:I425"/>
-    <mergeCell ref="E426:F426"/>
+    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="D426:F426"/>
     <mergeCell ref="D427:F427"/>
-    <mergeCell ref="D428:F428"/>
+    <mergeCell ref="E428:F428"/>
     <mergeCell ref="E429:F429"/>
     <mergeCell ref="E430:F430"/>
-    <mergeCell ref="E431:F431"/>
+    <mergeCell ref="D431:F431"/>
     <mergeCell ref="D432:F432"/>
     <mergeCell ref="D433:F433"/>
     <mergeCell ref="D434:F434"/>
     <mergeCell ref="D435:F435"/>
-    <mergeCell ref="D436:F436"/>
-    <mergeCell ref="E437:F437"/>
+    <mergeCell ref="E436:F436"/>
+    <mergeCell ref="A437:I437"/>
     <mergeCell ref="A438:I438"/>
-    <mergeCell ref="A439:I439"/>
-    <mergeCell ref="D441:F441"/>
-    <mergeCell ref="E442:F442"/>
-    <mergeCell ref="D443:F443"/>
+    <mergeCell ref="D440:F440"/>
+    <mergeCell ref="E441:F441"/>
+    <mergeCell ref="D442:F442"/>
+    <mergeCell ref="A443:F443"/>
     <mergeCell ref="A444:F444"/>
     <mergeCell ref="A445:F445"/>
     <mergeCell ref="A446:F446"/>
     <mergeCell ref="A447:F447"/>
     <mergeCell ref="A448:F448"/>
     <mergeCell ref="A449:F449"/>
-    <mergeCell ref="A450:F450"/>
+    <mergeCell ref="D450:F450"/>
     <mergeCell ref="D451:F451"/>
-    <mergeCell ref="D452:F452"/>
+    <mergeCell ref="A452:F452"/>
     <mergeCell ref="A453:F453"/>
     <mergeCell ref="A454:F454"/>
-    <mergeCell ref="A455:F455"/>
-    <mergeCell ref="E456:F456"/>
+    <mergeCell ref="E455:F455"/>
+    <mergeCell ref="E458:F458"/>
     <mergeCell ref="E459:F459"/>
     <mergeCell ref="E460:F460"/>
     <mergeCell ref="E461:F461"/>
-    <mergeCell ref="E462:F462"/>
-    <mergeCell ref="D463:F463"/>
-    <mergeCell ref="E464:F464"/>
+    <mergeCell ref="D462:F462"/>
+    <mergeCell ref="E463:F463"/>
+    <mergeCell ref="A464:I464"/>
     <mergeCell ref="A465:I465"/>
     <mergeCell ref="A466:I466"/>
-    <mergeCell ref="A467:I467"/>
-    <mergeCell ref="A470:F470"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="E477:F477"/>
     <mergeCell ref="E478:F478"/>
-    <mergeCell ref="E479:F479"/>
+    <mergeCell ref="A479:I479"/>
     <mergeCell ref="A480:I480"/>
     <mergeCell ref="A481:I481"/>
-    <mergeCell ref="A482:I482"/>
+    <mergeCell ref="E483:F483"/>
     <mergeCell ref="E484:F484"/>
-    <mergeCell ref="E485:F485"/>
+    <mergeCell ref="E488:F488"/>
     <mergeCell ref="E489:F489"/>
-    <mergeCell ref="E490:F490"/>
-    <mergeCell ref="D491:F491"/>
-    <mergeCell ref="A492:I492"/>
+    <mergeCell ref="D490:F490"/>
+    <mergeCell ref="A491:I491"/>
+    <mergeCell ref="E492:F492"/>
     <mergeCell ref="E493:F493"/>
     <mergeCell ref="E494:F494"/>
     <mergeCell ref="E495:F495"/>
     <mergeCell ref="E496:F496"/>
-    <mergeCell ref="E497:F497"/>
-    <mergeCell ref="D498:F498"/>
-    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="D497:F497"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="A499:F499"/>
     <mergeCell ref="A500:F500"/>
     <mergeCell ref="A501:F501"/>
     <mergeCell ref="A502:F502"/>
@@ -13020,26 +13006,26 @@
     <mergeCell ref="A507:F507"/>
     <mergeCell ref="A508:F508"/>
     <mergeCell ref="A509:F509"/>
-    <mergeCell ref="A510:F510"/>
-    <mergeCell ref="C511:F511"/>
-    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="C510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="C512:F512"/>
     <mergeCell ref="C513:F513"/>
     <mergeCell ref="C514:F514"/>
     <mergeCell ref="C515:F515"/>
-    <mergeCell ref="C516:F516"/>
+    <mergeCell ref="B516:F516"/>
     <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="C519:F519"/>
-    <mergeCell ref="D520:F520"/>
-    <mergeCell ref="A521:I521"/>
-    <mergeCell ref="E522:F522"/>
-    <mergeCell ref="A523:I523"/>
-    <mergeCell ref="C524:F524"/>
+    <mergeCell ref="C518:F518"/>
+    <mergeCell ref="D519:F519"/>
+    <mergeCell ref="A520:I520"/>
+    <mergeCell ref="E521:F521"/>
+    <mergeCell ref="A522:I522"/>
+    <mergeCell ref="C523:F523"/>
+    <mergeCell ref="A524:I524"/>
     <mergeCell ref="A525:I525"/>
-    <mergeCell ref="A526:I526"/>
-    <mergeCell ref="C527:F527"/>
+    <mergeCell ref="C526:F526"/>
+    <mergeCell ref="B527:F527"/>
     <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="A529:F529"/>
     <mergeCell ref="A530:F530"/>
     <mergeCell ref="A531:F531"/>
     <mergeCell ref="A532:F532"/>
@@ -13054,83 +13040,83 @@
     <mergeCell ref="A541:F541"/>
     <mergeCell ref="A542:F542"/>
     <mergeCell ref="A543:F543"/>
-    <mergeCell ref="A544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="A546:I546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="C548:F548"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="A545:I545"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="C547:F547"/>
+    <mergeCell ref="A548:F548"/>
     <mergeCell ref="A549:F549"/>
     <mergeCell ref="A550:F550"/>
-    <mergeCell ref="A551:F551"/>
+    <mergeCell ref="D551:F551"/>
     <mergeCell ref="D552:F552"/>
     <mergeCell ref="D553:F553"/>
     <mergeCell ref="D554:F554"/>
-    <mergeCell ref="D555:F555"/>
-    <mergeCell ref="C556:F556"/>
+    <mergeCell ref="C555:F555"/>
+    <mergeCell ref="A556:F556"/>
     <mergeCell ref="A557:F557"/>
-    <mergeCell ref="A558:F558"/>
-    <mergeCell ref="C559:F559"/>
+    <mergeCell ref="C558:F558"/>
+    <mergeCell ref="A559:F559"/>
     <mergeCell ref="A560:F560"/>
     <mergeCell ref="A561:F561"/>
-    <mergeCell ref="A562:F562"/>
+    <mergeCell ref="D562:F562"/>
     <mergeCell ref="D563:F563"/>
     <mergeCell ref="D564:F564"/>
-    <mergeCell ref="D565:F565"/>
-    <mergeCell ref="C566:F566"/>
+    <mergeCell ref="C565:F565"/>
+    <mergeCell ref="A566:F566"/>
     <mergeCell ref="A567:F567"/>
     <mergeCell ref="A568:F568"/>
     <mergeCell ref="A569:F569"/>
     <mergeCell ref="A570:F570"/>
     <mergeCell ref="A571:F571"/>
-    <mergeCell ref="A572:F572"/>
+    <mergeCell ref="D572:F572"/>
     <mergeCell ref="D573:F573"/>
     <mergeCell ref="D574:F574"/>
     <mergeCell ref="D575:F575"/>
-    <mergeCell ref="D576:F576"/>
-    <mergeCell ref="C577:F577"/>
+    <mergeCell ref="C576:F576"/>
+    <mergeCell ref="A577:F577"/>
     <mergeCell ref="A578:F578"/>
-    <mergeCell ref="A579:F579"/>
+    <mergeCell ref="D579:F579"/>
     <mergeCell ref="D580:F580"/>
     <mergeCell ref="D581:F581"/>
     <mergeCell ref="D582:F582"/>
-    <mergeCell ref="D583:F583"/>
-    <mergeCell ref="E584:F584"/>
-    <mergeCell ref="D585:F585"/>
-    <mergeCell ref="E586:F586"/>
+    <mergeCell ref="E583:F583"/>
+    <mergeCell ref="D584:F584"/>
+    <mergeCell ref="E585:F585"/>
+    <mergeCell ref="D586:F586"/>
     <mergeCell ref="D587:F587"/>
-    <mergeCell ref="D588:F588"/>
-    <mergeCell ref="E589:F589"/>
+    <mergeCell ref="E588:F588"/>
+    <mergeCell ref="D589:F589"/>
     <mergeCell ref="D590:F590"/>
     <mergeCell ref="D591:F591"/>
     <mergeCell ref="D592:F592"/>
     <mergeCell ref="D593:F593"/>
-    <mergeCell ref="D594:F594"/>
-    <mergeCell ref="C595:F595"/>
+    <mergeCell ref="C594:F594"/>
+    <mergeCell ref="A595:F595"/>
     <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A597:F597"/>
-    <mergeCell ref="C598:F598"/>
+    <mergeCell ref="C597:F597"/>
+    <mergeCell ref="A598:F598"/>
     <mergeCell ref="A599:F599"/>
-    <mergeCell ref="A600:F600"/>
+    <mergeCell ref="D600:F600"/>
     <mergeCell ref="D601:F601"/>
     <mergeCell ref="D602:F602"/>
-    <mergeCell ref="D603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="C605:F605"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="C604:F604"/>
+    <mergeCell ref="B605:F605"/>
     <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="A607:F607"/>
     <mergeCell ref="A608:F608"/>
-    <mergeCell ref="A609:F609"/>
-    <mergeCell ref="C610:F610"/>
-    <mergeCell ref="D611:F611"/>
-    <mergeCell ref="C612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="A614:F614"/>
-    <mergeCell ref="A615:I615"/>
+    <mergeCell ref="C609:F609"/>
+    <mergeCell ref="D610:F610"/>
+    <mergeCell ref="C611:F611"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="A613:F613"/>
+    <mergeCell ref="A614:I614"/>
+    <mergeCell ref="C615:F615"/>
     <mergeCell ref="C616:F616"/>
     <mergeCell ref="C617:F617"/>
-    <mergeCell ref="C618:F618"/>
+    <mergeCell ref="B618:F618"/>
     <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="C620:F620"/>
     <mergeCell ref="C621:F621"/>
     <mergeCell ref="C622:F622"/>
     <mergeCell ref="C623:F623"/>
@@ -13143,7 +13129,6 @@
     <mergeCell ref="C630:F630"/>
     <mergeCell ref="C631:F631"/>
     <mergeCell ref="C632:F632"/>
-    <mergeCell ref="C633:F633"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/sigmaaie/modules/core/doc/roh-core.xlsx
+++ b/sigmaaie/modules/core/doc/roh-core.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="602">
   <si>
     <t>vivo</t>
   </si>
@@ -74,102 +74,105 @@
     <t>hasSubjectArea</t>
   </si>
   <si>
+    <t>skos:Concept</t>
+  </si>
+  <si>
+    <t>issuedBy</t>
+  </si>
+  <si>
+    <t>roh:AccreditationIssuer</t>
+  </si>
+  <si>
+    <t>AcademicAccreditation</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Award</t>
+  </si>
+  <si>
+    <t>CourseCertificate</t>
+  </si>
+  <si>
+    <t>LanguageCertificate</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>languageSkill</t>
+  </si>
+  <si>
+    <t>{"A1", "A2", "B1", "B2", "C1", "C2"}</t>
+  </si>
+  <si>
+    <t>listeningSkill</t>
+  </si>
+  <si>
+    <t>readingSkill</t>
+  </si>
+  <si>
+    <t>speakingSkill</t>
+  </si>
+  <si>
+    <t>spokenInteractionSkill</t>
+  </si>
+  <si>
+    <t>writingSkill</t>
+  </si>
+  <si>
+    <t>DegreeHomologation</t>
+  </si>
+  <si>
+    <t>relates</t>
+  </si>
+  <si>
+    <t>vivo:AwardedDegree</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>ResearchAccreditation</t>
+  </si>
+  <si>
+    <t>SealOfQuality</t>
+  </si>
+  <si>
+    <t>AccreditationIssuer</t>
+  </si>
+  <si>
+    <t>issues</t>
+  </si>
+  <si>
+    <t>roh:Accreditation</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>bfo</t>
+  </si>
+  <si>
+    <t>BFO_0000055</t>
+  </si>
+  <si>
+    <t>bfo:BFO_0000023</t>
+  </si>
+  <si>
+    <t>contactInformation</t>
+  </si>
+  <si>
+    <t>dateTimeInterval</t>
+  </si>
+  <si>
+    <t>vivo:DateTimeInterval</t>
+  </si>
+  <si>
     <t>owl:Thing</t>
   </si>
   <si>
-    <t>issuedBy</t>
-  </si>
-  <si>
-    <t>roh:AccreditationIssuer</t>
-  </si>
-  <si>
-    <t>AcademicAccreditation</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>Award</t>
-  </si>
-  <si>
-    <t>CourseCertificate</t>
-  </si>
-  <si>
-    <t>LanguageCertificate</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>languageSkill</t>
-  </si>
-  <si>
-    <t>{"A1", "A2", "B1", "B2", "C1", "C2"}</t>
-  </si>
-  <si>
-    <t>listeningSkill</t>
-  </si>
-  <si>
-    <t>readingSkill</t>
-  </si>
-  <si>
-    <t>speakingSkill</t>
-  </si>
-  <si>
-    <t>spokenInteractionSkill</t>
-  </si>
-  <si>
-    <t>writingSkill</t>
-  </si>
-  <si>
-    <t>DegreeHomologation</t>
-  </si>
-  <si>
-    <t>relates</t>
-  </si>
-  <si>
-    <t>vivo:AwardedDegree</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>ResearchAccreditation</t>
-  </si>
-  <si>
-    <t>SealOfQuality</t>
-  </si>
-  <si>
-    <t>AccreditationIssuer</t>
-  </si>
-  <si>
-    <t>issues</t>
-  </si>
-  <si>
-    <t>roh:Accreditation</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>bfo</t>
-  </si>
-  <si>
-    <t>BFO_0000055</t>
-  </si>
-  <si>
-    <t>bfo:BFO_0000023</t>
-  </si>
-  <si>
-    <t>contactInformation</t>
-  </si>
-  <si>
-    <t>dateTimeInterval</t>
-  </si>
-  <si>
-    <t>vivo:DateTimeInterval</t>
-  </si>
-  <si>
     <t>freetextKeyword</t>
   </si>
   <si>
@@ -299,9 +302,6 @@
     <t>hasResearchLine</t>
   </si>
   <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
     <t>hasReservable</t>
   </si>
   <si>
@@ -320,6 +320,9 @@
     <t>mbox</t>
   </si>
   <si>
+    <t>iao:IAO_0000030</t>
+  </si>
+  <si>
     <t>projectCoordinator</t>
   </si>
   <si>
@@ -359,9 +362,6 @@
     <t>correspondingOrganizationOf</t>
   </si>
   <si>
-    <t>iao:IAO_0000030</t>
-  </si>
-  <si>
     <t>foundationDate</t>
   </si>
   <si>
@@ -569,6 +569,9 @@
     <t>img</t>
   </si>
   <si>
+    <t>foaf:Image</t>
+  </si>
+  <si>
     <t>isGrantedWith</t>
   </si>
   <si>
@@ -1100,6 +1103,9 @@
     <t>Chapter</t>
   </si>
   <si>
+    <t>Image</t>
+  </si>
+  <si>
     <t>Invoice</t>
   </si>
   <si>
@@ -1211,9 +1217,6 @@
     <t>Webpage</t>
   </si>
   <si>
-    <t>Image</t>
-  </si>
-  <si>
     <t>ERO_0000005</t>
   </si>
   <si>
@@ -1589,7 +1592,7 @@
     <t>degreeCandidacy</t>
   </si>
   <si>
-    <t>vivo:AdviseeRole</t>
+    <t>vivo:AdvisorRole</t>
   </si>
   <si>
     <t>FacultyMentoringRelationship</t>
@@ -2480,7 +2483,7 @@
       <c r="H9" t="s" s="41">
         <v>19</v>
       </c>
-      <c r="I9" t="s" s="7">
+      <c r="I9" t="s" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2868,13 +2871,13 @@
         <v>19</v>
       </c>
       <c r="I30" t="s" s="7">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K30" t="s" s="41">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L30" t="s" s="11">
         <v>6</v>
@@ -2888,19 +2891,19 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" t="s" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K31" t="s" s="41">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L31" t="s" s="11">
         <v>6</v>
@@ -2917,16 +2920,16 @@
         <v>4</v>
       </c>
       <c r="H32" t="s" s="19">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I32" t="s" s="45">
         <v>12</v>
       </c>
       <c r="J32" t="s" s="21">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K32" t="s" s="21">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L32" t="s" s="11">
         <v>6</v>
@@ -2940,13 +2943,13 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H33" t="s" s="35">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I33" t="s" s="35">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J33" t="s" s="19">
         <v>4</v>
@@ -2972,7 +2975,7 @@
         <v>37</v>
       </c>
       <c r="I34" t="s" s="41">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
@@ -2980,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
@@ -2988,10 +2991,10 @@
     </row>
     <row r="36">
       <c r="B36" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -3011,7 +3014,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -3022,28 +3025,28 @@
         <v>0</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
       <c r="G38" t="s" s="43">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s" s="43">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s" s="41">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K38" t="s" s="41">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L38" t="s" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -3060,7 +3063,7 @@
         <v>4</v>
       </c>
       <c r="K39" t="s" s="19">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L39" t="s" s="11">
         <v>6</v>
@@ -3071,7 +3074,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -3082,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
@@ -3090,10 +3093,10 @@
     </row>
     <row r="42">
       <c r="B42" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -3104,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
@@ -3112,10 +3115,10 @@
     </row>
     <row r="44">
       <c r="B44" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -3126,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
@@ -3134,10 +3137,10 @@
     </row>
     <row r="46">
       <c r="B46" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -3148,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -3159,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
@@ -3169,7 +3172,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
@@ -3179,7 +3182,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -3190,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -3198,10 +3201,10 @@
     </row>
     <row r="52">
       <c r="B52" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -3212,17 +3215,17 @@
         <v>4</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
     </row>
     <row r="54">
       <c r="A54" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
@@ -3234,7 +3237,7 @@
         <v>16</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C55" s="45"/>
       <c r="D55" s="45"/>
@@ -3244,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="H55" t="s" s="20">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I55" t="s" s="45">
         <v>12</v>
@@ -3253,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s" s="41">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L55" t="s" s="11">
         <v>6</v>
@@ -3270,10 +3273,10 @@
         <v>4</v>
       </c>
       <c r="H56" t="s" s="20">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I56" t="s" s="35">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57">
@@ -3287,7 +3290,7 @@
         <v>4</v>
       </c>
       <c r="H57" t="s" s="20">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I57" t="s" s="19">
         <v>44</v>
@@ -3304,10 +3307,10 @@
         <v>4</v>
       </c>
       <c r="H58" t="s" s="20">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s" s="21">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59">
@@ -3321,10 +3324,10 @@
         <v>4</v>
       </c>
       <c r="H59" t="s" s="20">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I59" t="s" s="13">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -3391,8 +3394,8 @@
       <c r="H63" t="s" s="46">
         <v>101</v>
       </c>
-      <c r="I63" t="s" s="7">
-        <v>20</v>
+      <c r="I63" t="s" s="31">
+        <v>102</v>
       </c>
     </row>
     <row r="64">
@@ -3406,10 +3409,10 @@
         <v>4</v>
       </c>
       <c r="H64" t="s" s="20">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I64" t="s" s="41">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65">
@@ -3423,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="s" s="42">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I65" t="s" s="35">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66">
@@ -3440,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="H66" t="s" s="41">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I66" t="s" s="41">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67">
@@ -3451,7 +3454,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D67" s="45"/>
       <c r="E67" s="45"/>
@@ -3462,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
@@ -3470,10 +3473,10 @@
         <v>4</v>
       </c>
       <c r="K68" t="s" s="19">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69">
@@ -3481,16 +3484,16 @@
         <v>16</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D69" s="45"/>
       <c r="E69" s="45"/>
       <c r="F69" s="45"/>
       <c r="G69" t="s" s="43">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H69" t="s" s="43">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I69" t="s" s="45">
         <v>18</v>
@@ -3516,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s" s="42">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I70" t="s" s="45">
         <v>18</v>
@@ -3542,10 +3545,10 @@
         <v>4</v>
       </c>
       <c r="H71" t="s" s="20">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I71" t="s" s="31">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J71" t="s" s="20">
         <v>4</v>
@@ -3577,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s" s="41">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L72" t="s" s="11">
         <v>6</v>
@@ -3603,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="s" s="41">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L73" t="s" s="11">
         <v>6</v>
@@ -3620,7 +3623,7 @@
         <v>4</v>
       </c>
       <c r="H74" t="s" s="19">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I74" t="s" s="19">
         <v>44</v>
@@ -3646,7 +3649,7 @@
         <v>4</v>
       </c>
       <c r="H75" t="s" s="19">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I75" t="s" s="21">
         <v>120</v>
@@ -3675,7 +3678,7 @@
         <v>121</v>
       </c>
       <c r="I76" t="s" s="13">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -3776,8 +3779,8 @@
       <c r="H82" t="s" s="45">
         <v>126</v>
       </c>
-      <c r="I82" t="s" s="7">
-        <v>20</v>
+      <c r="I82" t="s" s="35">
+        <v>63</v>
       </c>
     </row>
     <row r="83">
@@ -3788,13 +3791,13 @@
       <c r="E83" s="45"/>
       <c r="F83" s="45"/>
       <c r="G83" t="s" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H83" t="s" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I83" t="s" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84">
@@ -3883,7 +3886,7 @@
         <v>137</v>
       </c>
       <c r="L88" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89">
@@ -3909,7 +3912,7 @@
         <v>139</v>
       </c>
       <c r="L89" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90">
@@ -4069,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
@@ -4077,10 +4080,10 @@
         <v>4</v>
       </c>
       <c r="K105" t="s" s="19">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L105" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106">
@@ -4148,7 +4151,7 @@
         <v>161</v>
       </c>
       <c r="I110" t="s" s="35">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J110" t="s" s="19">
         <v>4</v>
@@ -4200,7 +4203,7 @@
         <v>165</v>
       </c>
       <c r="I112" t="s" s="35">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J112" t="s" s="45">
         <v>16</v>
@@ -4232,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="s" s="41">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L113" t="s" s="11">
         <v>6</v>
@@ -4284,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="K115" t="s" s="41">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L115" t="s" s="11">
         <v>6</v>
@@ -4301,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="H116" t="s" s="19">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I116" t="s" s="19">
         <v>44</v>
@@ -4353,7 +4356,7 @@
         <v>4</v>
       </c>
       <c r="H118" t="s" s="19">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I118" t="s" s="21">
         <v>175</v>
@@ -4408,7 +4411,7 @@
         <v>121</v>
       </c>
       <c r="I120" t="s" s="13">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="J120" t="s" s="19">
         <v>4</v>
@@ -4476,8 +4479,8 @@
       <c r="H123" t="s" s="45">
         <v>126</v>
       </c>
-      <c r="I123" t="s" s="7">
-        <v>20</v>
+      <c r="I123" t="s" s="35">
+        <v>63</v>
       </c>
     </row>
     <row r="124">
@@ -4510,8 +4513,8 @@
       <c r="H125" t="s" s="45">
         <v>184</v>
       </c>
-      <c r="I125" t="s" s="7">
-        <v>20</v>
+      <c r="I125" t="s" s="45">
+        <v>185</v>
       </c>
     </row>
     <row r="126">
@@ -4525,10 +4528,10 @@
         <v>4</v>
       </c>
       <c r="H126" t="s" s="20">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I126" t="s" s="19">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127">
@@ -4544,8 +4547,8 @@
       <c r="H127" t="s" s="45">
         <v>101</v>
       </c>
-      <c r="I127" t="s" s="7">
-        <v>20</v>
+      <c r="I127" t="s" s="31">
+        <v>102</v>
       </c>
     </row>
     <row r="128">
@@ -4576,7 +4579,7 @@
         <v>4</v>
       </c>
       <c r="H129" t="s" s="20">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I129" t="s" s="35">
         <v>128</v>
@@ -4593,7 +4596,7 @@
         <v>4</v>
       </c>
       <c r="H130" t="s" s="20">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I130" t="s" s="35">
         <v>128</v>
@@ -4610,10 +4613,10 @@
         <v>4</v>
       </c>
       <c r="H131" t="s" s="20">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I131" t="s" s="35">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132">
@@ -4627,10 +4630,10 @@
         <v>4</v>
       </c>
       <c r="H132" t="s" s="19">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I132" t="s" s="19">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="133">
@@ -4644,10 +4647,10 @@
         <v>4</v>
       </c>
       <c r="H133" t="s" s="20">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I133" t="s" s="35">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134">
@@ -4661,10 +4664,10 @@
         <v>4</v>
       </c>
       <c r="H134" t="s" s="20">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I134" t="s" s="19">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135">
@@ -4672,7 +4675,7 @@
         <v>46</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
@@ -4684,7 +4687,7 @@
         <v>46</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
@@ -4695,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="D137" s="41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E137" s="41"/>
       <c r="F137" s="41"/>
@@ -4703,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="s" s="41">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I137" t="s" s="41">
         <v>15</v>
@@ -4723,7 +4726,7 @@
         <v>121</v>
       </c>
       <c r="I138" t="s" s="19">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139">
@@ -4737,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="s" s="41">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I139" t="s" s="41">
         <v>15</v>
@@ -4748,7 +4751,7 @@
         <v>46</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
@@ -4759,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="D141" s="41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E141" s="41"/>
       <c r="F141" s="41"/>
@@ -4767,16 +4770,16 @@
         <v>4</v>
       </c>
       <c r="H141" t="s" s="20">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I141" t="s" s="41">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J141" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K141" t="s" s="41">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L141" t="s" s="11">
         <v>117</v>
@@ -4784,10 +4787,10 @@
     </row>
     <row r="142">
       <c r="A142" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
@@ -4799,7 +4802,7 @@
         <v>4</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
@@ -4808,10 +4811,10 @@
         <v>4</v>
       </c>
       <c r="H143" t="s" s="20">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I143" t="s" s="19">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="144">
@@ -4825,10 +4828,10 @@
         <v>4</v>
       </c>
       <c r="H144" t="s" s="20">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I144" t="s" s="19">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="145">
@@ -4842,10 +4845,10 @@
         <v>4</v>
       </c>
       <c r="H145" t="s" s="20">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I145" t="s" s="19">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146">
@@ -4853,7 +4856,7 @@
         <v>4</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
@@ -4864,7 +4867,7 @@
         <v>46</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
@@ -4874,7 +4877,7 @@
         <v>46</v>
       </c>
       <c r="H147" t="s" s="16">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I147" t="s" s="19">
         <v>130</v>
@@ -4883,13 +4886,13 @@
         <v>4</v>
       </c>
       <c r="K147" t="s" s="20">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L147" t="s" s="11">
         <v>6</v>
       </c>
       <c r="M147" t="s" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148">
@@ -4900,22 +4903,22 @@
       <c r="E148" s="15"/>
       <c r="F148" s="15"/>
       <c r="G148" t="s" s="43">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H148" t="s" s="43">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I148" t="s" s="45">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J148" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K148" t="s" s="19">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L148" t="s" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="149">
@@ -4958,13 +4961,13 @@
         <v>121</v>
       </c>
       <c r="I150" t="s" s="19">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J150" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K150" t="s" s="20">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L150" t="s" s="11">
         <v>6</v>
@@ -4981,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="H151" t="s" s="41">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I151" t="s" s="41">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="152">
@@ -4998,10 +5001,10 @@
         <v>4</v>
       </c>
       <c r="H152" t="s" s="20">
-        <v>226</v>
-      </c>
-      <c r="I152" t="s" s="35">
-        <v>62</v>
+        <v>227</v>
+      </c>
+      <c r="I152" t="s" s="15">
+        <v>48</v>
       </c>
     </row>
     <row r="153">
@@ -5015,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="H153" t="s" s="20">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I153" t="s" s="45">
         <v>12</v>
@@ -5026,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D154" s="41"/>
       <c r="E154" s="41"/>
@@ -5037,7 +5040,7 @@
         <v>4</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E155" s="19"/>
       <c r="F155" s="19"/>
@@ -5047,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D156" s="41"/>
       <c r="E156" s="41"/>
@@ -5058,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D157" s="41"/>
       <c r="E157" s="41"/>
@@ -5069,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D158" s="41"/>
       <c r="E158" s="41"/>
@@ -5080,7 +5083,7 @@
         <v>4</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D159" s="19"/>
       <c r="E159" s="19"/>
@@ -5091,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D160" s="19"/>
       <c r="E160" s="19"/>
@@ -5099,10 +5102,10 @@
     </row>
     <row r="161">
       <c r="B161" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -5110,10 +5113,10 @@
     </row>
     <row r="162">
       <c r="B162" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -5121,10 +5124,10 @@
     </row>
     <row r="163">
       <c r="B163" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -5132,10 +5135,10 @@
     </row>
     <row r="164">
       <c r="C164" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -5145,46 +5148,46 @@
         <v>4</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F165" s="19"/>
     </row>
     <row r="166">
       <c r="C166" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
     </row>
     <row r="167">
       <c r="C167" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
     <row r="168">
       <c r="C168" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
     <row r="169">
       <c r="C169" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -5194,17 +5197,17 @@
         <v>4</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E170" s="19"/>
       <c r="F170" s="19"/>
     </row>
     <row r="171">
       <c r="B171" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5212,20 +5215,20 @@
     </row>
     <row r="172">
       <c r="C172" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
     <row r="173">
       <c r="C173" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -5235,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D174" s="41"/>
       <c r="E174" s="41"/>
@@ -5246,7 +5249,7 @@
         <v>4</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D175" s="19"/>
       <c r="E175" s="19"/>
@@ -5257,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D176" s="41"/>
       <c r="E176" s="41"/>
@@ -5268,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="C177" s="41" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D177" s="41"/>
       <c r="E177" s="41"/>
@@ -5279,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D178" s="41"/>
       <c r="E178" s="41"/>
@@ -5290,7 +5293,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
@@ -5300,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="41"/>
@@ -5311,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D181" s="41"/>
       <c r="E181" s="41"/>
@@ -5322,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="D182" s="41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E182" s="41"/>
       <c r="F182" s="41"/>
@@ -5332,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="E183" s="41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F183" s="41"/>
     </row>
@@ -5341,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="E184" s="41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F184" s="41"/>
     </row>
@@ -5350,7 +5353,7 @@
         <v>4</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E185" s="19"/>
       <c r="F185" s="19"/>
@@ -5360,7 +5363,7 @@
         <v>4</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D186" s="19"/>
       <c r="E186" s="19"/>
@@ -5371,7 +5374,7 @@
         <v>4</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D187" s="19"/>
       <c r="E187" s="19"/>
@@ -5382,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D188" s="41"/>
       <c r="E188" s="41"/>
@@ -5393,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="D189" s="41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E189" s="41"/>
       <c r="F189" s="41"/>
@@ -5403,19 +5406,19 @@
         <v>4</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D190" s="19"/>
       <c r="E190" s="19"/>
       <c r="F190" s="19"/>
       <c r="G190" t="s" s="43">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H190" t="s" s="43">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I190" t="s" s="45">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="191">
@@ -5423,7 +5426,7 @@
         <v>4</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D191" s="19"/>
       <c r="E191" s="19"/>
@@ -5434,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D192" s="41"/>
       <c r="E192" s="41"/>
@@ -5445,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E193" s="19"/>
       <c r="F193" s="19"/>
@@ -5455,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D194" s="19"/>
       <c r="E194" s="19"/>
@@ -5466,7 +5469,7 @@
         <v>4</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D195" s="19"/>
       <c r="E195" s="19"/>
@@ -5474,10 +5477,10 @@
     </row>
     <row r="196">
       <c r="A196" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C196" s="25"/>
       <c r="D196" s="25"/>
@@ -5489,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D197" s="19"/>
       <c r="E197" s="19"/>
@@ -5500,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C198" s="19"/>
       <c r="D198" s="19"/>
@@ -5512,7 +5515,7 @@
         <v>4</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D199" s="19"/>
       <c r="E199" s="19"/>
@@ -5520,10 +5523,10 @@
     </row>
     <row r="200">
       <c r="A200" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
@@ -5533,10 +5536,10 @@
         <v>4</v>
       </c>
       <c r="H200" t="s" s="20">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I200" t="s" s="13">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201">
@@ -5550,10 +5553,10 @@
         <v>4</v>
       </c>
       <c r="H201" t="s" s="20">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I201" t="s" s="13">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
@@ -5561,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D202" s="19"/>
       <c r="E202" s="19"/>
@@ -5572,7 +5575,7 @@
         <v>4</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D203" s="19"/>
       <c r="E203" s="19"/>
@@ -5583,7 +5586,7 @@
         <v>4</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D204" s="19"/>
       <c r="E204" s="19"/>
@@ -5594,7 +5597,7 @@
         <v>4</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D205" s="19"/>
       <c r="E205" s="19"/>
@@ -5605,7 +5608,7 @@
         <v>4</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D206" s="19"/>
       <c r="E206" s="19"/>
@@ -5616,7 +5619,7 @@
         <v>4</v>
       </c>
       <c r="D207" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E207" s="19"/>
       <c r="F207" s="19"/>
@@ -5626,7 +5629,7 @@
         <v>4</v>
       </c>
       <c r="D208" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E208" s="19"/>
       <c r="F208" s="19"/>
@@ -5636,7 +5639,7 @@
         <v>4</v>
       </c>
       <c r="D209" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E209" s="19"/>
       <c r="F209" s="19"/>
@@ -5646,7 +5649,7 @@
         <v>4</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D210" s="19"/>
       <c r="E210" s="19"/>
@@ -5655,10 +5658,10 @@
         <v>4</v>
       </c>
       <c r="H210" t="s" s="20">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I210" t="s" s="41">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="211">
@@ -5666,7 +5669,7 @@
         <v>4</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D211" s="19"/>
       <c r="E211" s="19"/>
@@ -5677,7 +5680,7 @@
         <v>4</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D212" s="19"/>
       <c r="E212" s="19"/>
@@ -5685,10 +5688,10 @@
     </row>
     <row r="213">
       <c r="A213" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
@@ -5700,7 +5703,7 @@
         <v>4</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D214" s="19"/>
       <c r="E214" s="19"/>
@@ -5711,7 +5714,7 @@
         <v>4</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C215" s="19"/>
       <c r="D215" s="19"/>
@@ -5723,7 +5726,7 @@
         <v>4</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C216" s="19"/>
       <c r="D216" s="19"/>
@@ -5735,7 +5738,7 @@
         <v>4</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C217" s="19"/>
       <c r="D217" s="19"/>
@@ -5745,7 +5748,7 @@
     <row r="218">
       <c r="A218" s="25"/>
       <c r="B218" s="25" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C218" s="25"/>
       <c r="D218" s="25"/>
@@ -5754,28 +5757,28 @@
     </row>
     <row r="219">
       <c r="B219" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D219" s="35"/>
       <c r="E219" s="35"/>
       <c r="F219" s="35"/>
       <c r="G219" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H219" t="s" s="35">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I219" t="s" s="27">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J219" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K219" t="s" s="35">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L219" t="s" s="11">
         <v>6</v>
@@ -5792,16 +5795,16 @@
         <v>4</v>
       </c>
       <c r="H220" t="s" s="20">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I220" t="s" s="45">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J220" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K220" t="s" s="20">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L220" t="s" s="11">
         <v>6</v>
@@ -5818,16 +5821,16 @@
         <v>4</v>
       </c>
       <c r="H221" t="s" s="19">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I221" t="s" s="45">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J221" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K221" t="s" s="35">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L221" t="s" s="11">
         <v>6</v>
@@ -5844,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s" s="41">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I222" t="s" s="41">
         <v>15</v>
@@ -5853,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="K222" t="s" s="41">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L222" t="s" s="11">
         <v>6</v>
@@ -5867,22 +5870,22 @@
       <c r="E223" s="35"/>
       <c r="F223" s="35"/>
       <c r="G223" t="s" s="36">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H223" t="s" s="36">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I223" t="s" s="35">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J223" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K223" t="s" s="35">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L223" t="s" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="224">
@@ -5896,19 +5899,19 @@
         <v>0</v>
       </c>
       <c r="H224" t="s" s="41">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I224" t="s" s="41">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J224" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K224" t="s" s="35">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L224" t="s" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225">
@@ -5922,7 +5925,7 @@
         <v>4</v>
       </c>
       <c r="H225" t="s" s="20">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I225" t="s" s="45">
         <v>12</v>
@@ -5948,16 +5951,16 @@
         <v>4</v>
       </c>
       <c r="H226" t="s" s="20">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I226" t="s" s="19">
         <v>164</v>
       </c>
       <c r="J226" t="s" s="36">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K226" t="s" s="36">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L226" t="s" s="17">
         <v>3</v>
@@ -5974,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="s" s="42">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I227" t="s" s="45">
         <v>12</v>
@@ -5991,7 +5994,7 @@
         <v>4</v>
       </c>
       <c r="H228" t="s" s="20">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I228" t="s" s="41">
         <v>38</v>
@@ -6002,25 +6005,25 @@
         <v>0</v>
       </c>
       <c r="D229" s="41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E229" s="41"/>
       <c r="F229" s="41"/>
     </row>
     <row r="230">
       <c r="C230" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D230" s="35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E230" s="35"/>
       <c r="F230" s="35"/>
       <c r="J230" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K230" t="s" s="35">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L230" t="s" s="11">
         <v>6</v>
@@ -6037,10 +6040,10 @@
       <c r="H231" s="35"/>
       <c r="I231" s="35"/>
       <c r="J231" t="s" s="36">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K231" t="s" s="36">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L231" t="s" s="17">
         <v>3</v>
@@ -6057,10 +6060,10 @@
       <c r="H232" s="35"/>
       <c r="I232" s="35"/>
       <c r="J232" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K232" t="s" s="35">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L232" t="s" s="17">
         <v>3</v>
@@ -6077,10 +6080,10 @@
       <c r="H233" s="35"/>
       <c r="I233" s="35"/>
       <c r="J233" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K233" t="s" s="35">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L233" t="s" s="17">
         <v>3</v>
@@ -6088,26 +6091,26 @@
     </row>
     <row r="234">
       <c r="D234" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E234" s="35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F234" s="35"/>
       <c r="G234" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H234" t="s" s="41">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I234" t="s" s="35">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J234" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K234" t="s" s="35">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L234" t="s" s="17">
         <v>3</v>
@@ -6115,10 +6118,10 @@
     </row>
     <row r="235">
       <c r="E235" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F235" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G235" t="s" s="41">
         <v>0</v>
@@ -6141,10 +6144,10 @@
         <v>4</v>
       </c>
       <c r="H236" t="s" s="19">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I236" t="s" s="19">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="237">
@@ -6152,7 +6155,7 @@
         <v>4</v>
       </c>
       <c r="F237" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="238">
@@ -6160,7 +6163,7 @@
         <v>4</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F238" s="19"/>
     </row>
@@ -6169,17 +6172,17 @@
         <v>0</v>
       </c>
       <c r="E239" s="41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F239" s="41"/>
       <c r="G239" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H239" t="s" s="35">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I239" t="s" s="35">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="240">
@@ -6187,7 +6190,7 @@
         <v>4</v>
       </c>
       <c r="F240" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="241">
@@ -6195,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="E241" s="41" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F241" s="41"/>
     </row>
@@ -6204,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="E242" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F242" s="19"/>
     </row>
@@ -6213,7 +6216,7 @@
         <v>4</v>
       </c>
       <c r="E243" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F243" s="19"/>
     </row>
@@ -6222,7 +6225,7 @@
         <v>4</v>
       </c>
       <c r="D244" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E244" s="19"/>
       <c r="F244" s="19"/>
@@ -6232,7 +6235,7 @@
         <v>4</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F245" s="19"/>
     </row>
@@ -6241,26 +6244,26 @@
         <v>4</v>
       </c>
       <c r="E246" s="19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F246" s="19"/>
     </row>
     <row r="247">
       <c r="C247" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D247" s="35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E247" s="35"/>
       <c r="F247" s="35"/>
     </row>
     <row r="248">
       <c r="C248" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D248" s="35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E248" s="35"/>
       <c r="F248" s="35"/>
@@ -6268,16 +6271,16 @@
         <v>0</v>
       </c>
       <c r="H248" t="s" s="41">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I248" t="s" s="45">
         <v>18</v>
       </c>
       <c r="J248" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K248" t="s" s="35">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L248" t="s" s="17">
         <v>3</v>
@@ -6297,7 +6300,7 @@
         <v>4</v>
       </c>
       <c r="K249" t="s" s="19">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L249" t="s" s="11">
         <v>6</v>
@@ -6314,10 +6317,10 @@
       <c r="H250" s="35"/>
       <c r="I250" s="35"/>
       <c r="J250" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K250" t="s" s="35">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L250" t="s" s="17">
         <v>3</v>
@@ -6337,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="K251" t="s" s="41">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L251" t="s" s="17">
         <v>3</v>
@@ -6345,10 +6348,10 @@
     </row>
     <row r="252">
       <c r="D252" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E252" s="35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F252" s="35"/>
     </row>
@@ -6357,28 +6360,28 @@
         <v>4</v>
       </c>
       <c r="D253" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E253" s="19"/>
       <c r="F253" s="19"/>
     </row>
     <row r="254">
       <c r="C254" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D254" s="35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E254" s="35"/>
       <c r="F254" s="35"/>
       <c r="G254" t="s" s="25">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H254" t="s" s="25">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I254" t="s" s="35">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="255">
@@ -6386,41 +6389,41 @@
         <v>4</v>
       </c>
       <c r="E255" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F255" s="19"/>
     </row>
     <row r="256">
       <c r="D256" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E256" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F256" s="35"/>
     </row>
     <row r="257">
       <c r="D257" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E257" s="35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F257" s="35"/>
       <c r="G257" t="s" s="25">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H257" t="s" s="25">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I257" t="s" s="35">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J257" t="s" s="36">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K257" t="s" s="36">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L257" t="s" s="17">
         <v>3</v>
@@ -6431,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="D258" s="41" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E258" s="41"/>
       <c r="F258" s="41"/>
@@ -6441,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="D259" s="19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E259" s="19"/>
       <c r="F259" s="19"/>
@@ -6451,7 +6454,7 @@
         <v>4</v>
       </c>
       <c r="D260" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E260" s="19"/>
       <c r="F260" s="19"/>
@@ -6459,16 +6462,16 @@
         <v>4</v>
       </c>
       <c r="H260" t="s" s="20">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I260" t="s" s="45">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J260" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K260" t="s" s="19">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L260" t="s" s="11">
         <v>6</v>
@@ -6479,26 +6482,26 @@
         <v>0</v>
       </c>
       <c r="D261" s="41" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E261" s="41"/>
       <c r="F261" s="41"/>
       <c r="G261" t="s" s="25">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H261" t="s" s="25">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I261" t="s" s="35">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="262">
       <c r="C262" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D262" s="35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E262" s="35"/>
       <c r="F262" s="35"/>
@@ -6506,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s" s="41">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I262" t="s" s="45">
         <v>18</v>
@@ -6515,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="K262" t="s" s="41">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L262" t="s" s="17">
         <v>3</v>
@@ -6523,17 +6526,17 @@
     </row>
     <row r="263">
       <c r="D263" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E263" s="35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F263" s="35"/>
       <c r="J263" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K263" t="s" s="35">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L263" t="s" s="17">
         <v>3</v>
@@ -6550,10 +6553,10 @@
       <c r="H264" s="35"/>
       <c r="I264" s="35"/>
       <c r="J264" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K264" t="s" s="35">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L264" t="s" s="17">
         <v>3</v>
@@ -6570,10 +6573,10 @@
       <c r="H265" s="35"/>
       <c r="I265" s="35"/>
       <c r="J265" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K265" t="s" s="35">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L265" t="s" s="17">
         <v>3</v>
@@ -6581,80 +6584,64 @@
     </row>
     <row r="266">
       <c r="E266" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F266" s="35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="267">
-      <c r="C267" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D267" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="E267" s="19"/>
-      <c r="F267" s="19"/>
+      <c r="C267" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D267" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="E267" s="45"/>
+      <c r="F267" s="45"/>
     </row>
     <row r="268">
+      <c r="C268" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="D268" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E268" s="19" t="s">
-        <v>363</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="E268" s="19"/>
       <c r="F268" s="19"/>
     </row>
     <row r="269">
-      <c r="C269" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D269" s="35" t="s">
-        <v>364</v>
-      </c>
-      <c r="E269" s="35"/>
-      <c r="F269" s="35"/>
-      <c r="G269" t="s" s="42">
-        <v>0</v>
-      </c>
-      <c r="H269" t="s" s="42">
+      <c r="D269" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E269" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="I269" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J269" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K269" t="s" s="41">
-        <v>56</v>
-      </c>
-      <c r="L269" t="s" s="11">
-        <v>6</v>
-      </c>
+      <c r="F269" s="19"/>
     </row>
     <row r="270">
-      <c r="A270" s="35"/>
-      <c r="B270" s="35"/>
-      <c r="C270" s="35"/>
-      <c r="D270" s="35"/>
+      <c r="C270" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D270" s="35" t="s">
+        <v>366</v>
+      </c>
       <c r="E270" s="35"/>
       <c r="F270" s="35"/>
-      <c r="G270" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H270" t="s" s="41">
-        <v>14</v>
-      </c>
-      <c r="I270" t="s" s="41">
-        <v>15</v>
-      </c>
-      <c r="J270" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K270" t="s" s="19">
-        <v>366</v>
+      <c r="G270" t="s" s="42">
+        <v>0</v>
+      </c>
+      <c r="H270" t="s" s="42">
+        <v>367</v>
+      </c>
+      <c r="I270" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J270" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K270" t="s" s="41">
+        <v>57</v>
       </c>
       <c r="L270" t="s" s="11">
         <v>6</v>
@@ -6667,23 +6654,23 @@
       <c r="D271" s="35"/>
       <c r="E271" s="35"/>
       <c r="F271" s="35"/>
-      <c r="G271" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H271" t="s" s="19">
-        <v>121</v>
-      </c>
-      <c r="I271" t="s" s="19">
-        <v>195</v>
-      </c>
-      <c r="J271" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K271" t="s" s="20">
-        <v>367</v>
+      <c r="G271" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H271" t="s" s="41">
+        <v>14</v>
+      </c>
+      <c r="I271" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J271" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K271" t="s" s="19">
+        <v>368</v>
       </c>
       <c r="L271" t="s" s="11">
-        <v>368</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272">
@@ -6693,14 +6680,23 @@
       <c r="D272" s="35"/>
       <c r="E272" s="35"/>
       <c r="F272" s="35"/>
-      <c r="G272" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="H272" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="I272" t="s" s="5">
-        <v>55</v>
+      <c r="G272" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H272" t="s" s="19">
+        <v>121</v>
+      </c>
+      <c r="I272" t="s" s="19">
+        <v>196</v>
+      </c>
+      <c r="J272" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K272" t="s" s="20">
+        <v>369</v>
+      </c>
+      <c r="L272" t="s" s="11">
+        <v>370</v>
       </c>
     </row>
     <row r="273">
@@ -6710,14 +6706,14 @@
       <c r="D273" s="35"/>
       <c r="E273" s="35"/>
       <c r="F273" s="35"/>
-      <c r="G273" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H273" t="s" s="19">
-        <v>369</v>
-      </c>
-      <c r="I273" t="s" s="45">
-        <v>18</v>
+      <c r="G273" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="H273" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="I273" t="s" s="5">
+        <v>56</v>
       </c>
     </row>
     <row r="274">
@@ -6727,14 +6723,14 @@
       <c r="D274" s="35"/>
       <c r="E274" s="35"/>
       <c r="F274" s="35"/>
-      <c r="G274" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H274" t="s" s="20">
-        <v>370</v>
-      </c>
-      <c r="I274" t="s" s="19">
+      <c r="G274" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H274" t="s" s="19">
         <v>371</v>
+      </c>
+      <c r="I274" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="275">
@@ -6750,8 +6746,8 @@
       <c r="H275" t="s" s="20">
         <v>372</v>
       </c>
-      <c r="I275" t="s" s="45">
-        <v>221</v>
+      <c r="I275" t="s" s="19">
+        <v>373</v>
       </c>
     </row>
     <row r="276">
@@ -6761,60 +6757,60 @@
       <c r="D276" s="35"/>
       <c r="E276" s="35"/>
       <c r="F276" s="35"/>
-      <c r="G276" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H276" t="s" s="41">
-        <v>315</v>
+      <c r="G276" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H276" t="s" s="20">
+        <v>374</v>
       </c>
       <c r="I276" t="s" s="45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="35"/>
+      <c r="B277" s="35"/>
+      <c r="C277" s="35"/>
+      <c r="D277" s="35"/>
+      <c r="E277" s="35"/>
+      <c r="F277" s="35"/>
+      <c r="G277" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H277" t="s" s="41">
+        <v>316</v>
+      </c>
+      <c r="I277" t="s" s="45">
         <v>18</v>
       </c>
     </row>
-    <row r="277">
-      <c r="C277" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D277" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="E277" s="19"/>
-      <c r="F277" s="19"/>
-    </row>
     <row r="278">
-      <c r="C278" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D278" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E278" s="35"/>
-      <c r="F278" s="35"/>
-      <c r="G278" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H278" t="s" s="41">
-        <v>305</v>
-      </c>
-      <c r="I278" t="s" s="41">
-        <v>15</v>
-      </c>
+      <c r="C278" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D278" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="E278" s="19"/>
+      <c r="F278" s="19"/>
     </row>
     <row r="279">
-      <c r="A279" s="35"/>
-      <c r="B279" s="35"/>
-      <c r="C279" s="35"/>
-      <c r="D279" s="35"/>
+      <c r="C279" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D279" s="35" t="s">
+        <v>375</v>
+      </c>
       <c r="E279" s="35"/>
       <c r="F279" s="35"/>
-      <c r="G279" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="H279" t="s" s="35">
-        <v>374</v>
-      </c>
-      <c r="I279" t="s" s="45">
-        <v>18</v>
+      <c r="G279" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H279" t="s" s="41">
+        <v>306</v>
+      </c>
+      <c r="I279" t="s" s="41">
+        <v>15</v>
       </c>
     </row>
     <row r="280">
@@ -6824,11 +6820,11 @@
       <c r="D280" s="35"/>
       <c r="E280" s="35"/>
       <c r="F280" s="35"/>
-      <c r="G280" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H280" t="s" s="41">
-        <v>315</v>
+      <c r="G280" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="H280" t="s" s="35">
+        <v>376</v>
       </c>
       <c r="I280" t="s" s="45">
         <v>18</v>
@@ -6841,66 +6837,65 @@
       <c r="D281" s="35"/>
       <c r="E281" s="35"/>
       <c r="F281" s="35"/>
-      <c r="G281" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H281" t="s" s="20">
-        <v>375</v>
-      </c>
-      <c r="I281" t="s" s="19">
-        <v>376</v>
+      <c r="G281" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H281" t="s" s="41">
+        <v>316</v>
+      </c>
+      <c r="I281" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="282">
-      <c r="D282" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E282" s="19" t="s">
+      <c r="A282" s="35"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="35"/>
+      <c r="D282" s="35"/>
+      <c r="E282" s="35"/>
+      <c r="F282" s="35"/>
+      <c r="G282" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H282" t="s" s="20">
         <v>377</v>
       </c>
-      <c r="F282" s="19"/>
+      <c r="I282" t="s" s="19">
+        <v>378</v>
+      </c>
     </row>
     <row r="283">
+      <c r="D283" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="E283" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F283" s="19" t="s">
-        <v>378</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="F283" s="19"/>
     </row>
     <row r="284">
       <c r="E284" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F284" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="G284" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H284" t="s" s="19">
-        <v>375</v>
-      </c>
-      <c r="I284" t="s" s="19">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="285">
-      <c r="D285" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="E285" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="F285" s="19"/>
-      <c r="G285" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H285" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="F285" s="19" t="s">
         <v>381</v>
       </c>
+      <c r="G285" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H285" t="s" s="19">
+        <v>377</v>
+      </c>
       <c r="I285" t="s" s="19">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="286">
@@ -6911,24 +6906,24 @@
         <v>382</v>
       </c>
       <c r="F286" s="19"/>
-      <c r="G286" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H286" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I286" t="s" s="41">
-        <v>103</v>
+      <c r="G286" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H286" t="s" s="20">
+        <v>383</v>
+      </c>
+      <c r="I286" t="s" s="19">
+        <v>378</v>
       </c>
     </row>
     <row r="287">
-      <c r="D287" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E287" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="F287" s="41"/>
+      <c r="D287" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E287" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="F287" s="19"/>
       <c r="G287" t="s" s="41">
         <v>0</v>
       </c>
@@ -6936,64 +6931,62 @@
         <v>37</v>
       </c>
       <c r="I287" t="s" s="41">
-        <v>384</v>
+        <v>104</v>
       </c>
     </row>
     <row r="288">
-      <c r="D288" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E288" s="19" t="s">
+      <c r="D288" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E288" s="41" t="s">
         <v>385</v>
       </c>
-      <c r="F288" s="19"/>
+      <c r="F288" s="41"/>
+      <c r="G288" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H288" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="I288" t="s" s="41">
+        <v>386</v>
+      </c>
     </row>
     <row r="289">
-      <c r="C289" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="D289" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="E289" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="E289" s="19" t="s">
+        <v>387</v>
+      </c>
       <c r="F289" s="19"/>
     </row>
     <row r="290">
-      <c r="D290" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E290" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="F290" s="35"/>
-      <c r="J290" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K290" t="s" s="35">
-        <v>304</v>
-      </c>
-      <c r="L290" t="s" s="11">
+      <c r="C290" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D290" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="E290" s="19"/>
+      <c r="F290" s="19"/>
+    </row>
+    <row r="291">
+      <c r="D291" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E291" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="F291" s="35"/>
+      <c r="J291" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K291" t="s" s="35">
+        <v>305</v>
+      </c>
+      <c r="L291" t="s" s="11">
         <v>6</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="35"/>
-      <c r="B291" s="35"/>
-      <c r="C291" s="35"/>
-      <c r="D291" s="35"/>
-      <c r="E291" s="35"/>
-      <c r="F291" s="35"/>
-      <c r="G291" s="35"/>
-      <c r="H291" s="35"/>
-      <c r="I291" s="35"/>
-      <c r="J291" t="s" s="36">
-        <v>60</v>
-      </c>
-      <c r="K291" t="s" s="36">
-        <v>319</v>
-      </c>
-      <c r="L291" t="s" s="17">
-        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -7006,11 +6999,11 @@
       <c r="G292" s="35"/>
       <c r="H292" s="35"/>
       <c r="I292" s="35"/>
-      <c r="J292" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K292" t="s" s="35">
-        <v>308</v>
+      <c r="J292" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="K292" t="s" s="36">
+        <v>320</v>
       </c>
       <c r="L292" t="s" s="17">
         <v>3</v>
@@ -7027,80 +7020,92 @@
       <c r="H293" s="35"/>
       <c r="I293" s="35"/>
       <c r="J293" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K293" t="s" s="35">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L293" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="294">
-      <c r="E294" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F294" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="G294" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H294" t="s" s="41">
-        <v>309</v>
-      </c>
-      <c r="I294" t="s" s="35">
-        <v>321</v>
-      </c>
+      <c r="A294" s="35"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="35"/>
+      <c r="D294" s="35"/>
+      <c r="E294" s="35"/>
+      <c r="F294" s="35"/>
+      <c r="G294" s="35"/>
+      <c r="H294" s="35"/>
+      <c r="I294" s="35"/>
       <c r="J294" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K294" t="s" s="35">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L294" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="295">
-      <c r="E295" s="31" t="s">
+      <c r="E295" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F295" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G295" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H295" t="s" s="41">
+        <v>310</v>
+      </c>
+      <c r="I295" t="s" s="35">
+        <v>322</v>
+      </c>
+      <c r="J295" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K295" t="s" s="35">
         <v>323</v>
       </c>
-      <c r="F295" s="31" t="s">
+      <c r="L295" t="s" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="E296" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G295" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H295" t="s" s="41">
+      <c r="F296" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="G296" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H296" t="s" s="41">
         <v>14</v>
       </c>
-      <c r="I295" t="s" s="41">
+      <c r="I296" t="s" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="31"/>
-      <c r="B296" s="31"/>
-      <c r="C296" s="31"/>
-      <c r="D296" s="31"/>
-      <c r="E296" s="31"/>
-      <c r="F296" s="31"/>
-      <c r="G296" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H296" t="s" s="19">
-        <v>325</v>
-      </c>
-      <c r="I296" t="s" s="19">
+    <row r="297">
+      <c r="A297" s="31"/>
+      <c r="B297" s="31"/>
+      <c r="C297" s="31"/>
+      <c r="D297" s="31"/>
+      <c r="E297" s="31"/>
+      <c r="F297" s="31"/>
+      <c r="G297" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H297" t="s" s="19">
         <v>326</v>
       </c>
-    </row>
-    <row r="297">
-      <c r="E297" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F297" s="19" t="s">
+      <c r="I297" t="s" s="19">
         <v>327</v>
       </c>
     </row>
@@ -7113,44 +7118,44 @@
       </c>
     </row>
     <row r="299">
-      <c r="E299" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F299" s="41" t="s">
+      <c r="E299" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F299" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="G299" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="H299" t="s" s="35">
+    </row>
+    <row r="300">
+      <c r="E300" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F300" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="I299" t="s" s="35">
+      <c r="G300" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="H300" t="s" s="35">
         <v>331</v>
       </c>
-    </row>
-    <row r="300">
-      <c r="E300" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F300" s="19" t="s">
+      <c r="I300" t="s" s="35">
         <v>332</v>
       </c>
     </row>
     <row r="301">
-      <c r="E301" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F301" s="41" t="s">
+      <c r="E301" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F301" s="19" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="302">
-      <c r="E302" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F302" s="19" t="s">
-        <v>327</v>
+      <c r="E302" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F302" s="41" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="303">
@@ -7158,63 +7163,51 @@
         <v>4</v>
       </c>
       <c r="F303" s="19" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="304">
-      <c r="D304" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="E304" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="F304" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="F304" s="19" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="305">
-      <c r="D305" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E305" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="F305" s="35"/>
-      <c r="G305" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H305" t="s" s="41">
-        <v>315</v>
-      </c>
-      <c r="I305" t="s" s="45">
+      <c r="D305" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E305" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="F305" s="19"/>
+    </row>
+    <row r="306">
+      <c r="D306" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E306" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="F306" s="35"/>
+      <c r="G306" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H306" t="s" s="41">
+        <v>316</v>
+      </c>
+      <c r="I306" t="s" s="45">
         <v>18</v>
       </c>
-      <c r="J305" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K305" t="s" s="35">
-        <v>339</v>
-      </c>
-      <c r="L305" t="s" s="17">
+      <c r="J306" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K306" t="s" s="35">
+        <v>340</v>
+      </c>
+      <c r="L306" t="s" s="17">
         <v>3</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="35"/>
-      <c r="B306" s="35"/>
-      <c r="C306" s="35"/>
-      <c r="D306" s="35"/>
-      <c r="E306" s="35"/>
-      <c r="F306" s="35"/>
-      <c r="G306" s="35"/>
-      <c r="H306" s="35"/>
-      <c r="I306" s="35"/>
-      <c r="J306" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K306" t="s" s="19">
-        <v>340</v>
-      </c>
-      <c r="L306" t="s" s="11">
-        <v>6</v>
       </c>
     </row>
     <row r="307">
@@ -7227,14 +7220,14 @@
       <c r="G307" s="35"/>
       <c r="H307" s="35"/>
       <c r="I307" s="35"/>
-      <c r="J307" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K307" t="s" s="35">
+      <c r="J307" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K307" t="s" s="19">
         <v>341</v>
       </c>
-      <c r="L307" t="s" s="17">
-        <v>3</v>
+      <c r="L307" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="308">
@@ -7247,10 +7240,10 @@
       <c r="G308" s="35"/>
       <c r="H308" s="35"/>
       <c r="I308" s="35"/>
-      <c r="J308" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K308" t="s" s="41">
+      <c r="J308" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K308" t="s" s="35">
         <v>342</v>
       </c>
       <c r="L308" t="s" s="17">
@@ -7258,163 +7251,174 @@
       </c>
     </row>
     <row r="309">
-      <c r="E309" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F309" s="35" t="s">
+      <c r="A309" s="35"/>
+      <c r="B309" s="35"/>
+      <c r="C309" s="35"/>
+      <c r="D309" s="35"/>
+      <c r="E309" s="35"/>
+      <c r="F309" s="35"/>
+      <c r="G309" s="35"/>
+      <c r="H309" s="35"/>
+      <c r="I309" s="35"/>
+      <c r="J309" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K309" t="s" s="41">
         <v>343</v>
       </c>
+      <c r="L309" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="310">
-      <c r="D310" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E310" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="F310" s="19"/>
+      <c r="E310" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F310" s="35" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="311">
-      <c r="D311" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E311" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="F311" s="35"/>
-      <c r="G311" t="s" s="25">
+      <c r="D311" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E311" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="F311" s="19"/>
+    </row>
+    <row r="312">
+      <c r="D312" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E312" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="H311" t="s" s="25">
+      <c r="F312" s="35"/>
+      <c r="G312" t="s" s="25">
         <v>347</v>
       </c>
-      <c r="I311" t="s" s="35">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="E312" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F312" s="19" t="s">
+      <c r="H312" t="s" s="25">
         <v>348</v>
       </c>
+      <c r="I312" t="s" s="35">
+        <v>63</v>
+      </c>
     </row>
     <row r="313">
-      <c r="E313" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F313" s="35" t="s">
+      <c r="E313" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F313" s="19" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="314">
       <c r="E314" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F314" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="G314" t="s" s="25">
-        <v>346</v>
-      </c>
-      <c r="H314" t="s" s="25">
+    </row>
+    <row r="315">
+      <c r="E315" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F315" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="G315" t="s" s="25">
         <v>347</v>
       </c>
-      <c r="I314" t="s" s="35">
-        <v>351</v>
-      </c>
-      <c r="J314" t="s" s="36">
-        <v>60</v>
-      </c>
-      <c r="K314" t="s" s="36">
-        <v>319</v>
-      </c>
-      <c r="L314" t="s" s="17">
+      <c r="H315" t="s" s="25">
+        <v>348</v>
+      </c>
+      <c r="I315" t="s" s="35">
+        <v>352</v>
+      </c>
+      <c r="J315" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="K315" t="s" s="36">
+        <v>320</v>
+      </c>
+      <c r="L315" t="s" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="315">
-      <c r="D315" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E315" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="F315" s="19"/>
-    </row>
     <row r="316">
-      <c r="D316" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E316" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="F316" s="35"/>
+      <c r="D316" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E316" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="F316" s="19"/>
     </row>
     <row r="317">
-      <c r="C317" s="35" t="s">
-        <v>60</v>
-      </c>
       <c r="D317" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="E317" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="E317" s="35" t="s">
+        <v>392</v>
+      </c>
       <c r="F317" s="35"/>
-      <c r="G317" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H317" t="s" s="20">
-        <v>392</v>
-      </c>
-      <c r="I317" t="s" s="45">
-        <v>221</v>
-      </c>
-      <c r="J317" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K317" t="s" s="41">
-        <v>2</v>
-      </c>
-      <c r="L317" t="s" s="17">
-        <v>3</v>
-      </c>
     </row>
     <row r="318">
-      <c r="A318" s="35"/>
-      <c r="B318" s="35"/>
-      <c r="C318" s="35"/>
-      <c r="D318" s="35"/>
+      <c r="C318" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D318" s="35" t="s">
+        <v>393</v>
+      </c>
       <c r="E318" s="35"/>
       <c r="F318" s="35"/>
-      <c r="G318" s="35"/>
-      <c r="H318" s="35"/>
-      <c r="I318" s="35"/>
+      <c r="G318" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H318" t="s" s="20">
+        <v>394</v>
+      </c>
+      <c r="I318" t="s" s="45">
+        <v>222</v>
+      </c>
       <c r="J318" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K318" t="s" s="41">
-        <v>342</v>
+        <v>2</v>
       </c>
       <c r="L318" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="319">
-      <c r="D319" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E319" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="F319" s="19"/>
+      <c r="A319" s="35"/>
+      <c r="B319" s="35"/>
+      <c r="C319" s="35"/>
+      <c r="D319" s="35"/>
+      <c r="E319" s="35"/>
+      <c r="F319" s="35"/>
+      <c r="G319" s="35"/>
+      <c r="H319" s="35"/>
+      <c r="I319" s="35"/>
+      <c r="J319" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K319" t="s" s="41">
+        <v>343</v>
+      </c>
+      <c r="L319" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="320">
       <c r="D320" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E320" s="19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F320" s="19"/>
     </row>
@@ -7423,7 +7427,7 @@
         <v>4</v>
       </c>
       <c r="E321" s="19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F321" s="19"/>
     </row>
@@ -7432,7 +7436,7 @@
         <v>4</v>
       </c>
       <c r="E322" s="19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F322" s="19"/>
     </row>
@@ -7441,50 +7445,62 @@
         <v>4</v>
       </c>
       <c r="E323" s="19" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F323" s="19"/>
     </row>
     <row r="324">
-      <c r="C324" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D324" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="E324" s="35"/>
-      <c r="F324" s="35"/>
+      <c r="D324" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E324" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="F324" s="19"/>
     </row>
     <row r="325">
-      <c r="A325" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B325" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="C325" s="45"/>
-      <c r="D325" s="45"/>
-      <c r="E325" s="45"/>
-      <c r="F325" s="45"/>
+      <c r="C325" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D325" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="E325" s="35"/>
+      <c r="F325" s="35"/>
     </row>
     <row r="326">
-      <c r="B326" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C326" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="D326" s="45"/>
-      <c r="E326" s="45"/>
-      <c r="F326" s="45"/>
+      <c r="A326" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+      <c r="G326" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H326" t="s" s="19">
+        <v>402</v>
+      </c>
+      <c r="I326" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J326" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K326" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L326" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -7493,16 +7509,16 @@
         <v>4</v>
       </c>
       <c r="H327" t="s" s="19">
-        <v>401</v>
-      </c>
-      <c r="I327" t="s" s="45">
-        <v>18</v>
+        <v>149</v>
+      </c>
+      <c r="I327" t="s" s="35">
+        <v>403</v>
       </c>
       <c r="J327" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K327" t="s" s="41">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="L327" t="s" s="11">
         <v>6</v>
@@ -7515,135 +7531,120 @@
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
-      <c r="G328" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H328" t="s" s="19">
-        <v>149</v>
-      </c>
-      <c r="I328" t="s" s="35">
-        <v>402</v>
-      </c>
-      <c r="J328" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K328" t="s" s="41">
-        <v>56</v>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1"/>
+      <c r="I328" s="1"/>
+      <c r="J328" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K328" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L328" t="s" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
+      <c r="B329" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
-      <c r="H329" s="1"/>
-      <c r="I329" s="1"/>
-      <c r="J329" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K329" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L329" t="s" s="11">
-        <v>6</v>
-      </c>
     </row>
     <row r="330">
       <c r="B330" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
     </row>
     <row r="331">
-      <c r="B331" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="C331" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D331" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
     </row>
     <row r="332">
       <c r="C332" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
     </row>
     <row r="333">
+      <c r="B333" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="C333" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>406</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
     </row>
     <row r="334">
       <c r="B334" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
     </row>
     <row r="335">
-      <c r="B335" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="C335" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D335" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
     </row>
     <row r="336">
       <c r="C336" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
     </row>
     <row r="337">
+      <c r="B337" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="C337" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>410</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
     </row>
     <row r="338">
       <c r="B338" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -7651,169 +7652,184 @@
     </row>
     <row r="339">
       <c r="B339" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
     </row>
     <row r="340">
-      <c r="B340" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="C340" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D340" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
     </row>
     <row r="341">
       <c r="C341" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
     </row>
     <row r="342">
+      <c r="B342" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="C342" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>415</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
     </row>
     <row r="343">
-      <c r="B343" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="C343" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D343" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
     </row>
     <row r="344">
       <c r="C344" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
     </row>
     <row r="345">
-      <c r="C345" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E345" s="1"/>
-      <c r="F345" s="1"/>
+      <c r="A345" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B345" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="C345" s="21"/>
+      <c r="D345" s="21"/>
+      <c r="E345" s="21"/>
+      <c r="F345" s="21"/>
     </row>
     <row r="346">
-      <c r="A346" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B346" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="C346" s="21"/>
-      <c r="D346" s="21"/>
-      <c r="E346" s="21"/>
-      <c r="F346" s="21"/>
+      <c r="A346" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="B346" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="C346" s="25"/>
+      <c r="D346" s="25"/>
+      <c r="E346" s="25"/>
+      <c r="F346" s="25"/>
     </row>
     <row r="347">
-      <c r="A347" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="B347" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="C347" s="25"/>
-      <c r="D347" s="25"/>
-      <c r="E347" s="25"/>
-      <c r="F347" s="25"/>
+      <c r="B347" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C347" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D347" s="35"/>
+      <c r="E347" s="35"/>
+      <c r="F347" s="35"/>
+      <c r="J347" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K347" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L347" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="348">
-      <c r="B348" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C348" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D348" s="35"/>
-      <c r="E348" s="35"/>
-      <c r="F348" s="35"/>
-      <c r="J348" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K348" t="s" s="41">
-        <v>2</v>
-      </c>
-      <c r="L348" t="s" s="17">
-        <v>3</v>
-      </c>
+      <c r="B348" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D348" s="19"/>
+      <c r="E348" s="19"/>
+      <c r="F348" s="19"/>
     </row>
     <row r="349">
-      <c r="B349" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C349" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D349" s="19"/>
-      <c r="E349" s="19"/>
-      <c r="F349" s="19"/>
+      <c r="A349" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B349" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="C349" s="41"/>
+      <c r="D349" s="41"/>
+      <c r="E349" s="41"/>
+      <c r="F349" s="41"/>
     </row>
     <row r="350">
-      <c r="A350" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B350" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="C350" s="41"/>
-      <c r="D350" s="41"/>
-      <c r="E350" s="41"/>
-      <c r="F350" s="41"/>
+      <c r="A350" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B350" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="C350" s="19"/>
+      <c r="D350" s="19"/>
+      <c r="E350" s="19"/>
+      <c r="F350" s="19"/>
+      <c r="G350" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H350" t="s" s="41">
+        <v>306</v>
+      </c>
+      <c r="I350" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J350" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K350" t="s" s="19">
+        <v>425</v>
+      </c>
+      <c r="L350" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="351">
-      <c r="A351" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B351" s="19" t="s">
-        <v>423</v>
-      </c>
+      <c r="A351" s="19"/>
+      <c r="B351" s="19"/>
       <c r="C351" s="19"/>
       <c r="D351" s="19"/>
       <c r="E351" s="19"/>
       <c r="F351" s="19"/>
-      <c r="G351" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H351" t="s" s="41">
-        <v>305</v>
-      </c>
-      <c r="I351" t="s" s="41">
-        <v>15</v>
-      </c>
-      <c r="J351" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K351" t="s" s="19">
-        <v>424</v>
+      <c r="G351" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H351" t="s" s="19">
+        <v>426</v>
+      </c>
+      <c r="I351" t="s" s="19">
+        <v>427</v>
+      </c>
+      <c r="J351" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K351" t="s" s="41">
+        <v>13</v>
       </c>
       <c r="L351" t="s" s="11">
         <v>6</v>
@@ -7826,20 +7842,14 @@
       <c r="D352" s="19"/>
       <c r="E352" s="19"/>
       <c r="F352" s="19"/>
-      <c r="G352" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H352" t="s" s="19">
-        <v>425</v>
-      </c>
-      <c r="I352" t="s" s="19">
-        <v>426</v>
-      </c>
-      <c r="J352" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K352" t="s" s="41">
-        <v>13</v>
+      <c r="G352" s="19"/>
+      <c r="H352" s="19"/>
+      <c r="I352" s="19"/>
+      <c r="J352" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K352" t="s" s="19">
+        <v>428</v>
       </c>
       <c r="L352" t="s" s="11">
         <v>6</v>
@@ -7859,10 +7869,10 @@
         <v>4</v>
       </c>
       <c r="K353" t="s" s="19">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L353" t="s" s="11">
-        <v>6</v>
+        <v>430</v>
       </c>
     </row>
     <row r="354">
@@ -7879,38 +7889,29 @@
         <v>4</v>
       </c>
       <c r="K354" t="s" s="19">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="L354" t="s" s="11">
-        <v>429</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="19"/>
-      <c r="B355" s="19"/>
-      <c r="C355" s="19"/>
+      <c r="B355" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="19" t="s">
+        <v>431</v>
+      </c>
       <c r="D355" s="19"/>
       <c r="E355" s="19"/>
       <c r="F355" s="19"/>
-      <c r="G355" s="19"/>
-      <c r="H355" s="19"/>
-      <c r="I355" s="19"/>
-      <c r="J355" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K355" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L355" t="s" s="11">
-        <v>6</v>
-      </c>
     </row>
     <row r="356">
       <c r="B356" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C356" s="19" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D356" s="19"/>
       <c r="E356" s="19"/>
@@ -7921,7 +7922,7 @@
         <v>4</v>
       </c>
       <c r="C357" s="19" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D357" s="19"/>
       <c r="E357" s="19"/>
@@ -7932,63 +7933,78 @@
         <v>4</v>
       </c>
       <c r="C358" s="19" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D358" s="19"/>
       <c r="E358" s="19"/>
       <c r="F358" s="19"/>
     </row>
     <row r="359">
-      <c r="B359" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C359" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="D359" s="19"/>
-      <c r="E359" s="19"/>
-      <c r="F359" s="19"/>
+      <c r="A359" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
     </row>
     <row r="360">
-      <c r="A360" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B360" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C360" s="5"/>
-      <c r="D360" s="5"/>
-      <c r="E360" s="5"/>
-      <c r="F360" s="5"/>
+      <c r="A360" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B360" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="C360" s="19"/>
+      <c r="D360" s="19"/>
+      <c r="E360" s="19"/>
+      <c r="F360" s="19"/>
+      <c r="G360" t="s" s="43">
+        <v>69</v>
+      </c>
+      <c r="H360" t="s" s="43">
+        <v>113</v>
+      </c>
+      <c r="I360" t="s" s="19">
+        <v>119</v>
+      </c>
+      <c r="J360" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K360" t="s" s="41">
+        <v>57</v>
+      </c>
+      <c r="L360" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="361">
-      <c r="A361" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B361" s="19" t="s">
-        <v>435</v>
-      </c>
+      <c r="A361" s="19"/>
+      <c r="B361" s="19"/>
       <c r="C361" s="19"/>
       <c r="D361" s="19"/>
       <c r="E361" s="19"/>
       <c r="F361" s="19"/>
-      <c r="G361" t="s" s="43">
-        <v>68</v>
-      </c>
-      <c r="H361" t="s" s="43">
-        <v>112</v>
-      </c>
-      <c r="I361" t="s" s="19">
-        <v>119</v>
-      </c>
-      <c r="J361" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K361" t="s" s="41">
-        <v>56</v>
+      <c r="G361" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H361" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I361" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="J361" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K361" t="s" s="20">
+        <v>437</v>
       </c>
       <c r="L361" t="s" s="11">
-        <v>6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="362">
@@ -7998,23 +8014,14 @@
       <c r="D362" s="19"/>
       <c r="E362" s="19"/>
       <c r="F362" s="19"/>
-      <c r="G362" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H362" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I362" t="s" s="41">
-        <v>51</v>
-      </c>
-      <c r="J362" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K362" t="s" s="20">
-        <v>436</v>
-      </c>
-      <c r="L362" t="s" s="11">
-        <v>110</v>
+      <c r="G362" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H362" t="s" s="19">
+        <v>438</v>
+      </c>
+      <c r="I362" t="s" s="19">
+        <v>439</v>
       </c>
     </row>
     <row r="363">
@@ -8028,10 +8035,10 @@
         <v>4</v>
       </c>
       <c r="H363" t="s" s="19">
-        <v>437</v>
-      </c>
-      <c r="I363" t="s" s="19">
-        <v>438</v>
+        <v>177</v>
+      </c>
+      <c r="I363" t="s" s="41">
+        <v>205</v>
       </c>
     </row>
     <row r="364">
@@ -8045,10 +8052,10 @@
         <v>4</v>
       </c>
       <c r="H364" t="s" s="19">
-        <v>177</v>
-      </c>
-      <c r="I364" t="s" s="41">
-        <v>204</v>
+        <v>121</v>
+      </c>
+      <c r="I364" t="s" s="19">
+        <v>196</v>
       </c>
     </row>
     <row r="365">
@@ -8062,35 +8069,29 @@
         <v>4</v>
       </c>
       <c r="H365" t="s" s="19">
-        <v>121</v>
+        <v>440</v>
       </c>
       <c r="I365" t="s" s="19">
-        <v>195</v>
+        <v>441</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="19"/>
-      <c r="B366" s="19"/>
-      <c r="C366" s="19"/>
+      <c r="B366" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" s="19" t="s">
+        <v>442</v>
+      </c>
       <c r="D366" s="19"/>
       <c r="E366" s="19"/>
       <c r="F366" s="19"/>
-      <c r="G366" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H366" t="s" s="19">
-        <v>439</v>
-      </c>
-      <c r="I366" t="s" s="19">
-        <v>440</v>
-      </c>
     </row>
     <row r="367">
       <c r="B367" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D367" s="19"/>
       <c r="E367" s="19"/>
@@ -8101,7 +8102,7 @@
         <v>4</v>
       </c>
       <c r="C368" s="19" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D368" s="19"/>
       <c r="E368" s="19"/>
@@ -8112,51 +8113,66 @@
         <v>4</v>
       </c>
       <c r="C369" s="19" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D369" s="19"/>
       <c r="E369" s="19"/>
       <c r="F369" s="19"/>
     </row>
     <row r="370">
+      <c r="A370" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="B370" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C370" s="19" t="s">
-        <v>444</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C370" s="19"/>
       <c r="D370" s="19"/>
       <c r="E370" s="19"/>
       <c r="F370" s="19"/>
+      <c r="G370" t="s" s="43">
+        <v>69</v>
+      </c>
+      <c r="H370" t="s" s="43">
+        <v>70</v>
+      </c>
+      <c r="I370" t="s" s="19">
+        <v>447</v>
+      </c>
+      <c r="J370" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K370" t="s" s="19">
+        <v>425</v>
+      </c>
+      <c r="L370" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="371">
-      <c r="A371" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B371" s="19" t="s">
-        <v>445</v>
-      </c>
+      <c r="A371" s="19"/>
+      <c r="B371" s="19"/>
       <c r="C371" s="19"/>
       <c r="D371" s="19"/>
       <c r="E371" s="19"/>
       <c r="F371" s="19"/>
-      <c r="G371" t="s" s="43">
-        <v>68</v>
-      </c>
-      <c r="H371" t="s" s="43">
-        <v>69</v>
-      </c>
-      <c r="I371" t="s" s="19">
-        <v>446</v>
+      <c r="G371" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H371" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I371" t="s" s="41">
+        <v>51</v>
       </c>
       <c r="J371" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K371" t="s" s="19">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L371" t="s" s="11">
-        <v>6</v>
+        <v>430</v>
       </c>
     </row>
     <row r="372">
@@ -8166,88 +8182,88 @@
       <c r="D372" s="19"/>
       <c r="E372" s="19"/>
       <c r="F372" s="19"/>
-      <c r="G372" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H372" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I372" t="s" s="41">
-        <v>51</v>
-      </c>
-      <c r="J372" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K372" t="s" s="19">
-        <v>428</v>
-      </c>
-      <c r="L372" t="s" s="11">
-        <v>429</v>
+      <c r="G372" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H372" t="s" s="19">
+        <v>448</v>
+      </c>
+      <c r="I372" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="19"/>
-      <c r="B373" s="19"/>
-      <c r="C373" s="19"/>
-      <c r="D373" s="19"/>
-      <c r="E373" s="19"/>
-      <c r="F373" s="19"/>
-      <c r="G373" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H373" t="s" s="19">
-        <v>447</v>
-      </c>
-      <c r="I373" t="s" s="45">
-        <v>18</v>
+      <c r="A373" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B373" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C373" s="41"/>
+      <c r="D373" s="41"/>
+      <c r="E373" s="41"/>
+      <c r="F373" s="41"/>
+      <c r="G373" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H373" t="s" s="20">
+        <v>449</v>
+      </c>
+      <c r="I373" t="s" s="19">
+        <v>450</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B374" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="C374" s="41"/>
-      <c r="D374" s="41"/>
-      <c r="E374" s="41"/>
-      <c r="F374" s="41"/>
-      <c r="G374" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H374" t="s" s="20">
-        <v>448</v>
+      <c r="A374" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B374" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="C374" s="19"/>
+      <c r="D374" s="19"/>
+      <c r="E374" s="19"/>
+      <c r="F374" s="19"/>
+      <c r="G374" t="s" s="43">
+        <v>69</v>
+      </c>
+      <c r="H374" t="s" s="43">
+        <v>113</v>
       </c>
       <c r="I374" t="s" s="19">
-        <v>449</v>
+        <v>439</v>
+      </c>
+      <c r="J374" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K374" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L374" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B375" s="19" t="s">
-        <v>450</v>
-      </c>
+      <c r="A375" s="19"/>
+      <c r="B375" s="19"/>
       <c r="C375" s="19"/>
       <c r="D375" s="19"/>
       <c r="E375" s="19"/>
       <c r="F375" s="19"/>
-      <c r="G375" t="s" s="43">
-        <v>68</v>
-      </c>
-      <c r="H375" t="s" s="43">
-        <v>112</v>
-      </c>
-      <c r="I375" t="s" s="19">
-        <v>438</v>
+      <c r="G375" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H375" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I375" t="s" s="41">
+        <v>51</v>
       </c>
       <c r="J375" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K375" t="s" s="41">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="L375" t="s" s="11">
         <v>6</v>
@@ -8260,20 +8276,20 @@
       <c r="D376" s="19"/>
       <c r="E376" s="19"/>
       <c r="F376" s="19"/>
-      <c r="G376" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H376" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I376" t="s" s="41">
-        <v>51</v>
-      </c>
-      <c r="J376" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K376" t="s" s="41">
-        <v>56</v>
+      <c r="G376" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H376" t="s" s="19">
+        <v>452</v>
+      </c>
+      <c r="I376" t="s" s="19">
+        <v>453</v>
+      </c>
+      <c r="J376" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K376" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L376" t="s" s="11">
         <v>6</v>
@@ -8286,23 +8302,14 @@
       <c r="D377" s="19"/>
       <c r="E377" s="19"/>
       <c r="F377" s="19"/>
-      <c r="G377" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H377" t="s" s="19">
-        <v>451</v>
-      </c>
-      <c r="I377" t="s" s="19">
-        <v>452</v>
-      </c>
-      <c r="J377" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K377" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L377" t="s" s="11">
-        <v>6</v>
+      <c r="G377" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="H377" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="I377" t="s" s="5">
+        <v>56</v>
       </c>
     </row>
     <row r="378">
@@ -8312,14 +8319,14 @@
       <c r="D378" s="19"/>
       <c r="E378" s="19"/>
       <c r="F378" s="19"/>
-      <c r="G378" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="H378" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="I378" t="s" s="5">
-        <v>55</v>
+      <c r="G378" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H378" t="s" s="19">
+        <v>454</v>
+      </c>
+      <c r="I378" t="s" s="41">
+        <v>455</v>
       </c>
     </row>
     <row r="379">
@@ -8329,135 +8336,144 @@
       <c r="D379" s="19"/>
       <c r="E379" s="19"/>
       <c r="F379" s="19"/>
-      <c r="G379" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H379" t="s" s="19">
-        <v>453</v>
-      </c>
-      <c r="I379" t="s" s="41">
-        <v>454</v>
+      <c r="G379" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H379" t="s" s="41">
+        <v>106</v>
+      </c>
+      <c r="I379" t="s" s="19">
+        <v>456</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="19"/>
-      <c r="B380" s="19"/>
+      <c r="A380" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B380" s="19" t="s">
+        <v>457</v>
+      </c>
       <c r="C380" s="19"/>
       <c r="D380" s="19"/>
       <c r="E380" s="19"/>
       <c r="F380" s="19"/>
-      <c r="G380" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H380" t="s" s="41">
-        <v>105</v>
+      <c r="G380" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H380" t="s" s="19">
+        <v>458</v>
       </c>
       <c r="I380" t="s" s="19">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B381" s="19" t="s">
-        <v>456</v>
-      </c>
+      <c r="A381" s="19"/>
+      <c r="B381" s="19"/>
       <c r="C381" s="19"/>
       <c r="D381" s="19"/>
       <c r="E381" s="19"/>
       <c r="F381" s="19"/>
-      <c r="G381" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H381" t="s" s="19">
-        <v>457</v>
-      </c>
-      <c r="I381" t="s" s="19">
-        <v>438</v>
+      <c r="G381" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H381" t="s" s="20">
+        <v>454</v>
+      </c>
+      <c r="I381" t="s" s="41">
+        <v>455</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="19"/>
-      <c r="B382" s="19"/>
-      <c r="C382" s="19"/>
-      <c r="D382" s="19"/>
-      <c r="E382" s="19"/>
-      <c r="F382" s="19"/>
-      <c r="G382" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H382" t="s" s="20">
-        <v>453</v>
-      </c>
-      <c r="I382" t="s" s="41">
-        <v>454</v>
+      <c r="A382" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B382" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="C382" s="31"/>
+      <c r="D382" s="31"/>
+      <c r="E382" s="31"/>
+      <c r="F382" s="31"/>
+      <c r="G382" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H382" t="s" s="19">
+        <v>460</v>
+      </c>
+      <c r="I382" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="B383" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="C383" s="31"/>
-      <c r="D383" s="31"/>
-      <c r="E383" s="31"/>
-      <c r="F383" s="31"/>
-      <c r="G383" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H383" t="s" s="19">
-        <v>459</v>
-      </c>
-      <c r="I383" t="s" s="45">
-        <v>18</v>
+      <c r="B383" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C383" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="D383" s="35"/>
+      <c r="E383" s="35"/>
+      <c r="F383" s="35"/>
+      <c r="J383" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K383" t="s" s="35">
+        <v>462</v>
+      </c>
+      <c r="L383" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
-      <c r="B384" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C384" s="35" t="s">
-        <v>460</v>
-      </c>
-      <c r="D384" s="35"/>
-      <c r="E384" s="35"/>
-      <c r="F384" s="35"/>
-      <c r="J384" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K384" t="s" s="35">
-        <v>461</v>
-      </c>
-      <c r="L384" t="s" s="17">
-        <v>3</v>
+      <c r="C384" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D384" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="E384" s="19"/>
+      <c r="F384" s="19"/>
+      <c r="G384" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H384" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I384" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="J384" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K384" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L384" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="385">
-      <c r="C385" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D385" s="19" t="s">
-        <v>462</v>
-      </c>
+      <c r="A385" s="19"/>
+      <c r="B385" s="19"/>
+      <c r="C385" s="19"/>
+      <c r="D385" s="19"/>
       <c r="E385" s="19"/>
       <c r="F385" s="19"/>
       <c r="G385" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H385" t="s" s="41">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I385" t="s" s="41">
-        <v>51</v>
+        <v>464</v>
       </c>
       <c r="J385" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K385" t="s" s="41">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="L385" t="s" s="11">
         <v>6</v>
@@ -8470,144 +8486,144 @@
       <c r="D386" s="19"/>
       <c r="E386" s="19"/>
       <c r="F386" s="19"/>
-      <c r="G386" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H386" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I386" t="s" s="41">
-        <v>463</v>
-      </c>
-      <c r="J386" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K386" t="s" s="41">
-        <v>56</v>
+      <c r="G386" s="19"/>
+      <c r="H386" s="19"/>
+      <c r="I386" s="19"/>
+      <c r="J386" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K386" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L386" t="s" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="19"/>
-      <c r="B387" s="19"/>
-      <c r="C387" s="19"/>
-      <c r="D387" s="19"/>
-      <c r="E387" s="19"/>
-      <c r="F387" s="19"/>
-      <c r="G387" s="19"/>
-      <c r="H387" s="19"/>
-      <c r="I387" s="19"/>
-      <c r="J387" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K387" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L387" t="s" s="11">
-        <v>6</v>
+      <c r="C387" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D387" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="E387" s="35"/>
+      <c r="F387" s="35"/>
+      <c r="G387" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H387" t="s" s="41">
+        <v>316</v>
+      </c>
+      <c r="I387" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J387" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K387" t="s" s="35">
+        <v>466</v>
+      </c>
+      <c r="L387" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="388">
-      <c r="C388" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D388" s="35" t="s">
-        <v>464</v>
-      </c>
+      <c r="A388" s="35"/>
+      <c r="B388" s="35"/>
+      <c r="C388" s="35"/>
+      <c r="D388" s="35"/>
       <c r="E388" s="35"/>
       <c r="F388" s="35"/>
-      <c r="G388" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H388" t="s" s="41">
-        <v>315</v>
-      </c>
-      <c r="I388" t="s" s="45">
-        <v>18</v>
-      </c>
+      <c r="G388" s="35"/>
+      <c r="H388" s="35"/>
+      <c r="I388" s="35"/>
       <c r="J388" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K388" t="s" s="35">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L388" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="35"/>
-      <c r="B389" s="35"/>
-      <c r="C389" s="35"/>
-      <c r="D389" s="35"/>
-      <c r="E389" s="35"/>
+      <c r="D389" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E389" s="35" t="s">
+        <v>468</v>
+      </c>
       <c r="F389" s="35"/>
-      <c r="G389" s="35"/>
-      <c r="H389" s="35"/>
-      <c r="I389" s="35"/>
-      <c r="J389" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K389" t="s" s="35">
-        <v>466</v>
-      </c>
-      <c r="L389" t="s" s="17">
-        <v>3</v>
+      <c r="J389" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K389" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L389" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="390">
       <c r="D390" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E390" s="35" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F390" s="35"/>
-      <c r="J390" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K390" t="s" s="41">
-        <v>2</v>
-      </c>
-      <c r="L390" t="s" s="11">
+    </row>
+    <row r="391">
+      <c r="B391" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C391" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="D391" s="35"/>
+      <c r="E391" s="35"/>
+      <c r="F391" s="35"/>
+      <c r="G391" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="H391" t="s" s="35">
+        <v>299</v>
+      </c>
+      <c r="I391" t="s" s="27">
+        <v>300</v>
+      </c>
+      <c r="J391" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K391" t="s" s="35">
+        <v>301</v>
+      </c>
+      <c r="L391" t="s" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="391">
-      <c r="D391" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E391" s="35" t="s">
-        <v>468</v>
-      </c>
-      <c r="F391" s="35"/>
-    </row>
     <row r="392">
-      <c r="B392" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C392" s="35" t="s">
-        <v>297</v>
-      </c>
+      <c r="A392" s="35"/>
+      <c r="B392" s="35"/>
+      <c r="C392" s="35"/>
       <c r="D392" s="35"/>
       <c r="E392" s="35"/>
       <c r="F392" s="35"/>
-      <c r="G392" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="H392" t="s" s="35">
-        <v>298</v>
-      </c>
-      <c r="I392" t="s" s="27">
-        <v>299</v>
-      </c>
-      <c r="J392" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K392" t="s" s="35">
-        <v>300</v>
+      <c r="G392" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H392" t="s" s="20">
+        <v>302</v>
+      </c>
+      <c r="I392" t="s" s="45">
+        <v>222</v>
+      </c>
+      <c r="J392" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K392" t="s" s="20">
+        <v>303</v>
       </c>
       <c r="L392" t="s" s="11">
         <v>6</v>
@@ -8620,20 +8636,20 @@
       <c r="D393" s="35"/>
       <c r="E393" s="35"/>
       <c r="F393" s="35"/>
-      <c r="G393" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H393" t="s" s="20">
-        <v>301</v>
+      <c r="G393" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H393" t="s" s="19">
+        <v>304</v>
       </c>
       <c r="I393" t="s" s="45">
-        <v>221</v>
-      </c>
-      <c r="J393" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K393" t="s" s="20">
-        <v>302</v>
+        <v>222</v>
+      </c>
+      <c r="J393" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K393" t="s" s="35">
+        <v>305</v>
       </c>
       <c r="L393" t="s" s="11">
         <v>6</v>
@@ -8646,20 +8662,20 @@
       <c r="D394" s="35"/>
       <c r="E394" s="35"/>
       <c r="F394" s="35"/>
-      <c r="G394" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H394" t="s" s="19">
-        <v>303</v>
-      </c>
-      <c r="I394" t="s" s="45">
-        <v>221</v>
-      </c>
-      <c r="J394" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K394" t="s" s="35">
-        <v>304</v>
+      <c r="G394" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H394" t="s" s="41">
+        <v>306</v>
+      </c>
+      <c r="I394" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J394" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K394" t="s" s="41">
+        <v>53</v>
       </c>
       <c r="L394" t="s" s="11">
         <v>6</v>
@@ -8672,23 +8688,23 @@
       <c r="D395" s="35"/>
       <c r="E395" s="35"/>
       <c r="F395" s="35"/>
-      <c r="G395" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H395" t="s" s="41">
-        <v>305</v>
-      </c>
-      <c r="I395" t="s" s="41">
-        <v>15</v>
-      </c>
-      <c r="J395" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K395" t="s" s="41">
-        <v>52</v>
+      <c r="G395" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="H395" t="s" s="36">
+        <v>307</v>
+      </c>
+      <c r="I395" t="s" s="35">
+        <v>308</v>
+      </c>
+      <c r="J395" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K395" t="s" s="35">
+        <v>309</v>
       </c>
       <c r="L395" t="s" s="11">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="396">
@@ -8698,23 +8714,23 @@
       <c r="D396" s="35"/>
       <c r="E396" s="35"/>
       <c r="F396" s="35"/>
-      <c r="G396" t="s" s="36">
-        <v>60</v>
-      </c>
-      <c r="H396" t="s" s="36">
-        <v>306</v>
-      </c>
-      <c r="I396" t="s" s="35">
-        <v>307</v>
+      <c r="G396" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H396" t="s" s="41">
+        <v>310</v>
+      </c>
+      <c r="I396" t="s" s="41">
+        <v>311</v>
       </c>
       <c r="J396" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K396" t="s" s="35">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L396" t="s" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="397">
@@ -8724,23 +8740,23 @@
       <c r="D397" s="35"/>
       <c r="E397" s="35"/>
       <c r="F397" s="35"/>
-      <c r="G397" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H397" t="s" s="41">
-        <v>309</v>
-      </c>
-      <c r="I397" t="s" s="41">
-        <v>310</v>
-      </c>
-      <c r="J397" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K397" t="s" s="35">
-        <v>311</v>
+      <c r="G397" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H397" t="s" s="20">
+        <v>313</v>
+      </c>
+      <c r="I397" t="s" s="45">
+        <v>12</v>
+      </c>
+      <c r="J397" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K397" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L397" t="s" s="11">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="398">
@@ -8754,19 +8770,19 @@
         <v>4</v>
       </c>
       <c r="H398" t="s" s="20">
-        <v>312</v>
-      </c>
-      <c r="I398" t="s" s="45">
-        <v>12</v>
-      </c>
-      <c r="J398" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K398" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L398" t="s" s="11">
-        <v>6</v>
+        <v>314</v>
+      </c>
+      <c r="I398" t="s" s="19">
+        <v>164</v>
+      </c>
+      <c r="J398" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="K398" t="s" s="36">
+        <v>315</v>
+      </c>
+      <c r="L398" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -8776,23 +8792,14 @@
       <c r="D399" s="35"/>
       <c r="E399" s="35"/>
       <c r="F399" s="35"/>
-      <c r="G399" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H399" t="s" s="20">
-        <v>313</v>
-      </c>
-      <c r="I399" t="s" s="19">
-        <v>164</v>
-      </c>
-      <c r="J399" t="s" s="36">
-        <v>60</v>
-      </c>
-      <c r="K399" t="s" s="36">
-        <v>314</v>
-      </c>
-      <c r="L399" t="s" s="17">
-        <v>3</v>
+      <c r="G399" t="s" s="42">
+        <v>0</v>
+      </c>
+      <c r="H399" t="s" s="42">
+        <v>316</v>
+      </c>
+      <c r="I399" t="s" s="45">
+        <v>12</v>
       </c>
     </row>
     <row r="400">
@@ -8802,60 +8809,63 @@
       <c r="D400" s="35"/>
       <c r="E400" s="35"/>
       <c r="F400" s="35"/>
-      <c r="G400" t="s" s="42">
-        <v>0</v>
-      </c>
-      <c r="H400" t="s" s="42">
-        <v>315</v>
-      </c>
-      <c r="I400" t="s" s="45">
-        <v>12</v>
+      <c r="G400" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H400" t="s" s="20">
+        <v>317</v>
+      </c>
+      <c r="I400" t="s" s="41">
+        <v>38</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="35"/>
-      <c r="B401" s="35"/>
-      <c r="C401" s="35"/>
-      <c r="D401" s="35"/>
-      <c r="E401" s="35"/>
-      <c r="F401" s="35"/>
-      <c r="G401" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H401" t="s" s="20">
-        <v>316</v>
-      </c>
-      <c r="I401" t="s" s="41">
-        <v>38</v>
-      </c>
+      <c r="C401" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D401" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="E401" s="41"/>
+      <c r="F401" s="41"/>
     </row>
     <row r="402">
-      <c r="C402" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D402" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="E402" s="41"/>
-      <c r="F402" s="41"/>
+      <c r="C402" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D402" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="E402" s="35"/>
+      <c r="F402" s="35"/>
+      <c r="J402" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K402" t="s" s="35">
+        <v>305</v>
+      </c>
+      <c r="L402" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="403">
-      <c r="C403" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D403" s="35" t="s">
-        <v>318</v>
-      </c>
+      <c r="A403" s="35"/>
+      <c r="B403" s="35"/>
+      <c r="C403" s="35"/>
+      <c r="D403" s="35"/>
       <c r="E403" s="35"/>
       <c r="F403" s="35"/>
-      <c r="J403" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K403" t="s" s="35">
-        <v>304</v>
-      </c>
-      <c r="L403" t="s" s="11">
-        <v>6</v>
+      <c r="G403" s="35"/>
+      <c r="H403" s="35"/>
+      <c r="I403" s="35"/>
+      <c r="J403" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="K403" t="s" s="36">
+        <v>320</v>
+      </c>
+      <c r="L403" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -8868,11 +8878,11 @@
       <c r="G404" s="35"/>
       <c r="H404" s="35"/>
       <c r="I404" s="35"/>
-      <c r="J404" t="s" s="36">
-        <v>60</v>
-      </c>
-      <c r="K404" t="s" s="36">
-        <v>319</v>
+      <c r="J404" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K404" t="s" s="35">
+        <v>309</v>
       </c>
       <c r="L404" t="s" s="17">
         <v>3</v>
@@ -8889,174 +8899,163 @@
       <c r="H405" s="35"/>
       <c r="I405" s="35"/>
       <c r="J405" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K405" t="s" s="35">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L405" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="35"/>
-      <c r="B406" s="35"/>
-      <c r="C406" s="35"/>
-      <c r="D406" s="35"/>
-      <c r="E406" s="35"/>
+      <c r="D406" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E406" s="35" t="s">
+        <v>321</v>
+      </c>
       <c r="F406" s="35"/>
-      <c r="G406" s="35"/>
-      <c r="H406" s="35"/>
-      <c r="I406" s="35"/>
+      <c r="G406" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H406" t="s" s="41">
+        <v>310</v>
+      </c>
+      <c r="I406" t="s" s="35">
+        <v>322</v>
+      </c>
       <c r="J406" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K406" t="s" s="35">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="L406" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="407">
-      <c r="D407" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E407" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="F407" s="35"/>
+      <c r="E407" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="F407" s="31" t="s">
+        <v>325</v>
+      </c>
       <c r="G407" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H407" t="s" s="41">
-        <v>309</v>
-      </c>
-      <c r="I407" t="s" s="35">
-        <v>321</v>
-      </c>
-      <c r="J407" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K407" t="s" s="35">
-        <v>322</v>
-      </c>
-      <c r="L407" t="s" s="17">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="I407" t="s" s="41">
+        <v>15</v>
       </c>
     </row>
     <row r="408">
-      <c r="E408" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="F408" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="G408" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H408" t="s" s="41">
-        <v>14</v>
-      </c>
-      <c r="I408" t="s" s="41">
-        <v>15</v>
+      <c r="A408" s="31"/>
+      <c r="B408" s="31"/>
+      <c r="C408" s="31"/>
+      <c r="D408" s="31"/>
+      <c r="E408" s="31"/>
+      <c r="F408" s="31"/>
+      <c r="G408" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H408" t="s" s="19">
+        <v>326</v>
+      </c>
+      <c r="I408" t="s" s="19">
+        <v>327</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="31"/>
-      <c r="B409" s="31"/>
-      <c r="C409" s="31"/>
-      <c r="D409" s="31"/>
-      <c r="E409" s="31"/>
-      <c r="F409" s="31"/>
-      <c r="G409" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H409" t="s" s="19">
-        <v>325</v>
-      </c>
-      <c r="I409" t="s" s="19">
-        <v>326</v>
+      <c r="E409" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F409" s="19" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="410">
+      <c r="D410" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="E410" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F410" s="19" t="s">
-        <v>327</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="F410" s="19"/>
     </row>
     <row r="411">
-      <c r="D411" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E411" s="19" t="s">
+      <c r="D411" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E411" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="F411" s="41"/>
+      <c r="G411" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="H411" t="s" s="35">
+        <v>331</v>
+      </c>
+      <c r="I411" t="s" s="35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="E412" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F412" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="D413" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E413" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="F413" s="41"/>
+    </row>
+    <row r="414">
+      <c r="D414" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E414" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F411" s="19"/>
-    </row>
-    <row r="412">
-      <c r="D412" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E412" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="F412" s="41"/>
-      <c r="G412" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="H412" t="s" s="35">
-        <v>330</v>
-      </c>
-      <c r="I412" t="s" s="35">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="E413" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F413" s="19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="D414" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E414" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="F414" s="41"/>
+      <c r="F414" s="19"/>
     </row>
     <row r="415">
       <c r="D415" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E415" s="19" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F415" s="19"/>
     </row>
     <row r="416">
+      <c r="C416" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="D416" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E416" s="19" t="s">
-        <v>334</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="E416" s="19"/>
       <c r="F416" s="19"/>
     </row>
     <row r="417">
-      <c r="C417" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="D417" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="E417" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="E417" s="19" t="s">
+        <v>337</v>
+      </c>
       <c r="F417" s="19"/>
     </row>
     <row r="418">
@@ -9064,55 +9063,66 @@
         <v>4</v>
       </c>
       <c r="E418" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="F418" s="19"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D419" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="F418" s="19"/>
-    </row>
-    <row r="419">
-      <c r="D419" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E419" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="F419" s="19"/>
+      <c r="E419" s="35"/>
+      <c r="F419" s="35"/>
     </row>
     <row r="420">
       <c r="C420" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D420" s="35" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E420" s="35"/>
       <c r="F420" s="35"/>
+      <c r="G420" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H420" t="s" s="41">
+        <v>316</v>
+      </c>
+      <c r="I420" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J420" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K420" t="s" s="35">
+        <v>340</v>
+      </c>
+      <c r="L420" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="421">
-      <c r="C421" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D421" s="35" t="s">
-        <v>338</v>
-      </c>
+      <c r="A421" s="35"/>
+      <c r="B421" s="35"/>
+      <c r="C421" s="35"/>
+      <c r="D421" s="35"/>
       <c r="E421" s="35"/>
       <c r="F421" s="35"/>
-      <c r="G421" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H421" t="s" s="41">
-        <v>315</v>
-      </c>
-      <c r="I421" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J421" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K421" t="s" s="35">
-        <v>339</v>
-      </c>
-      <c r="L421" t="s" s="17">
-        <v>3</v>
+      <c r="G421" s="35"/>
+      <c r="H421" s="35"/>
+      <c r="I421" s="35"/>
+      <c r="J421" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K421" t="s" s="19">
+        <v>341</v>
+      </c>
+      <c r="L421" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="422">
@@ -9125,14 +9135,14 @@
       <c r="G422" s="35"/>
       <c r="H422" s="35"/>
       <c r="I422" s="35"/>
-      <c r="J422" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K422" t="s" s="19">
-        <v>340</v>
-      </c>
-      <c r="L422" t="s" s="11">
-        <v>6</v>
+      <c r="J422" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K422" t="s" s="35">
+        <v>342</v>
+      </c>
+      <c r="L422" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -9145,227 +9155,227 @@
       <c r="G423" s="35"/>
       <c r="H423" s="35"/>
       <c r="I423" s="35"/>
-      <c r="J423" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K423" t="s" s="35">
-        <v>341</v>
+      <c r="J423" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K423" t="s" s="41">
+        <v>343</v>
       </c>
       <c r="L423" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="35"/>
-      <c r="B424" s="35"/>
-      <c r="C424" s="35"/>
-      <c r="D424" s="35"/>
-      <c r="E424" s="35"/>
+      <c r="D424" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E424" s="35" t="s">
+        <v>344</v>
+      </c>
       <c r="F424" s="35"/>
-      <c r="G424" s="35"/>
-      <c r="H424" s="35"/>
-      <c r="I424" s="35"/>
-      <c r="J424" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K424" t="s" s="41">
-        <v>342</v>
-      </c>
-      <c r="L424" t="s" s="17">
-        <v>3</v>
-      </c>
     </row>
     <row r="425">
-      <c r="D425" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E425" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="F425" s="35"/>
+      <c r="C425" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D425" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="E425" s="19"/>
+      <c r="F425" s="19"/>
     </row>
     <row r="426">
-      <c r="C426" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D426" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="E426" s="19"/>
-      <c r="F426" s="19"/>
+      <c r="C426" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D426" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="E426" s="35"/>
+      <c r="F426" s="35"/>
+      <c r="G426" t="s" s="25">
+        <v>347</v>
+      </c>
+      <c r="H426" t="s" s="25">
+        <v>348</v>
+      </c>
+      <c r="I426" t="s" s="35">
+        <v>63</v>
+      </c>
     </row>
     <row r="427">
-      <c r="C427" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D427" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="E427" s="35"/>
-      <c r="F427" s="35"/>
-      <c r="G427" t="s" s="25">
-        <v>346</v>
-      </c>
-      <c r="H427" t="s" s="25">
-        <v>347</v>
-      </c>
-      <c r="I427" t="s" s="35">
-        <v>62</v>
-      </c>
+      <c r="D427" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E427" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="F427" s="19"/>
     </row>
     <row r="428">
-      <c r="D428" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E428" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="F428" s="19"/>
+      <c r="D428" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E428" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="F428" s="35"/>
     </row>
     <row r="429">
       <c r="D429" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E429" s="35" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F429" s="35"/>
+      <c r="G429" t="s" s="25">
+        <v>347</v>
+      </c>
+      <c r="H429" t="s" s="25">
+        <v>348</v>
+      </c>
+      <c r="I429" t="s" s="35">
+        <v>352</v>
+      </c>
+      <c r="J429" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="K429" t="s" s="36">
+        <v>320</v>
+      </c>
+      <c r="L429" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="430">
-      <c r="D430" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E430" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="F430" s="35"/>
-      <c r="G430" t="s" s="25">
-        <v>346</v>
-      </c>
-      <c r="H430" t="s" s="25">
-        <v>347</v>
-      </c>
-      <c r="I430" t="s" s="35">
-        <v>351</v>
-      </c>
-      <c r="J430" t="s" s="36">
-        <v>60</v>
-      </c>
-      <c r="K430" t="s" s="36">
-        <v>319</v>
-      </c>
-      <c r="L430" t="s" s="17">
-        <v>3</v>
-      </c>
+      <c r="C430" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D430" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E430" s="41"/>
+      <c r="F430" s="41"/>
     </row>
     <row r="431">
-      <c r="C431" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D431" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="E431" s="41"/>
-      <c r="F431" s="41"/>
+      <c r="C431" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D431" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E431" s="19"/>
+      <c r="F431" s="19"/>
     </row>
     <row r="432">
       <c r="C432" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D432" s="19" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E432" s="19"/>
       <c r="F432" s="19"/>
+      <c r="G432" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H432" t="s" s="20">
+        <v>355</v>
+      </c>
+      <c r="I432" t="s" s="45">
+        <v>222</v>
+      </c>
+      <c r="J432" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K432" t="s" s="19">
+        <v>356</v>
+      </c>
+      <c r="L432" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="433">
-      <c r="C433" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D433" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="E433" s="19"/>
-      <c r="F433" s="19"/>
-      <c r="G433" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H433" t="s" s="20">
-        <v>354</v>
-      </c>
-      <c r="I433" t="s" s="45">
-        <v>221</v>
-      </c>
-      <c r="J433" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K433" t="s" s="19">
-        <v>355</v>
-      </c>
-      <c r="L433" t="s" s="11">
-        <v>6</v>
+      <c r="C433" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D433" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="E433" s="41"/>
+      <c r="F433" s="41"/>
+      <c r="G433" t="s" s="25">
+        <v>358</v>
+      </c>
+      <c r="H433" t="s" s="25">
+        <v>359</v>
+      </c>
+      <c r="I433" t="s" s="35">
+        <v>63</v>
       </c>
     </row>
     <row r="434">
-      <c r="C434" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D434" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="E434" s="41"/>
-      <c r="F434" s="41"/>
-      <c r="G434" t="s" s="25">
-        <v>357</v>
-      </c>
-      <c r="H434" t="s" s="25">
-        <v>358</v>
-      </c>
-      <c r="I434" t="s" s="35">
-        <v>62</v>
+      <c r="C434" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D434" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="E434" s="35"/>
+      <c r="F434" s="35"/>
+      <c r="G434" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H434" t="s" s="41">
+        <v>316</v>
+      </c>
+      <c r="I434" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J434" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K434" t="s" s="41">
+        <v>343</v>
+      </c>
+      <c r="L434" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="435">
-      <c r="C435" s="35" t="s">
-        <v>60</v>
-      </c>
       <c r="D435" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="E435" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="E435" s="35" t="s">
+        <v>361</v>
+      </c>
       <c r="F435" s="35"/>
-      <c r="G435" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H435" t="s" s="41">
-        <v>315</v>
-      </c>
-      <c r="I435" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J435" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K435" t="s" s="41">
-        <v>342</v>
+      <c r="J435" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K435" t="s" s="35">
+        <v>340</v>
       </c>
       <c r="L435" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="436">
-      <c r="D436" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E436" s="35" t="s">
-        <v>360</v>
-      </c>
+      <c r="A436" s="35"/>
+      <c r="B436" s="35"/>
+      <c r="C436" s="35"/>
+      <c r="D436" s="35"/>
+      <c r="E436" s="35"/>
       <c r="F436" s="35"/>
+      <c r="G436" s="35"/>
+      <c r="H436" s="35"/>
+      <c r="I436" s="35"/>
       <c r="J436" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K436" t="s" s="35">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="L436" t="s" s="17">
         <v>3</v>
@@ -9382,49 +9392,39 @@
       <c r="H437" s="35"/>
       <c r="I437" s="35"/>
       <c r="J437" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K437" t="s" s="35">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L437" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="35"/>
-      <c r="B438" s="35"/>
-      <c r="C438" s="35"/>
-      <c r="D438" s="35"/>
-      <c r="E438" s="35"/>
-      <c r="F438" s="35"/>
-      <c r="G438" s="35"/>
-      <c r="H438" s="35"/>
-      <c r="I438" s="35"/>
-      <c r="J438" t="s" s="35">
-        <v>60</v>
-      </c>
-      <c r="K438" t="s" s="35">
-        <v>311</v>
-      </c>
-      <c r="L438" t="s" s="17">
-        <v>3</v>
+      <c r="E438" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F438" s="35" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="439">
-      <c r="E439" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F439" s="35" t="s">
-        <v>361</v>
-      </c>
+      <c r="C439" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D439" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="E439" s="45"/>
+      <c r="F439" s="45"/>
     </row>
     <row r="440">
       <c r="C440" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D440" s="19" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E440" s="19"/>
       <c r="F440" s="19"/>
@@ -9434,16 +9434,16 @@
         <v>4</v>
       </c>
       <c r="E441" s="19" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F441" s="19"/>
     </row>
     <row r="442">
       <c r="C442" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D442" s="35" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E442" s="35"/>
       <c r="F442" s="35"/>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s" s="42">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I442" t="s" s="45">
         <v>18</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="K442" t="s" s="41">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L442" t="s" s="11">
         <v>6</v>
@@ -9486,7 +9486,7 @@
         <v>4</v>
       </c>
       <c r="K443" t="s" s="19">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L443" t="s" s="11">
         <v>6</v>
@@ -9506,16 +9506,16 @@
         <v>121</v>
       </c>
       <c r="I444" t="s" s="19">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J444" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K444" t="s" s="20">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L444" t="s" s="11">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="445">
@@ -9526,13 +9526,13 @@
       <c r="E445" s="35"/>
       <c r="F445" s="35"/>
       <c r="G445" t="s" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H445" t="s" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I445" t="s" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="446">
@@ -9546,7 +9546,7 @@
         <v>4</v>
       </c>
       <c r="H446" t="s" s="19">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I446" t="s" s="45">
         <v>18</v>
@@ -9563,10 +9563,10 @@
         <v>4</v>
       </c>
       <c r="H447" t="s" s="20">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I447" t="s" s="19">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="448">
@@ -9580,10 +9580,10 @@
         <v>4</v>
       </c>
       <c r="H448" t="s" s="20">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I448" t="s" s="45">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="449">
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="s" s="41">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I449" t="s" s="45">
         <v>18</v>
@@ -9608,17 +9608,17 @@
         <v>4</v>
       </c>
       <c r="D450" s="19" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E450" s="19"/>
       <c r="F450" s="19"/>
     </row>
     <row r="451">
       <c r="C451" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D451" s="35" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E451" s="35"/>
       <c r="F451" s="35"/>
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="s" s="41">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I451" t="s" s="41">
         <v>15</v>
@@ -9640,10 +9640,10 @@
       <c r="E452" s="35"/>
       <c r="F452" s="35"/>
       <c r="G452" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H452" t="s" s="35">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I452" t="s" s="45">
         <v>18</v>
@@ -9660,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s" s="41">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I453" t="s" s="45">
         <v>18</v>
@@ -9677,10 +9677,10 @@
         <v>4</v>
       </c>
       <c r="H454" t="s" s="20">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I454" t="s" s="19">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="455">
@@ -9688,7 +9688,7 @@
         <v>4</v>
       </c>
       <c r="E455" s="19" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F455" s="19"/>
     </row>
@@ -9697,7 +9697,7 @@
         <v>4</v>
       </c>
       <c r="F456" s="19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="457">
@@ -9705,16 +9705,16 @@
         <v>4</v>
       </c>
       <c r="F457" s="19" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G457" t="s" s="19">
         <v>4</v>
       </c>
       <c r="H457" t="s" s="19">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I457" t="s" s="19">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="458">
@@ -9722,17 +9722,17 @@
         <v>4</v>
       </c>
       <c r="E458" s="19" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F458" s="19"/>
       <c r="G458" t="s" s="20">
         <v>4</v>
       </c>
       <c r="H458" t="s" s="20">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I458" t="s" s="19">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="459">
@@ -9740,7 +9740,7 @@
         <v>4</v>
       </c>
       <c r="E459" s="19" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F459" s="19"/>
       <c r="G459" t="s" s="41">
@@ -9750,7 +9750,7 @@
         <v>37</v>
       </c>
       <c r="I459" t="s" s="41">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="460">
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="E460" s="41" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F460" s="41"/>
       <c r="G460" t="s" s="41">
@@ -9768,7 +9768,7 @@
         <v>37</v>
       </c>
       <c r="I460" t="s" s="41">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="461">
@@ -9776,7 +9776,7 @@
         <v>4</v>
       </c>
       <c r="E461" s="19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F461" s="19"/>
     </row>
@@ -9785,24 +9785,24 @@
         <v>4</v>
       </c>
       <c r="D462" s="19" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E462" s="19"/>
       <c r="F462" s="19"/>
     </row>
     <row r="463">
       <c r="D463" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E463" s="35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F463" s="35"/>
       <c r="J463" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K463" t="s" s="35">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L463" t="s" s="11">
         <v>6</v>
@@ -9819,10 +9819,10 @@
       <c r="H464" s="35"/>
       <c r="I464" s="35"/>
       <c r="J464" t="s" s="36">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K464" t="s" s="36">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L464" t="s" s="17">
         <v>3</v>
@@ -9839,10 +9839,10 @@
       <c r="H465" s="35"/>
       <c r="I465" s="35"/>
       <c r="J465" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K465" t="s" s="35">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L465" t="s" s="17">
         <v>3</v>
@@ -9859,10 +9859,10 @@
       <c r="H466" s="35"/>
       <c r="I466" s="35"/>
       <c r="J466" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K466" t="s" s="35">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L466" t="s" s="17">
         <v>3</v>
@@ -9870,25 +9870,25 @@
     </row>
     <row r="467">
       <c r="E467" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F467" s="35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G467" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H467" t="s" s="41">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I467" t="s" s="35">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J467" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K467" t="s" s="35">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L467" t="s" s="17">
         <v>3</v>
@@ -9896,10 +9896,10 @@
     </row>
     <row r="468">
       <c r="E468" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F468" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G468" t="s" s="41">
         <v>0</v>
@@ -9922,10 +9922,10 @@
         <v>4</v>
       </c>
       <c r="H469" t="s" s="19">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I469" t="s" s="19">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="470">
@@ -9933,7 +9933,7 @@
         <v>4</v>
       </c>
       <c r="F470" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="471">
@@ -9941,7 +9941,7 @@
         <v>4</v>
       </c>
       <c r="F471" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="472">
@@ -9949,16 +9949,16 @@
         <v>0</v>
       </c>
       <c r="F472" s="41" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G472" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H472" t="s" s="35">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I472" t="s" s="35">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="473">
@@ -9966,7 +9966,7 @@
         <v>4</v>
       </c>
       <c r="F473" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="474">
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="F474" s="41" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="475">
@@ -9982,7 +9982,7 @@
         <v>4</v>
       </c>
       <c r="F475" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="476">
@@ -9990,7 +9990,7 @@
         <v>4</v>
       </c>
       <c r="F476" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="477">
@@ -9998,32 +9998,32 @@
         <v>4</v>
       </c>
       <c r="E477" s="19" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F477" s="19"/>
     </row>
     <row r="478">
       <c r="D478" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E478" s="35" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F478" s="35"/>
       <c r="G478" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H478" t="s" s="41">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I478" t="s" s="45">
         <v>18</v>
       </c>
       <c r="J478" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K478" t="s" s="35">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L478" t="s" s="17">
         <v>3</v>
@@ -10043,7 +10043,7 @@
         <v>4</v>
       </c>
       <c r="K479" t="s" s="19">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L479" t="s" s="11">
         <v>6</v>
@@ -10060,10 +10060,10 @@
       <c r="H480" s="35"/>
       <c r="I480" s="35"/>
       <c r="J480" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K480" t="s" s="35">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L480" t="s" s="17">
         <v>3</v>
@@ -10083,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="K481" t="s" s="41">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L481" t="s" s="17">
         <v>3</v>
@@ -10091,10 +10091,10 @@
     </row>
     <row r="482">
       <c r="E482" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F482" s="35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="483">
@@ -10102,26 +10102,26 @@
         <v>4</v>
       </c>
       <c r="E483" s="19" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F483" s="19"/>
     </row>
     <row r="484">
       <c r="D484" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E484" s="35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F484" s="35"/>
       <c r="G484" t="s" s="25">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H484" t="s" s="25">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I484" t="s" s="35">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="485">
@@ -10129,38 +10129,38 @@
         <v>4</v>
       </c>
       <c r="F485" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="486">
       <c r="E486" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F486" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="487">
       <c r="E487" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F487" s="35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G487" t="s" s="25">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H487" t="s" s="25">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I487" t="s" s="35">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J487" t="s" s="36">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K487" t="s" s="36">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L487" t="s" s="17">
         <v>3</v>
@@ -10171,25 +10171,25 @@
         <v>4</v>
       </c>
       <c r="E488" s="19" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F488" s="19"/>
     </row>
     <row r="489">
       <c r="D489" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E489" s="35" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F489" s="35"/>
     </row>
     <row r="490">
       <c r="C490" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D490" s="35" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E490" s="35"/>
       <c r="F490" s="35"/>
@@ -10197,10 +10197,10 @@
         <v>4</v>
       </c>
       <c r="H490" t="s" s="20">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I490" t="s" s="45">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J490" t="s" s="41">
         <v>0</v>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="K491" t="s" s="41">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L491" t="s" s="17">
         <v>3</v>
@@ -10237,7 +10237,7 @@
         <v>4</v>
       </c>
       <c r="E492" s="19" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F492" s="19"/>
     </row>
@@ -10246,7 +10246,7 @@
         <v>4</v>
       </c>
       <c r="E493" s="19" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F493" s="19"/>
     </row>
@@ -10255,7 +10255,7 @@
         <v>4</v>
       </c>
       <c r="E494" s="19" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F494" s="19"/>
     </row>
@@ -10264,7 +10264,7 @@
         <v>4</v>
       </c>
       <c r="E495" s="19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F495" s="19"/>
     </row>
@@ -10273,16 +10273,16 @@
         <v>4</v>
       </c>
       <c r="E496" s="19" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F496" s="19"/>
     </row>
     <row r="497">
       <c r="C497" s="35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D497" s="35" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E497" s="35"/>
       <c r="F497" s="35"/>
@@ -10292,7 +10292,7 @@
         <v>4</v>
       </c>
       <c r="B498" s="19" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C498" s="19"/>
       <c r="D498" s="19"/>
@@ -10302,10 +10302,10 @@
         <v>4</v>
       </c>
       <c r="H498" t="s" s="19">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I498" t="s" s="19">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J498" t="s" s="41">
         <v>0</v>
@@ -10331,7 +10331,7 @@
         <v>121</v>
       </c>
       <c r="I499" t="s" s="13">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="J499" t="s" s="41">
         <v>0</v>
@@ -10351,19 +10351,19 @@
       <c r="E500" s="19"/>
       <c r="F500" s="19"/>
       <c r="G500" t="s" s="25">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H500" t="s" s="25">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I500" t="s" s="19">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J500" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K500" t="s" s="41">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L500" t="s" s="11">
         <v>6</v>
@@ -10380,7 +10380,7 @@
         <v>4</v>
       </c>
       <c r="H501" t="s" s="20">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I501" t="s" s="35">
         <v>128</v>
@@ -10389,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="K501" t="s" s="41">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L501" t="s" s="11">
         <v>6</v>
@@ -10406,10 +10406,10 @@
         <v>4</v>
       </c>
       <c r="H502" t="s" s="19">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I502" t="s" s="19">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J502" t="s" s="19">
         <v>4</v>
@@ -10432,10 +10432,10 @@
         <v>4</v>
       </c>
       <c r="H503" t="s" s="19">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I503" t="s" s="19">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="504">
@@ -10446,13 +10446,13 @@
       <c r="E504" s="19"/>
       <c r="F504" s="19"/>
       <c r="G504" t="s" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H504" t="s" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I504" t="s" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="505">
@@ -10466,10 +10466,10 @@
         <v>4</v>
       </c>
       <c r="H505" t="s" s="19">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I505" t="s" s="19">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="506">
@@ -10486,7 +10486,7 @@
         <v>149</v>
       </c>
       <c r="I506" t="s" s="19">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="507">
@@ -10500,10 +10500,10 @@
         <v>0</v>
       </c>
       <c r="H507" t="s" s="41">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I507" t="s" s="19">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="508">
@@ -10534,10 +10534,10 @@
         <v>4</v>
       </c>
       <c r="H509" t="s" s="19">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I509" t="s" s="19">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="510">
@@ -10545,7 +10545,7 @@
         <v>4</v>
       </c>
       <c r="C510" s="19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D510" s="19"/>
       <c r="E510" s="19"/>
@@ -10554,18 +10554,18 @@
         <v>4</v>
       </c>
       <c r="H510" t="s" s="20">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I510" t="s" s="19">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B511" s="21" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C511" s="21"/>
       <c r="D511" s="21"/>
@@ -10575,7 +10575,7 @@
         <v>4</v>
       </c>
       <c r="H511" t="s" s="20">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I511" t="s" s="45">
         <v>12</v>
@@ -10583,10 +10583,10 @@
     </row>
     <row r="512">
       <c r="B512" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C512" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D512" s="21"/>
       <c r="E512" s="21"/>
@@ -10594,10 +10594,10 @@
     </row>
     <row r="513">
       <c r="B513" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C513" s="21" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D513" s="21"/>
       <c r="E513" s="21"/>
@@ -10605,10 +10605,10 @@
     </row>
     <row r="514">
       <c r="B514" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C514" s="21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D514" s="21"/>
       <c r="E514" s="21"/>
@@ -10616,10 +10616,10 @@
     </row>
     <row r="515">
       <c r="B515" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C515" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D515" s="21"/>
       <c r="E515" s="21"/>
@@ -10627,10 +10627,10 @@
     </row>
     <row r="516">
       <c r="A516" s="27" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B516" s="27" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C516" s="27"/>
       <c r="D516" s="27"/>
@@ -10642,7 +10642,7 @@
         <v>4</v>
       </c>
       <c r="B517" s="19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C517" s="19"/>
       <c r="D517" s="19"/>
@@ -10652,16 +10652,16 @@
         <v>4</v>
       </c>
       <c r="H517" t="s" s="19">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I517" t="s" s="19">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J517" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K517" t="s" s="19">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L517" t="s" s="11">
         <v>6</v>
@@ -10672,7 +10672,7 @@
         <v>4</v>
       </c>
       <c r="C518" s="19" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D518" s="19"/>
       <c r="E518" s="19"/>
@@ -10683,7 +10683,7 @@
         <v>4</v>
       </c>
       <c r="D519" s="19" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E519" s="19"/>
       <c r="F519" s="19"/>
@@ -10691,10 +10691,10 @@
         <v>4</v>
       </c>
       <c r="K519" t="s" s="20">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L519" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="520">
@@ -10711,7 +10711,7 @@
         <v>4</v>
       </c>
       <c r="K520" t="s" s="20">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L520" t="s" s="11">
         <v>6</v>
@@ -10722,17 +10722,17 @@
         <v>4</v>
       </c>
       <c r="E521" s="19" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F521" s="19"/>
       <c r="J521" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K521" t="s" s="19">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L521" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="522">
@@ -10749,7 +10749,7 @@
         <v>4</v>
       </c>
       <c r="K522" t="s" s="19">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L522" t="s" s="11">
         <v>6</v>
@@ -10760,7 +10760,7 @@
         <v>4</v>
       </c>
       <c r="C523" s="19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D523" s="19"/>
       <c r="E523" s="19"/>
@@ -10769,10 +10769,10 @@
         <v>4</v>
       </c>
       <c r="K523" t="s" s="19">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L523" t="s" s="11">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="524">
@@ -10789,13 +10789,13 @@
         <v>4</v>
       </c>
       <c r="K524" t="s" s="20">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L524" t="s" s="11">
         <v>6</v>
       </c>
       <c r="M524" t="s" s="11">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="525">
@@ -10812,7 +10812,7 @@
         <v>4</v>
       </c>
       <c r="K525" t="s" s="19">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L525" t="s" s="11">
         <v>6</v>
@@ -10823,7 +10823,7 @@
         <v>4</v>
       </c>
       <c r="C526" s="19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D526" s="19"/>
       <c r="E526" s="19"/>
@@ -10831,10 +10831,10 @@
     </row>
     <row r="527">
       <c r="A527" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B527" s="21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C527" s="21"/>
       <c r="D527" s="21"/>
@@ -10846,20 +10846,20 @@
         <v>0</v>
       </c>
       <c r="B528" s="41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C528" s="41"/>
       <c r="D528" s="41"/>
       <c r="E528" s="41"/>
       <c r="F528" s="41"/>
       <c r="G528" t="s" s="43">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H528" t="s" s="43">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I528" t="s" s="41">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J528" t="s" s="41">
         <v>0</v>
@@ -10882,7 +10882,7 @@
         <v>4</v>
       </c>
       <c r="H529" t="s" s="20">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I529" t="s" s="45">
         <v>12</v>
@@ -10917,7 +10917,7 @@
         <v>4</v>
       </c>
       <c r="K530" t="s" s="19">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L530" t="s" s="11">
         <v>117</v>
@@ -10934,16 +10934,16 @@
         <v>4</v>
       </c>
       <c r="H531" t="s" s="19">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I531" t="s" s="19">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J531" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K531" t="s" s="41">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L531" t="s" s="11">
         <v>6</v>
@@ -10963,13 +10963,13 @@
         <v>177</v>
       </c>
       <c r="I532" t="s" s="19">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J532" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K532" t="s" s="41">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L532" t="s" s="11">
         <v>6</v>
@@ -10986,19 +10986,19 @@
         <v>4</v>
       </c>
       <c r="H533" t="s" s="19">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I533" t="s" s="19">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J533" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K533" t="s" s="20">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L533" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="534">
@@ -11015,13 +11015,13 @@
         <v>121</v>
       </c>
       <c r="I534" t="s" s="13">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="J534" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K534" t="s" s="19">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L534" t="s" s="11">
         <v>6</v>
@@ -11038,19 +11038,19 @@
         <v>4</v>
       </c>
       <c r="H535" t="s" s="19">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I535" t="s" s="19">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J535" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K535" t="s" s="19">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L535" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="536">
@@ -11064,16 +11064,16 @@
         <v>4</v>
       </c>
       <c r="H536" t="s" s="19">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I536" t="s" s="19">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J536" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K536" t="s" s="20">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L536" t="s" s="11">
         <v>6</v>
@@ -11087,22 +11087,22 @@
       <c r="E537" s="41"/>
       <c r="F537" s="41"/>
       <c r="G537" t="s" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H537" t="s" s="5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I537" t="s" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J537" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K537" t="s" s="20">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L537" t="s" s="11">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="538">
@@ -11125,7 +11125,7 @@
         <v>4</v>
       </c>
       <c r="K538" t="s" s="20">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L538" t="s" s="11">
         <v>6</v>
@@ -11145,16 +11145,16 @@
         <v>149</v>
       </c>
       <c r="I539" t="s" s="19">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J539" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K539" t="s" s="20">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L539" t="s" s="11">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="540">
@@ -11168,10 +11168,10 @@
         <v>4</v>
       </c>
       <c r="H540" t="s" s="19">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I540" t="s" s="19">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J540" t="s" s="19">
         <v>4</v>
@@ -11194,10 +11194,10 @@
         <v>0</v>
       </c>
       <c r="H541" t="s" s="41">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I541" t="s" s="41">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="542">
@@ -11228,10 +11228,10 @@
         <v>4</v>
       </c>
       <c r="H543" t="s" s="19">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I543" t="s" s="19">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="544">
@@ -11239,7 +11239,7 @@
         <v>4</v>
       </c>
       <c r="B544" s="19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C544" s="19"/>
       <c r="D544" s="19"/>
@@ -11249,10 +11249,10 @@
         <v>4</v>
       </c>
       <c r="K544" t="s" s="20">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L544" t="s" s="11">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="545">
@@ -11269,7 +11269,7 @@
         <v>4</v>
       </c>
       <c r="K545" t="s" s="20">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L545" t="s" s="11">
         <v>6</v>
@@ -11280,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="B546" s="41" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C546" s="41"/>
       <c r="D546" s="41"/>
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="C547" s="41" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D547" s="41"/>
       <c r="E547" s="41"/>
@@ -11318,10 +11318,10 @@
         <v>0</v>
       </c>
       <c r="H548" t="s" s="42">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I548" t="s" s="41">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="549">
@@ -11338,7 +11338,7 @@
         <v>19</v>
       </c>
       <c r="I549" t="s" s="7">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="550">
@@ -11355,7 +11355,7 @@
         <v>37</v>
       </c>
       <c r="I550" t="s" s="41">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="551">
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="D551" s="41" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E551" s="41"/>
       <c r="F551" s="41"/>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="D552" s="41" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E552" s="41"/>
       <c r="F552" s="41"/>
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="D553" s="41" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E553" s="41"/>
       <c r="F553" s="41"/>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="D554" s="41" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E554" s="41"/>
       <c r="F554" s="41"/>
@@ -11403,7 +11403,7 @@
         <v>4</v>
       </c>
       <c r="C555" s="19" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D555" s="19"/>
       <c r="E555" s="19"/>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s" s="41">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I556" t="s" s="41">
         <v>15</v>
@@ -11449,7 +11449,7 @@
         <v>37</v>
       </c>
       <c r="I557" t="s" s="41">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="558">
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="C558" s="41" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D558" s="41"/>
       <c r="E558" s="41"/>
@@ -11466,10 +11466,10 @@
         <v>4</v>
       </c>
       <c r="H558" t="s" s="19">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I558" t="s" s="41">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="559">
@@ -11483,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s" s="41">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I559" t="s" s="41">
         <v>15</v>
@@ -11503,7 +11503,7 @@
         <v>37</v>
       </c>
       <c r="I560" t="s" s="41">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="561">
@@ -11517,10 +11517,10 @@
         <v>4</v>
       </c>
       <c r="H561" t="s" s="20">
-        <v>226</v>
-      </c>
-      <c r="I561" t="s" s="35">
-        <v>62</v>
+        <v>227</v>
+      </c>
+      <c r="I561" t="s" s="15">
+        <v>48</v>
       </c>
     </row>
     <row r="562">
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="C565" s="41" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D565" s="41"/>
       <c r="E565" s="41"/>
@@ -11567,16 +11567,16 @@
         <v>0</v>
       </c>
       <c r="H565" t="s" s="41">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I565" t="s" s="45">
         <v>18</v>
       </c>
       <c r="J565" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K565" t="s" s="35">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L565" t="s" s="17">
         <v>3</v>
@@ -11593,10 +11593,10 @@
         <v>4</v>
       </c>
       <c r="H566" t="s" s="19">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I566" t="s" s="7">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="567">
@@ -11610,7 +11610,7 @@
         <v>4</v>
       </c>
       <c r="H567" t="s" s="20">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I567" t="s" s="41">
         <v>15</v>
@@ -11647,7 +11647,7 @@
         <v>19</v>
       </c>
       <c r="I569" t="s" s="13">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="570">
@@ -11664,7 +11664,7 @@
         <v>37</v>
       </c>
       <c r="I570" t="s" s="41">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="571">
@@ -11678,10 +11678,10 @@
         <v>0</v>
       </c>
       <c r="H571" t="s" s="41">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I571" t="s" s="31">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="572">
@@ -11689,7 +11689,7 @@
         <v>4</v>
       </c>
       <c r="D572" s="19" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E572" s="19"/>
       <c r="F572" s="19"/>
@@ -11699,7 +11699,7 @@
         <v>4</v>
       </c>
       <c r="D573" s="19" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E573" s="19"/>
       <c r="F573" s="19"/>
@@ -11709,7 +11709,7 @@
         <v>4</v>
       </c>
       <c r="D574" s="19" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E574" s="19"/>
       <c r="F574" s="19"/>
@@ -11719,7 +11719,7 @@
         <v>4</v>
       </c>
       <c r="D575" s="19" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E575" s="19"/>
       <c r="F575" s="19"/>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="C576" s="41" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D576" s="41"/>
       <c r="E576" s="41"/>
@@ -11747,10 +11747,10 @@
         <v>0</v>
       </c>
       <c r="K576" t="s" s="41">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L576" t="s" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="577">
@@ -11764,10 +11764,10 @@
         <v>4</v>
       </c>
       <c r="H577" t="s" s="20">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I577" t="s" s="45">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="578">
@@ -11784,7 +11784,7 @@
         <v>37</v>
       </c>
       <c r="I578" t="s" s="45">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="579">
@@ -11792,7 +11792,7 @@
         <v>4</v>
       </c>
       <c r="D579" s="19" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E579" s="19"/>
       <c r="F579" s="19"/>
@@ -11802,7 +11802,7 @@
         <v>4</v>
       </c>
       <c r="D580" s="19" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E580" s="19"/>
       <c r="F580" s="19"/>
@@ -11812,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="D581" s="41" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E581" s="41"/>
       <c r="F581" s="41"/>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="D582" s="41" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E582" s="41"/>
       <c r="F582" s="41"/>
@@ -11832,7 +11832,7 @@
         <v>4</v>
       </c>
       <c r="E583" s="19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F583" s="19"/>
     </row>
@@ -11841,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="D584" s="41" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E584" s="41"/>
       <c r="F584" s="41"/>
@@ -11851,7 +11851,7 @@
         <v>4</v>
       </c>
       <c r="E585" s="19" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F585" s="19"/>
     </row>
@@ -11860,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="D586" s="41" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E586" s="41"/>
       <c r="F586" s="41"/>
@@ -11870,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="D587" s="41" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E587" s="41"/>
       <c r="F587" s="41"/>
@@ -11880,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="E588" s="41" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F588" s="41"/>
     </row>
@@ -11889,7 +11889,7 @@
         <v>4</v>
       </c>
       <c r="D589" s="19" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E589" s="19"/>
       <c r="F589" s="19"/>
@@ -11899,7 +11899,7 @@
         <v>4</v>
       </c>
       <c r="D590" s="19" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E590" s="19"/>
       <c r="F590" s="19"/>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="D591" s="41" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E591" s="41"/>
       <c r="F591" s="41"/>
@@ -11919,7 +11919,7 @@
         <v>4</v>
       </c>
       <c r="D592" s="19" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E592" s="19"/>
       <c r="F592" s="19"/>
@@ -11929,7 +11929,7 @@
         <v>4</v>
       </c>
       <c r="D593" s="19" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E593" s="19"/>
       <c r="F593" s="19"/>
@@ -11939,7 +11939,7 @@
         <v>4</v>
       </c>
       <c r="C594" s="19" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D594" s="19"/>
       <c r="E594" s="19"/>
@@ -11968,7 +11968,7 @@
         <v>19</v>
       </c>
       <c r="I595" t="s" s="7">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="596">
@@ -11993,7 +11993,7 @@
         <v>4</v>
       </c>
       <c r="C597" s="19" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D597" s="19"/>
       <c r="E597" s="19"/>
@@ -12022,7 +12022,7 @@
         <v>149</v>
       </c>
       <c r="I598" t="s" s="35">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="599">
@@ -12039,7 +12039,7 @@
         <v>37</v>
       </c>
       <c r="I599" t="s" s="41">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="600">
@@ -12047,7 +12047,7 @@
         <v>4</v>
       </c>
       <c r="D600" s="19" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E600" s="19"/>
       <c r="F600" s="19"/>
@@ -12058,7 +12058,7 @@
         <v>149</v>
       </c>
       <c r="I600" t="s" s="19">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="601">
@@ -12066,7 +12066,7 @@
         <v>4</v>
       </c>
       <c r="D601" s="19" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E601" s="19"/>
       <c r="F601" s="19"/>
@@ -12077,7 +12077,7 @@
         <v>149</v>
       </c>
       <c r="I601" t="s" s="19">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="602">
@@ -12085,7 +12085,7 @@
         <v>4</v>
       </c>
       <c r="D602" s="19" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E602" s="19"/>
       <c r="F602" s="19"/>
@@ -12096,7 +12096,7 @@
         <v>149</v>
       </c>
       <c r="I602" t="s" s="19">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="603">
@@ -12104,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="B603" s="41" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C603" s="41"/>
       <c r="D603" s="41"/>
@@ -12116,7 +12116,7 @@
         <v>4</v>
       </c>
       <c r="C604" s="19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D604" s="19"/>
       <c r="E604" s="19"/>
@@ -12127,7 +12127,7 @@
         <v>4</v>
       </c>
       <c r="B605" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C605" s="19"/>
       <c r="D605" s="19"/>
@@ -12139,20 +12139,20 @@
         <v>4</v>
       </c>
       <c r="B606" s="19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C606" s="19"/>
       <c r="D606" s="19"/>
       <c r="E606" s="19"/>
       <c r="F606" s="19"/>
       <c r="G606" t="s" s="35">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H606" t="s" s="35">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I606" t="s" s="27">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="607">
@@ -12166,10 +12166,10 @@
         <v>4</v>
       </c>
       <c r="H607" t="s" s="20">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I607" t="s" s="19">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="608">
@@ -12183,10 +12183,10 @@
         <v>4</v>
       </c>
       <c r="H608" t="s" s="19">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I608" t="s" s="19">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="609">
@@ -12194,7 +12194,7 @@
         <v>4</v>
       </c>
       <c r="C609" s="19" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D609" s="19"/>
       <c r="E609" s="19"/>
@@ -12205,7 +12205,7 @@
         <v>4</v>
       </c>
       <c r="D610" s="19" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E610" s="19"/>
       <c r="F610" s="19"/>
@@ -12213,10 +12213,10 @@
         <v>4</v>
       </c>
       <c r="K610" t="s" s="20">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L610" t="s" s="11">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="611">
@@ -12224,7 +12224,7 @@
         <v>4</v>
       </c>
       <c r="C611" s="19" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D611" s="19"/>
       <c r="E611" s="19"/>
@@ -12233,10 +12233,10 @@
         <v>4</v>
       </c>
       <c r="K611" t="s" s="20">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L611" t="s" s="11">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="612">
@@ -12244,7 +12244,7 @@
         <v>4</v>
       </c>
       <c r="B612" s="19" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C612" s="19"/>
       <c r="D612" s="19"/>
@@ -12280,7 +12280,7 @@
         <v>4</v>
       </c>
       <c r="H613" t="s" s="19">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I613" t="s" s="45">
         <v>12</v>
@@ -12289,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="K613" t="s" s="41">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L613" t="s" s="11">
         <v>6</v>
@@ -12317,10 +12317,10 @@
     </row>
     <row r="615">
       <c r="B615" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="C616" s="41" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D616" s="41"/>
       <c r="E616" s="41"/>
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="K616" t="s" s="41">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L616" t="s" s="11">
         <v>6</v>
@@ -12351,27 +12351,27 @@
         <v>0</v>
       </c>
       <c r="C617" s="41" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D617" s="41"/>
       <c r="E617" s="41"/>
       <c r="F617" s="41"/>
       <c r="G617" t="s" s="43">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H617" t="s" s="43">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I617" t="s" s="41">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="27" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B618" s="27" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C618" s="27"/>
       <c r="D618" s="27"/>
@@ -12383,7 +12383,7 @@
         <v>4</v>
       </c>
       <c r="B619" s="19" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C619" s="19"/>
       <c r="D619" s="19"/>
@@ -12395,7 +12395,7 @@
         <v>4</v>
       </c>
       <c r="C620" s="19" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D620" s="19"/>
       <c r="E620" s="19"/>
@@ -12406,7 +12406,7 @@
         <v>4</v>
       </c>
       <c r="C621" s="19" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D621" s="19"/>
       <c r="E621" s="19"/>
@@ -12417,7 +12417,7 @@
         <v>4</v>
       </c>
       <c r="C622" s="19" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D622" s="19"/>
       <c r="E622" s="19"/>
@@ -12428,7 +12428,7 @@
         <v>4</v>
       </c>
       <c r="C623" s="19" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D623" s="19"/>
       <c r="E623" s="19"/>
@@ -12439,7 +12439,7 @@
         <v>4</v>
       </c>
       <c r="C624" s="19" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D624" s="19"/>
       <c r="E624" s="19"/>
@@ -12450,7 +12450,7 @@
         <v>4</v>
       </c>
       <c r="C625" s="19" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D625" s="19"/>
       <c r="E625" s="19"/>
@@ -12461,7 +12461,7 @@
         <v>4</v>
       </c>
       <c r="C626" s="19" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D626" s="19"/>
       <c r="E626" s="19"/>
@@ -12472,7 +12472,7 @@
         <v>4</v>
       </c>
       <c r="C627" s="19" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D627" s="19"/>
       <c r="E627" s="19"/>
@@ -12483,7 +12483,7 @@
         <v>4</v>
       </c>
       <c r="C628" s="19" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D628" s="19"/>
       <c r="E628" s="19"/>
@@ -12494,7 +12494,7 @@
         <v>4</v>
       </c>
       <c r="C629" s="19" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D629" s="19"/>
       <c r="E629" s="19"/>
@@ -12505,7 +12505,7 @@
         <v>4</v>
       </c>
       <c r="C630" s="19" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D630" s="19"/>
       <c r="E630" s="19"/>
@@ -12516,7 +12516,7 @@
         <v>4</v>
       </c>
       <c r="C631" s="19" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D631" s="19"/>
       <c r="E631" s="19"/>
@@ -12527,7 +12527,7 @@
         <v>4</v>
       </c>
       <c r="C632" s="19" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D632" s="19"/>
       <c r="E632" s="19"/>
@@ -12798,116 +12798,116 @@
     <mergeCell ref="A264:I264"/>
     <mergeCell ref="A265:I265"/>
     <mergeCell ref="D267:F267"/>
-    <mergeCell ref="E268:F268"/>
-    <mergeCell ref="D269:F269"/>
-    <mergeCell ref="A270:F270"/>
+    <mergeCell ref="D268:F268"/>
+    <mergeCell ref="E269:F269"/>
+    <mergeCell ref="D270:F270"/>
     <mergeCell ref="A271:F271"/>
     <mergeCell ref="A272:F272"/>
     <mergeCell ref="A273:F273"/>
     <mergeCell ref="A274:F274"/>
     <mergeCell ref="A275:F275"/>
     <mergeCell ref="A276:F276"/>
-    <mergeCell ref="D277:F277"/>
+    <mergeCell ref="A277:F277"/>
     <mergeCell ref="D278:F278"/>
-    <mergeCell ref="A279:F279"/>
+    <mergeCell ref="D279:F279"/>
     <mergeCell ref="A280:F280"/>
     <mergeCell ref="A281:F281"/>
-    <mergeCell ref="E282:F282"/>
-    <mergeCell ref="E285:F285"/>
+    <mergeCell ref="A282:F282"/>
+    <mergeCell ref="E283:F283"/>
     <mergeCell ref="E286:F286"/>
     <mergeCell ref="E287:F287"/>
     <mergeCell ref="E288:F288"/>
-    <mergeCell ref="D289:F289"/>
-    <mergeCell ref="E290:F290"/>
-    <mergeCell ref="A291:I291"/>
+    <mergeCell ref="E289:F289"/>
+    <mergeCell ref="D290:F290"/>
+    <mergeCell ref="E291:F291"/>
     <mergeCell ref="A292:I292"/>
     <mergeCell ref="A293:I293"/>
-    <mergeCell ref="A296:F296"/>
-    <mergeCell ref="E304:F304"/>
+    <mergeCell ref="A294:I294"/>
+    <mergeCell ref="A297:F297"/>
     <mergeCell ref="E305:F305"/>
-    <mergeCell ref="A306:I306"/>
+    <mergeCell ref="E306:F306"/>
     <mergeCell ref="A307:I307"/>
     <mergeCell ref="A308:I308"/>
-    <mergeCell ref="E310:F310"/>
+    <mergeCell ref="A309:I309"/>
     <mergeCell ref="E311:F311"/>
-    <mergeCell ref="E315:F315"/>
+    <mergeCell ref="E312:F312"/>
     <mergeCell ref="E316:F316"/>
-    <mergeCell ref="D317:F317"/>
-    <mergeCell ref="A318:I318"/>
-    <mergeCell ref="E319:F319"/>
+    <mergeCell ref="E317:F317"/>
+    <mergeCell ref="D318:F318"/>
+    <mergeCell ref="A319:I319"/>
     <mergeCell ref="E320:F320"/>
     <mergeCell ref="E321:F321"/>
     <mergeCell ref="E322:F322"/>
     <mergeCell ref="E323:F323"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="C326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="A328:F328"/>
-    <mergeCell ref="A329:I329"/>
+    <mergeCell ref="E324:F324"/>
+    <mergeCell ref="D325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="A328:I328"/>
+    <mergeCell ref="C329:F329"/>
     <mergeCell ref="C330:F330"/>
-    <mergeCell ref="C331:F331"/>
+    <mergeCell ref="D331:F331"/>
     <mergeCell ref="D332:F332"/>
-    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="C333:F333"/>
     <mergeCell ref="C334:F334"/>
-    <mergeCell ref="C335:F335"/>
+    <mergeCell ref="D335:F335"/>
     <mergeCell ref="D336:F336"/>
-    <mergeCell ref="D337:F337"/>
+    <mergeCell ref="C337:F337"/>
     <mergeCell ref="C338:F338"/>
     <mergeCell ref="C339:F339"/>
-    <mergeCell ref="C340:F340"/>
+    <mergeCell ref="D340:F340"/>
     <mergeCell ref="D341:F341"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="C343:F343"/>
+    <mergeCell ref="C342:F342"/>
+    <mergeCell ref="D343:F343"/>
     <mergeCell ref="D344:F344"/>
-    <mergeCell ref="D345:F345"/>
+    <mergeCell ref="B345:F345"/>
     <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="C347:F347"/>
     <mergeCell ref="C348:F348"/>
-    <mergeCell ref="C349:F349"/>
+    <mergeCell ref="B349:F349"/>
     <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A351:F351"/>
+    <mergeCell ref="A352:I352"/>
     <mergeCell ref="A353:I353"/>
     <mergeCell ref="A354:I354"/>
-    <mergeCell ref="A355:I355"/>
+    <mergeCell ref="C355:F355"/>
     <mergeCell ref="C356:F356"/>
     <mergeCell ref="C357:F357"/>
     <mergeCell ref="C358:F358"/>
-    <mergeCell ref="C359:F359"/>
+    <mergeCell ref="B359:F359"/>
     <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="A361:F361"/>
     <mergeCell ref="A362:F362"/>
     <mergeCell ref="A363:F363"/>
     <mergeCell ref="A364:F364"/>
     <mergeCell ref="A365:F365"/>
-    <mergeCell ref="A366:F366"/>
+    <mergeCell ref="C366:F366"/>
     <mergeCell ref="C367:F367"/>
     <mergeCell ref="C368:F368"/>
     <mergeCell ref="C369:F369"/>
-    <mergeCell ref="C370:F370"/>
-    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="A371:F371"/>
     <mergeCell ref="A372:F372"/>
-    <mergeCell ref="A373:F373"/>
+    <mergeCell ref="B373:F373"/>
     <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="A375:F375"/>
     <mergeCell ref="A376:F376"/>
     <mergeCell ref="A377:F377"/>
     <mergeCell ref="A378:F378"/>
     <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="A382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="C384:F384"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="A386:F386"/>
-    <mergeCell ref="A387:I387"/>
-    <mergeCell ref="D388:F388"/>
-    <mergeCell ref="A389:I389"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="A381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="C383:F383"/>
+    <mergeCell ref="D384:F384"/>
+    <mergeCell ref="A385:F385"/>
+    <mergeCell ref="A386:I386"/>
+    <mergeCell ref="D387:F387"/>
+    <mergeCell ref="A388:I388"/>
+    <mergeCell ref="E389:F389"/>
     <mergeCell ref="E390:F390"/>
-    <mergeCell ref="E391:F391"/>
-    <mergeCell ref="C392:F392"/>
+    <mergeCell ref="C391:F391"/>
+    <mergeCell ref="A392:F392"/>
     <mergeCell ref="A393:F393"/>
     <mergeCell ref="A394:F394"/>
     <mergeCell ref="A395:F395"/>
@@ -12916,41 +12916,41 @@
     <mergeCell ref="A398:F398"/>
     <mergeCell ref="A399:F399"/>
     <mergeCell ref="A400:F400"/>
-    <mergeCell ref="A401:F401"/>
+    <mergeCell ref="D401:F401"/>
     <mergeCell ref="D402:F402"/>
-    <mergeCell ref="D403:F403"/>
+    <mergeCell ref="A403:I403"/>
     <mergeCell ref="A404:I404"/>
     <mergeCell ref="A405:I405"/>
-    <mergeCell ref="A406:I406"/>
-    <mergeCell ref="E407:F407"/>
-    <mergeCell ref="A409:F409"/>
+    <mergeCell ref="E406:F406"/>
+    <mergeCell ref="A408:F408"/>
+    <mergeCell ref="E410:F410"/>
     <mergeCell ref="E411:F411"/>
-    <mergeCell ref="E412:F412"/>
+    <mergeCell ref="E413:F413"/>
     <mergeCell ref="E414:F414"/>
     <mergeCell ref="E415:F415"/>
-    <mergeCell ref="E416:F416"/>
-    <mergeCell ref="D417:F417"/>
+    <mergeCell ref="D416:F416"/>
+    <mergeCell ref="E417:F417"/>
     <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="D419:F419"/>
     <mergeCell ref="D420:F420"/>
-    <mergeCell ref="D421:F421"/>
+    <mergeCell ref="A421:I421"/>
     <mergeCell ref="A422:I422"/>
     <mergeCell ref="A423:I423"/>
-    <mergeCell ref="A424:I424"/>
-    <mergeCell ref="E425:F425"/>
+    <mergeCell ref="E424:F424"/>
+    <mergeCell ref="D425:F425"/>
     <mergeCell ref="D426:F426"/>
-    <mergeCell ref="D427:F427"/>
+    <mergeCell ref="E427:F427"/>
     <mergeCell ref="E428:F428"/>
     <mergeCell ref="E429:F429"/>
-    <mergeCell ref="E430:F430"/>
+    <mergeCell ref="D430:F430"/>
     <mergeCell ref="D431:F431"/>
     <mergeCell ref="D432:F432"/>
     <mergeCell ref="D433:F433"/>
     <mergeCell ref="D434:F434"/>
-    <mergeCell ref="D435:F435"/>
-    <mergeCell ref="E436:F436"/>
+    <mergeCell ref="E435:F435"/>
+    <mergeCell ref="A436:I436"/>
     <mergeCell ref="A437:I437"/>
-    <mergeCell ref="A438:I438"/>
+    <mergeCell ref="D439:F439"/>
     <mergeCell ref="D440:F440"/>
     <mergeCell ref="E441:F441"/>
     <mergeCell ref="D442:F442"/>

--- a/sigmaaie/modules/core/doc/roh-core.xlsx
+++ b/sigmaaie/modules/core/doc/roh-core.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="598">
   <si>
     <t>vivo</t>
   </si>
@@ -1022,12 +1022,6 @@
     <t>roh:FundingProgram</t>
   </si>
   <si>
-    <t>supports</t>
-  </si>
-  <si>
-    <t>roh:PersonContract or vivo:Project</t>
-  </si>
-  <si>
     <t>Grant</t>
   </si>
   <si>
@@ -1704,9 +1698,6 @@
   </si>
   <si>
     <t>ReservationRelationship</t>
-  </si>
-  <si>
-    <t>roh:ReservableConsumerRole</t>
   </si>
   <si>
     <t>SupervisingRelationship</t>
@@ -2290,7 +2281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M511"/>
+  <dimension ref="A1:M510"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6255,28 +6246,22 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="19"/>
-      <c r="B250" s="19"/>
-      <c r="C250" s="19"/>
+      <c r="B250" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="19" t="s">
+        <v>336</v>
+      </c>
       <c r="D250" s="19"/>
       <c r="E250" s="19"/>
       <c r="F250" s="19"/>
-      <c r="G250" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H250" t="s" s="19">
-        <v>336</v>
-      </c>
-      <c r="I250" t="s" s="19">
-        <v>337</v>
-      </c>
     </row>
     <row r="251">
       <c r="B251" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D251" s="19"/>
       <c r="E251" s="19"/>
@@ -6287,7 +6272,7 @@
         <v>4</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D252" s="19"/>
       <c r="E252" s="19"/>
@@ -6298,51 +6283,66 @@
         <v>4</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D253" s="19"/>
       <c r="E253" s="19"/>
       <c r="F253" s="19"/>
     </row>
     <row r="254">
+      <c r="A254" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="B254" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C254" s="19" t="s">
-        <v>341</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C254" s="19"/>
       <c r="D254" s="19"/>
       <c r="E254" s="19"/>
       <c r="F254" s="19"/>
+      <c r="G254" t="s" s="43">
+        <v>69</v>
+      </c>
+      <c r="H254" t="s" s="43">
+        <v>70</v>
+      </c>
+      <c r="I254" t="s" s="19">
+        <v>341</v>
+      </c>
+      <c r="J254" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K254" t="s" s="19">
+        <v>321</v>
+      </c>
+      <c r="L254" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="255">
-      <c r="A255" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B255" s="19" t="s">
-        <v>342</v>
-      </c>
+      <c r="A255" s="19"/>
+      <c r="B255" s="19"/>
       <c r="C255" s="19"/>
       <c r="D255" s="19"/>
       <c r="E255" s="19"/>
       <c r="F255" s="19"/>
-      <c r="G255" t="s" s="43">
-        <v>69</v>
-      </c>
-      <c r="H255" t="s" s="43">
-        <v>70</v>
-      </c>
-      <c r="I255" t="s" s="19">
-        <v>343</v>
+      <c r="G255" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H255" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I255" t="s" s="41">
+        <v>51</v>
       </c>
       <c r="J255" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K255" t="s" s="19">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L255" t="s" s="11">
-        <v>6</v>
+        <v>326</v>
       </c>
     </row>
     <row r="256">
@@ -6352,88 +6352,88 @@
       <c r="D256" s="19"/>
       <c r="E256" s="19"/>
       <c r="F256" s="19"/>
-      <c r="G256" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H256" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I256" t="s" s="41">
-        <v>51</v>
-      </c>
-      <c r="J256" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K256" t="s" s="19">
-        <v>325</v>
-      </c>
-      <c r="L256" t="s" s="11">
-        <v>326</v>
+      <c r="G256" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H256" t="s" s="19">
+        <v>342</v>
+      </c>
+      <c r="I256" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="19"/>
-      <c r="B257" s="19"/>
-      <c r="C257" s="19"/>
-      <c r="D257" s="19"/>
-      <c r="E257" s="19"/>
-      <c r="F257" s="19"/>
-      <c r="G257" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H257" t="s" s="19">
+      <c r="A257" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="C257" s="41"/>
+      <c r="D257" s="41"/>
+      <c r="E257" s="41"/>
+      <c r="F257" s="41"/>
+      <c r="G257" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H257" t="s" s="20">
         <v>344</v>
       </c>
-      <c r="I257" t="s" s="45">
-        <v>18</v>
+      <c r="I257" t="s" s="19">
+        <v>345</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B258" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="C258" s="41"/>
-      <c r="D258" s="41"/>
-      <c r="E258" s="41"/>
-      <c r="F258" s="41"/>
-      <c r="G258" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H258" t="s" s="20">
+      <c r="A258" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" s="19" t="s">
         <v>346</v>
       </c>
+      <c r="C258" s="19"/>
+      <c r="D258" s="19"/>
+      <c r="E258" s="19"/>
+      <c r="F258" s="19"/>
+      <c r="G258" t="s" s="43">
+        <v>69</v>
+      </c>
+      <c r="H258" t="s" s="43">
+        <v>110</v>
+      </c>
       <c r="I258" t="s" s="19">
-        <v>347</v>
+        <v>335</v>
+      </c>
+      <c r="J258" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K258" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L258" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B259" s="19" t="s">
-        <v>348</v>
-      </c>
+      <c r="A259" s="19"/>
+      <c r="B259" s="19"/>
       <c r="C259" s="19"/>
       <c r="D259" s="19"/>
       <c r="E259" s="19"/>
       <c r="F259" s="19"/>
-      <c r="G259" t="s" s="43">
-        <v>69</v>
-      </c>
-      <c r="H259" t="s" s="43">
-        <v>110</v>
-      </c>
-      <c r="I259" t="s" s="19">
-        <v>335</v>
+      <c r="G259" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H259" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I259" t="s" s="41">
+        <v>51</v>
       </c>
       <c r="J259" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K259" t="s" s="41">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="L259" t="s" s="11">
         <v>6</v>
@@ -6446,20 +6446,20 @@
       <c r="D260" s="19"/>
       <c r="E260" s="19"/>
       <c r="F260" s="19"/>
-      <c r="G260" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H260" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I260" t="s" s="41">
-        <v>51</v>
-      </c>
-      <c r="J260" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K260" t="s" s="41">
-        <v>57</v>
+      <c r="G260" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H260" t="s" s="19">
+        <v>347</v>
+      </c>
+      <c r="I260" t="s" s="19">
+        <v>348</v>
+      </c>
+      <c r="J260" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K260" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L260" t="s" s="11">
         <v>6</v>
@@ -6472,23 +6472,14 @@
       <c r="D261" s="19"/>
       <c r="E261" s="19"/>
       <c r="F261" s="19"/>
-      <c r="G261" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H261" t="s" s="19">
-        <v>349</v>
-      </c>
-      <c r="I261" t="s" s="19">
-        <v>350</v>
-      </c>
-      <c r="J261" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K261" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L261" t="s" s="11">
-        <v>6</v>
+      <c r="G261" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="H261" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="I261" t="s" s="5">
+        <v>56</v>
       </c>
     </row>
     <row r="262">
@@ -6498,14 +6489,14 @@
       <c r="D262" s="19"/>
       <c r="E262" s="19"/>
       <c r="F262" s="19"/>
-      <c r="G262" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="H262" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="I262" t="s" s="5">
-        <v>56</v>
+      <c r="G262" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H262" t="s" s="19">
+        <v>349</v>
+      </c>
+      <c r="I262" t="s" s="41">
+        <v>350</v>
       </c>
     </row>
     <row r="263">
@@ -6515,135 +6506,144 @@
       <c r="D263" s="19"/>
       <c r="E263" s="19"/>
       <c r="F263" s="19"/>
-      <c r="G263" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H263" t="s" s="19">
+      <c r="G263" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H263" t="s" s="41">
+        <v>106</v>
+      </c>
+      <c r="I263" t="s" s="19">
         <v>351</v>
       </c>
-      <c r="I263" t="s" s="41">
+    </row>
+    <row r="264">
+      <c r="A264" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" s="19" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="19"/>
-      <c r="B264" s="19"/>
       <c r="C264" s="19"/>
       <c r="D264" s="19"/>
       <c r="E264" s="19"/>
       <c r="F264" s="19"/>
-      <c r="G264" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H264" t="s" s="41">
-        <v>106</v>
+      <c r="G264" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H264" t="s" s="19">
+        <v>353</v>
       </c>
       <c r="I264" t="s" s="19">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B265" s="19" t="s">
-        <v>354</v>
-      </c>
+      <c r="A265" s="19"/>
+      <c r="B265" s="19"/>
       <c r="C265" s="19"/>
       <c r="D265" s="19"/>
       <c r="E265" s="19"/>
       <c r="F265" s="19"/>
-      <c r="G265" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H265" t="s" s="19">
+      <c r="G265" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H265" t="s" s="20">
+        <v>349</v>
+      </c>
+      <c r="I265" t="s" s="41">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B266" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="I265" t="s" s="19">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="19"/>
-      <c r="B266" s="19"/>
-      <c r="C266" s="19"/>
-      <c r="D266" s="19"/>
-      <c r="E266" s="19"/>
-      <c r="F266" s="19"/>
-      <c r="G266" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H266" t="s" s="20">
-        <v>351</v>
-      </c>
-      <c r="I266" t="s" s="41">
-        <v>352</v>
+      <c r="C266" s="31"/>
+      <c r="D266" s="31"/>
+      <c r="E266" s="31"/>
+      <c r="F266" s="31"/>
+      <c r="G266" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H266" t="s" s="19">
+        <v>356</v>
+      </c>
+      <c r="I266" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="B267" s="31" t="s">
+      <c r="B267" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C267" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C267" s="31"/>
-      <c r="D267" s="31"/>
-      <c r="E267" s="31"/>
-      <c r="F267" s="31"/>
-      <c r="G267" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H267" t="s" s="19">
+      <c r="D267" s="35"/>
+      <c r="E267" s="35"/>
+      <c r="F267" s="35"/>
+      <c r="J267" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K267" t="s" s="35">
         <v>358</v>
       </c>
-      <c r="I267" t="s" s="45">
-        <v>18</v>
+      <c r="L267" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="268">
-      <c r="B268" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C268" s="35" t="s">
+      <c r="C268" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D268" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="D268" s="35"/>
-      <c r="E268" s="35"/>
-      <c r="F268" s="35"/>
-      <c r="J268" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K268" t="s" s="35">
-        <v>360</v>
-      </c>
-      <c r="L268" t="s" s="17">
-        <v>3</v>
+      <c r="E268" s="19"/>
+      <c r="F268" s="19"/>
+      <c r="G268" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H268" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I268" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="J268" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K268" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L268" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="269">
-      <c r="C269" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D269" s="19" t="s">
-        <v>361</v>
-      </c>
+      <c r="A269" s="19"/>
+      <c r="B269" s="19"/>
+      <c r="C269" s="19"/>
+      <c r="D269" s="19"/>
       <c r="E269" s="19"/>
       <c r="F269" s="19"/>
       <c r="G269" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H269" t="s" s="41">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I269" t="s" s="41">
-        <v>51</v>
+        <v>360</v>
       </c>
       <c r="J269" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K269" t="s" s="41">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="L269" t="s" s="11">
         <v>6</v>
@@ -6656,91 +6656,83 @@
       <c r="D270" s="19"/>
       <c r="E270" s="19"/>
       <c r="F270" s="19"/>
-      <c r="G270" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H270" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I270" t="s" s="41">
-        <v>362</v>
-      </c>
-      <c r="J270" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K270" t="s" s="41">
-        <v>57</v>
+      <c r="G270" s="19"/>
+      <c r="H270" s="19"/>
+      <c r="I270" s="19"/>
+      <c r="J270" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K270" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L270" t="s" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="19"/>
-      <c r="B271" s="19"/>
-      <c r="C271" s="19"/>
-      <c r="D271" s="19"/>
-      <c r="E271" s="19"/>
-      <c r="F271" s="19"/>
-      <c r="G271" s="19"/>
-      <c r="H271" s="19"/>
-      <c r="I271" s="19"/>
-      <c r="J271" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K271" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L271" t="s" s="11">
-        <v>6</v>
+      <c r="C271" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D271" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="E271" s="35"/>
+      <c r="F271" s="35"/>
+      <c r="G271" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H271" t="s" s="41">
+        <v>362</v>
+      </c>
+      <c r="I271" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J271" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K271" t="s" s="35">
+        <v>363</v>
+      </c>
+      <c r="L271" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
-      <c r="C272" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D272" s="35" t="s">
-        <v>363</v>
-      </c>
+      <c r="A272" s="35"/>
+      <c r="B272" s="35"/>
+      <c r="C272" s="35"/>
+      <c r="D272" s="35"/>
       <c r="E272" s="35"/>
       <c r="F272" s="35"/>
-      <c r="G272" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H272" t="s" s="41">
-        <v>364</v>
-      </c>
-      <c r="I272" t="s" s="45">
-        <v>18</v>
-      </c>
+      <c r="G272" s="35"/>
+      <c r="H272" s="35"/>
+      <c r="I272" s="35"/>
       <c r="J272" t="s" s="35">
         <v>61</v>
       </c>
       <c r="K272" t="s" s="35">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L272" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="35"/>
-      <c r="B273" s="35"/>
-      <c r="C273" s="35"/>
-      <c r="D273" s="35"/>
-      <c r="E273" s="35"/>
+      <c r="D273" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E273" s="35" t="s">
+        <v>365</v>
+      </c>
       <c r="F273" s="35"/>
-      <c r="G273" s="35"/>
-      <c r="H273" s="35"/>
-      <c r="I273" s="35"/>
-      <c r="J273" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K273" t="s" s="35">
-        <v>366</v>
-      </c>
-      <c r="L273" t="s" s="17">
-        <v>3</v>
+      <c r="J273" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K273" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L273" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="274">
@@ -6748,51 +6740,59 @@
         <v>61</v>
       </c>
       <c r="E274" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="F274" s="35"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C275" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="F274" s="35"/>
-      <c r="J274" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K274" t="s" s="41">
-        <v>2</v>
-      </c>
-      <c r="L274" t="s" s="11">
+      <c r="D275" s="35"/>
+      <c r="E275" s="35"/>
+      <c r="F275" s="35"/>
+      <c r="G275" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="H275" t="s" s="35">
+        <v>368</v>
+      </c>
+      <c r="I275" t="s" s="27">
+        <v>369</v>
+      </c>
+      <c r="J275" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K275" t="s" s="35">
+        <v>370</v>
+      </c>
+      <c r="L275" t="s" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="275">
-      <c r="D275" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E275" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="F275" s="35"/>
-    </row>
     <row r="276">
-      <c r="B276" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C276" s="35" t="s">
-        <v>369</v>
-      </c>
+      <c r="A276" s="35"/>
+      <c r="B276" s="35"/>
+      <c r="C276" s="35"/>
       <c r="D276" s="35"/>
       <c r="E276" s="35"/>
       <c r="F276" s="35"/>
-      <c r="G276" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="H276" t="s" s="35">
-        <v>370</v>
-      </c>
-      <c r="I276" t="s" s="27">
+      <c r="G276" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H276" t="s" s="20">
         <v>371</v>
       </c>
-      <c r="J276" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K276" t="s" s="35">
+      <c r="I276" t="s" s="45">
+        <v>220</v>
+      </c>
+      <c r="J276" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K276" t="s" s="20">
         <v>372</v>
       </c>
       <c r="L276" t="s" s="11">
@@ -6806,19 +6806,19 @@
       <c r="D277" s="35"/>
       <c r="E277" s="35"/>
       <c r="F277" s="35"/>
-      <c r="G277" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H277" t="s" s="20">
+      <c r="G277" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H277" t="s" s="19">
         <v>373</v>
       </c>
       <c r="I277" t="s" s="45">
         <v>220</v>
       </c>
-      <c r="J277" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K277" t="s" s="20">
+      <c r="J277" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K277" t="s" s="35">
         <v>374</v>
       </c>
       <c r="L277" t="s" s="11">
@@ -6832,20 +6832,20 @@
       <c r="D278" s="35"/>
       <c r="E278" s="35"/>
       <c r="F278" s="35"/>
-      <c r="G278" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H278" t="s" s="19">
-        <v>375</v>
-      </c>
-      <c r="I278" t="s" s="45">
-        <v>220</v>
-      </c>
-      <c r="J278" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K278" t="s" s="35">
-        <v>376</v>
+      <c r="G278" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H278" t="s" s="41">
+        <v>320</v>
+      </c>
+      <c r="I278" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J278" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K278" t="s" s="41">
+        <v>53</v>
       </c>
       <c r="L278" t="s" s="11">
         <v>6</v>
@@ -6858,23 +6858,23 @@
       <c r="D279" s="35"/>
       <c r="E279" s="35"/>
       <c r="F279" s="35"/>
-      <c r="G279" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H279" t="s" s="41">
-        <v>320</v>
-      </c>
-      <c r="I279" t="s" s="41">
-        <v>15</v>
-      </c>
-      <c r="J279" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K279" t="s" s="41">
-        <v>53</v>
+      <c r="G279" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="H279" t="s" s="36">
+        <v>375</v>
+      </c>
+      <c r="I279" t="s" s="35">
+        <v>376</v>
+      </c>
+      <c r="J279" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K279" t="s" s="35">
+        <v>377</v>
       </c>
       <c r="L279" t="s" s="11">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="280">
@@ -6884,20 +6884,20 @@
       <c r="D280" s="35"/>
       <c r="E280" s="35"/>
       <c r="F280" s="35"/>
-      <c r="G280" t="s" s="36">
-        <v>61</v>
-      </c>
-      <c r="H280" t="s" s="36">
-        <v>377</v>
-      </c>
-      <c r="I280" t="s" s="35">
+      <c r="G280" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H280" t="s" s="41">
         <v>378</v>
+      </c>
+      <c r="I280" t="s" s="41">
+        <v>379</v>
       </c>
       <c r="J280" t="s" s="35">
         <v>61</v>
       </c>
       <c r="K280" t="s" s="35">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L280" t="s" s="11">
         <v>73</v>
@@ -6910,23 +6910,23 @@
       <c r="D281" s="35"/>
       <c r="E281" s="35"/>
       <c r="F281" s="35"/>
-      <c r="G281" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H281" t="s" s="41">
-        <v>380</v>
-      </c>
-      <c r="I281" t="s" s="41">
+      <c r="G281" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H281" t="s" s="20">
         <v>381</v>
       </c>
-      <c r="J281" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K281" t="s" s="35">
-        <v>382</v>
+      <c r="I281" t="s" s="45">
+        <v>12</v>
+      </c>
+      <c r="J281" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K281" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L281" t="s" s="11">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282">
@@ -6940,19 +6940,19 @@
         <v>4</v>
       </c>
       <c r="H282" t="s" s="20">
+        <v>382</v>
+      </c>
+      <c r="I282" t="s" s="19">
+        <v>162</v>
+      </c>
+      <c r="J282" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="K282" t="s" s="36">
         <v>383</v>
       </c>
-      <c r="I282" t="s" s="45">
-        <v>12</v>
-      </c>
-      <c r="J282" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K282" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L282" t="s" s="11">
-        <v>6</v>
+      <c r="L282" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -6962,23 +6962,14 @@
       <c r="D283" s="35"/>
       <c r="E283" s="35"/>
       <c r="F283" s="35"/>
-      <c r="G283" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H283" t="s" s="20">
-        <v>384</v>
-      </c>
-      <c r="I283" t="s" s="19">
-        <v>162</v>
-      </c>
-      <c r="J283" t="s" s="36">
-        <v>61</v>
-      </c>
-      <c r="K283" t="s" s="36">
-        <v>385</v>
-      </c>
-      <c r="L283" t="s" s="17">
-        <v>3</v>
+      <c r="G283" t="s" s="42">
+        <v>0</v>
+      </c>
+      <c r="H283" t="s" s="42">
+        <v>362</v>
+      </c>
+      <c r="I283" t="s" s="45">
+        <v>12</v>
       </c>
     </row>
     <row r="284">
@@ -6988,60 +6979,63 @@
       <c r="D284" s="35"/>
       <c r="E284" s="35"/>
       <c r="F284" s="35"/>
-      <c r="G284" t="s" s="42">
-        <v>0</v>
-      </c>
-      <c r="H284" t="s" s="42">
-        <v>364</v>
-      </c>
-      <c r="I284" t="s" s="45">
-        <v>12</v>
+      <c r="G284" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H284" t="s" s="20">
+        <v>384</v>
+      </c>
+      <c r="I284" t="s" s="41">
+        <v>38</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="35"/>
-      <c r="B285" s="35"/>
-      <c r="C285" s="35"/>
-      <c r="D285" s="35"/>
-      <c r="E285" s="35"/>
-      <c r="F285" s="35"/>
-      <c r="G285" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H285" t="s" s="20">
+      <c r="C285" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D285" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="E285" s="41"/>
+      <c r="F285" s="41"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D286" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="I285" t="s" s="41">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="C286" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D286" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="E286" s="41"/>
-      <c r="F286" s="41"/>
+      <c r="E286" s="35"/>
+      <c r="F286" s="35"/>
+      <c r="J286" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K286" t="s" s="35">
+        <v>374</v>
+      </c>
+      <c r="L286" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="287">
-      <c r="C287" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D287" s="35" t="s">
-        <v>388</v>
-      </c>
+      <c r="A287" s="35"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="35"/>
+      <c r="D287" s="35"/>
       <c r="E287" s="35"/>
       <c r="F287" s="35"/>
-      <c r="J287" t="s" s="35">
+      <c r="G287" s="35"/>
+      <c r="H287" s="35"/>
+      <c r="I287" s="35"/>
+      <c r="J287" t="s" s="36">
         <v>61</v>
       </c>
-      <c r="K287" t="s" s="35">
-        <v>376</v>
-      </c>
-      <c r="L287" t="s" s="11">
-        <v>6</v>
+      <c r="K287" t="s" s="36">
+        <v>387</v>
+      </c>
+      <c r="L287" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -7054,11 +7048,11 @@
       <c r="G288" s="35"/>
       <c r="H288" s="35"/>
       <c r="I288" s="35"/>
-      <c r="J288" t="s" s="36">
+      <c r="J288" t="s" s="35">
         <v>61</v>
       </c>
-      <c r="K288" t="s" s="36">
-        <v>389</v>
+      <c r="K288" t="s" s="35">
+        <v>377</v>
       </c>
       <c r="L288" t="s" s="17">
         <v>3</v>
@@ -7078,217 +7072,217 @@
         <v>61</v>
       </c>
       <c r="K289" t="s" s="35">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L289" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="35"/>
-      <c r="B290" s="35"/>
-      <c r="C290" s="35"/>
-      <c r="D290" s="35"/>
-      <c r="E290" s="35"/>
+      <c r="D290" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E290" s="35" t="s">
+        <v>388</v>
+      </c>
       <c r="F290" s="35"/>
-      <c r="G290" s="35"/>
-      <c r="H290" s="35"/>
-      <c r="I290" s="35"/>
+      <c r="G290" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H290" t="s" s="41">
+        <v>378</v>
+      </c>
+      <c r="I290" t="s" s="35">
+        <v>389</v>
+      </c>
       <c r="J290" t="s" s="35">
         <v>61</v>
       </c>
       <c r="K290" t="s" s="35">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="L290" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="291">
-      <c r="D291" s="35" t="s">
+      <c r="E291" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="F291" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="G291" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H291" t="s" s="41">
+        <v>14</v>
+      </c>
+      <c r="I291" t="s" s="41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="31"/>
+      <c r="B292" s="31"/>
+      <c r="C292" s="31"/>
+      <c r="D292" s="31"/>
+      <c r="E292" s="31"/>
+      <c r="F292" s="31"/>
+      <c r="G292" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H292" t="s" s="19">
+        <v>392</v>
+      </c>
+      <c r="I292" t="s" s="19">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="E293" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F293" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="D294" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E294" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="F294" s="19"/>
+    </row>
+    <row r="295">
+      <c r="D295" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E295" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="F295" s="41"/>
+      <c r="G295" t="s" s="35">
         <v>61</v>
       </c>
-      <c r="E291" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="F291" s="35"/>
-      <c r="G291" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H291" t="s" s="41">
-        <v>380</v>
-      </c>
-      <c r="I291" t="s" s="35">
-        <v>391</v>
-      </c>
-      <c r="J291" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K291" t="s" s="35">
-        <v>392</v>
-      </c>
-      <c r="L291" t="s" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="E292" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="F292" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="G292" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H292" t="s" s="41">
-        <v>14</v>
-      </c>
-      <c r="I292" t="s" s="41">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="31"/>
-      <c r="B293" s="31"/>
-      <c r="C293" s="31"/>
-      <c r="D293" s="31"/>
-      <c r="E293" s="31"/>
-      <c r="F293" s="31"/>
-      <c r="G293" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H293" t="s" s="19">
+      <c r="H295" t="s" s="35">
+        <v>397</v>
+      </c>
+      <c r="I295" t="s" s="35">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="E296" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F296" s="19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="D297" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E297" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="F297" s="41"/>
+    </row>
+    <row r="298">
+      <c r="D298" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E298" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="I293" t="s" s="19">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="E294" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F294" s="19" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="D295" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E295" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="F295" s="19"/>
-    </row>
-    <row r="296">
-      <c r="D296" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E296" s="41" t="s">
-        <v>398</v>
-      </c>
-      <c r="F296" s="41"/>
-      <c r="G296" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="H296" t="s" s="35">
-        <v>399</v>
-      </c>
-      <c r="I296" t="s" s="35">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="E297" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F297" s="19" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="D298" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E298" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="F298" s="41"/>
+      <c r="F298" s="19"/>
     </row>
     <row r="299">
       <c r="D299" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E299" s="19" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F299" s="19"/>
     </row>
     <row r="300">
-      <c r="D300" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E300" s="19" t="s">
+      <c r="C300" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D300" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="E300" s="35"/>
+      <c r="F300" s="35"/>
+    </row>
+    <row r="301">
+      <c r="D301" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E301" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="F300" s="19"/>
-    </row>
-    <row r="301">
-      <c r="C301" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D301" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="E301" s="35"/>
-      <c r="F301" s="35"/>
+      <c r="F301" s="19"/>
     </row>
     <row r="302">
       <c r="D302" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E302" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="F302" s="19"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D303" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="F302" s="19"/>
-    </row>
-    <row r="303">
-      <c r="D303" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E303" s="19" t="s">
+      <c r="E303" s="35"/>
+      <c r="F303" s="35"/>
+      <c r="G303" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H303" t="s" s="41">
+        <v>362</v>
+      </c>
+      <c r="I303" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J303" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K303" t="s" s="35">
         <v>406</v>
       </c>
-      <c r="F303" s="19"/>
+      <c r="L303" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="304">
-      <c r="C304" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D304" s="35" t="s">
-        <v>407</v>
-      </c>
+      <c r="A304" s="35"/>
+      <c r="B304" s="35"/>
+      <c r="C304" s="35"/>
+      <c r="D304" s="35"/>
       <c r="E304" s="35"/>
       <c r="F304" s="35"/>
-      <c r="G304" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H304" t="s" s="41">
-        <v>364</v>
-      </c>
-      <c r="I304" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J304" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K304" t="s" s="35">
-        <v>408</v>
-      </c>
-      <c r="L304" t="s" s="17">
-        <v>3</v>
+      <c r="G304" s="35"/>
+      <c r="H304" s="35"/>
+      <c r="I304" s="35"/>
+      <c r="J304" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K304" t="s" s="19">
+        <v>407</v>
+      </c>
+      <c r="L304" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="305">
@@ -7301,14 +7295,14 @@
       <c r="G305" s="35"/>
       <c r="H305" s="35"/>
       <c r="I305" s="35"/>
-      <c r="J305" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K305" t="s" s="19">
-        <v>409</v>
-      </c>
-      <c r="L305" t="s" s="11">
-        <v>6</v>
+      <c r="J305" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K305" t="s" s="35">
+        <v>408</v>
+      </c>
+      <c r="L305" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="306">
@@ -7321,217 +7315,217 @@
       <c r="G306" s="35"/>
       <c r="H306" s="35"/>
       <c r="I306" s="35"/>
-      <c r="J306" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K306" t="s" s="35">
-        <v>410</v>
+      <c r="J306" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K306" t="s" s="41">
+        <v>409</v>
       </c>
       <c r="L306" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="35"/>
-      <c r="B307" s="35"/>
-      <c r="C307" s="35"/>
-      <c r="D307" s="35"/>
-      <c r="E307" s="35"/>
+      <c r="D307" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E307" s="35" t="s">
+        <v>410</v>
+      </c>
       <c r="F307" s="35"/>
-      <c r="G307" s="35"/>
-      <c r="H307" s="35"/>
-      <c r="I307" s="35"/>
-      <c r="J307" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K307" t="s" s="41">
+    </row>
+    <row r="308">
+      <c r="C308" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D308" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="L307" t="s" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="D308" s="35" t="s">
+      <c r="E308" s="19"/>
+      <c r="F308" s="19"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E308" s="35" t="s">
+      <c r="D309" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="F308" s="35"/>
-    </row>
-    <row r="309">
-      <c r="C309" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D309" s="19" t="s">
+      <c r="E309" s="35"/>
+      <c r="F309" s="35"/>
+      <c r="G309" t="s" s="25">
         <v>413</v>
       </c>
-      <c r="E309" s="19"/>
-      <c r="F309" s="19"/>
+      <c r="H309" t="s" s="25">
+        <v>414</v>
+      </c>
+      <c r="I309" t="s" s="35">
+        <v>63</v>
+      </c>
     </row>
     <row r="310">
-      <c r="C310" s="35" t="s">
+      <c r="D310" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E310" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="F310" s="19"/>
+    </row>
+    <row r="311">
+      <c r="D311" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D310" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="E310" s="35"/>
-      <c r="F310" s="35"/>
-      <c r="G310" t="s" s="25">
-        <v>415</v>
-      </c>
-      <c r="H310" t="s" s="25">
+      <c r="E311" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="I310" t="s" s="35">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="D311" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E311" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="F311" s="19"/>
+      <c r="F311" s="35"/>
     </row>
     <row r="312">
       <c r="D312" s="35" t="s">
         <v>61</v>
       </c>
       <c r="E312" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="F312" s="35"/>
+      <c r="G312" t="s" s="25">
+        <v>413</v>
+      </c>
+      <c r="H312" t="s" s="25">
+        <v>414</v>
+      </c>
+      <c r="I312" t="s" s="35">
         <v>418</v>
       </c>
-      <c r="F312" s="35"/>
+      <c r="J312" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="K312" t="s" s="36">
+        <v>387</v>
+      </c>
+      <c r="L312" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="313">
-      <c r="D313" s="35" t="s">
+      <c r="C313" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D313" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E313" s="41"/>
+      <c r="F313" s="41"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D314" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E314" s="19"/>
+      <c r="F314" s="19"/>
+      <c r="G314" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H314" t="s" s="20">
+        <v>421</v>
+      </c>
+      <c r="I314" t="s" s="45">
+        <v>220</v>
+      </c>
+      <c r="J314" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K314" t="s" s="19">
+        <v>422</v>
+      </c>
+      <c r="L314" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="C315" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D315" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="E315" s="41"/>
+      <c r="F315" s="41"/>
+      <c r="G315" t="s" s="25">
+        <v>424</v>
+      </c>
+      <c r="H315" t="s" s="25">
+        <v>425</v>
+      </c>
+      <c r="I315" t="s" s="35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="C316" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E313" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="F313" s="35"/>
-      <c r="G313" t="s" s="25">
-        <v>415</v>
-      </c>
-      <c r="H313" t="s" s="25">
-        <v>416</v>
-      </c>
-      <c r="I313" t="s" s="35">
-        <v>420</v>
-      </c>
-      <c r="J313" t="s" s="36">
+      <c r="D316" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="E316" s="35"/>
+      <c r="F316" s="35"/>
+      <c r="G316" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H316" t="s" s="41">
+        <v>362</v>
+      </c>
+      <c r="I316" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J316" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K316" t="s" s="41">
+        <v>409</v>
+      </c>
+      <c r="L316" t="s" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="D317" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K313" t="s" s="36">
-        <v>389</v>
-      </c>
-      <c r="L313" t="s" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="C314" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D314" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="E314" s="41"/>
-      <c r="F314" s="41"/>
-    </row>
-    <row r="315">
-      <c r="C315" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D315" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="E315" s="19"/>
-      <c r="F315" s="19"/>
-      <c r="G315" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H315" t="s" s="20">
-        <v>423</v>
-      </c>
-      <c r="I315" t="s" s="45">
-        <v>220</v>
-      </c>
-      <c r="J315" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K315" t="s" s="19">
-        <v>424</v>
-      </c>
-      <c r="L315" t="s" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="C316" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D316" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="E316" s="41"/>
-      <c r="F316" s="41"/>
-      <c r="G316" t="s" s="25">
-        <v>426</v>
-      </c>
-      <c r="H316" t="s" s="25">
+      <c r="E317" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="I316" t="s" s="35">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="C317" s="35" t="s">
+      <c r="F317" s="35"/>
+      <c r="J317" t="s" s="35">
         <v>61</v>
       </c>
-      <c r="D317" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="E317" s="35"/>
-      <c r="F317" s="35"/>
-      <c r="G317" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H317" t="s" s="41">
-        <v>364</v>
-      </c>
-      <c r="I317" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J317" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K317" t="s" s="41">
-        <v>411</v>
+      <c r="K317" t="s" s="35">
+        <v>406</v>
       </c>
       <c r="L317" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="318">
-      <c r="D318" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E318" s="35" t="s">
-        <v>429</v>
-      </c>
+      <c r="A318" s="35"/>
+      <c r="B318" s="35"/>
+      <c r="C318" s="35"/>
+      <c r="D318" s="35"/>
+      <c r="E318" s="35"/>
       <c r="F318" s="35"/>
+      <c r="G318" s="35"/>
+      <c r="H318" s="35"/>
+      <c r="I318" s="35"/>
       <c r="J318" t="s" s="35">
         <v>61</v>
       </c>
       <c r="K318" t="s" s="35">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="L318" t="s" s="17">
         <v>3</v>
@@ -7551,92 +7545,98 @@
         <v>61</v>
       </c>
       <c r="K319" t="s" s="35">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L319" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="35"/>
-      <c r="B320" s="35"/>
-      <c r="C320" s="35"/>
-      <c r="D320" s="35"/>
-      <c r="E320" s="35"/>
-      <c r="F320" s="35"/>
-      <c r="G320" s="35"/>
-      <c r="H320" s="35"/>
-      <c r="I320" s="35"/>
-      <c r="J320" t="s" s="35">
+      <c r="E320" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K320" t="s" s="35">
-        <v>382</v>
-      </c>
-      <c r="L320" t="s" s="17">
-        <v>3</v>
+      <c r="F320" s="35" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="321">
-      <c r="E321" s="35" t="s">
+      <c r="C321" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D321" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="E321" s="45"/>
+      <c r="F321" s="45"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D322" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="E322" s="19"/>
+      <c r="F322" s="19"/>
+    </row>
+    <row r="323">
+      <c r="D323" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E323" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="F323" s="19"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F321" s="35" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="C322" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D322" s="45" t="s">
-        <v>431</v>
-      </c>
-      <c r="E322" s="45"/>
-      <c r="F322" s="45"/>
-    </row>
-    <row r="323">
-      <c r="C323" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D323" s="19" t="s">
+      <c r="D324" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="E323" s="19"/>
-      <c r="F323" s="19"/>
-    </row>
-    <row r="324">
-      <c r="D324" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E324" s="19" t="s">
+      <c r="E324" s="35"/>
+      <c r="F324" s="35"/>
+      <c r="G324" t="s" s="42">
+        <v>0</v>
+      </c>
+      <c r="H324" t="s" s="42">
         <v>433</v>
       </c>
-      <c r="F324" s="19"/>
+      <c r="I324" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J324" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K324" t="s" s="41">
+        <v>57</v>
+      </c>
+      <c r="L324" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="325">
-      <c r="C325" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D325" s="35" t="s">
-        <v>434</v>
-      </c>
+      <c r="A325" s="35"/>
+      <c r="B325" s="35"/>
+      <c r="C325" s="35"/>
+      <c r="D325" s="35"/>
       <c r="E325" s="35"/>
       <c r="F325" s="35"/>
-      <c r="G325" t="s" s="42">
-        <v>0</v>
-      </c>
-      <c r="H325" t="s" s="42">
-        <v>435</v>
-      </c>
-      <c r="I325" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J325" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K325" t="s" s="41">
-        <v>57</v>
+      <c r="G325" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H325" t="s" s="41">
+        <v>14</v>
+      </c>
+      <c r="I325" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J325" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K325" t="s" s="19">
+        <v>434</v>
       </c>
       <c r="L325" t="s" s="11">
         <v>6</v>
@@ -7649,23 +7649,23 @@
       <c r="D326" s="35"/>
       <c r="E326" s="35"/>
       <c r="F326" s="35"/>
-      <c r="G326" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H326" t="s" s="41">
-        <v>14</v>
-      </c>
-      <c r="I326" t="s" s="41">
-        <v>15</v>
-      </c>
-      <c r="J326" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K326" t="s" s="19">
+      <c r="G326" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H326" t="s" s="19">
+        <v>118</v>
+      </c>
+      <c r="I326" t="s" s="19">
+        <v>194</v>
+      </c>
+      <c r="J326" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K326" t="s" s="20">
+        <v>435</v>
+      </c>
+      <c r="L326" t="s" s="11">
         <v>436</v>
-      </c>
-      <c r="L326" t="s" s="11">
-        <v>6</v>
       </c>
     </row>
     <row r="327">
@@ -7675,23 +7675,14 @@
       <c r="D327" s="35"/>
       <c r="E327" s="35"/>
       <c r="F327" s="35"/>
-      <c r="G327" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H327" t="s" s="19">
-        <v>118</v>
-      </c>
-      <c r="I327" t="s" s="19">
-        <v>194</v>
-      </c>
-      <c r="J327" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K327" t="s" s="20">
-        <v>437</v>
-      </c>
-      <c r="L327" t="s" s="11">
-        <v>438</v>
+      <c r="G327" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="H327" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="I327" t="s" s="5">
+        <v>56</v>
       </c>
     </row>
     <row r="328">
@@ -7701,14 +7692,14 @@
       <c r="D328" s="35"/>
       <c r="E328" s="35"/>
       <c r="F328" s="35"/>
-      <c r="G328" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="H328" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="I328" t="s" s="5">
-        <v>56</v>
+      <c r="G328" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H328" t="s" s="19">
+        <v>437</v>
+      </c>
+      <c r="I328" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="329">
@@ -7718,14 +7709,14 @@
       <c r="D329" s="35"/>
       <c r="E329" s="35"/>
       <c r="F329" s="35"/>
-      <c r="G329" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H329" t="s" s="19">
+      <c r="G329" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H329" t="s" s="20">
+        <v>438</v>
+      </c>
+      <c r="I329" t="s" s="19">
         <v>439</v>
-      </c>
-      <c r="I329" t="s" s="45">
-        <v>18</v>
       </c>
     </row>
     <row r="330">
@@ -7741,8 +7732,8 @@
       <c r="H330" t="s" s="20">
         <v>440</v>
       </c>
-      <c r="I330" t="s" s="19">
-        <v>441</v>
+      <c r="I330" t="s" s="45">
+        <v>220</v>
       </c>
     </row>
     <row r="331">
@@ -7752,60 +7743,60 @@
       <c r="D331" s="35"/>
       <c r="E331" s="35"/>
       <c r="F331" s="35"/>
-      <c r="G331" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H331" t="s" s="20">
-        <v>442</v>
+      <c r="G331" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H331" t="s" s="41">
+        <v>362</v>
       </c>
       <c r="I331" t="s" s="45">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="35"/>
-      <c r="B332" s="35"/>
-      <c r="C332" s="35"/>
-      <c r="D332" s="35"/>
-      <c r="E332" s="35"/>
-      <c r="F332" s="35"/>
-      <c r="G332" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H332" t="s" s="41">
-        <v>364</v>
-      </c>
-      <c r="I332" t="s" s="45">
-        <v>18</v>
-      </c>
+      <c r="C332" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D332" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="E332" s="19"/>
+      <c r="F332" s="19"/>
     </row>
     <row r="333">
-      <c r="C333" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D333" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="E333" s="19"/>
-      <c r="F333" s="19"/>
+      <c r="C333" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D333" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="E333" s="35"/>
+      <c r="F333" s="35"/>
+      <c r="G333" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H333" t="s" s="41">
+        <v>320</v>
+      </c>
+      <c r="I333" t="s" s="41">
+        <v>15</v>
+      </c>
     </row>
     <row r="334">
-      <c r="C334" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D334" s="35" t="s">
-        <v>443</v>
-      </c>
+      <c r="A334" s="35"/>
+      <c r="B334" s="35"/>
+      <c r="C334" s="35"/>
+      <c r="D334" s="35"/>
       <c r="E334" s="35"/>
       <c r="F334" s="35"/>
-      <c r="G334" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H334" t="s" s="41">
-        <v>320</v>
-      </c>
-      <c r="I334" t="s" s="41">
-        <v>15</v>
+      <c r="G334" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="H334" t="s" s="35">
+        <v>442</v>
+      </c>
+      <c r="I334" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="335">
@@ -7815,11 +7806,11 @@
       <c r="D335" s="35"/>
       <c r="E335" s="35"/>
       <c r="F335" s="35"/>
-      <c r="G335" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="H335" t="s" s="35">
-        <v>444</v>
+      <c r="G335" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H335" t="s" s="41">
+        <v>362</v>
       </c>
       <c r="I335" t="s" s="45">
         <v>18</v>
@@ -7832,65 +7823,66 @@
       <c r="D336" s="35"/>
       <c r="E336" s="35"/>
       <c r="F336" s="35"/>
-      <c r="G336" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H336" t="s" s="41">
-        <v>364</v>
-      </c>
-      <c r="I336" t="s" s="45">
-        <v>18</v>
+      <c r="G336" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H336" t="s" s="20">
+        <v>443</v>
+      </c>
+      <c r="I336" t="s" s="19">
+        <v>444</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="35"/>
-      <c r="B337" s="35"/>
-      <c r="C337" s="35"/>
-      <c r="D337" s="35"/>
-      <c r="E337" s="35"/>
-      <c r="F337" s="35"/>
-      <c r="G337" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H337" t="s" s="20">
+      <c r="D337" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E337" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="I337" t="s" s="19">
+      <c r="F337" s="19"/>
+    </row>
+    <row r="338">
+      <c r="E338" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F338" s="19" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="338">
-      <c r="D338" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E338" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="F338" s="19"/>
     </row>
     <row r="339">
       <c r="E339" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F339" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="G339" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H339" t="s" s="19">
+        <v>443</v>
+      </c>
+      <c r="I339" t="s" s="19">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="D340" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E340" s="19" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="340">
-      <c r="E340" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F340" s="19" t="s">
+      <c r="F340" s="19"/>
+      <c r="G340" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H340" t="s" s="20">
         <v>449</v>
       </c>
-      <c r="G340" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H340" t="s" s="19">
-        <v>445</v>
-      </c>
       <c r="I340" t="s" s="19">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="341">
@@ -7901,24 +7893,24 @@
         <v>450</v>
       </c>
       <c r="F341" s="19"/>
-      <c r="G341" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H341" t="s" s="20">
+      <c r="G341" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H341" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="I341" t="s" s="41">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="D342" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E342" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="I341" t="s" s="19">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="D342" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E342" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="F342" s="19"/>
+      <c r="F342" s="41"/>
       <c r="G342" t="s" s="41">
         <v>0</v>
       </c>
@@ -7926,62 +7918,64 @@
         <v>37</v>
       </c>
       <c r="I342" t="s" s="41">
-        <v>104</v>
+        <v>452</v>
       </c>
     </row>
     <row r="343">
-      <c r="D343" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E343" s="41" t="s">
+      <c r="D343" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E343" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="F343" s="41"/>
-      <c r="G343" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H343" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I343" t="s" s="41">
+      <c r="F343" s="19"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D344" s="19" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="344">
-      <c r="D344" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E344" s="19" t="s">
-        <v>455</v>
-      </c>
+      <c r="E344" s="19"/>
       <c r="F344" s="19"/>
     </row>
     <row r="345">
-      <c r="C345" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D345" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="E345" s="19"/>
-      <c r="F345" s="19"/>
+      <c r="D345" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E345" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="F345" s="35"/>
+      <c r="J345" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K345" t="s" s="35">
+        <v>374</v>
+      </c>
+      <c r="L345" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
-      <c r="D346" s="35" t="s">
+      <c r="A346" s="35"/>
+      <c r="B346" s="35"/>
+      <c r="C346" s="35"/>
+      <c r="D346" s="35"/>
+      <c r="E346" s="35"/>
+      <c r="F346" s="35"/>
+      <c r="G346" s="35"/>
+      <c r="H346" s="35"/>
+      <c r="I346" s="35"/>
+      <c r="J346" t="s" s="36">
         <v>61</v>
       </c>
-      <c r="E346" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="F346" s="35"/>
-      <c r="J346" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K346" t="s" s="35">
-        <v>376</v>
-      </c>
-      <c r="L346" t="s" s="11">
-        <v>6</v>
+      <c r="K346" t="s" s="36">
+        <v>387</v>
+      </c>
+      <c r="L346" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -7994,11 +7988,11 @@
       <c r="G347" s="35"/>
       <c r="H347" s="35"/>
       <c r="I347" s="35"/>
-      <c r="J347" t="s" s="36">
+      <c r="J347" t="s" s="35">
         <v>61</v>
       </c>
-      <c r="K347" t="s" s="36">
-        <v>389</v>
+      <c r="K347" t="s" s="35">
+        <v>377</v>
       </c>
       <c r="L347" t="s" s="17">
         <v>3</v>
@@ -8018,90 +8012,78 @@
         <v>61</v>
       </c>
       <c r="K348" t="s" s="35">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L348" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="35"/>
-      <c r="B349" s="35"/>
-      <c r="C349" s="35"/>
-      <c r="D349" s="35"/>
-      <c r="E349" s="35"/>
-      <c r="F349" s="35"/>
-      <c r="G349" s="35"/>
-      <c r="H349" s="35"/>
-      <c r="I349" s="35"/>
+      <c r="E349" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F349" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="G349" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H349" t="s" s="41">
+        <v>378</v>
+      </c>
+      <c r="I349" t="s" s="35">
+        <v>389</v>
+      </c>
       <c r="J349" t="s" s="35">
         <v>61</v>
       </c>
       <c r="K349" t="s" s="35">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="L349" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="350">
-      <c r="E350" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F350" s="35" t="s">
-        <v>390</v>
+      <c r="E350" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="F350" s="31" t="s">
+        <v>391</v>
       </c>
       <c r="G350" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H350" t="s" s="41">
-        <v>380</v>
-      </c>
-      <c r="I350" t="s" s="35">
-        <v>391</v>
-      </c>
-      <c r="J350" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K350" t="s" s="35">
+        <v>14</v>
+      </c>
+      <c r="I350" t="s" s="41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="31"/>
+      <c r="B351" s="31"/>
+      <c r="C351" s="31"/>
+      <c r="D351" s="31"/>
+      <c r="E351" s="31"/>
+      <c r="F351" s="31"/>
+      <c r="G351" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H351" t="s" s="19">
         <v>392</v>
       </c>
-      <c r="L350" t="s" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="E351" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="F351" s="31" t="s">
+      <c r="I351" t="s" s="19">
         <v>393</v>
       </c>
-      <c r="G351" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H351" t="s" s="41">
-        <v>14</v>
-      </c>
-      <c r="I351" t="s" s="41">
-        <v>15</v>
-      </c>
     </row>
     <row r="352">
-      <c r="A352" s="31"/>
-      <c r="B352" s="31"/>
-      <c r="C352" s="31"/>
-      <c r="D352" s="31"/>
-      <c r="E352" s="31"/>
-      <c r="F352" s="31"/>
-      <c r="G352" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H352" t="s" s="19">
+      <c r="E352" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F352" s="19" t="s">
         <v>394</v>
-      </c>
-      <c r="I352" t="s" s="19">
-        <v>395</v>
       </c>
     </row>
     <row r="353">
@@ -8109,48 +8091,48 @@
         <v>4</v>
       </c>
       <c r="F353" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="E354" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F354" s="41" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="354">
-      <c r="E354" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F354" s="19" t="s">
+      <c r="G354" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="H354" t="s" s="35">
         <v>397</v>
       </c>
+      <c r="I354" t="s" s="35">
+        <v>398</v>
+      </c>
     </row>
     <row r="355">
-      <c r="E355" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F355" s="41" t="s">
-        <v>398</v>
-      </c>
-      <c r="G355" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="H355" t="s" s="35">
+      <c r="E355" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F355" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="I355" t="s" s="35">
+    </row>
+    <row r="356">
+      <c r="E356" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F356" s="41" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="356">
-      <c r="E356" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F356" s="19" t="s">
-        <v>401</v>
-      </c>
-    </row>
     <row r="357">
-      <c r="E357" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F357" s="41" t="s">
-        <v>402</v>
+      <c r="E357" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F357" s="19" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="358">
@@ -8158,51 +8140,63 @@
         <v>4</v>
       </c>
       <c r="F358" s="19" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="359">
+      <c r="D359" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="E359" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F359" s="19" t="s">
-        <v>403</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="F359" s="19"/>
     </row>
     <row r="360">
-      <c r="D360" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E360" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="F360" s="19"/>
+      <c r="D360" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E360" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="F360" s="35"/>
+      <c r="G360" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H360" t="s" s="41">
+        <v>362</v>
+      </c>
+      <c r="I360" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J360" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K360" t="s" s="35">
+        <v>406</v>
+      </c>
+      <c r="L360" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="361">
-      <c r="D361" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E361" s="35" t="s">
+      <c r="A361" s="35"/>
+      <c r="B361" s="35"/>
+      <c r="C361" s="35"/>
+      <c r="D361" s="35"/>
+      <c r="E361" s="35"/>
+      <c r="F361" s="35"/>
+      <c r="G361" s="35"/>
+      <c r="H361" s="35"/>
+      <c r="I361" s="35"/>
+      <c r="J361" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K361" t="s" s="19">
         <v>407</v>
       </c>
-      <c r="F361" s="35"/>
-      <c r="G361" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H361" t="s" s="41">
-        <v>364</v>
-      </c>
-      <c r="I361" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J361" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K361" t="s" s="35">
-        <v>408</v>
-      </c>
-      <c r="L361" t="s" s="17">
-        <v>3</v>
+      <c r="L361" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="362">
@@ -8215,14 +8209,14 @@
       <c r="G362" s="35"/>
       <c r="H362" s="35"/>
       <c r="I362" s="35"/>
-      <c r="J362" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K362" t="s" s="19">
-        <v>409</v>
-      </c>
-      <c r="L362" t="s" s="11">
-        <v>6</v>
+      <c r="J362" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K362" t="s" s="35">
+        <v>408</v>
+      </c>
+      <c r="L362" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -8235,77 +8229,65 @@
       <c r="G363" s="35"/>
       <c r="H363" s="35"/>
       <c r="I363" s="35"/>
-      <c r="J363" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K363" t="s" s="35">
-        <v>410</v>
+      <c r="J363" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K363" t="s" s="41">
+        <v>409</v>
       </c>
       <c r="L363" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="35"/>
-      <c r="B364" s="35"/>
-      <c r="C364" s="35"/>
-      <c r="D364" s="35"/>
-      <c r="E364" s="35"/>
-      <c r="F364" s="35"/>
-      <c r="G364" s="35"/>
-      <c r="H364" s="35"/>
-      <c r="I364" s="35"/>
-      <c r="J364" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K364" t="s" s="41">
-        <v>411</v>
-      </c>
-      <c r="L364" t="s" s="17">
-        <v>3</v>
+      <c r="E364" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F364" s="35" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="365">
-      <c r="E365" s="35" t="s">
+      <c r="D365" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E365" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="F365" s="19"/>
+    </row>
+    <row r="366">
+      <c r="D366" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F365" s="35" t="s">
+      <c r="E366" s="35" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="366">
-      <c r="D366" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E366" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="F366" s="19"/>
+      <c r="F366" s="35"/>
+      <c r="G366" t="s" s="25">
+        <v>413</v>
+      </c>
+      <c r="H366" t="s" s="25">
+        <v>414</v>
+      </c>
+      <c r="I366" t="s" s="35">
+        <v>63</v>
+      </c>
     </row>
     <row r="367">
-      <c r="D367" s="35" t="s">
+      <c r="E367" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F367" s="19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="E368" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E367" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="F367" s="35"/>
-      <c r="G367" t="s" s="25">
-        <v>415</v>
-      </c>
-      <c r="H367" t="s" s="25">
+      <c r="F368" s="35" t="s">
         <v>416</v>
-      </c>
-      <c r="I367" t="s" s="35">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="E368" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F368" s="19" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="369">
@@ -8313,107 +8295,108 @@
         <v>61</v>
       </c>
       <c r="F369" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="G369" t="s" s="25">
+        <v>413</v>
+      </c>
+      <c r="H369" t="s" s="25">
+        <v>414</v>
+      </c>
+      <c r="I369" t="s" s="35">
         <v>418</v>
       </c>
+      <c r="J369" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="K369" t="s" s="36">
+        <v>387</v>
+      </c>
+      <c r="L369" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="370">
-      <c r="E370" s="35" t="s">
+      <c r="D370" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E370" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="F370" s="19"/>
+    </row>
+    <row r="371">
+      <c r="D371" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F370" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="G370" t="s" s="25">
-        <v>415</v>
-      </c>
-      <c r="H370" t="s" s="25">
-        <v>416</v>
-      </c>
-      <c r="I370" t="s" s="35">
-        <v>420</v>
-      </c>
-      <c r="J370" t="s" s="36">
+      <c r="E371" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="F371" s="35"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K370" t="s" s="36">
-        <v>389</v>
-      </c>
-      <c r="L370" t="s" s="17">
+      <c r="D372" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="E372" s="35"/>
+      <c r="F372" s="35"/>
+      <c r="G372" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H372" t="s" s="20">
+        <v>460</v>
+      </c>
+      <c r="I372" t="s" s="45">
+        <v>220</v>
+      </c>
+      <c r="J372" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K372" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L372" t="s" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="371">
-      <c r="D371" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E371" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="F371" s="19"/>
-    </row>
-    <row r="372">
-      <c r="D372" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E372" s="35" t="s">
-        <v>460</v>
-      </c>
-      <c r="F372" s="35"/>
-    </row>
     <row r="373">
-      <c r="C373" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D373" s="35" t="s">
-        <v>461</v>
-      </c>
+      <c r="A373" s="35"/>
+      <c r="B373" s="35"/>
+      <c r="C373" s="35"/>
+      <c r="D373" s="35"/>
       <c r="E373" s="35"/>
       <c r="F373" s="35"/>
-      <c r="G373" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H373" t="s" s="20">
-        <v>462</v>
-      </c>
-      <c r="I373" t="s" s="45">
-        <v>220</v>
-      </c>
+      <c r="G373" s="35"/>
+      <c r="H373" s="35"/>
+      <c r="I373" s="35"/>
       <c r="J373" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K373" t="s" s="41">
-        <v>2</v>
+        <v>409</v>
       </c>
       <c r="L373" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="35"/>
-      <c r="B374" s="35"/>
-      <c r="C374" s="35"/>
-      <c r="D374" s="35"/>
-      <c r="E374" s="35"/>
-      <c r="F374" s="35"/>
-      <c r="G374" s="35"/>
-      <c r="H374" s="35"/>
-      <c r="I374" s="35"/>
-      <c r="J374" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K374" t="s" s="41">
-        <v>411</v>
-      </c>
-      <c r="L374" t="s" s="17">
-        <v>3</v>
-      </c>
+      <c r="D374" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E374" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F374" s="19"/>
     </row>
     <row r="375">
       <c r="D375" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E375" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F375" s="19"/>
     </row>
@@ -8422,7 +8405,7 @@
         <v>4</v>
       </c>
       <c r="E376" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F376" s="19"/>
     </row>
@@ -8431,36 +8414,53 @@
         <v>4</v>
       </c>
       <c r="E377" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="F377" s="19"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D378" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="F377" s="19"/>
-    </row>
-    <row r="378">
-      <c r="D378" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E378" s="19" t="s">
+      <c r="E378" s="35"/>
+      <c r="F378" s="35"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B379" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="F378" s="19"/>
-    </row>
-    <row r="379">
-      <c r="C379" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D379" s="35" t="s">
-        <v>467</v>
-      </c>
-      <c r="E379" s="35"/>
-      <c r="F379" s="35"/>
+      <c r="C379" s="19"/>
+      <c r="D379" s="19"/>
+      <c r="E379" s="19"/>
+      <c r="F379" s="19"/>
+      <c r="G379" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H379" t="s" s="19">
+        <v>334</v>
+      </c>
+      <c r="I379" t="s" s="19">
+        <v>335</v>
+      </c>
+      <c r="J379" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K379" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L379" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="380">
-      <c r="A380" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B380" s="19" t="s">
-        <v>468</v>
-      </c>
+      <c r="A380" s="19"/>
+      <c r="B380" s="19"/>
       <c r="C380" s="19"/>
       <c r="D380" s="19"/>
       <c r="E380" s="19"/>
@@ -8469,16 +8469,16 @@
         <v>4</v>
       </c>
       <c r="H380" t="s" s="19">
-        <v>334</v>
-      </c>
-      <c r="I380" t="s" s="19">
-        <v>335</v>
+        <v>118</v>
+      </c>
+      <c r="I380" t="s" s="13">
+        <v>20</v>
       </c>
       <c r="J380" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K380" t="s" s="41">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L380" t="s" s="17">
         <v>3</v>
@@ -8491,23 +8491,23 @@
       <c r="D381" s="19"/>
       <c r="E381" s="19"/>
       <c r="F381" s="19"/>
-      <c r="G381" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H381" t="s" s="19">
-        <v>118</v>
-      </c>
-      <c r="I381" t="s" s="13">
-        <v>20</v>
+      <c r="G381" t="s" s="25">
+        <v>413</v>
+      </c>
+      <c r="H381" t="s" s="25">
+        <v>414</v>
+      </c>
+      <c r="I381" t="s" s="19">
+        <v>467</v>
       </c>
       <c r="J381" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K381" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="L381" t="s" s="17">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="L381" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="382">
@@ -8517,20 +8517,20 @@
       <c r="D382" s="19"/>
       <c r="E382" s="19"/>
       <c r="F382" s="19"/>
-      <c r="G382" t="s" s="25">
-        <v>415</v>
-      </c>
-      <c r="H382" t="s" s="25">
-        <v>416</v>
-      </c>
-      <c r="I382" t="s" s="19">
-        <v>469</v>
+      <c r="G382" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H382" t="s" s="20">
+        <v>468</v>
+      </c>
+      <c r="I382" t="s" s="35">
+        <v>125</v>
       </c>
       <c r="J382" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K382" t="s" s="41">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L382" t="s" s="11">
         <v>6</v>
@@ -8543,20 +8543,20 @@
       <c r="D383" s="19"/>
       <c r="E383" s="19"/>
       <c r="F383" s="19"/>
-      <c r="G383" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H383" t="s" s="20">
+      <c r="G383" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H383" t="s" s="19">
+        <v>469</v>
+      </c>
+      <c r="I383" t="s" s="19">
         <v>470</v>
       </c>
-      <c r="I383" t="s" s="35">
-        <v>125</v>
-      </c>
-      <c r="J383" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K383" t="s" s="41">
-        <v>57</v>
+      <c r="J383" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K383" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L383" t="s" s="11">
         <v>6</v>
@@ -8576,16 +8576,7 @@
         <v>471</v>
       </c>
       <c r="I384" t="s" s="19">
-        <v>472</v>
-      </c>
-      <c r="J384" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K384" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L384" t="s" s="11">
-        <v>6</v>
+        <v>341</v>
       </c>
     </row>
     <row r="385">
@@ -8595,14 +8586,14 @@
       <c r="D385" s="19"/>
       <c r="E385" s="19"/>
       <c r="F385" s="19"/>
-      <c r="G385" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H385" t="s" s="19">
-        <v>473</v>
-      </c>
-      <c r="I385" t="s" s="19">
-        <v>343</v>
+      <c r="G385" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="H385" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="I385" t="s" s="5">
+        <v>56</v>
       </c>
     </row>
     <row r="386">
@@ -8612,14 +8603,14 @@
       <c r="D386" s="19"/>
       <c r="E386" s="19"/>
       <c r="F386" s="19"/>
-      <c r="G386" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="H386" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="I386" t="s" s="5">
-        <v>56</v>
+      <c r="G386" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H386" t="s" s="19">
+        <v>472</v>
+      </c>
+      <c r="I386" t="s" s="19">
+        <v>444</v>
       </c>
     </row>
     <row r="387">
@@ -8633,10 +8624,10 @@
         <v>4</v>
       </c>
       <c r="H387" t="s" s="19">
-        <v>474</v>
+        <v>146</v>
       </c>
       <c r="I387" t="s" s="19">
-        <v>446</v>
+        <v>473</v>
       </c>
     </row>
     <row r="388">
@@ -8646,14 +8637,14 @@
       <c r="D388" s="19"/>
       <c r="E388" s="19"/>
       <c r="F388" s="19"/>
-      <c r="G388" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H388" t="s" s="19">
-        <v>146</v>
+      <c r="G388" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H388" t="s" s="41">
+        <v>106</v>
       </c>
       <c r="I388" t="s" s="19">
-        <v>475</v>
+        <v>351</v>
       </c>
     </row>
     <row r="389">
@@ -8667,10 +8658,10 @@
         <v>0</v>
       </c>
       <c r="H389" t="s" s="41">
-        <v>106</v>
-      </c>
-      <c r="I389" t="s" s="19">
-        <v>353</v>
+        <v>37</v>
+      </c>
+      <c r="I389" t="s" s="15">
+        <v>48</v>
       </c>
     </row>
     <row r="390">
@@ -8680,80 +8671,74 @@
       <c r="D390" s="19"/>
       <c r="E390" s="19"/>
       <c r="F390" s="19"/>
-      <c r="G390" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H390" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I390" t="s" s="15">
-        <v>48</v>
+      <c r="G390" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H390" t="s" s="19">
+        <v>189</v>
+      </c>
+      <c r="I390" t="s" s="19">
+        <v>474</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="19"/>
-      <c r="B391" s="19"/>
-      <c r="C391" s="19"/>
+      <c r="B391" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C391" s="19" t="s">
+        <v>475</v>
+      </c>
       <c r="D391" s="19"/>
       <c r="E391" s="19"/>
       <c r="F391" s="19"/>
-      <c r="G391" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H391" t="s" s="19">
-        <v>189</v>
+      <c r="G391" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H391" t="s" s="20">
+        <v>472</v>
       </c>
       <c r="I391" t="s" s="19">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B392" s="21" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="392">
-      <c r="B392" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C392" s="19" t="s">
+      <c r="C392" s="21"/>
+      <c r="D392" s="21"/>
+      <c r="E392" s="21"/>
+      <c r="F392" s="21"/>
+      <c r="G392" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H392" t="s" s="20">
         <v>477</v>
       </c>
-      <c r="D392" s="19"/>
-      <c r="E392" s="19"/>
-      <c r="F392" s="19"/>
-      <c r="G392" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H392" t="s" s="20">
-        <v>474</v>
-      </c>
-      <c r="I392" t="s" s="19">
-        <v>446</v>
+      <c r="I392" t="s" s="45">
+        <v>12</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="21" t="s">
+      <c r="B393" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B393" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="C393" s="21"/>
+      <c r="C393" s="21" t="s">
+        <v>108</v>
+      </c>
       <c r="D393" s="21"/>
       <c r="E393" s="21"/>
       <c r="F393" s="21"/>
-      <c r="G393" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H393" t="s" s="20">
-        <v>479</v>
-      </c>
-      <c r="I393" t="s" s="45">
-        <v>12</v>
-      </c>
     </row>
     <row r="394">
       <c r="B394" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C394" s="21" t="s">
-        <v>108</v>
+        <v>478</v>
       </c>
       <c r="D394" s="21"/>
       <c r="E394" s="21"/>
@@ -8764,7 +8749,7 @@
         <v>59</v>
       </c>
       <c r="C395" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D395" s="21"/>
       <c r="E395" s="21"/>
@@ -8775,170 +8760,182 @@
         <v>59</v>
       </c>
       <c r="C396" s="21" t="s">
-        <v>481</v>
+        <v>109</v>
       </c>
       <c r="D396" s="21"/>
       <c r="E396" s="21"/>
       <c r="F396" s="21"/>
     </row>
     <row r="397">
-      <c r="B397" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C397" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D397" s="21"/>
-      <c r="E397" s="21"/>
-      <c r="F397" s="21"/>
+      <c r="A397" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="B397" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="C397" s="27"/>
+      <c r="D397" s="27"/>
+      <c r="E397" s="27"/>
+      <c r="F397" s="27"/>
     </row>
     <row r="398">
-      <c r="A398" s="27" t="s">
+      <c r="A398" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B398" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="B398" s="27" t="s">
+      <c r="C398" s="19"/>
+      <c r="D398" s="19"/>
+      <c r="E398" s="19"/>
+      <c r="F398" s="19"/>
+      <c r="G398" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H398" t="s" s="19">
         <v>483</v>
       </c>
-      <c r="C398" s="27"/>
-      <c r="D398" s="27"/>
-      <c r="E398" s="27"/>
-      <c r="F398" s="27"/>
+      <c r="I398" t="s" s="19">
+        <v>473</v>
+      </c>
+      <c r="J398" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K398" t="s" s="19">
+        <v>484</v>
+      </c>
+      <c r="L398" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="399">
-      <c r="A399" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="B399" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="C399" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="C399" s="19" t="s">
+        <v>485</v>
+      </c>
       <c r="D399" s="19"/>
       <c r="E399" s="19"/>
       <c r="F399" s="19"/>
-      <c r="G399" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H399" t="s" s="19">
-        <v>485</v>
-      </c>
-      <c r="I399" t="s" s="19">
-        <v>475</v>
-      </c>
-      <c r="J399" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K399" t="s" s="19">
+    </row>
+    <row r="400">
+      <c r="C400" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D400" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="L399" t="s" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="B400" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C400" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="D400" s="19"/>
       <c r="E400" s="19"/>
       <c r="F400" s="19"/>
+      <c r="J400" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K400" t="s" s="20">
+        <v>487</v>
+      </c>
+      <c r="L400" t="s" s="11">
+        <v>135</v>
+      </c>
     </row>
     <row r="401">
-      <c r="C401" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D401" s="19" t="s">
-        <v>488</v>
-      </c>
+      <c r="A401" s="19"/>
+      <c r="B401" s="19"/>
+      <c r="C401" s="19"/>
+      <c r="D401" s="19"/>
       <c r="E401" s="19"/>
       <c r="F401" s="19"/>
+      <c r="G401" s="19"/>
+      <c r="H401" s="19"/>
+      <c r="I401" s="19"/>
       <c r="J401" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K401" t="s" s="20">
+        <v>488</v>
+      </c>
+      <c r="L401" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="D402" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E402" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="L401" t="s" s="11">
+      <c r="F402" s="19"/>
+      <c r="J402" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K402" t="s" s="19">
+        <v>487</v>
+      </c>
+      <c r="L402" t="s" s="11">
         <v>135</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="19"/>
-      <c r="B402" s="19"/>
-      <c r="C402" s="19"/>
-      <c r="D402" s="19"/>
-      <c r="E402" s="19"/>
-      <c r="F402" s="19"/>
-      <c r="G402" s="19"/>
-      <c r="H402" s="19"/>
-      <c r="I402" s="19"/>
-      <c r="J402" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K402" t="s" s="20">
+    <row r="403">
+      <c r="A403" s="19"/>
+      <c r="B403" s="19"/>
+      <c r="C403" s="19"/>
+      <c r="D403" s="19"/>
+      <c r="E403" s="19"/>
+      <c r="F403" s="19"/>
+      <c r="G403" s="19"/>
+      <c r="H403" s="19"/>
+      <c r="I403" s="19"/>
+      <c r="J403" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K403" t="s" s="19">
+        <v>488</v>
+      </c>
+      <c r="L403" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="B404" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C404" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="L402" t="s" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="D403" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E403" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="F403" s="19"/>
-      <c r="J403" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K403" t="s" s="19">
-        <v>489</v>
-      </c>
-      <c r="L403" t="s" s="11">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="19"/>
-      <c r="B404" s="19"/>
-      <c r="C404" s="19"/>
       <c r="D404" s="19"/>
       <c r="E404" s="19"/>
       <c r="F404" s="19"/>
-      <c r="G404" s="19"/>
-      <c r="H404" s="19"/>
-      <c r="I404" s="19"/>
       <c r="J404" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K404" t="s" s="19">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L404" t="s" s="11">
-        <v>6</v>
+        <v>492</v>
       </c>
     </row>
     <row r="405">
-      <c r="B405" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C405" s="19" t="s">
-        <v>492</v>
-      </c>
+      <c r="A405" s="19"/>
+      <c r="B405" s="19"/>
+      <c r="C405" s="19"/>
       <c r="D405" s="19"/>
       <c r="E405" s="19"/>
       <c r="F405" s="19"/>
-      <c r="J405" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K405" t="s" s="19">
+      <c r="G405" s="19"/>
+      <c r="H405" s="19"/>
+      <c r="I405" s="19"/>
+      <c r="J405" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K405" t="s" s="20">
         <v>493</v>
       </c>
       <c r="L405" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="M405" t="s" s="11">
         <v>494</v>
       </c>
     </row>
@@ -8952,87 +8949,90 @@
       <c r="G406" s="19"/>
       <c r="H406" s="19"/>
       <c r="I406" s="19"/>
-      <c r="J406" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K406" t="s" s="20">
+      <c r="J406" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K406" t="s" s="19">
         <v>495</v>
       </c>
       <c r="L406" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="M406" t="s" s="11">
+    </row>
+    <row r="407">
+      <c r="B407" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C407" s="19" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="19"/>
-      <c r="B407" s="19"/>
-      <c r="C407" s="19"/>
       <c r="D407" s="19"/>
       <c r="E407" s="19"/>
       <c r="F407" s="19"/>
-      <c r="G407" s="19"/>
-      <c r="H407" s="19"/>
-      <c r="I407" s="19"/>
-      <c r="J407" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K407" t="s" s="19">
+    </row>
+    <row r="408">
+      <c r="A408" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B408" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="L407" t="s" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="B408" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C408" s="19" t="s">
+      <c r="C408" s="21"/>
+      <c r="D408" s="21"/>
+      <c r="E408" s="21"/>
+      <c r="F408" s="21"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B409" s="41" t="s">
         <v>498</v>
       </c>
-      <c r="D408" s="19"/>
-      <c r="E408" s="19"/>
-      <c r="F408" s="19"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B409" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="C409" s="21"/>
-      <c r="D409" s="21"/>
-      <c r="E409" s="21"/>
-      <c r="F409" s="21"/>
+      <c r="C409" s="41"/>
+      <c r="D409" s="41"/>
+      <c r="E409" s="41"/>
+      <c r="F409" s="41"/>
+      <c r="G409" t="s" s="43">
+        <v>69</v>
+      </c>
+      <c r="H409" t="s" s="43">
+        <v>110</v>
+      </c>
+      <c r="I409" t="s" s="41">
+        <v>104</v>
+      </c>
+      <c r="J409" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K409" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L409" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="410">
-      <c r="A410" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B410" s="41" t="s">
-        <v>500</v>
-      </c>
+      <c r="A410" s="41"/>
+      <c r="B410" s="41"/>
       <c r="C410" s="41"/>
       <c r="D410" s="41"/>
       <c r="E410" s="41"/>
       <c r="F410" s="41"/>
-      <c r="G410" t="s" s="43">
-        <v>69</v>
-      </c>
-      <c r="H410" t="s" s="43">
-        <v>110</v>
-      </c>
-      <c r="I410" t="s" s="41">
-        <v>104</v>
+      <c r="G410" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H410" t="s" s="20">
+        <v>499</v>
+      </c>
+      <c r="I410" t="s" s="45">
+        <v>12</v>
       </c>
       <c r="J410" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K410" t="s" s="41">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L410" t="s" s="17">
         <v>3</v>
@@ -9045,23 +9045,23 @@
       <c r="D411" s="41"/>
       <c r="E411" s="41"/>
       <c r="F411" s="41"/>
-      <c r="G411" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H411" t="s" s="20">
-        <v>501</v>
-      </c>
-      <c r="I411" t="s" s="45">
-        <v>12</v>
-      </c>
-      <c r="J411" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K411" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="L411" t="s" s="17">
-        <v>3</v>
+      <c r="G411" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H411" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I411" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="J411" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K411" t="s" s="19">
+        <v>500</v>
+      </c>
+      <c r="L411" t="s" s="11">
+        <v>114</v>
       </c>
     </row>
     <row r="412">
@@ -9071,23 +9071,23 @@
       <c r="D412" s="41"/>
       <c r="E412" s="41"/>
       <c r="F412" s="41"/>
-      <c r="G412" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H412" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I412" t="s" s="41">
-        <v>51</v>
-      </c>
-      <c r="J412" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K412" t="s" s="19">
-        <v>502</v>
+      <c r="G412" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H412" t="s" s="19">
+        <v>334</v>
+      </c>
+      <c r="I412" t="s" s="19">
+        <v>335</v>
+      </c>
+      <c r="J412" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K412" t="s" s="41">
+        <v>53</v>
       </c>
       <c r="L412" t="s" s="11">
-        <v>114</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413">
@@ -9101,16 +9101,16 @@
         <v>4</v>
       </c>
       <c r="H413" t="s" s="19">
-        <v>334</v>
+        <v>175</v>
       </c>
       <c r="I413" t="s" s="19">
-        <v>335</v>
+        <v>501</v>
       </c>
       <c r="J413" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K413" t="s" s="41">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L413" t="s" s="11">
         <v>6</v>
@@ -9127,19 +9127,19 @@
         <v>4</v>
       </c>
       <c r="H414" t="s" s="19">
-        <v>175</v>
+        <v>502</v>
       </c>
       <c r="I414" t="s" s="19">
         <v>503</v>
       </c>
-      <c r="J414" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K414" t="s" s="41">
-        <v>57</v>
+      <c r="J414" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K414" t="s" s="20">
+        <v>504</v>
       </c>
       <c r="L414" t="s" s="11">
-        <v>6</v>
+        <v>135</v>
       </c>
     </row>
     <row r="415">
@@ -9153,19 +9153,19 @@
         <v>4</v>
       </c>
       <c r="H415" t="s" s="19">
-        <v>504</v>
-      </c>
-      <c r="I415" t="s" s="19">
-        <v>505</v>
-      </c>
-      <c r="J415" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K415" t="s" s="20">
-        <v>506</v>
+        <v>118</v>
+      </c>
+      <c r="I415" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="J415" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K415" t="s" s="19">
+        <v>434</v>
       </c>
       <c r="L415" t="s" s="11">
-        <v>135</v>
+        <v>6</v>
       </c>
     </row>
     <row r="416">
@@ -9179,19 +9179,19 @@
         <v>4</v>
       </c>
       <c r="H416" t="s" s="19">
-        <v>118</v>
-      </c>
-      <c r="I416" t="s" s="13">
-        <v>20</v>
+        <v>505</v>
+      </c>
+      <c r="I416" t="s" s="19">
+        <v>506</v>
       </c>
       <c r="J416" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K416" t="s" s="19">
-        <v>436</v>
+        <v>507</v>
       </c>
       <c r="L416" t="s" s="11">
-        <v>6</v>
+        <v>135</v>
       </c>
     </row>
     <row r="417">
@@ -9205,19 +9205,19 @@
         <v>4</v>
       </c>
       <c r="H417" t="s" s="19">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="I417" t="s" s="19">
+        <v>341</v>
+      </c>
+      <c r="J417" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K417" t="s" s="20">
         <v>508</v>
       </c>
-      <c r="J417" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K417" t="s" s="19">
-        <v>509</v>
-      </c>
       <c r="L417" t="s" s="11">
-        <v>135</v>
+        <v>6</v>
       </c>
     </row>
     <row r="418">
@@ -9227,23 +9227,23 @@
       <c r="D418" s="41"/>
       <c r="E418" s="41"/>
       <c r="F418" s="41"/>
-      <c r="G418" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H418" t="s" s="19">
-        <v>473</v>
-      </c>
-      <c r="I418" t="s" s="19">
-        <v>343</v>
+      <c r="G418" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="H418" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="I418" t="s" s="5">
+        <v>56</v>
       </c>
       <c r="J418" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K418" t="s" s="20">
+        <v>509</v>
+      </c>
+      <c r="L418" t="s" s="11">
         <v>510</v>
-      </c>
-      <c r="L418" t="s" s="11">
-        <v>6</v>
       </c>
     </row>
     <row r="419">
@@ -9253,14 +9253,14 @@
       <c r="D419" s="41"/>
       <c r="E419" s="41"/>
       <c r="F419" s="41"/>
-      <c r="G419" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="H419" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="I419" t="s" s="5">
-        <v>56</v>
+      <c r="G419" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H419" t="s" s="19">
+        <v>126</v>
+      </c>
+      <c r="I419" t="s" s="19">
+        <v>127</v>
       </c>
       <c r="J419" t="s" s="20">
         <v>4</v>
@@ -9269,7 +9269,7 @@
         <v>511</v>
       </c>
       <c r="L419" t="s" s="11">
-        <v>512</v>
+        <v>6</v>
       </c>
     </row>
     <row r="420">
@@ -9283,19 +9283,19 @@
         <v>4</v>
       </c>
       <c r="H420" t="s" s="19">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="I420" t="s" s="19">
-        <v>127</v>
+        <v>473</v>
       </c>
       <c r="J420" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K420" t="s" s="20">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L420" t="s" s="11">
-        <v>6</v>
+        <v>436</v>
       </c>
     </row>
     <row r="421">
@@ -9309,19 +9309,19 @@
         <v>4</v>
       </c>
       <c r="H421" t="s" s="19">
-        <v>146</v>
+        <v>513</v>
       </c>
       <c r="I421" t="s" s="19">
-        <v>475</v>
-      </c>
-      <c r="J421" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K421" t="s" s="20">
-        <v>514</v>
+        <v>444</v>
+      </c>
+      <c r="J421" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K421" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L421" t="s" s="11">
-        <v>438</v>
+        <v>6</v>
       </c>
     </row>
     <row r="422">
@@ -9331,23 +9331,14 @@
       <c r="D422" s="41"/>
       <c r="E422" s="41"/>
       <c r="F422" s="41"/>
-      <c r="G422" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H422" t="s" s="19">
-        <v>515</v>
-      </c>
-      <c r="I422" t="s" s="19">
-        <v>446</v>
-      </c>
-      <c r="J422" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K422" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L422" t="s" s="11">
-        <v>6</v>
+      <c r="G422" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H422" t="s" s="41">
+        <v>106</v>
+      </c>
+      <c r="I422" t="s" s="41">
+        <v>514</v>
       </c>
     </row>
     <row r="423">
@@ -9361,10 +9352,10 @@
         <v>0</v>
       </c>
       <c r="H423" t="s" s="41">
-        <v>106</v>
-      </c>
-      <c r="I423" t="s" s="41">
-        <v>516</v>
+        <v>37</v>
+      </c>
+      <c r="I423" t="s" s="15">
+        <v>48</v>
       </c>
     </row>
     <row r="424">
@@ -9374,104 +9365,104 @@
       <c r="D424" s="41"/>
       <c r="E424" s="41"/>
       <c r="F424" s="41"/>
-      <c r="G424" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H424" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I424" t="s" s="15">
-        <v>48</v>
+      <c r="G424" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H424" t="s" s="19">
+        <v>189</v>
+      </c>
+      <c r="I424" t="s" s="19">
+        <v>515</v>
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="41"/>
-      <c r="B425" s="41"/>
-      <c r="C425" s="41"/>
-      <c r="D425" s="41"/>
-      <c r="E425" s="41"/>
-      <c r="F425" s="41"/>
-      <c r="G425" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H425" t="s" s="19">
-        <v>189</v>
-      </c>
-      <c r="I425" t="s" s="19">
+      <c r="A425" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B425" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="C425" s="19"/>
+      <c r="D425" s="19"/>
+      <c r="E425" s="19"/>
+      <c r="F425" s="19"/>
+      <c r="J425" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K425" t="s" s="20">
         <v>517</v>
       </c>
+      <c r="L425" t="s" s="11">
+        <v>436</v>
+      </c>
     </row>
     <row r="426">
-      <c r="A426" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B426" s="19" t="s">
-        <v>518</v>
-      </c>
+      <c r="A426" s="19"/>
+      <c r="B426" s="19"/>
       <c r="C426" s="19"/>
       <c r="D426" s="19"/>
       <c r="E426" s="19"/>
       <c r="F426" s="19"/>
+      <c r="G426" s="19"/>
+      <c r="H426" s="19"/>
+      <c r="I426" s="19"/>
       <c r="J426" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K426" t="s" s="20">
+        <v>518</v>
+      </c>
+      <c r="L426" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B427" s="41" t="s">
         <v>519</v>
       </c>
-      <c r="L426" t="s" s="11">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="19"/>
-      <c r="B427" s="19"/>
-      <c r="C427" s="19"/>
-      <c r="D427" s="19"/>
-      <c r="E427" s="19"/>
-      <c r="F427" s="19"/>
-      <c r="G427" s="19"/>
-      <c r="H427" s="19"/>
-      <c r="I427" s="19"/>
-      <c r="J427" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K427" t="s" s="20">
+      <c r="C427" s="41"/>
+      <c r="D427" s="41"/>
+      <c r="E427" s="41"/>
+      <c r="F427" s="41"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C428" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="L427" t="s" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B428" s="41" t="s">
-        <v>521</v>
-      </c>
-      <c r="C428" s="41"/>
       <c r="D428" s="41"/>
       <c r="E428" s="41"/>
       <c r="F428" s="41"/>
+      <c r="G428" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H428" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I428" t="s" s="41">
+        <v>51</v>
+      </c>
     </row>
     <row r="429">
-      <c r="B429" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C429" s="41" t="s">
-        <v>522</v>
-      </c>
+      <c r="A429" s="41"/>
+      <c r="B429" s="41"/>
+      <c r="C429" s="41"/>
       <c r="D429" s="41"/>
       <c r="E429" s="41"/>
       <c r="F429" s="41"/>
-      <c r="G429" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H429" t="s" s="41">
-        <v>50</v>
+      <c r="G429" t="s" s="42">
+        <v>0</v>
+      </c>
+      <c r="H429" t="s" s="42">
+        <v>521</v>
       </c>
       <c r="I429" t="s" s="41">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="430">
@@ -9481,14 +9472,14 @@
       <c r="D430" s="41"/>
       <c r="E430" s="41"/>
       <c r="F430" s="41"/>
-      <c r="G430" t="s" s="42">
-        <v>0</v>
-      </c>
-      <c r="H430" t="s" s="42">
-        <v>523</v>
-      </c>
-      <c r="I430" t="s" s="41">
-        <v>71</v>
+      <c r="G430" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H430" t="s" s="41">
+        <v>19</v>
+      </c>
+      <c r="I430" t="s" s="7">
+        <v>52</v>
       </c>
     </row>
     <row r="431">
@@ -9502,35 +9493,28 @@
         <v>0</v>
       </c>
       <c r="H431" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="I431" t="s" s="7">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="I431" t="s" s="41">
+        <v>522</v>
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="41"/>
-      <c r="B432" s="41"/>
-      <c r="C432" s="41"/>
-      <c r="D432" s="41"/>
+      <c r="C432" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D432" s="41" t="s">
+        <v>523</v>
+      </c>
       <c r="E432" s="41"/>
       <c r="F432" s="41"/>
-      <c r="G432" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H432" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I432" t="s" s="41">
-        <v>524</v>
-      </c>
     </row>
     <row r="433">
       <c r="C433" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D433" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E433" s="41"/>
       <c r="F433" s="41"/>
@@ -9540,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="D434" s="41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E434" s="41"/>
       <c r="F434" s="41"/>
@@ -9550,28 +9534,35 @@
         <v>0</v>
       </c>
       <c r="D435" s="41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E435" s="41"/>
       <c r="F435" s="41"/>
     </row>
     <row r="436">
-      <c r="C436" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D436" s="41" t="s">
-        <v>528</v>
-      </c>
-      <c r="E436" s="41"/>
-      <c r="F436" s="41"/>
+      <c r="B436" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D436" s="19"/>
+      <c r="E436" s="19"/>
+      <c r="F436" s="19"/>
+      <c r="G436" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H436" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I436" t="s" s="41">
+        <v>51</v>
+      </c>
     </row>
     <row r="437">
-      <c r="B437" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C437" s="19" t="s">
-        <v>529</v>
-      </c>
+      <c r="A437" s="19"/>
+      <c r="B437" s="19"/>
+      <c r="C437" s="19"/>
       <c r="D437" s="19"/>
       <c r="E437" s="19"/>
       <c r="F437" s="19"/>
@@ -9579,10 +9570,10 @@
         <v>0</v>
       </c>
       <c r="H437" t="s" s="41">
-        <v>50</v>
+        <v>320</v>
       </c>
       <c r="I437" t="s" s="41">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438">
@@ -9596,47 +9587,47 @@
         <v>0</v>
       </c>
       <c r="H438" t="s" s="41">
-        <v>320</v>
+        <v>37</v>
       </c>
       <c r="I438" t="s" s="41">
-        <v>15</v>
+        <v>528</v>
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="19"/>
-      <c r="B439" s="19"/>
-      <c r="C439" s="19"/>
-      <c r="D439" s="19"/>
-      <c r="E439" s="19"/>
-      <c r="F439" s="19"/>
-      <c r="G439" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H439" t="s" s="41">
-        <v>37</v>
+      <c r="B439" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="D439" s="41"/>
+      <c r="E439" s="41"/>
+      <c r="F439" s="41"/>
+      <c r="G439" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H439" t="s" s="19">
+        <v>530</v>
       </c>
       <c r="I439" t="s" s="41">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="440">
-      <c r="B440" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C440" s="41" t="s">
-        <v>531</v>
-      </c>
+      <c r="A440" s="41"/>
+      <c r="B440" s="41"/>
+      <c r="C440" s="41"/>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
       <c r="F440" s="41"/>
-      <c r="G440" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H440" t="s" s="19">
-        <v>532</v>
+      <c r="G440" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H440" t="s" s="41">
+        <v>320</v>
       </c>
       <c r="I440" t="s" s="41">
-        <v>533</v>
+        <v>15</v>
       </c>
     </row>
     <row r="441">
@@ -9650,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="H441" t="s" s="41">
-        <v>320</v>
+        <v>37</v>
       </c>
       <c r="I441" t="s" s="41">
-        <v>15</v>
+        <v>532</v>
       </c>
     </row>
     <row r="442">
@@ -9663,60 +9654,60 @@
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
       <c r="F442" s="41"/>
-      <c r="G442" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H442" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I442" t="s" s="41">
-        <v>534</v>
+      <c r="G442" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H442" t="s" s="20">
+        <v>225</v>
+      </c>
+      <c r="I442" t="s" s="19">
+        <v>226</v>
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="41"/>
-      <c r="B443" s="41"/>
-      <c r="C443" s="41"/>
+      <c r="B443" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C443" s="41" t="s">
+        <v>533</v>
+      </c>
       <c r="D443" s="41"/>
       <c r="E443" s="41"/>
       <c r="F443" s="41"/>
-      <c r="G443" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H443" t="s" s="20">
-        <v>225</v>
-      </c>
-      <c r="I443" t="s" s="19">
-        <v>226</v>
+      <c r="G443" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H443" t="s" s="41">
+        <v>534</v>
+      </c>
+      <c r="I443" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J443" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="K443" t="s" s="35">
+        <v>370</v>
+      </c>
+      <c r="L443" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
-      <c r="B444" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C444" s="41" t="s">
-        <v>535</v>
-      </c>
+      <c r="A444" s="41"/>
+      <c r="B444" s="41"/>
+      <c r="C444" s="41"/>
       <c r="D444" s="41"/>
       <c r="E444" s="41"/>
       <c r="F444" s="41"/>
-      <c r="G444" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H444" t="s" s="41">
-        <v>536</v>
-      </c>
-      <c r="I444" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J444" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="K444" t="s" s="35">
-        <v>372</v>
-      </c>
-      <c r="L444" t="s" s="17">
-        <v>3</v>
+      <c r="G444" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H444" t="s" s="19">
+        <v>535</v>
+      </c>
+      <c r="I444" t="s" s="7">
+        <v>52</v>
       </c>
     </row>
     <row r="445">
@@ -9726,14 +9717,14 @@
       <c r="D445" s="41"/>
       <c r="E445" s="41"/>
       <c r="F445" s="41"/>
-      <c r="G445" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H445" t="s" s="19">
-        <v>537</v>
-      </c>
-      <c r="I445" t="s" s="7">
-        <v>52</v>
+      <c r="G445" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H445" t="s" s="20">
+        <v>536</v>
+      </c>
+      <c r="I445" t="s" s="41">
+        <v>15</v>
       </c>
     </row>
     <row r="446">
@@ -9743,14 +9734,14 @@
       <c r="D446" s="41"/>
       <c r="E446" s="41"/>
       <c r="F446" s="41"/>
-      <c r="G446" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H446" t="s" s="20">
-        <v>538</v>
+      <c r="G446" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H446" t="s" s="41">
+        <v>50</v>
       </c>
       <c r="I446" t="s" s="41">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="447">
@@ -9764,10 +9755,10 @@
         <v>0</v>
       </c>
       <c r="H447" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I447" t="s" s="41">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="I447" t="s" s="13">
+        <v>20</v>
       </c>
     </row>
     <row r="448">
@@ -9781,10 +9772,10 @@
         <v>0</v>
       </c>
       <c r="H448" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="I448" t="s" s="13">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="I448" t="s" s="41">
+        <v>537</v>
       </c>
     </row>
     <row r="449">
@@ -9798,35 +9789,28 @@
         <v>0</v>
       </c>
       <c r="H449" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I449" t="s" s="41">
+        <v>538</v>
+      </c>
+      <c r="I449" t="s" s="31">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="C450" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D450" s="19" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="41"/>
-      <c r="B450" s="41"/>
-      <c r="C450" s="41"/>
-      <c r="D450" s="41"/>
-      <c r="E450" s="41"/>
-      <c r="F450" s="41"/>
-      <c r="G450" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H450" t="s" s="41">
-        <v>540</v>
-      </c>
-      <c r="I450" t="s" s="31">
-        <v>102</v>
-      </c>
+      <c r="E450" s="19"/>
+      <c r="F450" s="19"/>
     </row>
     <row r="451">
       <c r="C451" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D451" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E451" s="19"/>
       <c r="F451" s="19"/>
@@ -9836,7 +9820,7 @@
         <v>4</v>
       </c>
       <c r="D452" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E452" s="19"/>
       <c r="F452" s="19"/>
@@ -9846,48 +9830,55 @@
         <v>4</v>
       </c>
       <c r="D453" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E453" s="19"/>
       <c r="F453" s="19"/>
     </row>
     <row r="454">
-      <c r="C454" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D454" s="19" t="s">
+      <c r="B454" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C454" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="D454" s="41"/>
+      <c r="E454" s="41"/>
+      <c r="F454" s="41"/>
+      <c r="G454" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H454" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I454" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="J454" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K454" t="s" s="41">
         <v>544</v>
       </c>
-      <c r="E454" s="19"/>
-      <c r="F454" s="19"/>
+      <c r="L454" t="s" s="11">
+        <v>73</v>
+      </c>
     </row>
     <row r="455">
-      <c r="B455" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C455" s="41" t="s">
-        <v>545</v>
-      </c>
+      <c r="A455" s="41"/>
+      <c r="B455" s="41"/>
+      <c r="C455" s="41"/>
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
       <c r="F455" s="41"/>
-      <c r="G455" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H455" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I455" t="s" s="41">
-        <v>51</v>
-      </c>
-      <c r="J455" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K455" t="s" s="41">
-        <v>546</v>
-      </c>
-      <c r="L455" t="s" s="11">
-        <v>73</v>
+      <c r="G455" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H455" t="s" s="20">
+        <v>545</v>
+      </c>
+      <c r="I455" t="s" s="45">
+        <v>220</v>
       </c>
     </row>
     <row r="456">
@@ -9897,187 +9888,187 @@
       <c r="D456" s="41"/>
       <c r="E456" s="41"/>
       <c r="F456" s="41"/>
-      <c r="G456" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H456" t="s" s="20">
-        <v>547</v>
+      <c r="G456" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H456" t="s" s="41">
+        <v>37</v>
       </c>
       <c r="I456" t="s" s="45">
         <v>220</v>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="41"/>
-      <c r="B457" s="41"/>
-      <c r="C457" s="41"/>
-      <c r="D457" s="41"/>
-      <c r="E457" s="41"/>
-      <c r="F457" s="41"/>
-      <c r="G457" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H457" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I457" t="s" s="45">
-        <v>18</v>
-      </c>
+      <c r="C457" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D457" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="E457" s="19"/>
+      <c r="F457" s="19"/>
     </row>
     <row r="458">
       <c r="C458" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D458" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E458" s="19"/>
       <c r="F458" s="19"/>
     </row>
     <row r="459">
-      <c r="C459" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D459" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="E459" s="19"/>
-      <c r="F459" s="19"/>
+      <c r="C459" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D459" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="E459" s="41"/>
+      <c r="F459" s="41"/>
     </row>
     <row r="460">
       <c r="C460" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D460" s="41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E460" s="41"/>
       <c r="F460" s="41"/>
     </row>
     <row r="461">
-      <c r="C461" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D461" s="41" t="s">
+      <c r="D461" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E461" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="F461" s="19"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D462" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="E461" s="41"/>
-      <c r="F461" s="41"/>
-    </row>
-    <row r="462">
-      <c r="D462" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E462" s="19" t="s">
+      <c r="E462" s="41"/>
+      <c r="F462" s="41"/>
+    </row>
+    <row r="463">
+      <c r="D463" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E463" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="F462" s="19"/>
-    </row>
-    <row r="463">
-      <c r="C463" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D463" s="41" t="s">
+      <c r="F463" s="19"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D464" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="E463" s="41"/>
-      <c r="F463" s="41"/>
-    </row>
-    <row r="464">
-      <c r="D464" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E464" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="F464" s="19"/>
+      <c r="E464" s="41"/>
+      <c r="F464" s="41"/>
     </row>
     <row r="465">
       <c r="C465" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D465" s="41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E465" s="41"/>
       <c r="F465" s="41"/>
     </row>
     <row r="466">
-      <c r="C466" s="41" t="s">
-        <v>0</v>
-      </c>
       <c r="D466" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E466" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="F466" s="41"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D467" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="E466" s="41"/>
-      <c r="F466" s="41"/>
-    </row>
-    <row r="467">
-      <c r="D467" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E467" s="41" t="s">
-        <v>557</v>
-      </c>
-      <c r="F467" s="41"/>
+      <c r="E467" s="19"/>
+      <c r="F467" s="19"/>
     </row>
     <row r="468">
       <c r="C468" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D468" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E468" s="19"/>
       <c r="F468" s="19"/>
     </row>
     <row r="469">
-      <c r="C469" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D469" s="19" t="s">
+      <c r="C469" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D469" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="E469" s="41"/>
+      <c r="F469" s="41"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D470" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="E469" s="19"/>
-      <c r="F469" s="19"/>
-    </row>
-    <row r="470">
-      <c r="C470" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D470" s="41" t="s">
-        <v>560</v>
-      </c>
-      <c r="E470" s="41"/>
-      <c r="F470" s="41"/>
+      <c r="E470" s="19"/>
+      <c r="F470" s="19"/>
     </row>
     <row r="471">
       <c r="C471" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D471" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E471" s="19"/>
       <c r="F471" s="19"/>
     </row>
     <row r="472">
+      <c r="B472" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="C472" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D472" s="19" t="s">
-        <v>562</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="D472" s="19"/>
       <c r="E472" s="19"/>
       <c r="F472" s="19"/>
+      <c r="G472" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H472" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I472" t="s" s="41">
+        <v>51</v>
+      </c>
     </row>
     <row r="473">
-      <c r="B473" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C473" s="19" t="s">
-        <v>563</v>
-      </c>
+      <c r="A473" s="19"/>
+      <c r="B473" s="19"/>
+      <c r="C473" s="19"/>
       <c r="D473" s="19"/>
       <c r="E473" s="19"/>
       <c r="F473" s="19"/>
@@ -10085,10 +10076,10 @@
         <v>0</v>
       </c>
       <c r="H473" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I473" t="s" s="41">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="I473" t="s" s="7">
+        <v>52</v>
       </c>
     </row>
     <row r="474">
@@ -10102,16 +10093,19 @@
         <v>0</v>
       </c>
       <c r="H474" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="I474" t="s" s="7">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="I474" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="19"/>
-      <c r="B475" s="19"/>
-      <c r="C475" s="19"/>
+      <c r="B475" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C475" s="19" t="s">
+        <v>562</v>
+      </c>
       <c r="D475" s="19"/>
       <c r="E475" s="19"/>
       <c r="F475" s="19"/>
@@ -10119,30 +10113,27 @@
         <v>0</v>
       </c>
       <c r="H475" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I475" t="s" s="19">
-        <v>564</v>
+        <v>50</v>
+      </c>
+      <c r="I475" t="s" s="41">
+        <v>51</v>
       </c>
     </row>
     <row r="476">
-      <c r="B476" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C476" s="19" t="s">
-        <v>565</v>
-      </c>
+      <c r="A476" s="19"/>
+      <c r="B476" s="19"/>
+      <c r="C476" s="19"/>
       <c r="D476" s="19"/>
       <c r="E476" s="19"/>
       <c r="F476" s="19"/>
-      <c r="G476" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H476" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I476" t="s" s="41">
-        <v>51</v>
+      <c r="G476" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H476" t="s" s="19">
+        <v>146</v>
+      </c>
+      <c r="I476" t="s" s="35">
+        <v>192</v>
       </c>
     </row>
     <row r="477">
@@ -10152,31 +10143,33 @@
       <c r="D477" s="19"/>
       <c r="E477" s="19"/>
       <c r="F477" s="19"/>
-      <c r="G477" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H477" t="s" s="19">
-        <v>146</v>
-      </c>
-      <c r="I477" t="s" s="35">
-        <v>192</v>
+      <c r="G477" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H477" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="I477" t="s" s="41">
+        <v>563</v>
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="19"/>
-      <c r="B478" s="19"/>
-      <c r="C478" s="19"/>
-      <c r="D478" s="19"/>
+      <c r="C478" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D478" s="19" t="s">
+        <v>564</v>
+      </c>
       <c r="E478" s="19"/>
       <c r="F478" s="19"/>
-      <c r="G478" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H478" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I478" t="s" s="41">
-        <v>566</v>
+      <c r="G478" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H478" t="s" s="19">
+        <v>146</v>
+      </c>
+      <c r="I478" t="s" s="19">
+        <v>565</v>
       </c>
     </row>
     <row r="479">
@@ -10184,7 +10177,7 @@
         <v>4</v>
       </c>
       <c r="D479" s="19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E479" s="19"/>
       <c r="F479" s="19"/>
@@ -10195,7 +10188,7 @@
         <v>146</v>
       </c>
       <c r="I479" t="s" s="19">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="480">
@@ -10203,7 +10196,7 @@
         <v>4</v>
       </c>
       <c r="D480" s="19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E480" s="19"/>
       <c r="F480" s="19"/>
@@ -10214,47 +10207,40 @@
         <v>146</v>
       </c>
       <c r="I480" t="s" s="19">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B481" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="C481" s="41"/>
+      <c r="D481" s="41"/>
+      <c r="E481" s="41"/>
+      <c r="F481" s="41"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C482" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D482" s="19"/>
+      <c r="E482" s="19"/>
+      <c r="F482" s="19"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B483" s="19" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="481">
-      <c r="C481" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D481" s="19" t="s">
-        <v>571</v>
-      </c>
-      <c r="E481" s="19"/>
-      <c r="F481" s="19"/>
-      <c r="G481" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H481" t="s" s="19">
-        <v>146</v>
-      </c>
-      <c r="I481" t="s" s="19">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B482" s="41" t="s">
-        <v>443</v>
-      </c>
-      <c r="C482" s="41"/>
-      <c r="D482" s="41"/>
-      <c r="E482" s="41"/>
-      <c r="F482" s="41"/>
-    </row>
-    <row r="483">
-      <c r="B483" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C483" s="19" t="s">
-        <v>455</v>
-      </c>
+      <c r="C483" s="19"/>
       <c r="D483" s="19"/>
       <c r="E483" s="19"/>
       <c r="F483" s="19"/>
@@ -10264,32 +10250,37 @@
         <v>4</v>
       </c>
       <c r="B484" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C484" s="19"/>
       <c r="D484" s="19"/>
       <c r="E484" s="19"/>
       <c r="F484" s="19"/>
+      <c r="G484" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="H484" t="s" s="35">
+        <v>368</v>
+      </c>
+      <c r="I484" t="s" s="27">
+        <v>369</v>
+      </c>
     </row>
     <row r="485">
-      <c r="A485" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B485" s="19" t="s">
-        <v>574</v>
-      </c>
+      <c r="A485" s="19"/>
+      <c r="B485" s="19"/>
       <c r="C485" s="19"/>
       <c r="D485" s="19"/>
       <c r="E485" s="19"/>
       <c r="F485" s="19"/>
-      <c r="G485" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="H485" t="s" s="35">
-        <v>370</v>
-      </c>
-      <c r="I485" t="s" s="27">
-        <v>371</v>
+      <c r="G485" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H485" t="s" s="20">
+        <v>392</v>
+      </c>
+      <c r="I485" t="s" s="19">
+        <v>572</v>
       </c>
     </row>
     <row r="486">
@@ -10299,108 +10290,117 @@
       <c r="D486" s="19"/>
       <c r="E486" s="19"/>
       <c r="F486" s="19"/>
-      <c r="G486" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H486" t="s" s="20">
-        <v>394</v>
+      <c r="G486" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H486" t="s" s="19">
+        <v>189</v>
       </c>
       <c r="I486" t="s" s="19">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="19"/>
-      <c r="B487" s="19"/>
-      <c r="C487" s="19"/>
+      <c r="B487" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C487" s="19" t="s">
+        <v>574</v>
+      </c>
       <c r="D487" s="19"/>
       <c r="E487" s="19"/>
       <c r="F487" s="19"/>
-      <c r="G487" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H487" t="s" s="19">
-        <v>189</v>
-      </c>
-      <c r="I487" t="s" s="19">
-        <v>576</v>
-      </c>
     </row>
     <row r="488">
-      <c r="B488" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="C488" s="19" t="s">
-        <v>577</v>
-      </c>
-      <c r="D488" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="D488" s="19" t="s">
+        <v>575</v>
+      </c>
       <c r="E488" s="19"/>
       <c r="F488" s="19"/>
+      <c r="J488" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K488" t="s" s="20">
+        <v>576</v>
+      </c>
+      <c r="L488" t="s" s="11">
+        <v>510</v>
+      </c>
     </row>
     <row r="489">
+      <c r="B489" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="C489" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D489" s="19" t="s">
-        <v>578</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="D489" s="19"/>
       <c r="E489" s="19"/>
       <c r="F489" s="19"/>
       <c r="J489" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K489" t="s" s="20">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L489" t="s" s="11">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="490">
+      <c r="A490" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="B490" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C490" s="19" t="s">
-        <v>578</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="C490" s="19"/>
       <c r="D490" s="19"/>
       <c r="E490" s="19"/>
       <c r="F490" s="19"/>
-      <c r="J490" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K490" t="s" s="20">
-        <v>579</v>
+      <c r="G490" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H490" t="s" s="41">
+        <v>50</v>
+      </c>
+      <c r="I490" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="J490" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K490" t="s" s="41">
+        <v>13</v>
       </c>
       <c r="L490" t="s" s="11">
-        <v>512</v>
+        <v>6</v>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B491" s="19" t="s">
-        <v>580</v>
-      </c>
+      <c r="A491" s="19"/>
+      <c r="B491" s="19"/>
       <c r="C491" s="19"/>
       <c r="D491" s="19"/>
       <c r="E491" s="19"/>
       <c r="F491" s="19"/>
-      <c r="G491" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H491" t="s" s="41">
-        <v>50</v>
-      </c>
-      <c r="I491" t="s" s="41">
-        <v>51</v>
+      <c r="G491" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H491" t="s" s="19">
+        <v>578</v>
+      </c>
+      <c r="I491" t="s" s="45">
+        <v>12</v>
       </c>
       <c r="J491" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K491" t="s" s="41">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="L491" t="s" s="11">
         <v>6</v>
@@ -10413,116 +10413,101 @@
       <c r="D492" s="19"/>
       <c r="E492" s="19"/>
       <c r="F492" s="19"/>
-      <c r="G492" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H492" t="s" s="19">
-        <v>581</v>
-      </c>
-      <c r="I492" t="s" s="45">
-        <v>12</v>
-      </c>
-      <c r="J492" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K492" t="s" s="41">
-        <v>53</v>
+      <c r="G492" s="19"/>
+      <c r="H492" s="19"/>
+      <c r="I492" s="19"/>
+      <c r="J492" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K492" t="s" s="19">
+        <v>5</v>
       </c>
       <c r="L492" t="s" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="19"/>
-      <c r="B493" s="19"/>
-      <c r="C493" s="19"/>
-      <c r="D493" s="19"/>
-      <c r="E493" s="19"/>
-      <c r="F493" s="19"/>
-      <c r="G493" s="19"/>
-      <c r="H493" s="19"/>
-      <c r="I493" s="19"/>
-      <c r="J493" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K493" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L493" t="s" s="11">
+      <c r="B493" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D493" s="1"/>
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C494" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="D494" s="41"/>
+      <c r="E494" s="41"/>
+      <c r="F494" s="41"/>
+      <c r="J494" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K494" t="s" s="41">
+        <v>53</v>
+      </c>
+      <c r="L494" t="s" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="494">
-      <c r="B494" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D494" s="1"/>
-      <c r="E494" s="1"/>
-      <c r="F494" s="1"/>
     </row>
     <row r="495">
       <c r="B495" s="41" t="s">
         <v>0</v>
       </c>
       <c r="C495" s="41" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D495" s="41"/>
       <c r="E495" s="41"/>
       <c r="F495" s="41"/>
-      <c r="J495" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K495" t="s" s="41">
-        <v>53</v>
-      </c>
-      <c r="L495" t="s" s="11">
-        <v>6</v>
+      <c r="G495" t="s" s="43">
+        <v>69</v>
+      </c>
+      <c r="H495" t="s" s="43">
+        <v>110</v>
+      </c>
+      <c r="I495" t="s" s="41">
+        <v>582</v>
       </c>
     </row>
     <row r="496">
-      <c r="B496" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C496" s="41" t="s">
+      <c r="A496" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="B496" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="C496" s="27"/>
+      <c r="D496" s="27"/>
+      <c r="E496" s="27"/>
+      <c r="F496" s="27"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B497" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="D496" s="41"/>
-      <c r="E496" s="41"/>
-      <c r="F496" s="41"/>
-      <c r="G496" t="s" s="43">
-        <v>69</v>
-      </c>
-      <c r="H496" t="s" s="43">
-        <v>110</v>
-      </c>
-      <c r="I496" t="s" s="41">
+      <c r="C497" s="19"/>
+      <c r="D497" s="19"/>
+      <c r="E497" s="19"/>
+      <c r="F497" s="19"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C498" s="19" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="B497" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="C497" s="27"/>
-      <c r="D497" s="27"/>
-      <c r="E497" s="27"/>
-      <c r="F497" s="27"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B498" s="19" t="s">
-        <v>587</v>
-      </c>
-      <c r="C498" s="19"/>
       <c r="D498" s="19"/>
       <c r="E498" s="19"/>
       <c r="F498" s="19"/>
@@ -10532,7 +10517,7 @@
         <v>4</v>
       </c>
       <c r="C499" s="19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D499" s="19"/>
       <c r="E499" s="19"/>
@@ -10543,7 +10528,7 @@
         <v>4</v>
       </c>
       <c r="C500" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D500" s="19"/>
       <c r="E500" s="19"/>
@@ -10554,7 +10539,7 @@
         <v>4</v>
       </c>
       <c r="C501" s="19" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D501" s="19"/>
       <c r="E501" s="19"/>
@@ -10565,7 +10550,7 @@
         <v>4</v>
       </c>
       <c r="C502" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D502" s="19"/>
       <c r="E502" s="19"/>
@@ -10576,7 +10561,7 @@
         <v>4</v>
       </c>
       <c r="C503" s="19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D503" s="19"/>
       <c r="E503" s="19"/>
@@ -10587,7 +10572,7 @@
         <v>4</v>
       </c>
       <c r="C504" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D504" s="19"/>
       <c r="E504" s="19"/>
@@ -10598,7 +10583,7 @@
         <v>4</v>
       </c>
       <c r="C505" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D505" s="19"/>
       <c r="E505" s="19"/>
@@ -10609,7 +10594,7 @@
         <v>4</v>
       </c>
       <c r="C506" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D506" s="19"/>
       <c r="E506" s="19"/>
@@ -10620,7 +10605,7 @@
         <v>4</v>
       </c>
       <c r="C507" s="19" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D507" s="19"/>
       <c r="E507" s="19"/>
@@ -10631,7 +10616,7 @@
         <v>4</v>
       </c>
       <c r="C508" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D508" s="19"/>
       <c r="E508" s="19"/>
@@ -10642,7 +10627,7 @@
         <v>4</v>
       </c>
       <c r="C509" s="19" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D509" s="19"/>
       <c r="E509" s="19"/>
@@ -10653,25 +10638,14 @@
         <v>4</v>
       </c>
       <c r="C510" s="19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D510" s="19"/>
       <c r="E510" s="19"/>
       <c r="F510" s="19"/>
     </row>
-    <row r="511">
-      <c r="B511" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C511" s="19" t="s">
-        <v>600</v>
-      </c>
-      <c r="D511" s="19"/>
-      <c r="E511" s="19"/>
-      <c r="F511" s="19"/>
-    </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="491">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C3:F3"/>
@@ -10921,33 +10895,33 @@
     <mergeCell ref="A247:F247"/>
     <mergeCell ref="A248:F248"/>
     <mergeCell ref="A249:F249"/>
-    <mergeCell ref="A250:F250"/>
+    <mergeCell ref="C250:F250"/>
     <mergeCell ref="C251:F251"/>
     <mergeCell ref="C252:F252"/>
     <mergeCell ref="C253:F253"/>
-    <mergeCell ref="C254:F254"/>
-    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="A255:F255"/>
     <mergeCell ref="A256:F256"/>
-    <mergeCell ref="A257:F257"/>
+    <mergeCell ref="B257:F257"/>
     <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="A259:F259"/>
     <mergeCell ref="A260:F260"/>
     <mergeCell ref="A261:F261"/>
     <mergeCell ref="A262:F262"/>
     <mergeCell ref="A263:F263"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="A266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="C268:F268"/>
-    <mergeCell ref="D269:F269"/>
-    <mergeCell ref="A270:F270"/>
-    <mergeCell ref="A271:I271"/>
-    <mergeCell ref="D272:F272"/>
-    <mergeCell ref="A273:I273"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="C267:F267"/>
+    <mergeCell ref="D268:F268"/>
+    <mergeCell ref="A269:F269"/>
+    <mergeCell ref="A270:I270"/>
+    <mergeCell ref="D271:F271"/>
+    <mergeCell ref="A272:I272"/>
+    <mergeCell ref="E273:F273"/>
     <mergeCell ref="E274:F274"/>
-    <mergeCell ref="E275:F275"/>
-    <mergeCell ref="C276:F276"/>
+    <mergeCell ref="C275:F275"/>
+    <mergeCell ref="A276:F276"/>
     <mergeCell ref="A277:F277"/>
     <mergeCell ref="A278:F278"/>
     <mergeCell ref="A279:F279"/>
@@ -10956,83 +10930,83 @@
     <mergeCell ref="A282:F282"/>
     <mergeCell ref="A283:F283"/>
     <mergeCell ref="A284:F284"/>
-    <mergeCell ref="A285:F285"/>
+    <mergeCell ref="D285:F285"/>
     <mergeCell ref="D286:F286"/>
-    <mergeCell ref="D287:F287"/>
+    <mergeCell ref="A287:I287"/>
     <mergeCell ref="A288:I288"/>
     <mergeCell ref="A289:I289"/>
-    <mergeCell ref="A290:I290"/>
-    <mergeCell ref="E291:F291"/>
-    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="E290:F290"/>
+    <mergeCell ref="A292:F292"/>
+    <mergeCell ref="E294:F294"/>
     <mergeCell ref="E295:F295"/>
-    <mergeCell ref="E296:F296"/>
+    <mergeCell ref="E297:F297"/>
     <mergeCell ref="E298:F298"/>
     <mergeCell ref="E299:F299"/>
-    <mergeCell ref="E300:F300"/>
-    <mergeCell ref="D301:F301"/>
+    <mergeCell ref="D300:F300"/>
+    <mergeCell ref="E301:F301"/>
     <mergeCell ref="E302:F302"/>
-    <mergeCell ref="E303:F303"/>
-    <mergeCell ref="D304:F304"/>
+    <mergeCell ref="D303:F303"/>
+    <mergeCell ref="A304:I304"/>
     <mergeCell ref="A305:I305"/>
     <mergeCell ref="A306:I306"/>
-    <mergeCell ref="A307:I307"/>
-    <mergeCell ref="E308:F308"/>
+    <mergeCell ref="E307:F307"/>
+    <mergeCell ref="D308:F308"/>
     <mergeCell ref="D309:F309"/>
-    <mergeCell ref="D310:F310"/>
+    <mergeCell ref="E310:F310"/>
     <mergeCell ref="E311:F311"/>
     <mergeCell ref="E312:F312"/>
-    <mergeCell ref="E313:F313"/>
+    <mergeCell ref="D313:F313"/>
     <mergeCell ref="D314:F314"/>
     <mergeCell ref="D315:F315"/>
     <mergeCell ref="D316:F316"/>
-    <mergeCell ref="D317:F317"/>
-    <mergeCell ref="E318:F318"/>
+    <mergeCell ref="E317:F317"/>
+    <mergeCell ref="A318:I318"/>
     <mergeCell ref="A319:I319"/>
-    <mergeCell ref="A320:I320"/>
+    <mergeCell ref="D321:F321"/>
     <mergeCell ref="D322:F322"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="E324:F324"/>
-    <mergeCell ref="D325:F325"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="A325:F325"/>
     <mergeCell ref="A326:F326"/>
     <mergeCell ref="A327:F327"/>
     <mergeCell ref="A328:F328"/>
     <mergeCell ref="A329:F329"/>
     <mergeCell ref="A330:F330"/>
     <mergeCell ref="A331:F331"/>
-    <mergeCell ref="A332:F332"/>
+    <mergeCell ref="D332:F332"/>
     <mergeCell ref="D333:F333"/>
-    <mergeCell ref="D334:F334"/>
+    <mergeCell ref="A334:F334"/>
     <mergeCell ref="A335:F335"/>
     <mergeCell ref="A336:F336"/>
-    <mergeCell ref="A337:F337"/>
-    <mergeCell ref="E338:F338"/>
+    <mergeCell ref="E337:F337"/>
+    <mergeCell ref="E340:F340"/>
     <mergeCell ref="E341:F341"/>
     <mergeCell ref="E342:F342"/>
     <mergeCell ref="E343:F343"/>
-    <mergeCell ref="E344:F344"/>
-    <mergeCell ref="D345:F345"/>
-    <mergeCell ref="E346:F346"/>
+    <mergeCell ref="D344:F344"/>
+    <mergeCell ref="E345:F345"/>
+    <mergeCell ref="A346:I346"/>
     <mergeCell ref="A347:I347"/>
     <mergeCell ref="A348:I348"/>
-    <mergeCell ref="A349:I349"/>
-    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A351:F351"/>
+    <mergeCell ref="E359:F359"/>
     <mergeCell ref="E360:F360"/>
-    <mergeCell ref="E361:F361"/>
+    <mergeCell ref="A361:I361"/>
     <mergeCell ref="A362:I362"/>
     <mergeCell ref="A363:I363"/>
-    <mergeCell ref="A364:I364"/>
+    <mergeCell ref="E365:F365"/>
     <mergeCell ref="E366:F366"/>
-    <mergeCell ref="E367:F367"/>
+    <mergeCell ref="E370:F370"/>
     <mergeCell ref="E371:F371"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="D373:F373"/>
-    <mergeCell ref="A374:I374"/>
+    <mergeCell ref="D372:F372"/>
+    <mergeCell ref="A373:I373"/>
+    <mergeCell ref="E374:F374"/>
     <mergeCell ref="E375:F375"/>
     <mergeCell ref="E376:F376"/>
     <mergeCell ref="E377:F377"/>
-    <mergeCell ref="E378:F378"/>
-    <mergeCell ref="D379:F379"/>
-    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="D378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="A380:F380"/>
     <mergeCell ref="A381:F381"/>
     <mergeCell ref="A382:F382"/>
     <mergeCell ref="A383:F383"/>
@@ -11043,26 +11017,26 @@
     <mergeCell ref="A388:F388"/>
     <mergeCell ref="A389:F389"/>
     <mergeCell ref="A390:F390"/>
-    <mergeCell ref="A391:F391"/>
-    <mergeCell ref="C392:F392"/>
-    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="C391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="C393:F393"/>
     <mergeCell ref="C394:F394"/>
     <mergeCell ref="C395:F395"/>
     <mergeCell ref="C396:F396"/>
-    <mergeCell ref="C397:F397"/>
+    <mergeCell ref="B397:F397"/>
     <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="C400:F400"/>
-    <mergeCell ref="D401:F401"/>
-    <mergeCell ref="A402:I402"/>
-    <mergeCell ref="E403:F403"/>
-    <mergeCell ref="A404:I404"/>
-    <mergeCell ref="C405:F405"/>
+    <mergeCell ref="C399:F399"/>
+    <mergeCell ref="D400:F400"/>
+    <mergeCell ref="A401:I401"/>
+    <mergeCell ref="E402:F402"/>
+    <mergeCell ref="A403:I403"/>
+    <mergeCell ref="C404:F404"/>
+    <mergeCell ref="A405:I405"/>
     <mergeCell ref="A406:I406"/>
-    <mergeCell ref="A407:I407"/>
-    <mergeCell ref="C408:F408"/>
+    <mergeCell ref="C407:F407"/>
+    <mergeCell ref="B408:F408"/>
     <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="A410:F410"/>
     <mergeCell ref="A411:F411"/>
     <mergeCell ref="A412:F412"/>
     <mergeCell ref="A413:F413"/>
@@ -11077,80 +11051,80 @@
     <mergeCell ref="A422:F422"/>
     <mergeCell ref="A423:F423"/>
     <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A425:F425"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="A427:I427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="C429:F429"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="A426:I426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="C428:F428"/>
+    <mergeCell ref="A429:F429"/>
     <mergeCell ref="A430:F430"/>
     <mergeCell ref="A431:F431"/>
-    <mergeCell ref="A432:F432"/>
+    <mergeCell ref="D432:F432"/>
     <mergeCell ref="D433:F433"/>
     <mergeCell ref="D434:F434"/>
     <mergeCell ref="D435:F435"/>
-    <mergeCell ref="D436:F436"/>
-    <mergeCell ref="C437:F437"/>
+    <mergeCell ref="C436:F436"/>
+    <mergeCell ref="A437:F437"/>
     <mergeCell ref="A438:F438"/>
-    <mergeCell ref="A439:F439"/>
-    <mergeCell ref="C440:F440"/>
+    <mergeCell ref="C439:F439"/>
+    <mergeCell ref="A440:F440"/>
     <mergeCell ref="A441:F441"/>
     <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A443:F443"/>
-    <mergeCell ref="C444:F444"/>
+    <mergeCell ref="C443:F443"/>
+    <mergeCell ref="A444:F444"/>
     <mergeCell ref="A445:F445"/>
     <mergeCell ref="A446:F446"/>
     <mergeCell ref="A447:F447"/>
     <mergeCell ref="A448:F448"/>
     <mergeCell ref="A449:F449"/>
-    <mergeCell ref="A450:F450"/>
+    <mergeCell ref="D450:F450"/>
     <mergeCell ref="D451:F451"/>
     <mergeCell ref="D452:F452"/>
     <mergeCell ref="D453:F453"/>
-    <mergeCell ref="D454:F454"/>
-    <mergeCell ref="C455:F455"/>
+    <mergeCell ref="C454:F454"/>
+    <mergeCell ref="A455:F455"/>
     <mergeCell ref="A456:F456"/>
-    <mergeCell ref="A457:F457"/>
+    <mergeCell ref="D457:F457"/>
     <mergeCell ref="D458:F458"/>
     <mergeCell ref="D459:F459"/>
     <mergeCell ref="D460:F460"/>
-    <mergeCell ref="D461:F461"/>
-    <mergeCell ref="E462:F462"/>
-    <mergeCell ref="D463:F463"/>
-    <mergeCell ref="E464:F464"/>
+    <mergeCell ref="E461:F461"/>
+    <mergeCell ref="D462:F462"/>
+    <mergeCell ref="E463:F463"/>
+    <mergeCell ref="D464:F464"/>
     <mergeCell ref="D465:F465"/>
-    <mergeCell ref="D466:F466"/>
-    <mergeCell ref="E467:F467"/>
+    <mergeCell ref="E466:F466"/>
+    <mergeCell ref="D467:F467"/>
     <mergeCell ref="D468:F468"/>
     <mergeCell ref="D469:F469"/>
     <mergeCell ref="D470:F470"/>
     <mergeCell ref="D471:F471"/>
-    <mergeCell ref="D472:F472"/>
-    <mergeCell ref="C473:F473"/>
+    <mergeCell ref="C472:F472"/>
+    <mergeCell ref="A473:F473"/>
     <mergeCell ref="A474:F474"/>
-    <mergeCell ref="A475:F475"/>
-    <mergeCell ref="C476:F476"/>
+    <mergeCell ref="C475:F475"/>
+    <mergeCell ref="A476:F476"/>
     <mergeCell ref="A477:F477"/>
-    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="D478:F478"/>
     <mergeCell ref="D479:F479"/>
     <mergeCell ref="D480:F480"/>
-    <mergeCell ref="D481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="C483:F483"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="C482:F482"/>
+    <mergeCell ref="B483:F483"/>
     <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="A485:F485"/>
     <mergeCell ref="A486:F486"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="C488:F488"/>
-    <mergeCell ref="D489:F489"/>
-    <mergeCell ref="C490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="A492:F492"/>
-    <mergeCell ref="A493:I493"/>
+    <mergeCell ref="C487:F487"/>
+    <mergeCell ref="D488:F488"/>
+    <mergeCell ref="C489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="A491:F491"/>
+    <mergeCell ref="A492:I492"/>
+    <mergeCell ref="C493:F493"/>
     <mergeCell ref="C494:F494"/>
     <mergeCell ref="C495:F495"/>
-    <mergeCell ref="C496:F496"/>
+    <mergeCell ref="B496:F496"/>
     <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="C498:F498"/>
     <mergeCell ref="C499:F499"/>
     <mergeCell ref="C500:F500"/>
     <mergeCell ref="C501:F501"/>
@@ -11163,7 +11137,6 @@
     <mergeCell ref="C508:F508"/>
     <mergeCell ref="C509:F509"/>
     <mergeCell ref="C510:F510"/>
-    <mergeCell ref="C511:F511"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/sigmaaie/modules/core/doc/roh-core.xlsx
+++ b/sigmaaie/modules/core/doc/roh-core.xlsx
@@ -9901,7 +9901,7 @@
         <v>37</v>
       </c>
       <c r="I459" t="s" s="45">
-        <v>220</v>
+        <v>18</v>
       </c>
     </row>
     <row r="460">

--- a/sigmaaie/modules/core/doc/roh-core.xlsx
+++ b/sigmaaie/modules/core/doc/roh-core.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="550">
   <si>
     <t>vivo</t>
   </si>
@@ -35,13 +35,13 @@
     <t>xsd:string</t>
   </si>
   <si>
-    <t>BachelorDegree</t>
+    <t>BachelorsDegree</t>
   </si>
   <si>
     <t>DoctoralDegree</t>
   </si>
   <si>
-    <t>MasterDegree</t>
+    <t>MastersDegree</t>
   </si>
   <si>
     <t>Accreditation</t>
@@ -575,33 +575,33 @@
     <t>RO_0000052</t>
   </si>
   <si>
+    <t>dedicationPercentage</t>
+  </si>
+  <si>
+    <t>xsd:double</t>
+  </si>
+  <si>
+    <t>referencedLaw</t>
+  </si>
+  <si>
+    <t>roh:PatentApplication or vivo:Project or vivo:Relationship</t>
+  </si>
+  <si>
+    <t>roleOf</t>
+  </si>
+  <si>
+    <t>AdministratorRole</t>
+  </si>
+  <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>AdviseeRole</t>
+  </si>
+  <si>
     <t>foaf:Person</t>
   </si>
   <si>
-    <t>dedicationPercentage</t>
-  </si>
-  <si>
-    <t>xsd:double</t>
-  </si>
-  <si>
-    <t>referencedLaw</t>
-  </si>
-  <si>
-    <t>roh:PatentApplication or vivo:Project or vivo:Relationship</t>
-  </si>
-  <si>
-    <t>roleOf</t>
-  </si>
-  <si>
-    <t>AdministratorRole</t>
-  </si>
-  <si>
-    <t>Administrative</t>
-  </si>
-  <si>
-    <t>AdviseeRole</t>
-  </si>
-  <si>
     <t>AdvisorRole</t>
   </si>
   <si>
@@ -644,7 +644,7 @@
     <t>ERO_0000914</t>
   </si>
   <si>
-    <t>MasterStudent</t>
+    <t>MastersStudent</t>
   </si>
   <si>
     <t>ERO_0000787</t>
@@ -728,12 +728,6 @@
     <t>ResearchMaterial</t>
   </si>
   <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>ProjectBudget</t>
-  </si>
-  <si>
     <t>skos</t>
   </si>
   <si>
@@ -746,6 +740,15 @@
     <t>hasCode</t>
   </si>
   <si>
+    <t>AcademicSubject</t>
+  </si>
+  <si>
+    <t>BachelorsDegreeSubject</t>
+  </si>
+  <si>
+    <t>MastersDegreeSubject</t>
+  </si>
+  <si>
     <t>CompanyClassification</t>
   </si>
   <si>
@@ -761,12 +764,6 @@
     <t>KnowledgeArea</t>
   </si>
   <si>
-    <t>BachelorsDegreeSubject</t>
-  </si>
-  <si>
-    <t>MastersDegreeSubject</t>
-  </si>
-  <si>
     <t>UNESCOKnowledgeArea</t>
   </si>
   <si>
@@ -1031,13 +1028,22 @@
     <t>doi</t>
   </si>
   <si>
+    <t>documentStatus</t>
+  </si>
+  <si>
+    <t>roh:Accepted or roh:Rejected</t>
+  </si>
+  <si>
+    <t>pageEnd</t>
+  </si>
+  <si>
     <t>editorList</t>
   </si>
   <si>
     <t>rdf:List or rdf:Seq</t>
   </si>
   <si>
-    <t>pageEnd</t>
+    <t>pageStart</t>
   </si>
   <si>
     <t>hasPublicationVenue</t>
@@ -1046,9 +1052,6 @@
     <t>bibo:Book or bibo:Collection</t>
   </si>
   <si>
-    <t>pageStart</t>
-  </si>
-  <si>
     <t>isCoauthoredBy</t>
   </si>
   <si>
@@ -1238,27 +1241,27 @@
     <t>distributor</t>
   </si>
   <si>
-    <t>status</t>
+    <t>EthicalReport</t>
+  </si>
+  <si>
+    <t>EthicalAudit</t>
+  </si>
+  <si>
+    <t>EthicalValidation</t>
   </si>
   <si>
     <t>roh:Status</t>
   </si>
   <si>
-    <t>EthicalReport</t>
-  </si>
-  <si>
-    <t>EthicalAudit</t>
-  </si>
-  <si>
-    <t>EthicalValidation</t>
-  </si>
-  <si>
     <t>EvaluationSummary</t>
   </si>
   <si>
     <t>evaluationStatus</t>
   </si>
   <si>
+    <t>roh:Provisional or roh:Final</t>
+  </si>
+  <si>
     <t>Justification</t>
   </si>
   <si>
@@ -1280,9 +1283,6 @@
     <t>BachelorsThesis</t>
   </si>
   <si>
-    <t>DegreeThesis</t>
-  </si>
-  <si>
     <t>MastersThesis</t>
   </si>
   <si>
@@ -1292,6 +1292,15 @@
     <t>Webpage</t>
   </si>
   <si>
+    <t>IAO_0000027</t>
+  </si>
+  <si>
+    <t>IAO_0000109</t>
+  </si>
+  <si>
+    <t>IAO_0000582</t>
+  </si>
+  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -1376,6 +1385,9 @@
     <t>patentStatus</t>
   </si>
   <si>
+    <t>roh:Submitted or roh:Accepted or roh:Rejected</t>
+  </si>
+  <si>
     <t>roh:ResearchObject</t>
   </si>
   <si>
@@ -1421,6 +1433,9 @@
     <t>owl:Thing</t>
   </si>
   <si>
+    <t>vivo:AdviseeRole</t>
+  </si>
+  <si>
     <t>FacultyMentoringRelationship</t>
   </si>
   <si>
@@ -1541,19 +1556,22 @@
     <t>ReservationRelationship</t>
   </si>
   <si>
+    <t>roh:ReservableConsumerRole</t>
+  </si>
+  <si>
     <t>SupervisingRelationship</t>
   </si>
   <si>
     <t>roh:SuperviseeRole or roh:SupervisorRole or foaf:Person</t>
   </si>
   <si>
-    <t>DegreeSupervisingRelationship</t>
-  </si>
-  <si>
-    <t>roh:DegreeThesis</t>
-  </si>
-  <si>
-    <t>MasterSupervisingRelationship</t>
+    <t>BachelorsSupervisingRelationship</t>
+  </si>
+  <si>
+    <t>roh:BachelorsThesis</t>
+  </si>
+  <si>
+    <t>MastersSupervisingRelationship</t>
   </si>
   <si>
     <t>roh:MastersThesis</t>
@@ -2119,7 +2137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M435"/>
+  <dimension ref="A1:M436"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4190,16 +4208,16 @@
         <v>186</v>
       </c>
       <c r="I114" t="s" s="45">
+        <v>12</v>
+      </c>
+      <c r="J114" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K114" t="s" s="19">
         <v>187</v>
       </c>
-      <c r="J114" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K114" t="s" s="19">
+      <c r="L114" t="s" s="11">
         <v>188</v>
-      </c>
-      <c r="L114" t="s" s="11">
-        <v>189</v>
       </c>
     </row>
     <row r="115">
@@ -4248,7 +4266,7 @@
         <v>4</v>
       </c>
       <c r="K116" t="s" s="20">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L116" t="s" s="11">
         <v>6</v>
@@ -4268,7 +4286,7 @@
         <v>67</v>
       </c>
       <c r="I117" t="s" s="41">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118">
@@ -4282,7 +4300,7 @@
         <v>4</v>
       </c>
       <c r="H118" t="s" s="20">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I118" t="s" s="45">
         <v>12</v>
@@ -4293,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D119" s="41"/>
       <c r="E119" s="41"/>
@@ -4304,7 +4322,7 @@
         <v>4</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="19"/>
@@ -4314,11 +4332,20 @@
         <v>0</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D121" s="41"/>
       <c r="E121" s="41"/>
       <c r="F121" s="41"/>
+      <c r="G121" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H121" t="s" s="43">
+        <v>186</v>
+      </c>
+      <c r="I121" t="s" s="45">
+        <v>195</v>
+      </c>
     </row>
     <row r="122">
       <c r="B122" s="41" t="s">
@@ -4330,6 +4357,15 @@
       <c r="D122" s="41"/>
       <c r="E122" s="41"/>
       <c r="F122" s="41"/>
+      <c r="G122" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H122" t="s" s="43">
+        <v>186</v>
+      </c>
+      <c r="I122" t="s" s="45">
+        <v>195</v>
+      </c>
     </row>
     <row r="123">
       <c r="B123" s="41" t="s">
@@ -4682,7 +4718,7 @@
         <v>186</v>
       </c>
       <c r="I155" t="s" s="45">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156">
@@ -4695,6 +4731,15 @@
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
+      <c r="G156" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H156" t="s" s="43">
+        <v>186</v>
+      </c>
+      <c r="I156" t="s" s="45">
+        <v>195</v>
+      </c>
     </row>
     <row r="157">
       <c r="B157" s="41" t="s">
@@ -4763,74 +4808,71 @@
       <c r="F162" s="19"/>
     </row>
     <row r="163">
-      <c r="A163" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B163" s="19" t="s">
+      <c r="A163" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
+      <c r="B163" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H163" t="s" s="20">
+        <v>240</v>
+      </c>
+      <c r="I163" t="s" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="164">
-      <c r="B164" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H164" t="s" s="20">
+        <v>241</v>
+      </c>
+      <c r="I164" t="s" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H165" t="s" s="20">
+      <c r="B165" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="I165" t="s" s="13">
-        <v>20</v>
-      </c>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
     </row>
     <row r="166">
-      <c r="A166" s="13"/>
-      <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H166" t="s" s="20">
+      <c r="C166" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I166" t="s" s="13">
-        <v>20</v>
-      </c>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
     </row>
     <row r="167">
-      <c r="B167" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="C167" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="D167" s="19"/>
       <c r="E167" s="19"/>
       <c r="F167" s="19"/>
     </row>
@@ -4879,12 +4921,13 @@
       <c r="F171" s="19"/>
     </row>
     <row r="172">
+      <c r="B172" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="C172" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D172" s="19" t="s">
         <v>249</v>
       </c>
+      <c r="D172" s="19"/>
       <c r="E172" s="19"/>
       <c r="F172" s="19"/>
     </row>
@@ -4899,34 +4942,35 @@
       <c r="F173" s="19"/>
     </row>
     <row r="174">
+      <c r="B174" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="C174" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D174" s="19" t="s">
         <v>251</v>
       </c>
+      <c r="D174" s="19"/>
       <c r="E174" s="19"/>
       <c r="F174" s="19"/>
+      <c r="G174" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H174" t="s" s="20">
+        <v>252</v>
+      </c>
+      <c r="I174" t="s" s="41">
+        <v>65</v>
+      </c>
     </row>
     <row r="175">
       <c r="B175" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D175" s="19"/>
       <c r="E175" s="19"/>
       <c r="F175" s="19"/>
-      <c r="G175" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H175" t="s" s="20">
-        <v>253</v>
-      </c>
-      <c r="I175" t="s" s="41">
-        <v>65</v>
-      </c>
     </row>
     <row r="176">
       <c r="B176" s="19" t="s">
@@ -4940,35 +4984,36 @@
       <c r="F176" s="19"/>
     </row>
     <row r="177">
-      <c r="B177" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" s="19" t="s">
+      <c r="A177" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B177" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
     </row>
     <row r="178">
-      <c r="A178" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B178" s="13" t="s">
+      <c r="B178" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
     </row>
     <row r="179">
+      <c r="A179" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="B179" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="19" t="s">
         <v>257</v>
       </c>
+      <c r="C179" s="19"/>
       <c r="D179" s="19"/>
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
@@ -4998,24 +5043,38 @@
       <c r="F181" s="19"/>
     </row>
     <row r="182">
-      <c r="A182" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="19" t="s">
+      <c r="A182" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H182" t="s" s="19">
+        <v>261</v>
+      </c>
+      <c r="I182" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J182" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K182" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L182" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5024,19 +5083,19 @@
         <v>4</v>
       </c>
       <c r="H183" t="s" s="19">
+        <v>113</v>
+      </c>
+      <c r="I183" t="s" s="35">
         <v>262</v>
       </c>
-      <c r="I183" t="s" s="45">
-        <v>18</v>
-      </c>
       <c r="J183" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K183" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="L183" t="s" s="11">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="L183" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -5046,44 +5105,29 @@
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-      <c r="G184" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H184" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="I184" t="s" s="35">
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K184" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L184" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J184" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K184" t="s" s="41">
-        <v>77</v>
-      </c>
-      <c r="L184" t="s" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K185" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L185" t="s" s="11">
-        <v>6</v>
-      </c>
     </row>
     <row r="186">
       <c r="B186" s="1" t="s">
@@ -5097,13 +5141,12 @@
       <c r="F186" s="1"/>
     </row>
     <row r="187">
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
@@ -5118,12 +5161,13 @@
       <c r="F188" s="1"/>
     </row>
     <row r="189">
+      <c r="B189" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="C189" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D189" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
@@ -5139,13 +5183,12 @@
       <c r="F190" s="1"/>
     </row>
     <row r="191">
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
@@ -5160,12 +5203,13 @@
       <c r="F192" s="1"/>
     </row>
     <row r="193">
+      <c r="B193" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="C193" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D193" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
     </row>
@@ -5192,13 +5236,12 @@
       <c r="F195" s="1"/>
     </row>
     <row r="196">
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
     </row>
@@ -5213,23 +5256,23 @@
       <c r="F197" s="1"/>
     </row>
     <row r="198">
+      <c r="B198" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="C198" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D198" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
     </row>
     <row r="199">
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
     </row>
@@ -5244,52 +5287,68 @@
       <c r="F200" s="1"/>
     </row>
     <row r="201">
-      <c r="C201" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D201" s="1" t="s">
+      <c r="A201" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B201" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
     </row>
     <row r="202">
-      <c r="A202" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B202" s="21" t="s">
+      <c r="A202" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C202" s="21"/>
-      <c r="D202" s="21"/>
-      <c r="E202" s="21"/>
-      <c r="F202" s="21"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="19"/>
+      <c r="G202" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H202" t="s" s="41">
+        <v>281</v>
+      </c>
+      <c r="I202" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J202" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K202" t="s" s="19">
+        <v>282</v>
+      </c>
+      <c r="L202" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="203">
-      <c r="A203" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B203" s="19" t="s">
-        <v>281</v>
-      </c>
+      <c r="A203" s="19"/>
+      <c r="B203" s="19"/>
       <c r="C203" s="19"/>
       <c r="D203" s="19"/>
       <c r="E203" s="19"/>
       <c r="F203" s="19"/>
-      <c r="G203" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H203" t="s" s="41">
-        <v>282</v>
-      </c>
-      <c r="I203" t="s" s="41">
-        <v>15</v>
-      </c>
-      <c r="J203" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K203" t="s" s="19">
+      <c r="G203" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H203" t="s" s="19">
         <v>283</v>
+      </c>
+      <c r="I203" t="s" s="19">
+        <v>284</v>
+      </c>
+      <c r="J203" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s" s="41">
+        <v>13</v>
       </c>
       <c r="L203" t="s" s="11">
         <v>6</v>
@@ -5302,20 +5361,14 @@
       <c r="D204" s="19"/>
       <c r="E204" s="19"/>
       <c r="F204" s="19"/>
-      <c r="G204" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H204" t="s" s="19">
-        <v>284</v>
-      </c>
-      <c r="I204" t="s" s="19">
+      <c r="G204" s="19"/>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+      <c r="J204" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K204" t="s" s="19">
         <v>285</v>
-      </c>
-      <c r="J204" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K204" t="s" s="41">
-        <v>13</v>
       </c>
       <c r="L204" t="s" s="11">
         <v>6</v>
@@ -5338,7 +5391,7 @@
         <v>286</v>
       </c>
       <c r="L205" t="s" s="11">
-        <v>6</v>
+        <v>287</v>
       </c>
     </row>
     <row r="206">
@@ -5355,31 +5408,22 @@
         <v>4</v>
       </c>
       <c r="K206" t="s" s="19">
-        <v>287</v>
+        <v>5</v>
       </c>
       <c r="L206" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="19" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="19"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
       <c r="D207" s="19"/>
       <c r="E207" s="19"/>
       <c r="F207" s="19"/>
-      <c r="G207" s="19"/>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K207" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L207" t="s" s="11">
-        <v>6</v>
-      </c>
     </row>
     <row r="208">
       <c r="B208" s="19" t="s">
@@ -5415,56 +5459,71 @@
       <c r="F210" s="19"/>
     </row>
     <row r="211">
-      <c r="B211" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C211" s="19" t="s">
+      <c r="A211" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D211" s="19"/>
-      <c r="E211" s="19"/>
-      <c r="F211" s="19"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
     </row>
     <row r="212">
-      <c r="A212" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B212" s="5" t="s">
+      <c r="A212" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="19"/>
+      <c r="G212" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H212" t="s" s="43">
+        <v>72</v>
+      </c>
+      <c r="I212" t="s" s="19">
+        <v>80</v>
+      </c>
+      <c r="J212" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K212" t="s" s="41">
+        <v>77</v>
+      </c>
+      <c r="L212" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B213" s="19" t="s">
-        <v>294</v>
-      </c>
+      <c r="A213" s="19"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="19"/>
       <c r="D213" s="19"/>
       <c r="E213" s="19"/>
       <c r="F213" s="19"/>
-      <c r="G213" t="s" s="43">
-        <v>71</v>
-      </c>
-      <c r="H213" t="s" s="43">
-        <v>72</v>
-      </c>
-      <c r="I213" t="s" s="19">
-        <v>80</v>
-      </c>
-      <c r="J213" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K213" t="s" s="41">
-        <v>77</v>
-      </c>
-      <c r="L213" t="s" s="17">
-        <v>3</v>
+      <c r="G213" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H213" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I213" t="s" s="41">
+        <v>76</v>
+      </c>
+      <c r="J213" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K213" t="s" s="20">
+        <v>294</v>
+      </c>
+      <c r="L213" t="s" s="11">
+        <v>102</v>
       </c>
     </row>
     <row r="214">
@@ -5474,23 +5533,14 @@
       <c r="D214" s="19"/>
       <c r="E214" s="19"/>
       <c r="F214" s="19"/>
-      <c r="G214" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H214" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I214" t="s" s="41">
-        <v>76</v>
-      </c>
-      <c r="J214" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K214" t="s" s="20">
+      <c r="G214" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H214" t="s" s="19">
         <v>295</v>
       </c>
-      <c r="L214" t="s" s="11">
-        <v>102</v>
+      <c r="I214" t="s" s="19">
+        <v>296</v>
       </c>
     </row>
     <row r="215">
@@ -5504,10 +5554,10 @@
         <v>4</v>
       </c>
       <c r="H215" t="s" s="19">
-        <v>296</v>
-      </c>
-      <c r="I215" t="s" s="19">
-        <v>297</v>
+        <v>139</v>
+      </c>
+      <c r="I215" t="s" s="41">
+        <v>168</v>
       </c>
     </row>
     <row r="216">
@@ -5521,28 +5571,22 @@
         <v>4</v>
       </c>
       <c r="H216" t="s" s="19">
-        <v>139</v>
-      </c>
-      <c r="I216" t="s" s="41">
-        <v>168</v>
+        <v>82</v>
+      </c>
+      <c r="I216" t="s" s="19">
+        <v>158</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="19"/>
-      <c r="B217" s="19"/>
-      <c r="C217" s="19"/>
+      <c r="B217" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>297</v>
+      </c>
       <c r="D217" s="19"/>
       <c r="E217" s="19"/>
       <c r="F217" s="19"/>
-      <c r="G217" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H217" t="s" s="19">
-        <v>82</v>
-      </c>
-      <c r="I217" t="s" s="19">
-        <v>158</v>
-      </c>
     </row>
     <row r="218">
       <c r="B218" s="19" t="s">
@@ -5578,44 +5622,59 @@
       <c r="F220" s="19"/>
     </row>
     <row r="221">
+      <c r="A221" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="B221" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C221" s="19" t="s">
         <v>301</v>
       </c>
+      <c r="C221" s="19"/>
       <c r="D221" s="19"/>
       <c r="E221" s="19"/>
       <c r="F221" s="19"/>
+      <c r="G221" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H221" t="s" s="43">
+        <v>302</v>
+      </c>
+      <c r="I221" t="s" s="19">
+        <v>303</v>
+      </c>
+      <c r="J221" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K221" t="s" s="19">
+        <v>282</v>
+      </c>
+      <c r="L221" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B222" s="19" t="s">
-        <v>302</v>
-      </c>
+      <c r="A222" s="19"/>
+      <c r="B222" s="19"/>
       <c r="C222" s="19"/>
       <c r="D222" s="19"/>
       <c r="E222" s="19"/>
       <c r="F222" s="19"/>
-      <c r="G222" t="s" s="43">
-        <v>71</v>
-      </c>
-      <c r="H222" t="s" s="43">
-        <v>303</v>
-      </c>
-      <c r="I222" t="s" s="19">
-        <v>304</v>
+      <c r="G222" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H222" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I222" t="s" s="41">
+        <v>76</v>
       </c>
       <c r="J222" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K222" t="s" s="19">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L222" t="s" s="11">
-        <v>6</v>
+        <v>287</v>
       </c>
     </row>
     <row r="223">
@@ -5625,91 +5684,91 @@
       <c r="D223" s="19"/>
       <c r="E223" s="19"/>
       <c r="F223" s="19"/>
-      <c r="G223" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H223" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I223" t="s" s="41">
-        <v>76</v>
-      </c>
-      <c r="J223" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K223" t="s" s="19">
-        <v>287</v>
-      </c>
-      <c r="L223" t="s" s="11">
-        <v>288</v>
+      <c r="G223" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H223" t="s" s="19">
+        <v>304</v>
+      </c>
+      <c r="I223" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="19"/>
-      <c r="B224" s="19"/>
-      <c r="C224" s="19"/>
-      <c r="D224" s="19"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="19"/>
-      <c r="G224" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H224" t="s" s="19">
+      <c r="A224" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="I224" t="s" s="45">
-        <v>18</v>
+      <c r="C224" s="41"/>
+      <c r="D224" s="41"/>
+      <c r="E224" s="41"/>
+      <c r="F224" s="41"/>
+      <c r="G224" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H224" t="s" s="20">
+        <v>306</v>
+      </c>
+      <c r="I224" t="s" s="19">
+        <v>307</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B225" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="C225" s="41"/>
-      <c r="D225" s="41"/>
-      <c r="E225" s="41"/>
-      <c r="F225" s="41"/>
-      <c r="G225" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H225" t="s" s="20">
-        <v>307</v>
+      <c r="A225" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C225" s="19"/>
+      <c r="D225" s="19"/>
+      <c r="E225" s="19"/>
+      <c r="F225" s="19"/>
+      <c r="G225" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H225" t="s" s="43">
+        <v>72</v>
       </c>
       <c r="I225" t="s" s="19">
-        <v>308</v>
+        <v>296</v>
+      </c>
+      <c r="J225" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K225" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L225" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B226" s="19" t="s">
-        <v>309</v>
-      </c>
+      <c r="A226" s="19"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="19"/>
       <c r="D226" s="19"/>
       <c r="E226" s="19"/>
       <c r="F226" s="19"/>
-      <c r="G226" t="s" s="43">
-        <v>71</v>
-      </c>
-      <c r="H226" t="s" s="43">
-        <v>72</v>
-      </c>
-      <c r="I226" t="s" s="19">
-        <v>297</v>
+      <c r="G226" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H226" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I226" t="s" s="41">
+        <v>76</v>
       </c>
       <c r="J226" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K226" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="L226" t="s" s="11">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="L226" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -5719,23 +5778,23 @@
       <c r="D227" s="19"/>
       <c r="E227" s="19"/>
       <c r="F227" s="19"/>
-      <c r="G227" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I227" t="s" s="41">
-        <v>76</v>
-      </c>
-      <c r="J227" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K227" t="s" s="41">
-        <v>77</v>
-      </c>
-      <c r="L227" t="s" s="17">
-        <v>3</v>
+      <c r="G227" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H227" t="s" s="19">
+        <v>309</v>
+      </c>
+      <c r="I227" t="s" s="19">
+        <v>310</v>
+      </c>
+      <c r="J227" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K227" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L227" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="228">
@@ -5745,23 +5804,14 @@
       <c r="D228" s="19"/>
       <c r="E228" s="19"/>
       <c r="F228" s="19"/>
-      <c r="G228" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H228" t="s" s="19">
-        <v>310</v>
-      </c>
-      <c r="I228" t="s" s="19">
-        <v>311</v>
-      </c>
-      <c r="J228" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K228" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L228" t="s" s="11">
-        <v>6</v>
+      <c r="G228" t="s" s="5">
+        <v>88</v>
+      </c>
+      <c r="H228" t="s" s="5">
+        <v>89</v>
+      </c>
+      <c r="I228" t="s" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="229">
@@ -5771,14 +5821,14 @@
       <c r="D229" s="19"/>
       <c r="E229" s="19"/>
       <c r="F229" s="19"/>
-      <c r="G229" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="H229" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="I229" t="s" s="5">
-        <v>90</v>
+      <c r="G229" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H229" t="s" s="19">
+        <v>311</v>
+      </c>
+      <c r="I229" t="s" s="41">
+        <v>312</v>
       </c>
     </row>
     <row r="230">
@@ -5788,138 +5838,147 @@
       <c r="D230" s="19"/>
       <c r="E230" s="19"/>
       <c r="F230" s="19"/>
-      <c r="G230" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H230" t="s" s="19">
-        <v>312</v>
-      </c>
-      <c r="I230" t="s" s="41">
+      <c r="G230" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H230" t="s" s="41">
+        <v>67</v>
+      </c>
+      <c r="I230" t="s" s="19">
         <v>313</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="19"/>
-      <c r="B231" s="19"/>
+      <c r="A231" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>314</v>
+      </c>
       <c r="C231" s="19"/>
       <c r="D231" s="19"/>
       <c r="E231" s="19"/>
       <c r="F231" s="19"/>
-      <c r="G231" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H231" t="s" s="41">
-        <v>67</v>
+      <c r="G231" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H231" t="s" s="19">
+        <v>315</v>
       </c>
       <c r="I231" t="s" s="19">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" s="19" t="s">
-        <v>315</v>
-      </c>
+      <c r="A232" s="19"/>
+      <c r="B232" s="19"/>
       <c r="C232" s="19"/>
       <c r="D232" s="19"/>
       <c r="E232" s="19"/>
       <c r="F232" s="19"/>
-      <c r="G232" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H232" t="s" s="19">
+      <c r="G232" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H232" t="s" s="20">
+        <v>311</v>
+      </c>
+      <c r="I232" t="s" s="41">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="I232" t="s" s="19">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="19"/>
-      <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
-      <c r="D233" s="19"/>
-      <c r="E233" s="19"/>
-      <c r="F233" s="19"/>
-      <c r="G233" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H233" t="s" s="20">
-        <v>312</v>
-      </c>
-      <c r="I233" t="s" s="41">
-        <v>313</v>
+      <c r="B233" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C233" s="31"/>
+      <c r="D233" s="31"/>
+      <c r="E233" s="31"/>
+      <c r="F233" s="31"/>
+      <c r="G233" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H233" t="s" s="19">
+        <v>318</v>
+      </c>
+      <c r="I233" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="B234" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="C234" s="31"/>
-      <c r="D234" s="31"/>
-      <c r="E234" s="31"/>
-      <c r="F234" s="31"/>
-      <c r="G234" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H234" t="s" s="19">
+      <c r="B234" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="I234" t="s" s="45">
-        <v>18</v>
+      <c r="C234" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="D234" s="35"/>
+      <c r="E234" s="35"/>
+      <c r="F234" s="35"/>
+      <c r="J234" t="s" s="35">
+        <v>319</v>
+      </c>
+      <c r="K234" t="s" s="35">
+        <v>321</v>
+      </c>
+      <c r="L234" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
-      <c r="B235" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="C235" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="D235" s="35"/>
-      <c r="E235" s="35"/>
-      <c r="F235" s="35"/>
-      <c r="J235" t="s" s="35">
-        <v>320</v>
-      </c>
-      <c r="K235" t="s" s="35">
+      <c r="C235" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D235" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="L235" t="s" s="17">
-        <v>3</v>
+      <c r="E235" s="19"/>
+      <c r="F235" s="19"/>
+      <c r="G235" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H235" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I235" t="s" s="41">
+        <v>76</v>
+      </c>
+      <c r="J235" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K235" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L235" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="236">
-      <c r="C236" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D236" s="19" t="s">
-        <v>323</v>
-      </c>
+      <c r="A236" s="19"/>
+      <c r="B236" s="19"/>
+      <c r="C236" s="19"/>
+      <c r="D236" s="19"/>
       <c r="E236" s="19"/>
       <c r="F236" s="19"/>
       <c r="G236" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H236" t="s" s="41">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="I236" t="s" s="41">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="J236" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K236" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="L236" t="s" s="11">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="L236" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -5929,65 +5988,59 @@
       <c r="D237" s="19"/>
       <c r="E237" s="19"/>
       <c r="F237" s="19"/>
-      <c r="G237" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H237" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I237" t="s" s="41">
+      <c r="G237" s="19"/>
+      <c r="H237" s="19"/>
+      <c r="I237" s="19"/>
+      <c r="J237" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K237" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L237" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="C238" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D238" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="J237" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K237" t="s" s="41">
-        <v>77</v>
-      </c>
-      <c r="L237" t="s" s="17">
+      <c r="E238" s="35"/>
+      <c r="F238" s="35"/>
+      <c r="G238" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H238" t="s" s="41">
+        <v>325</v>
+      </c>
+      <c r="I238" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J238" t="s" s="35">
+        <v>319</v>
+      </c>
+      <c r="K238" t="s" s="35">
+        <v>326</v>
+      </c>
+      <c r="L238" t="s" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="19"/>
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="19"/>
-      <c r="E238" s="19"/>
-      <c r="F238" s="19"/>
-      <c r="G238" s="19"/>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K238" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L238" t="s" s="11">
-        <v>6</v>
-      </c>
-    </row>
     <row r="239">
-      <c r="C239" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="D239" s="35" t="s">
-        <v>325</v>
-      </c>
+      <c r="A239" s="35"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="35"/>
+      <c r="D239" s="35"/>
       <c r="E239" s="35"/>
       <c r="F239" s="35"/>
-      <c r="G239" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H239" t="s" s="41">
-        <v>326</v>
-      </c>
-      <c r="I239" t="s" s="45">
-        <v>18</v>
-      </c>
+      <c r="G239" s="35"/>
+      <c r="H239" s="35"/>
+      <c r="I239" s="35"/>
       <c r="J239" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K239" t="s" s="35">
         <v>327</v>
@@ -5997,76 +6050,82 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="35"/>
-      <c r="B240" s="35"/>
-      <c r="C240" s="35"/>
-      <c r="D240" s="35"/>
-      <c r="E240" s="35"/>
+      <c r="D240" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="E240" s="35" t="s">
+        <v>328</v>
+      </c>
       <c r="F240" s="35"/>
-      <c r="G240" s="35"/>
-      <c r="H240" s="35"/>
-      <c r="I240" s="35"/>
-      <c r="J240" t="s" s="35">
-        <v>320</v>
-      </c>
-      <c r="K240" t="s" s="35">
-        <v>328</v>
-      </c>
-      <c r="L240" t="s" s="17">
-        <v>3</v>
+      <c r="J240" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K240" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L240" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="241">
       <c r="D241" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E241" s="35" t="s">
         <v>329</v>
       </c>
       <c r="F241" s="35"/>
-      <c r="J241" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K241" t="s" s="41">
-        <v>2</v>
-      </c>
-      <c r="L241" t="s" s="11">
+    </row>
+    <row r="242">
+      <c r="B242" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C242" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D242" s="35"/>
+      <c r="E242" s="35"/>
+      <c r="F242" s="35"/>
+      <c r="G242" t="s" s="35">
+        <v>319</v>
+      </c>
+      <c r="H242" t="s" s="35">
+        <v>331</v>
+      </c>
+      <c r="I242" t="s" s="27">
+        <v>332</v>
+      </c>
+      <c r="J242" t="s" s="35">
+        <v>319</v>
+      </c>
+      <c r="K242" t="s" s="35">
+        <v>333</v>
+      </c>
+      <c r="L242" t="s" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="242">
-      <c r="D242" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="E242" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="F242" s="35"/>
-    </row>
     <row r="243">
-      <c r="B243" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="C243" s="35" t="s">
-        <v>331</v>
-      </c>
+      <c r="A243" s="35"/>
+      <c r="B243" s="35"/>
+      <c r="C243" s="35"/>
       <c r="D243" s="35"/>
       <c r="E243" s="35"/>
       <c r="F243" s="35"/>
-      <c r="G243" t="s" s="35">
-        <v>320</v>
-      </c>
-      <c r="H243" t="s" s="35">
-        <v>332</v>
-      </c>
-      <c r="I243" t="s" s="27">
-        <v>333</v>
-      </c>
-      <c r="J243" t="s" s="35">
-        <v>320</v>
-      </c>
-      <c r="K243" t="s" s="35">
+      <c r="G243" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H243" t="s" s="20">
         <v>334</v>
+      </c>
+      <c r="I243" t="s" s="45">
+        <v>195</v>
+      </c>
+      <c r="J243" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K243" t="s" s="20">
+        <v>335</v>
       </c>
       <c r="L243" t="s" s="11">
         <v>6</v>
@@ -6079,20 +6138,20 @@
       <c r="D244" s="35"/>
       <c r="E244" s="35"/>
       <c r="F244" s="35"/>
-      <c r="G244" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H244" t="s" s="20">
-        <v>335</v>
+      <c r="G244" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H244" t="s" s="19">
+        <v>336</v>
       </c>
       <c r="I244" t="s" s="45">
-        <v>187</v>
-      </c>
-      <c r="J244" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K244" t="s" s="20">
-        <v>336</v>
+        <v>195</v>
+      </c>
+      <c r="J244" t="s" s="35">
+        <v>319</v>
+      </c>
+      <c r="K244" t="s" s="35">
+        <v>337</v>
       </c>
       <c r="L244" t="s" s="11">
         <v>6</v>
@@ -6105,20 +6164,20 @@
       <c r="D245" s="35"/>
       <c r="E245" s="35"/>
       <c r="F245" s="35"/>
-      <c r="G245" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H245" t="s" s="19">
-        <v>337</v>
-      </c>
-      <c r="I245" t="s" s="45">
-        <v>187</v>
-      </c>
-      <c r="J245" t="s" s="35">
-        <v>320</v>
-      </c>
-      <c r="K245" t="s" s="35">
-        <v>338</v>
+      <c r="G245" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H245" t="s" s="41">
+        <v>281</v>
+      </c>
+      <c r="I245" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J245" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K245" t="s" s="41">
+        <v>49</v>
       </c>
       <c r="L245" t="s" s="11">
         <v>6</v>
@@ -6131,23 +6190,23 @@
       <c r="D246" s="35"/>
       <c r="E246" s="35"/>
       <c r="F246" s="35"/>
-      <c r="G246" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H246" t="s" s="41">
-        <v>282</v>
-      </c>
-      <c r="I246" t="s" s="41">
-        <v>15</v>
-      </c>
-      <c r="J246" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K246" t="s" s="41">
-        <v>49</v>
-      </c>
-      <c r="L246" t="s" s="11">
-        <v>6</v>
+      <c r="G246" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H246" t="s" s="19">
+        <v>338</v>
+      </c>
+      <c r="I246" t="s" s="19">
+        <v>339</v>
+      </c>
+      <c r="J246" t="s" s="35">
+        <v>319</v>
+      </c>
+      <c r="K246" t="s" s="35">
+        <v>340</v>
+      </c>
+      <c r="L246" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -6158,19 +6217,19 @@
       <c r="E247" s="35"/>
       <c r="F247" s="35"/>
       <c r="G247" t="s" s="36">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H247" t="s" s="36">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I247" t="s" s="35">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J247" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K247" t="s" s="35">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L247" t="s" s="17">
         <v>3</v>
@@ -6187,19 +6246,19 @@
         <v>0</v>
       </c>
       <c r="H248" t="s" s="41">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I248" t="s" s="41">
-        <v>343</v>
-      </c>
-      <c r="J248" t="s" s="35">
-        <v>320</v>
-      </c>
-      <c r="K248" t="s" s="35">
-        <v>344</v>
-      </c>
-      <c r="L248" t="s" s="17">
-        <v>3</v>
+        <v>345</v>
+      </c>
+      <c r="J248" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K248" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L248" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="249">
@@ -6213,19 +6272,19 @@
         <v>4</v>
       </c>
       <c r="H249" t="s" s="20">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I249" t="s" s="45">
         <v>12</v>
       </c>
-      <c r="J249" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K249" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L249" t="s" s="11">
-        <v>6</v>
+      <c r="J249" t="s" s="36">
+        <v>319</v>
+      </c>
+      <c r="K249" t="s" s="36">
+        <v>347</v>
+      </c>
+      <c r="L249" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -6239,19 +6298,10 @@
         <v>0</v>
       </c>
       <c r="H250" t="s" s="42">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I250" t="s" s="45">
         <v>12</v>
-      </c>
-      <c r="J250" t="s" s="36">
-        <v>320</v>
-      </c>
-      <c r="K250" t="s" s="36">
-        <v>346</v>
-      </c>
-      <c r="L250" t="s" s="17">
-        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -6265,7 +6315,7 @@
         <v>4</v>
       </c>
       <c r="H251" t="s" s="20">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I251" t="s" s="41">
         <v>38</v>
@@ -6276,25 +6326,25 @@
         <v>0</v>
       </c>
       <c r="D252" s="41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E252" s="41"/>
       <c r="F252" s="41"/>
     </row>
     <row r="253">
       <c r="C253" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D253" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E253" s="35"/>
       <c r="F253" s="35"/>
       <c r="J253" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K253" t="s" s="35">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L253" t="s" s="11">
         <v>6</v>
@@ -6311,10 +6361,10 @@
       <c r="H254" s="35"/>
       <c r="I254" s="35"/>
       <c r="J254" t="s" s="36">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K254" t="s" s="36">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L254" t="s" s="17">
         <v>3</v>
@@ -6331,10 +6381,10 @@
       <c r="H255" s="35"/>
       <c r="I255" s="35"/>
       <c r="J255" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K255" t="s" s="35">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L255" t="s" s="17">
         <v>3</v>
@@ -6351,10 +6401,10 @@
       <c r="H256" s="35"/>
       <c r="I256" s="35"/>
       <c r="J256" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K256" t="s" s="35">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L256" t="s" s="17">
         <v>3</v>
@@ -6362,26 +6412,26 @@
     </row>
     <row r="257">
       <c r="D257" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E257" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F257" s="35"/>
       <c r="G257" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H257" t="s" s="41">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I257" t="s" s="35">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J257" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K257" t="s" s="35">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L257" t="s" s="17">
         <v>3</v>
@@ -6389,10 +6439,10 @@
     </row>
     <row r="258">
       <c r="E258" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F258" s="31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G258" t="s" s="41">
         <v>0</v>
@@ -6415,10 +6465,10 @@
         <v>4</v>
       </c>
       <c r="H259" t="s" s="19">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I259" t="s" s="19">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="260">
@@ -6426,7 +6476,7 @@
         <v>4</v>
       </c>
       <c r="F260" s="19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="261">
@@ -6434,7 +6484,7 @@
         <v>4</v>
       </c>
       <c r="E261" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F261" s="19"/>
     </row>
@@ -6443,17 +6493,17 @@
         <v>0</v>
       </c>
       <c r="E262" s="41" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F262" s="41"/>
       <c r="G262" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H262" t="s" s="35">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I262" t="s" s="35">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="263">
@@ -6461,7 +6511,7 @@
         <v>4</v>
       </c>
       <c r="F263" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="264">
@@ -6469,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="E264" s="41" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F264" s="41"/>
     </row>
@@ -6478,7 +6528,7 @@
         <v>4</v>
       </c>
       <c r="E265" s="19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F265" s="19"/>
     </row>
@@ -6487,16 +6537,16 @@
         <v>4</v>
       </c>
       <c r="E266" s="19" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F266" s="19"/>
     </row>
     <row r="267">
       <c r="C267" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D267" s="35" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E267" s="35"/>
       <c r="F267" s="35"/>
@@ -6506,7 +6556,7 @@
         <v>4</v>
       </c>
       <c r="E268" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F268" s="19"/>
     </row>
@@ -6515,16 +6565,16 @@
         <v>4</v>
       </c>
       <c r="E269" s="19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F269" s="19"/>
     </row>
     <row r="270">
       <c r="C270" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D270" s="35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E270" s="35"/>
       <c r="F270" s="35"/>
@@ -6532,16 +6582,16 @@
         <v>0</v>
       </c>
       <c r="H270" t="s" s="41">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I270" t="s" s="45">
         <v>18</v>
       </c>
       <c r="J270" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K270" t="s" s="35">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L270" t="s" s="17">
         <v>3</v>
@@ -6561,7 +6611,7 @@
         <v>4</v>
       </c>
       <c r="K271" t="s" s="19">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L271" t="s" s="11">
         <v>6</v>
@@ -6578,10 +6628,10 @@
       <c r="H272" s="35"/>
       <c r="I272" s="35"/>
       <c r="J272" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K272" t="s" s="35">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L272" t="s" s="17">
         <v>3</v>
@@ -6601,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="K273" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L273" t="s" s="17">
         <v>3</v>
@@ -6609,10 +6659,10 @@
     </row>
     <row r="274">
       <c r="D274" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E274" s="35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F274" s="35"/>
     </row>
@@ -6621,7 +6671,7 @@
         <v>4</v>
       </c>
       <c r="D275" s="19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E275" s="19"/>
       <c r="F275" s="19"/>
@@ -6631,25 +6681,25 @@
         <v>4</v>
       </c>
       <c r="D276" s="19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E276" s="19"/>
       <c r="F276" s="19"/>
     </row>
     <row r="277">
       <c r="C277" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D277" s="35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E277" s="35"/>
       <c r="F277" s="35"/>
       <c r="G277" t="s" s="25">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H277" t="s" s="25">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I277" t="s" s="35">
         <v>51</v>
@@ -6660,41 +6710,41 @@
         <v>4</v>
       </c>
       <c r="E278" s="19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F278" s="19"/>
     </row>
     <row r="279">
       <c r="D279" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E279" s="35" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F279" s="35"/>
     </row>
     <row r="280">
       <c r="D280" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E280" s="35" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F280" s="35"/>
       <c r="G280" t="s" s="25">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H280" t="s" s="25">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I280" t="s" s="35">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J280" t="s" s="36">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K280" t="s" s="36">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L280" t="s" s="17">
         <v>3</v>
@@ -6705,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="D281" s="41" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E281" s="41"/>
       <c r="F281" s="41"/>
@@ -6715,7 +6765,7 @@
         <v>4</v>
       </c>
       <c r="D282" s="19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E282" s="19"/>
       <c r="F282" s="19"/>
@@ -6723,16 +6773,16 @@
         <v>4</v>
       </c>
       <c r="H282" t="s" s="20">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I282" t="s" s="45">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="J282" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K282" t="s" s="19">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L282" t="s" s="11">
         <v>6</v>
@@ -6743,15 +6793,15 @@
         <v>0</v>
       </c>
       <c r="D283" s="41" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E283" s="41"/>
       <c r="F283" s="41"/>
       <c r="G283" t="s" s="25">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H283" t="s" s="25">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I283" t="s" s="35">
         <v>51</v>
@@ -6759,10 +6809,10 @@
     </row>
     <row r="284">
       <c r="C284" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D284" s="35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E284" s="35"/>
       <c r="F284" s="35"/>
@@ -6770,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="s" s="41">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I284" t="s" s="45">
         <v>18</v>
@@ -6779,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="K284" t="s" s="41">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L284" t="s" s="17">
         <v>3</v>
@@ -6787,17 +6837,17 @@
     </row>
     <row r="285">
       <c r="D285" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E285" s="35" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F285" s="35"/>
       <c r="J285" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K285" t="s" s="35">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L285" t="s" s="17">
         <v>3</v>
@@ -6814,10 +6864,10 @@
       <c r="H286" s="35"/>
       <c r="I286" s="35"/>
       <c r="J286" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K286" t="s" s="35">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L286" t="s" s="17">
         <v>3</v>
@@ -6834,10 +6884,10 @@
       <c r="H287" s="35"/>
       <c r="I287" s="35"/>
       <c r="J287" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K287" t="s" s="35">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L287" t="s" s="17">
         <v>3</v>
@@ -6845,10 +6895,10 @@
     </row>
     <row r="288">
       <c r="E288" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F288" s="35" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="289">
@@ -6856,7 +6906,7 @@
         <v>4</v>
       </c>
       <c r="D289" s="19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E289" s="19"/>
       <c r="F289" s="19"/>
@@ -6866,7 +6916,7 @@
         <v>16</v>
       </c>
       <c r="D290" s="45" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E290" s="45"/>
       <c r="F290" s="45"/>
@@ -6876,7 +6926,7 @@
         <v>4</v>
       </c>
       <c r="D291" s="19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E291" s="19"/>
       <c r="F291" s="19"/>
@@ -6886,26 +6936,26 @@
         <v>4</v>
       </c>
       <c r="E292" s="19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F292" s="19"/>
     </row>
     <row r="293">
       <c r="C293" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D293" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E293" s="35"/>
       <c r="F293" s="35"/>
     </row>
     <row r="294">
       <c r="C294" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D294" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E294" s="35"/>
       <c r="F294" s="35"/>
@@ -6913,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s" s="42">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I294" t="s" s="45">
         <v>18</v>
@@ -6948,7 +6998,7 @@
         <v>4</v>
       </c>
       <c r="K295" t="s" s="19">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L295" t="s" s="11">
         <v>6</v>
@@ -6965,7 +7015,7 @@
         <v>4</v>
       </c>
       <c r="H296" t="s" s="19">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I296" t="s" s="41">
         <v>15</v>
@@ -7016,7 +7066,7 @@
         <v>4</v>
       </c>
       <c r="H299" t="s" s="19">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I299" t="s" s="45">
         <v>18</v>
@@ -7033,10 +7083,10 @@
         <v>4</v>
       </c>
       <c r="H300" t="s" s="20">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I300" t="s" s="19">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="301">
@@ -7050,10 +7100,10 @@
         <v>4</v>
       </c>
       <c r="H301" t="s" s="20">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I301" t="s" s="45">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="302">
@@ -7067,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="s" s="41">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I302" t="s" s="45">
         <v>18</v>
@@ -7078,17 +7128,17 @@
         <v>4</v>
       </c>
       <c r="D303" s="19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E303" s="19"/>
       <c r="F303" s="19"/>
     </row>
     <row r="304">
       <c r="C304" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D304" s="35" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E304" s="35"/>
       <c r="F304" s="35"/>
@@ -7096,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="s" s="41">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I304" t="s" s="41">
         <v>15</v>
@@ -7110,10 +7160,10 @@
       <c r="E305" s="35"/>
       <c r="F305" s="35"/>
       <c r="G305" t="s" s="35">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H305" t="s" s="35">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I305" t="s" s="45">
         <v>18</v>
@@ -7130,37 +7180,28 @@
         <v>0</v>
       </c>
       <c r="H306" t="s" s="41">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I306" t="s" s="45">
         <v>18</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="35"/>
-      <c r="B307" s="35"/>
-      <c r="C307" s="35"/>
-      <c r="D307" s="35"/>
-      <c r="E307" s="35"/>
-      <c r="F307" s="35"/>
-      <c r="G307" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H307" t="s" s="20">
-        <v>408</v>
-      </c>
-      <c r="I307" t="s" s="19">
+      <c r="D307" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E307" s="19" t="s">
         <v>409</v>
       </c>
+      <c r="F307" s="19"/>
     </row>
     <row r="308">
-      <c r="D308" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="E308" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F308" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="F308" s="19"/>
     </row>
     <row r="309">
       <c r="E309" s="19" t="s">
@@ -7169,22 +7210,32 @@
       <c r="F309" s="19" t="s">
         <v>411</v>
       </c>
+      <c r="G309" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H309" t="s" s="19">
+        <v>338</v>
+      </c>
+      <c r="I309" t="s" s="19">
+        <v>412</v>
+      </c>
     </row>
     <row r="310">
+      <c r="D310" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="E310" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F310" s="19" t="s">
-        <v>412</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="F310" s="19"/>
       <c r="G310" t="s" s="19">
         <v>4</v>
       </c>
       <c r="H310" t="s" s="19">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="I310" t="s" s="19">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="311">
@@ -7192,27 +7243,27 @@
         <v>4</v>
       </c>
       <c r="E311" s="19" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F311" s="19"/>
-      <c r="G311" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H311" t="s" s="20">
-        <v>414</v>
-      </c>
-      <c r="I311" t="s" s="19">
-        <v>409</v>
+      <c r="G311" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H311" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="I311" t="s" s="41">
+        <v>65</v>
       </c>
     </row>
     <row r="312">
-      <c r="D312" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E312" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="F312" s="19"/>
+      <c r="D312" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E312" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="F312" s="41"/>
       <c r="G312" t="s" s="41">
         <v>0</v>
       </c>
@@ -7220,90 +7271,81 @@
         <v>37</v>
       </c>
       <c r="I312" t="s" s="41">
-        <v>65</v>
+        <v>418</v>
       </c>
     </row>
     <row r="313">
-      <c r="D313" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E313" s="41" t="s">
-        <v>416</v>
-      </c>
-      <c r="F313" s="41"/>
-      <c r="G313" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H313" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I313" t="s" s="41">
-        <v>417</v>
-      </c>
+      <c r="D313" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E313" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="F313" s="19"/>
     </row>
     <row r="314">
-      <c r="D314" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E314" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="F314" s="19"/>
+      <c r="C314" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D314" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="E314" s="35"/>
+      <c r="F314" s="35"/>
+      <c r="G314" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H314" t="s" s="20">
+        <v>421</v>
+      </c>
+      <c r="I314" t="s" s="45">
+        <v>195</v>
+      </c>
+      <c r="J314" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K314" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L314" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="315">
-      <c r="C315" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="D315" s="35" t="s">
-        <v>419</v>
-      </c>
+      <c r="A315" s="35"/>
+      <c r="B315" s="35"/>
+      <c r="C315" s="35"/>
+      <c r="D315" s="35"/>
       <c r="E315" s="35"/>
       <c r="F315" s="35"/>
-      <c r="G315" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H315" t="s" s="20">
-        <v>420</v>
-      </c>
-      <c r="I315" t="s" s="45">
-        <v>187</v>
-      </c>
+      <c r="G315" s="35"/>
+      <c r="H315" s="35"/>
+      <c r="I315" s="35"/>
       <c r="J315" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K315" t="s" s="41">
-        <v>2</v>
+        <v>373</v>
       </c>
       <c r="L315" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="35"/>
-      <c r="B316" s="35"/>
-      <c r="C316" s="35"/>
-      <c r="D316" s="35"/>
-      <c r="E316" s="35"/>
-      <c r="F316" s="35"/>
-      <c r="G316" s="35"/>
-      <c r="H316" s="35"/>
-      <c r="I316" s="35"/>
-      <c r="J316" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K316" t="s" s="41">
-        <v>372</v>
-      </c>
-      <c r="L316" t="s" s="17">
-        <v>3</v>
-      </c>
+      <c r="D316" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E316" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="F316" s="19"/>
     </row>
     <row r="317">
       <c r="D317" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E317" s="19" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F317" s="19"/>
     </row>
@@ -7312,100 +7354,86 @@
         <v>4</v>
       </c>
       <c r="E318" s="19" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F318" s="19"/>
     </row>
     <row r="319">
-      <c r="D319" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E319" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="F319" s="19"/>
+      <c r="C319" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D319" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="E319" s="35"/>
+      <c r="F319" s="35"/>
     </row>
     <row r="320">
-      <c r="D320" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E320" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="F320" s="19"/>
+      <c r="B320" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C320" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D320" s="31"/>
+      <c r="E320" s="31"/>
+      <c r="F320" s="31"/>
     </row>
     <row r="321">
-      <c r="C321" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="D321" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="E321" s="35"/>
-      <c r="F321" s="35"/>
+      <c r="C321" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D321" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="E321" s="31"/>
+      <c r="F321" s="31"/>
     </row>
     <row r="322">
-      <c r="B322" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C322" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="D322" s="19"/>
-      <c r="E322" s="19"/>
-      <c r="F322" s="19"/>
-      <c r="G322" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H322" t="s" s="41">
-        <v>282</v>
-      </c>
-      <c r="I322" t="s" s="41">
-        <v>15</v>
-      </c>
-      <c r="J322" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K322" t="s" s="19">
-        <v>427</v>
-      </c>
-      <c r="L322" t="s" s="11">
-        <v>6</v>
-      </c>
+      <c r="D322" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="E322" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="F322" s="31"/>
     </row>
     <row r="323">
+      <c r="B323" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="C323" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D323" s="19" t="s">
-        <v>428</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D323" s="19"/>
       <c r="E323" s="19"/>
       <c r="F323" s="19"/>
-      <c r="G323" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H323" t="s" s="19">
-        <v>429</v>
-      </c>
-      <c r="I323" t="s" s="11">
+      <c r="G323" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H323" t="s" s="41">
+        <v>281</v>
+      </c>
+      <c r="I323" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J323" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K323" t="s" s="19">
         <v>430</v>
       </c>
-      <c r="J323" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K323" t="s" s="19">
+      <c r="L323" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="C324" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D324" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="L323" t="s" s="11">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="19"/>
-      <c r="B324" s="19"/>
-      <c r="C324" s="19"/>
-      <c r="D324" s="19"/>
       <c r="E324" s="19"/>
       <c r="F324" s="19"/>
       <c r="G324" t="s" s="19">
@@ -7414,150 +7442,156 @@
       <c r="H324" t="s" s="19">
         <v>432</v>
       </c>
-      <c r="I324" t="s" s="45">
-        <v>12</v>
+      <c r="I324" t="s" s="11">
+        <v>433</v>
       </c>
       <c r="J324" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K324" t="s" s="19">
+        <v>434</v>
+      </c>
+      <c r="L324" t="s" s="11">
         <v>433</v>
       </c>
-      <c r="L324" t="s" s="11">
-        <v>430</v>
-      </c>
     </row>
     <row r="325">
-      <c r="C325" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D325" s="19" t="s">
-        <v>434</v>
-      </c>
+      <c r="A325" s="19"/>
+      <c r="B325" s="19"/>
+      <c r="C325" s="19"/>
+      <c r="D325" s="19"/>
       <c r="E325" s="19"/>
       <c r="F325" s="19"/>
+      <c r="G325" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H325" t="s" s="19">
+        <v>435</v>
+      </c>
+      <c r="I325" t="s" s="45">
+        <v>12</v>
+      </c>
+      <c r="J325" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K325" t="s" s="19">
+        <v>436</v>
+      </c>
+      <c r="L325" t="s" s="11">
+        <v>433</v>
+      </c>
     </row>
     <row r="326">
+      <c r="C326" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="D326" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E326" s="19" t="s">
-        <v>435</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E326" s="19"/>
       <c r="F326" s="19"/>
-      <c r="J326" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K326" t="s" s="20">
-        <v>436</v>
-      </c>
-      <c r="L326" t="s" s="11">
+    </row>
+    <row r="327">
+      <c r="D327" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E327" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="F327" s="19"/>
+      <c r="J327" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K327" t="s" s="20">
+        <v>439</v>
+      </c>
+      <c r="L327" t="s" s="11">
         <v>102</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="19"/>
-      <c r="B327" s="19"/>
-      <c r="C327" s="19"/>
-      <c r="D327" s="19"/>
-      <c r="E327" s="19"/>
-      <c r="F327" s="19"/>
-      <c r="G327" s="19"/>
-      <c r="H327" s="19"/>
-      <c r="I327" s="19"/>
-      <c r="J327" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K327" t="s" s="20">
-        <v>437</v>
-      </c>
-      <c r="L327" t="s" s="11">
+    <row r="328">
+      <c r="A328" s="19"/>
+      <c r="B328" s="19"/>
+      <c r="C328" s="19"/>
+      <c r="D328" s="19"/>
+      <c r="E328" s="19"/>
+      <c r="F328" s="19"/>
+      <c r="G328" s="19"/>
+      <c r="H328" s="19"/>
+      <c r="I328" s="19"/>
+      <c r="J328" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K328" t="s" s="20">
+        <v>440</v>
+      </c>
+      <c r="L328" t="s" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="328">
-      <c r="E328" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F328" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="J328" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K328" t="s" s="19">
-        <v>436</v>
-      </c>
-      <c r="L328" t="s" s="11">
+    <row r="329">
+      <c r="E329" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F329" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="J329" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K329" t="s" s="19">
+        <v>439</v>
+      </c>
+      <c r="L329" t="s" s="11">
         <v>102</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="19"/>
-      <c r="B329" s="19"/>
-      <c r="C329" s="19"/>
-      <c r="D329" s="19"/>
-      <c r="E329" s="19"/>
-      <c r="F329" s="19"/>
-      <c r="G329" s="19"/>
-      <c r="H329" s="19"/>
-      <c r="I329" s="19"/>
-      <c r="J329" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K329" t="s" s="19">
-        <v>437</v>
-      </c>
-      <c r="L329" t="s" s="11">
-        <v>6</v>
-      </c>
-    </row>
     <row r="330">
-      <c r="C330" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D330" s="19" t="s">
-        <v>439</v>
-      </c>
+      <c r="A330" s="19"/>
+      <c r="B330" s="19"/>
+      <c r="C330" s="19"/>
+      <c r="D330" s="19"/>
       <c r="E330" s="19"/>
       <c r="F330" s="19"/>
-      <c r="G330" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H330" t="s" s="19">
-        <v>432</v>
-      </c>
-      <c r="I330" t="s" s="31">
+      <c r="G330" s="19"/>
+      <c r="H330" s="19"/>
+      <c r="I330" s="19"/>
+      <c r="J330" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K330" t="s" s="19">
         <v>440</v>
       </c>
-      <c r="J330" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K330" t="s" s="19">
-        <v>431</v>
-      </c>
       <c r="L330" t="s" s="11">
-        <v>430</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="19"/>
-      <c r="B331" s="19"/>
-      <c r="C331" s="19"/>
-      <c r="D331" s="19"/>
+      <c r="C331" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D331" s="19" t="s">
+        <v>442</v>
+      </c>
       <c r="E331" s="19"/>
       <c r="F331" s="19"/>
-      <c r="G331" s="19"/>
-      <c r="H331" s="19"/>
-      <c r="I331" s="19"/>
+      <c r="G331" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H331" t="s" s="19">
+        <v>435</v>
+      </c>
+      <c r="I331" t="s" s="31">
+        <v>443</v>
+      </c>
       <c r="J331" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K331" t="s" s="19">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="L331" t="s" s="11">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="332">
@@ -7570,17 +7604,14 @@
       <c r="G332" s="19"/>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
-      <c r="J332" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K332" t="s" s="20">
-        <v>443</v>
+      <c r="J332" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K332" t="s" s="19">
+        <v>444</v>
       </c>
       <c r="L332" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="M332" t="s" s="11">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="333">
@@ -7593,59 +7624,56 @@
       <c r="G333" s="19"/>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
-      <c r="J333" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K333" t="s" s="19">
-        <v>445</v>
+      <c r="J333" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K333" t="s" s="20">
+        <v>446</v>
       </c>
       <c r="L333" t="s" s="11">
         <v>6</v>
       </c>
+      <c r="M333" t="s" s="11">
+        <v>447</v>
+      </c>
     </row>
     <row r="334">
-      <c r="C334" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D334" s="19" t="s">
-        <v>446</v>
-      </c>
+      <c r="A334" s="19"/>
+      <c r="B334" s="19"/>
+      <c r="C334" s="19"/>
+      <c r="D334" s="19"/>
       <c r="E334" s="19"/>
       <c r="F334" s="19"/>
+      <c r="G334" s="19"/>
+      <c r="H334" s="19"/>
+      <c r="I334" s="19"/>
+      <c r="J334" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K334" t="s" s="19">
+        <v>448</v>
+      </c>
+      <c r="L334" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="335">
-      <c r="A335" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B335" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="C335" s="19"/>
-      <c r="D335" s="19"/>
+      <c r="C335" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D335" s="19" t="s">
+        <v>449</v>
+      </c>
       <c r="E335" s="19"/>
       <c r="F335" s="19"/>
-      <c r="G335" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H335" t="s" s="19">
-        <v>296</v>
-      </c>
-      <c r="I335" t="s" s="19">
-        <v>297</v>
-      </c>
-      <c r="J335" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K335" t="s" s="41">
-        <v>2</v>
-      </c>
-      <c r="L335" t="s" s="17">
-        <v>3</v>
-      </c>
     </row>
     <row r="336">
-      <c r="A336" s="19"/>
-      <c r="B336" s="19"/>
+      <c r="A336" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B336" s="19" t="s">
+        <v>450</v>
+      </c>
       <c r="C336" s="19"/>
       <c r="D336" s="19"/>
       <c r="E336" s="19"/>
@@ -7654,16 +7682,16 @@
         <v>4</v>
       </c>
       <c r="H336" t="s" s="19">
-        <v>82</v>
-      </c>
-      <c r="I336" t="s" s="13">
-        <v>20</v>
+        <v>295</v>
+      </c>
+      <c r="I336" t="s" s="19">
+        <v>296</v>
       </c>
       <c r="J336" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K336" t="s" s="41">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L336" t="s" s="17">
         <v>3</v>
@@ -7676,23 +7704,23 @@
       <c r="D337" s="19"/>
       <c r="E337" s="19"/>
       <c r="F337" s="19"/>
-      <c r="G337" t="s" s="25">
-        <v>377</v>
-      </c>
-      <c r="H337" t="s" s="25">
-        <v>378</v>
-      </c>
-      <c r="I337" t="s" s="19">
-        <v>448</v>
+      <c r="G337" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H337" t="s" s="19">
+        <v>82</v>
+      </c>
+      <c r="I337" t="s" s="13">
+        <v>20</v>
       </c>
       <c r="J337" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K337" t="s" s="41">
-        <v>49</v>
-      </c>
-      <c r="L337" t="s" s="11">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="L337" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -7702,23 +7730,23 @@
       <c r="D338" s="19"/>
       <c r="E338" s="19"/>
       <c r="F338" s="19"/>
-      <c r="G338" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H338" t="s" s="20">
-        <v>449</v>
-      </c>
-      <c r="I338" t="s" s="35">
-        <v>150</v>
+      <c r="G338" t="s" s="25">
+        <v>378</v>
+      </c>
+      <c r="H338" t="s" s="25">
+        <v>379</v>
+      </c>
+      <c r="I338" t="s" s="19">
+        <v>451</v>
       </c>
       <c r="J338" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K338" t="s" s="41">
-        <v>77</v>
-      </c>
-      <c r="L338" t="s" s="17">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="L338" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="339">
@@ -7728,23 +7756,23 @@
       <c r="D339" s="19"/>
       <c r="E339" s="19"/>
       <c r="F339" s="19"/>
-      <c r="G339" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H339" t="s" s="19">
-        <v>450</v>
-      </c>
-      <c r="I339" t="s" s="19">
-        <v>451</v>
-      </c>
-      <c r="J339" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K339" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L339" t="s" s="11">
-        <v>6</v>
+      <c r="G339" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H339" t="s" s="20">
+        <v>452</v>
+      </c>
+      <c r="I339" t="s" s="35">
+        <v>150</v>
+      </c>
+      <c r="J339" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K339" t="s" s="41">
+        <v>77</v>
+      </c>
+      <c r="L339" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -7758,10 +7786,19 @@
         <v>4</v>
       </c>
       <c r="H340" t="s" s="19">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I340" t="s" s="19">
-        <v>304</v>
+        <v>454</v>
+      </c>
+      <c r="J340" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K340" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L340" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="341">
@@ -7771,14 +7808,14 @@
       <c r="D341" s="19"/>
       <c r="E341" s="19"/>
       <c r="F341" s="19"/>
-      <c r="G341" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="H341" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="I341" t="s" s="5">
-        <v>90</v>
+      <c r="G341" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H341" t="s" s="19">
+        <v>455</v>
+      </c>
+      <c r="I341" t="s" s="19">
+        <v>303</v>
       </c>
     </row>
     <row r="342">
@@ -7788,14 +7825,14 @@
       <c r="D342" s="19"/>
       <c r="E342" s="19"/>
       <c r="F342" s="19"/>
-      <c r="G342" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H342" t="s" s="19">
-        <v>453</v>
-      </c>
-      <c r="I342" t="s" s="19">
-        <v>409</v>
+      <c r="G342" t="s" s="5">
+        <v>88</v>
+      </c>
+      <c r="H342" t="s" s="5">
+        <v>89</v>
+      </c>
+      <c r="I342" t="s" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="343">
@@ -7809,10 +7846,10 @@
         <v>4</v>
       </c>
       <c r="H343" t="s" s="19">
-        <v>113</v>
+        <v>456</v>
       </c>
       <c r="I343" t="s" s="19">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="344">
@@ -7822,14 +7859,14 @@
       <c r="D344" s="19"/>
       <c r="E344" s="19"/>
       <c r="F344" s="19"/>
-      <c r="G344" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H344" t="s" s="41">
-        <v>67</v>
+      <c r="G344" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H344" t="s" s="19">
+        <v>113</v>
       </c>
       <c r="I344" t="s" s="19">
-        <v>314</v>
+        <v>458</v>
       </c>
     </row>
     <row r="345">
@@ -7843,10 +7880,10 @@
         <v>0</v>
       </c>
       <c r="H345" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I345" t="s" s="15">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="I345" t="s" s="19">
+        <v>313</v>
       </c>
     </row>
     <row r="346">
@@ -7856,23 +7893,20 @@
       <c r="D346" s="19"/>
       <c r="E346" s="19"/>
       <c r="F346" s="19"/>
-      <c r="G346" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H346" t="s" s="19">
-        <v>153</v>
-      </c>
-      <c r="I346" t="s" s="19">
-        <v>455</v>
+      <c r="G346" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H346" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="I346" t="s" s="15">
+        <v>59</v>
       </c>
     </row>
     <row r="347">
-      <c r="B347" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C347" s="19" t="s">
-        <v>456</v>
-      </c>
+      <c r="A347" s="19"/>
+      <c r="B347" s="19"/>
+      <c r="C347" s="19"/>
       <c r="D347" s="19"/>
       <c r="E347" s="19"/>
       <c r="F347" s="19"/>
@@ -7880,67 +7914,76 @@
         <v>4</v>
       </c>
       <c r="H347" t="s" s="19">
-        <v>402</v>
-      </c>
-      <c r="I347" t="s" s="45">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="I347" t="s" s="19">
+        <v>459</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="19"/>
-      <c r="B348" s="19"/>
-      <c r="C348" s="19"/>
+      <c r="B348" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="19" t="s">
+        <v>460</v>
+      </c>
       <c r="D348" s="19"/>
       <c r="E348" s="19"/>
       <c r="F348" s="19"/>
-      <c r="G348" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H348" t="s" s="20">
-        <v>453</v>
-      </c>
-      <c r="I348" t="s" s="19">
-        <v>409</v>
+      <c r="G348" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H348" t="s" s="19">
+        <v>403</v>
+      </c>
+      <c r="I348" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="21" t="s">
+      <c r="A349" s="19"/>
+      <c r="B349" s="19"/>
+      <c r="C349" s="19"/>
+      <c r="D349" s="19"/>
+      <c r="E349" s="19"/>
+      <c r="F349" s="19"/>
+      <c r="G349" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H349" t="s" s="20">
+        <v>456</v>
+      </c>
+      <c r="I349" t="s" s="19">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B349" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="C349" s="21"/>
-      <c r="D349" s="21"/>
-      <c r="E349" s="21"/>
-      <c r="F349" s="21"/>
-      <c r="G349" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H349" t="s" s="20">
-        <v>458</v>
-      </c>
-      <c r="I349" t="s" s="45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="350">
       <c r="B350" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C350" s="21" t="s">
-        <v>69</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="C350" s="21"/>
       <c r="D350" s="21"/>
       <c r="E350" s="21"/>
       <c r="F350" s="21"/>
+      <c r="G350" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H350" t="s" s="20">
+        <v>462</v>
+      </c>
+      <c r="I350" t="s" s="45">
+        <v>12</v>
+      </c>
     </row>
     <row r="351">
       <c r="B351" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C351" s="21" t="s">
-        <v>459</v>
+        <v>69</v>
       </c>
       <c r="D351" s="21"/>
       <c r="E351" s="21"/>
@@ -7951,7 +7994,7 @@
         <v>45</v>
       </c>
       <c r="C352" s="21" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D352" s="21"/>
       <c r="E352" s="21"/>
@@ -7962,83 +8005,77 @@
         <v>45</v>
       </c>
       <c r="C353" s="21" t="s">
-        <v>70</v>
+        <v>464</v>
       </c>
       <c r="D353" s="21"/>
       <c r="E353" s="21"/>
       <c r="F353" s="21"/>
     </row>
     <row r="354">
-      <c r="A354" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="B354" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="C354" s="27"/>
-      <c r="D354" s="27"/>
-      <c r="E354" s="27"/>
-      <c r="F354" s="27"/>
+      <c r="B354" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C354" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D354" s="21"/>
+      <c r="E354" s="21"/>
+      <c r="F354" s="21"/>
     </row>
     <row r="355">
-      <c r="A355" s="21" t="s">
+      <c r="A355" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="B355" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="C355" s="27"/>
+      <c r="D355" s="27"/>
+      <c r="E355" s="27"/>
+      <c r="F355" s="27"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B355" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="C355" s="21"/>
-      <c r="D355" s="21"/>
-      <c r="E355" s="21"/>
-      <c r="F355" s="21"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B356" s="41" t="s">
-        <v>464</v>
-      </c>
-      <c r="C356" s="41"/>
-      <c r="D356" s="41"/>
-      <c r="E356" s="41"/>
-      <c r="F356" s="41"/>
+      <c r="B356" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C356" s="21"/>
+      <c r="D356" s="21"/>
+      <c r="E356" s="21"/>
+      <c r="F356" s="21"/>
     </row>
     <row r="357">
+      <c r="A357" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="B357" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C357" s="41" t="s">
-        <v>465</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C357" s="41"/>
       <c r="D357" s="41"/>
       <c r="E357" s="41"/>
       <c r="F357" s="41"/>
-      <c r="G357" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H357" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I357" t="s" s="41">
-        <v>76</v>
-      </c>
     </row>
     <row r="358">
-      <c r="A358" s="41"/>
-      <c r="B358" s="41"/>
-      <c r="C358" s="41"/>
+      <c r="B358" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C358" s="41" t="s">
+        <v>469</v>
+      </c>
       <c r="D358" s="41"/>
       <c r="E358" s="41"/>
       <c r="F358" s="41"/>
-      <c r="G358" t="s" s="42">
-        <v>0</v>
-      </c>
-      <c r="H358" t="s" s="42">
-        <v>466</v>
+      <c r="G358" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H358" t="s" s="41">
+        <v>75</v>
       </c>
       <c r="I358" t="s" s="41">
-        <v>467</v>
+        <v>76</v>
       </c>
     </row>
     <row r="359">
@@ -8048,14 +8085,14 @@
       <c r="D359" s="41"/>
       <c r="E359" s="41"/>
       <c r="F359" s="41"/>
-      <c r="G359" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H359" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="I359" t="s" s="7">
-        <v>468</v>
+      <c r="G359" t="s" s="42">
+        <v>0</v>
+      </c>
+      <c r="H359" t="s" s="42">
+        <v>470</v>
+      </c>
+      <c r="I359" t="s" s="41">
+        <v>471</v>
       </c>
     </row>
     <row r="360">
@@ -8069,28 +8106,35 @@
         <v>0</v>
       </c>
       <c r="H360" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I360" t="s" s="45">
-        <v>187</v>
+        <v>19</v>
+      </c>
+      <c r="I360" t="s" s="7">
+        <v>472</v>
       </c>
     </row>
     <row r="361">
-      <c r="C361" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D361" s="41" t="s">
-        <v>469</v>
-      </c>
+      <c r="A361" s="41"/>
+      <c r="B361" s="41"/>
+      <c r="C361" s="41"/>
+      <c r="D361" s="41"/>
       <c r="E361" s="41"/>
       <c r="F361" s="41"/>
+      <c r="G361" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H361" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="I361" t="s" s="41">
+        <v>473</v>
+      </c>
     </row>
     <row r="362">
       <c r="C362" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D362" s="41" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E362" s="41"/>
       <c r="F362" s="41"/>
@@ -8100,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="D363" s="41" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E363" s="41"/>
       <c r="F363" s="41"/>
@@ -8110,35 +8154,28 @@
         <v>0</v>
       </c>
       <c r="D364" s="41" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E364" s="41"/>
       <c r="F364" s="41"/>
     </row>
     <row r="365">
-      <c r="B365" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C365" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="D365" s="19"/>
-      <c r="E365" s="19"/>
-      <c r="F365" s="19"/>
-      <c r="G365" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H365" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I365" t="s" s="41">
-        <v>76</v>
-      </c>
+      <c r="C365" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D365" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="E365" s="41"/>
+      <c r="F365" s="41"/>
     </row>
     <row r="366">
-      <c r="A366" s="19"/>
-      <c r="B366" s="19"/>
-      <c r="C366" s="19"/>
+      <c r="B366" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" s="19" t="s">
+        <v>478</v>
+      </c>
       <c r="D366" s="19"/>
       <c r="E366" s="19"/>
       <c r="F366" s="19"/>
@@ -8146,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="H366" t="s" s="41">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="I366" t="s" s="41">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="367">
@@ -8163,47 +8200,47 @@
         <v>0</v>
       </c>
       <c r="H367" t="s" s="41">
+        <v>281</v>
+      </c>
+      <c r="I367" t="s" s="41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="19"/>
+      <c r="B368" s="19"/>
+      <c r="C368" s="19"/>
+      <c r="D368" s="19"/>
+      <c r="E368" s="19"/>
+      <c r="F368" s="19"/>
+      <c r="G368" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H368" t="s" s="41">
         <v>37</v>
       </c>
-      <c r="I367" t="s" s="41">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="B368" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C368" s="41" t="s">
-        <v>475</v>
-      </c>
-      <c r="D368" s="41"/>
-      <c r="E368" s="41"/>
-      <c r="F368" s="41"/>
-      <c r="G368" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H368" t="s" s="19">
-        <v>476</v>
-      </c>
       <c r="I368" t="s" s="41">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="41"/>
-      <c r="B369" s="41"/>
-      <c r="C369" s="41"/>
+      <c r="B369" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" s="41" t="s">
+        <v>480</v>
+      </c>
       <c r="D369" s="41"/>
       <c r="E369" s="41"/>
       <c r="F369" s="41"/>
-      <c r="G369" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H369" t="s" s="41">
-        <v>282</v>
+      <c r="G369" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H369" t="s" s="19">
+        <v>481</v>
       </c>
       <c r="I369" t="s" s="41">
-        <v>15</v>
+        <v>482</v>
       </c>
     </row>
     <row r="370">
@@ -8217,19 +8254,16 @@
         <v>0</v>
       </c>
       <c r="H370" t="s" s="41">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="I370" t="s" s="41">
-        <v>478</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371">
-      <c r="B371" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C371" s="41" t="s">
-        <v>479</v>
-      </c>
+      <c r="A371" s="41"/>
+      <c r="B371" s="41"/>
+      <c r="C371" s="41"/>
       <c r="D371" s="41"/>
       <c r="E371" s="41"/>
       <c r="F371" s="41"/>
@@ -8237,36 +8271,39 @@
         <v>0</v>
       </c>
       <c r="H371" t="s" s="41">
-        <v>480</v>
-      </c>
-      <c r="I371" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J371" t="s" s="35">
-        <v>320</v>
-      </c>
-      <c r="K371" t="s" s="35">
-        <v>334</v>
-      </c>
-      <c r="L371" t="s" s="17">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="I371" t="s" s="41">
+        <v>483</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="41"/>
-      <c r="B372" s="41"/>
-      <c r="C372" s="41"/>
+      <c r="B372" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" s="41" t="s">
+        <v>484</v>
+      </c>
       <c r="D372" s="41"/>
       <c r="E372" s="41"/>
       <c r="F372" s="41"/>
-      <c r="G372" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H372" t="s" s="19">
-        <v>481</v>
-      </c>
-      <c r="I372" t="s" s="7">
-        <v>468</v>
+      <c r="G372" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H372" t="s" s="41">
+        <v>485</v>
+      </c>
+      <c r="I372" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J372" t="s" s="35">
+        <v>319</v>
+      </c>
+      <c r="K372" t="s" s="35">
+        <v>333</v>
+      </c>
+      <c r="L372" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -8276,14 +8313,14 @@
       <c r="D373" s="41"/>
       <c r="E373" s="41"/>
       <c r="F373" s="41"/>
-      <c r="G373" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H373" t="s" s="20">
-        <v>482</v>
-      </c>
-      <c r="I373" t="s" s="41">
-        <v>15</v>
+      <c r="G373" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H373" t="s" s="19">
+        <v>486</v>
+      </c>
+      <c r="I373" t="s" s="7">
+        <v>472</v>
       </c>
     </row>
     <row r="374">
@@ -8293,14 +8330,14 @@
       <c r="D374" s="41"/>
       <c r="E374" s="41"/>
       <c r="F374" s="41"/>
-      <c r="G374" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H374" t="s" s="41">
-        <v>75</v>
+      <c r="G374" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H374" t="s" s="20">
+        <v>487</v>
       </c>
       <c r="I374" t="s" s="41">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375">
@@ -8314,10 +8351,10 @@
         <v>0</v>
       </c>
       <c r="H375" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="I375" t="s" s="13">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="I375" t="s" s="41">
+        <v>76</v>
       </c>
     </row>
     <row r="376">
@@ -8331,10 +8368,10 @@
         <v>0</v>
       </c>
       <c r="H376" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I376" t="s" s="41">
-        <v>483</v>
+        <v>19</v>
+      </c>
+      <c r="I376" t="s" s="13">
+        <v>20</v>
       </c>
     </row>
     <row r="377">
@@ -8348,28 +8385,35 @@
         <v>0</v>
       </c>
       <c r="H377" t="s" s="41">
-        <v>484</v>
-      </c>
-      <c r="I377" t="s" s="31">
+        <v>37</v>
+      </c>
+      <c r="I377" t="s" s="41">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="41"/>
+      <c r="B378" s="41"/>
+      <c r="C378" s="41"/>
+      <c r="D378" s="41"/>
+      <c r="E378" s="41"/>
+      <c r="F378" s="41"/>
+      <c r="G378" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H378" t="s" s="41">
+        <v>489</v>
+      </c>
+      <c r="I378" t="s" s="31">
         <v>63</v>
       </c>
-    </row>
-    <row r="378">
-      <c r="C378" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D378" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="E378" s="19"/>
-      <c r="F378" s="19"/>
     </row>
     <row r="379">
       <c r="C379" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D379" s="19" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E379" s="19"/>
       <c r="F379" s="19"/>
@@ -8379,7 +8423,7 @@
         <v>4</v>
       </c>
       <c r="D380" s="19" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E380" s="19"/>
       <c r="F380" s="19"/>
@@ -8389,55 +8433,48 @@
         <v>4</v>
       </c>
       <c r="D381" s="19" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E381" s="19"/>
       <c r="F381" s="19"/>
     </row>
     <row r="382">
-      <c r="B382" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C382" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="D382" s="41"/>
-      <c r="E382" s="41"/>
-      <c r="F382" s="41"/>
-      <c r="G382" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H382" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I382" t="s" s="41">
-        <v>76</v>
-      </c>
-      <c r="J382" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K382" t="s" s="41">
-        <v>490</v>
-      </c>
-      <c r="L382" t="s" s="11">
-        <v>491</v>
-      </c>
+      <c r="C382" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D382" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="E382" s="19"/>
+      <c r="F382" s="19"/>
     </row>
     <row r="383">
-      <c r="A383" s="41"/>
-      <c r="B383" s="41"/>
-      <c r="C383" s="41"/>
+      <c r="B383" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C383" s="41" t="s">
+        <v>494</v>
+      </c>
       <c r="D383" s="41"/>
       <c r="E383" s="41"/>
       <c r="F383" s="41"/>
-      <c r="G383" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H383" t="s" s="20">
-        <v>492</v>
-      </c>
-      <c r="I383" t="s" s="45">
-        <v>187</v>
+      <c r="G383" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H383" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I383" t="s" s="41">
+        <v>76</v>
+      </c>
+      <c r="J383" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K383" t="s" s="41">
+        <v>495</v>
+      </c>
+      <c r="L383" t="s" s="11">
+        <v>496</v>
       </c>
     </row>
     <row r="384">
@@ -8447,187 +8484,187 @@
       <c r="D384" s="41"/>
       <c r="E384" s="41"/>
       <c r="F384" s="41"/>
-      <c r="G384" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H384" t="s" s="41">
+      <c r="G384" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H384" t="s" s="20">
+        <v>497</v>
+      </c>
+      <c r="I384" t="s" s="45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="41"/>
+      <c r="B385" s="41"/>
+      <c r="C385" s="41"/>
+      <c r="D385" s="41"/>
+      <c r="E385" s="41"/>
+      <c r="F385" s="41"/>
+      <c r="G385" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H385" t="s" s="41">
         <v>37</v>
       </c>
-      <c r="I384" t="s" s="45">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="C385" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D385" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="E385" s="19"/>
-      <c r="F385" s="19"/>
+      <c r="I385" t="s" s="45">
+        <v>195</v>
+      </c>
     </row>
     <row r="386">
       <c r="C386" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D386" s="19" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E386" s="19"/>
       <c r="F386" s="19"/>
     </row>
     <row r="387">
-      <c r="C387" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D387" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="E387" s="41"/>
-      <c r="F387" s="41"/>
+      <c r="C387" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D387" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="E387" s="19"/>
+      <c r="F387" s="19"/>
     </row>
     <row r="388">
       <c r="C388" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D388" s="41" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E388" s="41"/>
       <c r="F388" s="41"/>
     </row>
     <row r="389">
-      <c r="D389" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E389" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="F389" s="19"/>
+      <c r="C389" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D389" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="E389" s="41"/>
+      <c r="F389" s="41"/>
     </row>
     <row r="390">
-      <c r="C390" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D390" s="41" t="s">
-        <v>498</v>
-      </c>
-      <c r="E390" s="41"/>
-      <c r="F390" s="41"/>
+      <c r="D390" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E390" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="F390" s="19"/>
     </row>
     <row r="391">
-      <c r="D391" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E391" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="F391" s="19"/>
+      <c r="C391" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D391" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="E391" s="41"/>
+      <c r="F391" s="41"/>
     </row>
     <row r="392">
-      <c r="C392" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D392" s="41" t="s">
-        <v>500</v>
-      </c>
-      <c r="E392" s="41"/>
-      <c r="F392" s="41"/>
+      <c r="D392" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E392" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="F392" s="19"/>
     </row>
     <row r="393">
       <c r="C393" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D393" s="41" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E393" s="41"/>
       <c r="F393" s="41"/>
     </row>
     <row r="394">
+      <c r="C394" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="D394" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E394" s="41" t="s">
-        <v>502</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="E394" s="41"/>
       <c r="F394" s="41"/>
     </row>
     <row r="395">
-      <c r="C395" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D395" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="E395" s="19"/>
-      <c r="F395" s="19"/>
+      <c r="D395" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E395" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="F395" s="41"/>
     </row>
     <row r="396">
       <c r="C396" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D396" s="19" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E396" s="19"/>
       <c r="F396" s="19"/>
     </row>
     <row r="397">
-      <c r="C397" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D397" s="41" t="s">
-        <v>505</v>
-      </c>
-      <c r="E397" s="41"/>
-      <c r="F397" s="41"/>
+      <c r="C397" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D397" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="E397" s="19"/>
+      <c r="F397" s="19"/>
     </row>
     <row r="398">
-      <c r="C398" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D398" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="E398" s="19"/>
-      <c r="F398" s="19"/>
+      <c r="C398" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D398" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="E398" s="41"/>
+      <c r="F398" s="41"/>
     </row>
     <row r="399">
       <c r="C399" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D399" s="19" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E399" s="19"/>
       <c r="F399" s="19"/>
     </row>
     <row r="400">
-      <c r="B400" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="C400" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="D400" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="D400" s="19" t="s">
+        <v>512</v>
+      </c>
       <c r="E400" s="19"/>
       <c r="F400" s="19"/>
-      <c r="G400" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H400" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I400" t="s" s="41">
-        <v>76</v>
-      </c>
     </row>
     <row r="401">
-      <c r="A401" s="19"/>
-      <c r="B401" s="19"/>
-      <c r="C401" s="19"/>
+      <c r="B401" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401" s="19" t="s">
+        <v>513</v>
+      </c>
       <c r="D401" s="19"/>
       <c r="E401" s="19"/>
       <c r="F401" s="19"/>
@@ -8635,10 +8672,10 @@
         <v>0</v>
       </c>
       <c r="H401" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="I401" t="s" s="7">
-        <v>468</v>
+        <v>75</v>
+      </c>
+      <c r="I401" t="s" s="41">
+        <v>76</v>
       </c>
     </row>
     <row r="402">
@@ -8652,19 +8689,16 @@
         <v>0</v>
       </c>
       <c r="H402" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I402" t="s" s="45">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="I402" t="s" s="13">
+        <v>20</v>
       </c>
     </row>
     <row r="403">
-      <c r="B403" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C403" s="19" t="s">
-        <v>509</v>
-      </c>
+      <c r="A403" s="19"/>
+      <c r="B403" s="19"/>
+      <c r="C403" s="19"/>
       <c r="D403" s="19"/>
       <c r="E403" s="19"/>
       <c r="F403" s="19"/>
@@ -8672,27 +8706,30 @@
         <v>0</v>
       </c>
       <c r="H403" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I403" t="s" s="41">
-        <v>76</v>
+        <v>37</v>
+      </c>
+      <c r="I403" t="s" s="19">
+        <v>514</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="19"/>
-      <c r="B404" s="19"/>
-      <c r="C404" s="19"/>
+      <c r="B404" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C404" s="19" t="s">
+        <v>515</v>
+      </c>
       <c r="D404" s="19"/>
       <c r="E404" s="19"/>
       <c r="F404" s="19"/>
-      <c r="G404" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H404" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="I404" t="s" s="35">
-        <v>156</v>
+      <c r="G404" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H404" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I404" t="s" s="41">
+        <v>76</v>
       </c>
     </row>
     <row r="405">
@@ -8702,33 +8739,31 @@
       <c r="D405" s="19"/>
       <c r="E405" s="19"/>
       <c r="F405" s="19"/>
-      <c r="G405" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H405" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I405" t="s" s="41">
-        <v>510</v>
+      <c r="G405" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H405" t="s" s="19">
+        <v>113</v>
+      </c>
+      <c r="I405" t="s" s="35">
+        <v>156</v>
       </c>
     </row>
     <row r="406">
-      <c r="C406" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D406" s="19" t="s">
-        <v>511</v>
-      </c>
+      <c r="A406" s="19"/>
+      <c r="B406" s="19"/>
+      <c r="C406" s="19"/>
+      <c r="D406" s="19"/>
       <c r="E406" s="19"/>
       <c r="F406" s="19"/>
-      <c r="G406" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H406" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="I406" t="s" s="19">
-        <v>512</v>
+      <c r="G406" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H406" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="I406" t="s" s="41">
+        <v>516</v>
       </c>
     </row>
     <row r="407">
@@ -8736,7 +8771,7 @@
         <v>4</v>
       </c>
       <c r="D407" s="19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E407" s="19"/>
       <c r="F407" s="19"/>
@@ -8747,7 +8782,7 @@
         <v>113</v>
       </c>
       <c r="I407" t="s" s="19">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="408">
@@ -8755,7 +8790,7 @@
         <v>4</v>
       </c>
       <c r="D408" s="19" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E408" s="19"/>
       <c r="F408" s="19"/>
@@ -8766,160 +8801,153 @@
         <v>113</v>
       </c>
       <c r="I408" t="s" s="19">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B409" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="C409" s="19"/>
-      <c r="D409" s="19"/>
+      <c r="C409" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D409" s="19" t="s">
+        <v>521</v>
+      </c>
       <c r="E409" s="19"/>
       <c r="F409" s="19"/>
+      <c r="G409" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H409" t="s" s="19">
+        <v>113</v>
+      </c>
+      <c r="I409" t="s" s="19">
+        <v>522</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B410" s="19" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C410" s="19"/>
       <c r="D410" s="19"/>
       <c r="E410" s="19"/>
       <c r="F410" s="19"/>
-      <c r="G410" t="s" s="35">
-        <v>320</v>
-      </c>
-      <c r="H410" t="s" s="35">
-        <v>332</v>
-      </c>
-      <c r="I410" t="s" s="27">
-        <v>333</v>
-      </c>
     </row>
     <row r="411">
-      <c r="A411" s="19"/>
-      <c r="B411" s="19"/>
+      <c r="A411" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B411" s="19" t="s">
+        <v>524</v>
+      </c>
       <c r="C411" s="19"/>
       <c r="D411" s="19"/>
       <c r="E411" s="19"/>
       <c r="F411" s="19"/>
-      <c r="G411" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H411" t="s" s="19">
-        <v>153</v>
-      </c>
-      <c r="I411" t="s" s="19">
-        <v>519</v>
+      <c r="G411" t="s" s="35">
+        <v>319</v>
+      </c>
+      <c r="H411" t="s" s="35">
+        <v>331</v>
+      </c>
+      <c r="I411" t="s" s="27">
+        <v>332</v>
       </c>
     </row>
     <row r="412">
-      <c r="B412" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C412" s="19" t="s">
-        <v>520</v>
-      </c>
+      <c r="A412" s="19"/>
+      <c r="B412" s="19"/>
+      <c r="C412" s="19"/>
       <c r="D412" s="19"/>
       <c r="E412" s="19"/>
       <c r="F412" s="19"/>
+      <c r="G412" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H412" t="s" s="19">
+        <v>153</v>
+      </c>
+      <c r="I412" t="s" s="19">
+        <v>525</v>
+      </c>
     </row>
     <row r="413">
+      <c r="B413" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="C413" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D413" s="19" t="s">
-        <v>521</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="D413" s="19"/>
       <c r="E413" s="19"/>
       <c r="F413" s="19"/>
-      <c r="J413" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K413" t="s" s="20">
-        <v>522</v>
-      </c>
-      <c r="L413" t="s" s="11">
-        <v>430</v>
-      </c>
     </row>
     <row r="414">
-      <c r="B414" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="C414" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="D414" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="D414" s="19" t="s">
+        <v>527</v>
+      </c>
       <c r="E414" s="19"/>
       <c r="F414" s="19"/>
       <c r="J414" t="s" s="20">
         <v>4</v>
       </c>
       <c r="K414" t="s" s="20">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="L414" t="s" s="11">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="B415" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="C415" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="C415" s="19" t="s">
+        <v>527</v>
+      </c>
       <c r="D415" s="19"/>
       <c r="E415" s="19"/>
       <c r="F415" s="19"/>
-      <c r="G415" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H415" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I415" t="s" s="41">
-        <v>76</v>
-      </c>
-      <c r="J415" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K415" t="s" s="41">
-        <v>13</v>
+      <c r="J415" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K415" t="s" s="20">
+        <v>528</v>
       </c>
       <c r="L415" t="s" s="11">
-        <v>6</v>
+        <v>433</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="19"/>
-      <c r="B416" s="19"/>
+      <c r="A416" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B416" s="19" t="s">
+        <v>529</v>
+      </c>
       <c r="C416" s="19"/>
       <c r="D416" s="19"/>
       <c r="E416" s="19"/>
       <c r="F416" s="19"/>
-      <c r="G416" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H416" t="s" s="19">
-        <v>524</v>
-      </c>
-      <c r="I416" t="s" s="45">
-        <v>12</v>
+      <c r="G416" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H416" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I416" t="s" s="41">
+        <v>76</v>
       </c>
       <c r="J416" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K416" t="s" s="41">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="L416" t="s" s="11">
         <v>6</v>
@@ -8932,111 +8960,135 @@
       <c r="D417" s="19"/>
       <c r="E417" s="19"/>
       <c r="F417" s="19"/>
-      <c r="G417" s="19"/>
-      <c r="H417" s="19"/>
-      <c r="I417" s="19"/>
-      <c r="J417" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K417" t="s" s="19">
-        <v>5</v>
+      <c r="G417" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H417" t="s" s="19">
+        <v>530</v>
+      </c>
+      <c r="I417" t="s" s="45">
+        <v>12</v>
+      </c>
+      <c r="J417" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K417" t="s" s="41">
+        <v>49</v>
       </c>
       <c r="L417" t="s" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="418">
-      <c r="B418" s="1" t="s">
+      <c r="A418" s="19"/>
+      <c r="B418" s="19"/>
+      <c r="C418" s="19"/>
+      <c r="D418" s="19"/>
+      <c r="E418" s="19"/>
+      <c r="F418" s="19"/>
+      <c r="G418" s="19"/>
+      <c r="H418" s="19"/>
+      <c r="I418" s="19"/>
+      <c r="J418" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K418" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L418" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="B419" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C418" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D418" s="1"/>
-      <c r="E418" s="1"/>
-      <c r="F418" s="1"/>
-    </row>
-    <row r="419">
-      <c r="B419" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C419" s="41" t="s">
-        <v>526</v>
-      </c>
-      <c r="D419" s="41"/>
-      <c r="E419" s="41"/>
-      <c r="F419" s="41"/>
-      <c r="J419" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K419" t="s" s="41">
-        <v>49</v>
-      </c>
-      <c r="L419" t="s" s="11">
-        <v>6</v>
-      </c>
+      <c r="C419" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D419" s="1"/>
+      <c r="E419" s="1"/>
+      <c r="F419" s="1"/>
     </row>
     <row r="420">
       <c r="B420" s="41" t="s">
         <v>0</v>
       </c>
       <c r="C420" s="41" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D420" s="41"/>
       <c r="E420" s="41"/>
       <c r="F420" s="41"/>
-      <c r="G420" t="s" s="43">
+      <c r="J420" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K420" t="s" s="41">
+        <v>49</v>
+      </c>
+      <c r="L420" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="B421" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C421" s="41" t="s">
+        <v>533</v>
+      </c>
+      <c r="D421" s="41"/>
+      <c r="E421" s="41"/>
+      <c r="F421" s="41"/>
+      <c r="G421" t="s" s="43">
         <v>71</v>
       </c>
-      <c r="H420" t="s" s="43">
+      <c r="H421" t="s" s="43">
         <v>72</v>
       </c>
-      <c r="I420" t="s" s="41">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="B421" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="C421" s="27"/>
-      <c r="D421" s="27"/>
-      <c r="E421" s="27"/>
-      <c r="F421" s="27"/>
+      <c r="I421" t="s" s="41">
+        <v>534</v>
+      </c>
     </row>
     <row r="422">
-      <c r="A422" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B422" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="C422" s="19"/>
-      <c r="D422" s="19"/>
-      <c r="E422" s="19"/>
-      <c r="F422" s="19"/>
+      <c r="A422" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="B422" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="C422" s="27"/>
+      <c r="D422" s="27"/>
+      <c r="E422" s="27"/>
+      <c r="F422" s="27"/>
     </row>
     <row r="423">
+      <c r="A423" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="B423" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C423" s="19" t="s">
-        <v>531</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C423" s="19"/>
       <c r="D423" s="19"/>
       <c r="E423" s="19"/>
       <c r="F423" s="19"/>
+      <c r="G423" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H423" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I423" t="s" s="41">
+        <v>76</v>
+      </c>
     </row>
     <row r="424">
       <c r="B424" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C424" s="19" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D424" s="19"/>
       <c r="E424" s="19"/>
@@ -9047,7 +9099,7 @@
         <v>4</v>
       </c>
       <c r="C425" s="19" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D425" s="19"/>
       <c r="E425" s="19"/>
@@ -9058,7 +9110,7 @@
         <v>4</v>
       </c>
       <c r="C426" s="19" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D426" s="19"/>
       <c r="E426" s="19"/>
@@ -9069,7 +9121,7 @@
         <v>4</v>
       </c>
       <c r="C427" s="19" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D427" s="19"/>
       <c r="E427" s="19"/>
@@ -9080,7 +9132,7 @@
         <v>4</v>
       </c>
       <c r="C428" s="19" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D428" s="19"/>
       <c r="E428" s="19"/>
@@ -9091,7 +9143,7 @@
         <v>4</v>
       </c>
       <c r="C429" s="19" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D429" s="19"/>
       <c r="E429" s="19"/>
@@ -9102,7 +9154,7 @@
         <v>4</v>
       </c>
       <c r="C430" s="19" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D430" s="19"/>
       <c r="E430" s="19"/>
@@ -9113,7 +9165,7 @@
         <v>4</v>
       </c>
       <c r="C431" s="19" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D431" s="19"/>
       <c r="E431" s="19"/>
@@ -9124,7 +9176,7 @@
         <v>4</v>
       </c>
       <c r="C432" s="19" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D432" s="19"/>
       <c r="E432" s="19"/>
@@ -9135,7 +9187,7 @@
         <v>4</v>
       </c>
       <c r="C433" s="19" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D433" s="19"/>
       <c r="E433" s="19"/>
@@ -9146,7 +9198,7 @@
         <v>4</v>
       </c>
       <c r="C434" s="19" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D434" s="19"/>
       <c r="E434" s="19"/>
@@ -9157,14 +9209,25 @@
         <v>4</v>
       </c>
       <c r="C435" s="19" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D435" s="19"/>
       <c r="E435" s="19"/>
       <c r="F435" s="19"/>
     </row>
+    <row r="436">
+      <c r="B436" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D436" s="19"/>
+      <c r="E436" s="19"/>
+      <c r="F436" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="428">
+  <mergeCells count="429">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C3:F3"/>
@@ -9328,86 +9391,86 @@
     <mergeCell ref="B161:F161"/>
     <mergeCell ref="C162:F162"/>
     <mergeCell ref="B163:F163"/>
-    <mergeCell ref="C164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="A166:F166"/>
-    <mergeCell ref="C167:F167"/>
+    <mergeCell ref="A164:F164"/>
+    <mergeCell ref="C165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D167:F167"/>
     <mergeCell ref="C168:F168"/>
     <mergeCell ref="C169:F169"/>
     <mergeCell ref="C170:F170"/>
     <mergeCell ref="C171:F171"/>
-    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="C172:F172"/>
     <mergeCell ref="D173:F173"/>
-    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="C174:F174"/>
     <mergeCell ref="C175:F175"/>
     <mergeCell ref="C176:F176"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="B179:F179"/>
     <mergeCell ref="B180:F180"/>
     <mergeCell ref="B181:F181"/>
     <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A185:I185"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A184:I184"/>
+    <mergeCell ref="C185:F185"/>
     <mergeCell ref="C186:F186"/>
-    <mergeCell ref="C187:F187"/>
+    <mergeCell ref="D187:F187"/>
     <mergeCell ref="D188:F188"/>
-    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="C189:F189"/>
     <mergeCell ref="C190:F190"/>
-    <mergeCell ref="C191:F191"/>
+    <mergeCell ref="D191:F191"/>
     <mergeCell ref="D192:F192"/>
-    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="C193:F193"/>
     <mergeCell ref="C194:F194"/>
     <mergeCell ref="C195:F195"/>
-    <mergeCell ref="C196:F196"/>
+    <mergeCell ref="D196:F196"/>
     <mergeCell ref="D197:F197"/>
-    <mergeCell ref="D198:F198"/>
-    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="C198:F198"/>
+    <mergeCell ref="D199:F199"/>
     <mergeCell ref="D200:F200"/>
-    <mergeCell ref="D201:F201"/>
+    <mergeCell ref="B201:F201"/>
     <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="A204:F204"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="A204:I204"/>
     <mergeCell ref="A205:I205"/>
     <mergeCell ref="A206:I206"/>
-    <mergeCell ref="A207:I207"/>
+    <mergeCell ref="C207:F207"/>
     <mergeCell ref="C208:F208"/>
     <mergeCell ref="C209:F209"/>
     <mergeCell ref="C210:F210"/>
-    <mergeCell ref="C211:F211"/>
+    <mergeCell ref="B211:F211"/>
     <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="A213:F213"/>
     <mergeCell ref="A214:F214"/>
     <mergeCell ref="A215:F215"/>
     <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="C217:F217"/>
     <mergeCell ref="C218:F218"/>
     <mergeCell ref="C219:F219"/>
     <mergeCell ref="C220:F220"/>
-    <mergeCell ref="C221:F221"/>
-    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="A222:F222"/>
     <mergeCell ref="A223:F223"/>
-    <mergeCell ref="A224:F224"/>
+    <mergeCell ref="B224:F224"/>
     <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="A226:F226"/>
     <mergeCell ref="A227:F227"/>
     <mergeCell ref="A228:F228"/>
     <mergeCell ref="A229:F229"/>
     <mergeCell ref="A230:F230"/>
-    <mergeCell ref="A231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="C235:F235"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="A237:F237"/>
-    <mergeCell ref="A238:I238"/>
-    <mergeCell ref="D239:F239"/>
-    <mergeCell ref="A240:I240"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="A232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="C234:F234"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="A237:I237"/>
+    <mergeCell ref="D238:F238"/>
+    <mergeCell ref="A239:I239"/>
+    <mergeCell ref="E240:F240"/>
     <mergeCell ref="E241:F241"/>
-    <mergeCell ref="E242:F242"/>
-    <mergeCell ref="C243:F243"/>
+    <mergeCell ref="C242:F242"/>
+    <mergeCell ref="A243:F243"/>
     <mergeCell ref="A244:F244"/>
     <mergeCell ref="A245:F245"/>
     <mergeCell ref="A246:F246"/>
@@ -9467,33 +9530,33 @@
     <mergeCell ref="D304:F304"/>
     <mergeCell ref="A305:F305"/>
     <mergeCell ref="A306:F306"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="E308:F308"/>
+    <mergeCell ref="E307:F307"/>
+    <mergeCell ref="E310:F310"/>
     <mergeCell ref="E311:F311"/>
     <mergeCell ref="E312:F312"/>
     <mergeCell ref="E313:F313"/>
-    <mergeCell ref="E314:F314"/>
-    <mergeCell ref="D315:F315"/>
-    <mergeCell ref="A316:I316"/>
+    <mergeCell ref="D314:F314"/>
+    <mergeCell ref="A315:I315"/>
+    <mergeCell ref="E316:F316"/>
     <mergeCell ref="E317:F317"/>
     <mergeCell ref="E318:F318"/>
-    <mergeCell ref="E319:F319"/>
-    <mergeCell ref="E320:F320"/>
+    <mergeCell ref="D319:F319"/>
+    <mergeCell ref="C320:F320"/>
     <mergeCell ref="D321:F321"/>
-    <mergeCell ref="C322:F322"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="A324:F324"/>
-    <mergeCell ref="D325:F325"/>
-    <mergeCell ref="E326:F326"/>
-    <mergeCell ref="A327:I327"/>
-    <mergeCell ref="A329:I329"/>
-    <mergeCell ref="D330:F330"/>
-    <mergeCell ref="A331:I331"/>
+    <mergeCell ref="E322:F322"/>
+    <mergeCell ref="C323:F323"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="D326:F326"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="A328:I328"/>
+    <mergeCell ref="A330:I330"/>
+    <mergeCell ref="D331:F331"/>
     <mergeCell ref="A332:I332"/>
     <mergeCell ref="A333:I333"/>
-    <mergeCell ref="D334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="A336:F336"/>
+    <mergeCell ref="A334:I334"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="B336:F336"/>
     <mergeCell ref="A337:F337"/>
     <mergeCell ref="A338:F338"/>
     <mergeCell ref="A339:F339"/>
@@ -9504,83 +9567,83 @@
     <mergeCell ref="A344:F344"/>
     <mergeCell ref="A345:F345"/>
     <mergeCell ref="A346:F346"/>
-    <mergeCell ref="C347:F347"/>
-    <mergeCell ref="A348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="C350:F350"/>
+    <mergeCell ref="A347:F347"/>
+    <mergeCell ref="C348:F348"/>
+    <mergeCell ref="A349:F349"/>
+    <mergeCell ref="B350:F350"/>
     <mergeCell ref="C351:F351"/>
     <mergeCell ref="C352:F352"/>
     <mergeCell ref="C353:F353"/>
-    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="C354:F354"/>
     <mergeCell ref="B355:F355"/>
     <mergeCell ref="B356:F356"/>
-    <mergeCell ref="C357:F357"/>
-    <mergeCell ref="A358:F358"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="C358:F358"/>
     <mergeCell ref="A359:F359"/>
     <mergeCell ref="A360:F360"/>
-    <mergeCell ref="D361:F361"/>
+    <mergeCell ref="A361:F361"/>
     <mergeCell ref="D362:F362"/>
     <mergeCell ref="D363:F363"/>
     <mergeCell ref="D364:F364"/>
-    <mergeCell ref="C365:F365"/>
-    <mergeCell ref="A366:F366"/>
+    <mergeCell ref="D365:F365"/>
+    <mergeCell ref="C366:F366"/>
     <mergeCell ref="A367:F367"/>
-    <mergeCell ref="C368:F368"/>
-    <mergeCell ref="A369:F369"/>
+    <mergeCell ref="A368:F368"/>
+    <mergeCell ref="C369:F369"/>
     <mergeCell ref="A370:F370"/>
-    <mergeCell ref="C371:F371"/>
-    <mergeCell ref="A372:F372"/>
+    <mergeCell ref="A371:F371"/>
+    <mergeCell ref="C372:F372"/>
     <mergeCell ref="A373:F373"/>
     <mergeCell ref="A374:F374"/>
     <mergeCell ref="A375:F375"/>
     <mergeCell ref="A376:F376"/>
     <mergeCell ref="A377:F377"/>
-    <mergeCell ref="D378:F378"/>
+    <mergeCell ref="A378:F378"/>
     <mergeCell ref="D379:F379"/>
     <mergeCell ref="D380:F380"/>
     <mergeCell ref="D381:F381"/>
-    <mergeCell ref="C382:F382"/>
-    <mergeCell ref="A383:F383"/>
+    <mergeCell ref="D382:F382"/>
+    <mergeCell ref="C383:F383"/>
     <mergeCell ref="A384:F384"/>
-    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="A385:F385"/>
     <mergeCell ref="D386:F386"/>
     <mergeCell ref="D387:F387"/>
     <mergeCell ref="D388:F388"/>
-    <mergeCell ref="E389:F389"/>
-    <mergeCell ref="D390:F390"/>
-    <mergeCell ref="E391:F391"/>
-    <mergeCell ref="D392:F392"/>
+    <mergeCell ref="D389:F389"/>
+    <mergeCell ref="E390:F390"/>
+    <mergeCell ref="D391:F391"/>
+    <mergeCell ref="E392:F392"/>
     <mergeCell ref="D393:F393"/>
-    <mergeCell ref="E394:F394"/>
-    <mergeCell ref="D395:F395"/>
+    <mergeCell ref="D394:F394"/>
+    <mergeCell ref="E395:F395"/>
     <mergeCell ref="D396:F396"/>
     <mergeCell ref="D397:F397"/>
     <mergeCell ref="D398:F398"/>
     <mergeCell ref="D399:F399"/>
-    <mergeCell ref="C400:F400"/>
-    <mergeCell ref="A401:F401"/>
+    <mergeCell ref="D400:F400"/>
+    <mergeCell ref="C401:F401"/>
     <mergeCell ref="A402:F402"/>
-    <mergeCell ref="C403:F403"/>
-    <mergeCell ref="A404:F404"/>
+    <mergeCell ref="A403:F403"/>
+    <mergeCell ref="C404:F404"/>
     <mergeCell ref="A405:F405"/>
-    <mergeCell ref="D406:F406"/>
+    <mergeCell ref="A406:F406"/>
     <mergeCell ref="D407:F407"/>
     <mergeCell ref="D408:F408"/>
-    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="D409:F409"/>
     <mergeCell ref="B410:F410"/>
-    <mergeCell ref="A411:F411"/>
-    <mergeCell ref="C412:F412"/>
-    <mergeCell ref="D413:F413"/>
-    <mergeCell ref="C414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="A416:F416"/>
-    <mergeCell ref="A417:I417"/>
-    <mergeCell ref="C418:F418"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="A412:F412"/>
+    <mergeCell ref="C413:F413"/>
+    <mergeCell ref="D414:F414"/>
+    <mergeCell ref="C415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="A417:F417"/>
+    <mergeCell ref="A418:I418"/>
     <mergeCell ref="C419:F419"/>
     <mergeCell ref="C420:F420"/>
-    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="C421:F421"/>
     <mergeCell ref="B422:F422"/>
-    <mergeCell ref="C423:F423"/>
+    <mergeCell ref="B423:F423"/>
     <mergeCell ref="C424:F424"/>
     <mergeCell ref="C425:F425"/>
     <mergeCell ref="C426:F426"/>
@@ -9593,6 +9656,7 @@
     <mergeCell ref="C433:F433"/>
     <mergeCell ref="C434:F434"/>
     <mergeCell ref="C435:F435"/>
+    <mergeCell ref="C436:F436"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/sigmaaie/modules/core/doc/roh-core.xlsx
+++ b/sigmaaie/modules/core/doc/roh-core.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="542">
   <si>
     <t>vivo</t>
   </si>
@@ -752,6 +752,9 @@
     <t>CompanyClassification</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
     <t>ExpenseClassification</t>
   </si>
   <si>
@@ -764,9 +767,6 @@
     <t>KnowledgeArea</t>
   </si>
   <si>
-    <t>UNESCOKnowledgeArea</t>
-  </si>
-  <si>
     <t>ProjectClassification</t>
   </si>
   <si>
@@ -776,6 +776,9 @@
     <t>PropertyClassification</t>
   </si>
   <si>
+    <t>ResearchField</t>
+  </si>
+  <si>
     <t>ResearchProblem</t>
   </si>
   <si>
@@ -785,15 +788,6 @@
     <t>AdministrativeEntity</t>
   </si>
   <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>DoctoralProgram</t>
-  </si>
-  <si>
     <t>ERO_0000005</t>
   </si>
   <si>
@@ -1433,7 +1427,7 @@
     <t>owl:Thing</t>
   </si>
   <si>
-    <t>vivo:AdviseeRole</t>
+    <t>vivo:AdvisorRole</t>
   </si>
   <si>
     <t>FacultyMentoringRelationship</t>
@@ -1508,12 +1502,6 @@
     <t>positionOf</t>
   </si>
   <si>
-    <t>CatedraticoEscuelaUniversitaria</t>
-  </si>
-  <si>
-    <t>CatedraticoUniversidad</t>
-  </si>
-  <si>
     <t>FacultyAdministrativePosition</t>
   </si>
   <si>
@@ -1538,21 +1526,12 @@
     <t>PostdocPosition</t>
   </si>
   <si>
-    <t>PASfuncionario</t>
-  </si>
-  <si>
-    <t>PASlaboral</t>
-  </si>
-  <si>
     <t>PrimaryPosition</t>
   </si>
   <si>
     <t>ResearcherPosition</t>
   </si>
   <si>
-    <t>TitularUniversidad</t>
-  </si>
-  <si>
     <t>ReservationRelationship</t>
   </si>
   <si>
@@ -1581,9 +1560,6 @@
   </si>
   <si>
     <t>roh:PhDThesis</t>
-  </si>
-  <si>
-    <t>ResearchField</t>
   </si>
   <si>
     <t>ResearchObject</t>
@@ -2137,7 +2113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M436"/>
+  <dimension ref="A1:M428"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3789,14 +3765,14 @@
       <c r="D90" s="45"/>
       <c r="E90" s="45"/>
       <c r="F90" s="45"/>
-      <c r="G90" t="s" s="45">
-        <v>16</v>
-      </c>
-      <c r="H90" t="s" s="45">
-        <v>87</v>
-      </c>
-      <c r="I90" t="s" s="35">
-        <v>51</v>
+      <c r="G90" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H90" t="s" s="19">
+        <v>58</v>
+      </c>
+      <c r="I90" t="s" s="15">
+        <v>59</v>
       </c>
     </row>
     <row r="91">
@@ -3810,10 +3786,10 @@
         <v>16</v>
       </c>
       <c r="H91" t="s" s="45">
-        <v>145</v>
-      </c>
-      <c r="I91" t="s" s="45">
-        <v>146</v>
+        <v>87</v>
+      </c>
+      <c r="I91" t="s" s="35">
+        <v>51</v>
       </c>
     </row>
     <row r="92">
@@ -3823,14 +3799,14 @@
       <c r="D92" s="45"/>
       <c r="E92" s="45"/>
       <c r="F92" s="45"/>
-      <c r="G92" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H92" t="s" s="20">
-        <v>147</v>
-      </c>
-      <c r="I92" t="s" s="19">
-        <v>148</v>
+      <c r="G92" t="s" s="45">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s" s="45">
+        <v>145</v>
+      </c>
+      <c r="I92" t="s" s="45">
+        <v>146</v>
       </c>
     </row>
     <row r="93">
@@ -3840,14 +3816,14 @@
       <c r="D93" s="45"/>
       <c r="E93" s="45"/>
       <c r="F93" s="45"/>
-      <c r="G93" t="s" s="45">
-        <v>16</v>
-      </c>
-      <c r="H93" t="s" s="45">
-        <v>62</v>
-      </c>
-      <c r="I93" t="s" s="31">
-        <v>63</v>
+      <c r="G93" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H93" t="s" s="20">
+        <v>147</v>
+      </c>
+      <c r="I93" t="s" s="19">
+        <v>148</v>
       </c>
     </row>
     <row r="94">
@@ -3857,14 +3833,14 @@
       <c r="D94" s="45"/>
       <c r="E94" s="45"/>
       <c r="F94" s="45"/>
-      <c r="G94" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H94" t="s" s="19">
-        <v>93</v>
-      </c>
-      <c r="I94" t="s" s="19">
-        <v>94</v>
+      <c r="G94" t="s" s="45">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s" s="45">
+        <v>62</v>
+      </c>
+      <c r="I94" t="s" s="31">
+        <v>63</v>
       </c>
     </row>
     <row r="95">
@@ -3874,14 +3850,14 @@
       <c r="D95" s="45"/>
       <c r="E95" s="45"/>
       <c r="F95" s="45"/>
-      <c r="G95" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H95" t="s" s="20">
-        <v>149</v>
-      </c>
-      <c r="I95" t="s" s="35">
-        <v>150</v>
+      <c r="G95" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H95" t="s" s="19">
+        <v>93</v>
+      </c>
+      <c r="I95" t="s" s="19">
+        <v>94</v>
       </c>
     </row>
     <row r="96">
@@ -3895,7 +3871,7 @@
         <v>4</v>
       </c>
       <c r="H96" t="s" s="20">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I96" t="s" s="35">
         <v>150</v>
@@ -3912,10 +3888,10 @@
         <v>4</v>
       </c>
       <c r="H97" t="s" s="20">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I97" t="s" s="35">
-        <v>51</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98">
@@ -3925,14 +3901,14 @@
       <c r="D98" s="45"/>
       <c r="E98" s="45"/>
       <c r="F98" s="45"/>
-      <c r="G98" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H98" t="s" s="19">
-        <v>153</v>
-      </c>
-      <c r="I98" t="s" s="19">
-        <v>154</v>
+      <c r="G98" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H98" t="s" s="20">
+        <v>152</v>
+      </c>
+      <c r="I98" t="s" s="35">
+        <v>51</v>
       </c>
     </row>
     <row r="99">
@@ -3942,14 +3918,14 @@
       <c r="D99" s="45"/>
       <c r="E99" s="45"/>
       <c r="F99" s="45"/>
-      <c r="G99" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H99" t="s" s="20">
-        <v>155</v>
-      </c>
-      <c r="I99" t="s" s="35">
-        <v>156</v>
+      <c r="G99" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H99" t="s" s="19">
+        <v>153</v>
+      </c>
+      <c r="I99" t="s" s="19">
+        <v>154</v>
       </c>
     </row>
     <row r="100">
@@ -3963,69 +3939,69 @@
         <v>4</v>
       </c>
       <c r="H100" t="s" s="20">
+        <v>155</v>
+      </c>
+      <c r="I100" t="s" s="35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H101" t="s" s="20">
         <v>157</v>
       </c>
-      <c r="I100" t="s" s="19">
+      <c r="I101" t="s" s="19">
         <v>158</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="15" t="s">
+    <row r="102">
+      <c r="A102" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B102" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-    </row>
-    <row r="102">
-      <c r="B102" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>161</v>
-      </c>
+      <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
     </row>
     <row r="103">
-      <c r="C103" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="41" t="s">
+      <c r="B103" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H103" t="s" s="41">
-        <v>163</v>
-      </c>
-      <c r="I103" t="s" s="41">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="41"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
       <c r="E104" s="41"/>
       <c r="F104" s="41"/>
-      <c r="G104" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H104" t="s" s="19">
-        <v>82</v>
-      </c>
-      <c r="I104" t="s" s="19">
-        <v>158</v>
+      <c r="G104" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s" s="41">
+        <v>163</v>
+      </c>
+      <c r="I104" t="s" s="41">
+        <v>15</v>
       </c>
     </row>
     <row r="105">
@@ -4035,91 +4011,91 @@
       <c r="D105" s="41"/>
       <c r="E105" s="41"/>
       <c r="F105" s="41"/>
-      <c r="G105" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H105" t="s" s="41">
+      <c r="G105" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H105" t="s" s="19">
+        <v>82</v>
+      </c>
+      <c r="I105" t="s" s="19">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="41"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s" s="41">
         <v>164</v>
       </c>
-      <c r="I105" t="s" s="41">
+      <c r="I106" t="s" s="41">
         <v>15</v>
       </c>
     </row>
-    <row r="106">
-      <c r="B106" s="15" t="s">
+    <row r="107">
+      <c r="B107" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C107" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-    </row>
-    <row r="107">
-      <c r="C107" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="41" t="s">
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H107" t="s" s="20">
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H108" t="s" s="20">
         <v>167</v>
       </c>
-      <c r="I107" t="s" s="41">
+      <c r="I108" t="s" s="41">
         <v>168</v>
       </c>
-      <c r="J107" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K107" t="s" s="41">
+      <c r="J108" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s" s="41">
         <v>169</v>
       </c>
-      <c r="L107" t="s" s="11">
+      <c r="L108" t="s" s="11">
         <v>170</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="25" t="s">
+    <row r="109">
+      <c r="A109" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B108" s="25" t="s">
+      <c r="B109" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-    </row>
-    <row r="109">
-      <c r="B109" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H109" t="s" s="20">
-        <v>174</v>
-      </c>
-      <c r="I109" t="s" s="19">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="19"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
       <c r="F110" s="19"/>
@@ -4127,10 +4103,10 @@
         <v>4</v>
       </c>
       <c r="H110" t="s" s="20">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I110" t="s" s="19">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111">
@@ -4144,80 +4120,71 @@
         <v>4</v>
       </c>
       <c r="H111" t="s" s="20">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I111" t="s" s="19">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112">
-      <c r="B112" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>180</v>
-      </c>
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
+      <c r="G112" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H112" t="s" s="20">
+        <v>178</v>
+      </c>
+      <c r="I112" t="s" s="19">
+        <v>179</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="15" t="s">
+      <c r="B113" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B114" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" t="s" s="16">
-        <v>159</v>
-      </c>
-      <c r="H113" t="s" s="16">
-        <v>182</v>
-      </c>
-      <c r="I113" t="s" s="15">
-        <v>183</v>
-      </c>
-      <c r="J113" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K113" t="s" s="20">
-        <v>184</v>
-      </c>
-      <c r="L113" t="s" s="11">
-        <v>6</v>
-      </c>
-      <c r="M113" t="s" s="11">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
-      <c r="G114" t="s" s="43">
-        <v>71</v>
-      </c>
-      <c r="H114" t="s" s="43">
-        <v>186</v>
-      </c>
-      <c r="I114" t="s" s="45">
-        <v>12</v>
-      </c>
-      <c r="J114" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K114" t="s" s="19">
-        <v>187</v>
+      <c r="G114" t="s" s="16">
+        <v>159</v>
+      </c>
+      <c r="H114" t="s" s="16">
+        <v>182</v>
+      </c>
+      <c r="I114" t="s" s="15">
+        <v>183</v>
+      </c>
+      <c r="J114" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K114" t="s" s="20">
+        <v>184</v>
       </c>
       <c r="L114" t="s" s="11">
-        <v>188</v>
+        <v>6</v>
+      </c>
+      <c r="M114" t="s" s="11">
+        <v>185</v>
       </c>
     </row>
     <row r="115">
@@ -4227,23 +4194,23 @@
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
-      <c r="G115" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H115" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I115" t="s" s="41">
-        <v>76</v>
-      </c>
-      <c r="J115" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K115" t="s" s="41">
-        <v>13</v>
+      <c r="G115" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H115" t="s" s="43">
+        <v>186</v>
+      </c>
+      <c r="I115" t="s" s="45">
+        <v>12</v>
+      </c>
+      <c r="J115" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K115" t="s" s="19">
+        <v>187</v>
       </c>
       <c r="L115" t="s" s="11">
-        <v>6</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116">
@@ -4253,20 +4220,20 @@
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
-      <c r="G116" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H116" t="s" s="19">
-        <v>82</v>
-      </c>
-      <c r="I116" t="s" s="19">
-        <v>158</v>
-      </c>
-      <c r="J116" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K116" t="s" s="20">
-        <v>189</v>
+      <c r="G116" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I116" t="s" s="41">
+        <v>76</v>
+      </c>
+      <c r="J116" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s" s="41">
+        <v>13</v>
       </c>
       <c r="L116" t="s" s="11">
         <v>6</v>
@@ -4279,14 +4246,23 @@
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
-      <c r="G117" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H117" t="s" s="41">
-        <v>67</v>
-      </c>
-      <c r="I117" t="s" s="41">
-        <v>190</v>
+      <c r="G117" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H117" t="s" s="19">
+        <v>82</v>
+      </c>
+      <c r="I117" t="s" s="19">
+        <v>158</v>
+      </c>
+      <c r="J117" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K117" t="s" s="20">
+        <v>189</v>
+      </c>
+      <c r="L117" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="118">
@@ -4296,63 +4272,60 @@
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
-      <c r="G118" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H118" t="s" s="20">
+      <c r="G118" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s" s="41">
+        <v>67</v>
+      </c>
+      <c r="I118" t="s" s="41">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H119" t="s" s="20">
         <v>191</v>
       </c>
-      <c r="I118" t="s" s="45">
+      <c r="I119" t="s" s="45">
         <v>12</v>
       </c>
     </row>
-    <row r="119">
-      <c r="B119" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C119" s="41" t="s">
+    <row r="120">
+      <c r="B120" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="D119" s="41"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="41"/>
-    </row>
-    <row r="120">
-      <c r="C120" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D120" s="19" t="s">
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-    </row>
-    <row r="121">
-      <c r="B121" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" t="s" s="43">
-        <v>71</v>
-      </c>
-      <c r="H121" t="s" s="43">
-        <v>186</v>
-      </c>
-      <c r="I121" t="s" s="45">
-        <v>195</v>
-      </c>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
     </row>
     <row r="122">
       <c r="B122" s="41" t="s">
         <v>0</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D122" s="41"/>
       <c r="E122" s="41"/>
@@ -4372,51 +4345,60 @@
         <v>0</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D123" s="41"/>
       <c r="E123" s="41"/>
       <c r="F123" s="41"/>
+      <c r="G123" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s" s="43">
+        <v>186</v>
+      </c>
+      <c r="I123" t="s" s="45">
+        <v>195</v>
+      </c>
     </row>
     <row r="124">
-      <c r="B124" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
+      <c r="B124" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
     </row>
     <row r="125">
       <c r="B125" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
     </row>
     <row r="126">
-      <c r="B126" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="B126" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
     </row>
     <row r="127">
       <c r="B127" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4427,47 +4409,48 @@
         <v>200</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
     </row>
     <row r="129">
+      <c r="B129" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="C129" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
     <row r="130">
-      <c r="D130" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="19" t="s">
+      <c r="C130" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131">
+      <c r="D131" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="F130" s="19"/>
-    </row>
-    <row r="131">
-      <c r="C131" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="F131" s="19"/>
     </row>
     <row r="132">
       <c r="C132" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -4477,7 +4460,7 @@
         <v>200</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -4487,39 +4470,39 @@
         <v>200</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
     <row r="135">
-      <c r="C135" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D135" s="19" t="s">
+      <c r="C135" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-    </row>
-    <row r="136">
-      <c r="B136" s="1" t="s">
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137">
-      <c r="C137" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
@@ -4528,50 +4511,49 @@
         <v>200</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
     <row r="139">
-      <c r="B139" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" s="41" t="s">
+      <c r="C139" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="D139" s="41"/>
-      <c r="E139" s="41"/>
-      <c r="F139" s="41"/>
-    </row>
-    <row r="140">
-      <c r="B140" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="19" t="s">
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="41"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-    </row>
-    <row r="141">
-      <c r="B141" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C141" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="D141" s="41"/>
-      <c r="E141" s="41"/>
-      <c r="F141" s="41"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
     </row>
     <row r="142">
       <c r="B142" s="41" t="s">
         <v>0</v>
       </c>
       <c r="C142" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D142" s="41"/>
       <c r="E142" s="41"/>
@@ -4582,61 +4564,63 @@
         <v>0</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D143" s="41"/>
       <c r="E143" s="41"/>
       <c r="F143" s="41"/>
     </row>
     <row r="144">
-      <c r="C144" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="19" t="s">
+      <c r="B144" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D144" s="41"/>
+      <c r="E144" s="41"/>
+      <c r="F144" s="41"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-    </row>
-    <row r="145">
-      <c r="B145" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C145" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="D145" s="41"/>
-      <c r="E145" s="41"/>
-      <c r="F145" s="41"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
     </row>
     <row r="146">
       <c r="B146" s="41" t="s">
         <v>0</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D146" s="41"/>
       <c r="E146" s="41"/>
       <c r="F146" s="41"/>
     </row>
     <row r="147">
+      <c r="B147" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="C147" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D147" s="41" t="s">
-        <v>222</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D147" s="41"/>
       <c r="E147" s="41"/>
       <c r="F147" s="41"/>
     </row>
     <row r="148">
+      <c r="C148" s="41" t="s">
+        <v>0</v>
+      </c>
       <c r="D148" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E148" s="41" t="s">
-        <v>223</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E148" s="41"/>
       <c r="F148" s="41"/>
     </row>
     <row r="149">
@@ -4644,28 +4628,26 @@
         <v>0</v>
       </c>
       <c r="E149" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F149" s="41"/>
+    </row>
+    <row r="150">
+      <c r="D150" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E150" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="F149" s="41"/>
-    </row>
-    <row r="150">
-      <c r="C150" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D150" s="19" t="s">
+      <c r="F150" s="41"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-    </row>
-    <row r="151">
-      <c r="B151" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D151" s="19"/>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
     </row>
@@ -4674,59 +4656,50 @@
         <v>4</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
       <c r="F152" s="19"/>
     </row>
     <row r="153">
-      <c r="B153" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C153" s="41" t="s">
+      <c r="B153" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="D153" s="41"/>
-      <c r="E153" s="41"/>
-      <c r="F153" s="41"/>
-    </row>
-    <row r="154">
-      <c r="C154" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D154" s="41" t="s">
-        <v>229</v>
-      </c>
+      <c r="D154" s="41"/>
       <c r="E154" s="41"/>
       <c r="F154" s="41"/>
     </row>
     <row r="155">
-      <c r="B155" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" t="s" s="43">
-        <v>71</v>
-      </c>
-      <c r="H155" t="s" s="43">
-        <v>186</v>
-      </c>
-      <c r="I155" t="s" s="45">
-        <v>195</v>
-      </c>
+      <c r="C155" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="E155" s="41"/>
+      <c r="F155" s="41"/>
     </row>
     <row r="156">
       <c r="B156" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
@@ -4742,34 +4715,43 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C157" s="41" t="s">
+      <c r="B157" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H157" t="s" s="43">
+        <v>186</v>
+      </c>
+      <c r="I157" t="s" s="45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="D157" s="41"/>
-      <c r="E157" s="41"/>
-      <c r="F157" s="41"/>
-    </row>
-    <row r="158">
-      <c r="C158" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D158" s="19" t="s">
+      <c r="D158" s="41"/>
+      <c r="E158" s="41"/>
+      <c r="F158" s="41"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-    </row>
-    <row r="159">
-      <c r="B159" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D159" s="19"/>
       <c r="E159" s="19"/>
       <c r="F159" s="19"/>
     </row>
@@ -4778,59 +4760,53 @@
         <v>4</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D160" s="19"/>
       <c r="E160" s="19"/>
       <c r="F160" s="19"/>
     </row>
     <row r="161">
-      <c r="A161" s="25" t="s">
+      <c r="B161" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B161" s="25" t="s">
+      <c r="B162" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C161" s="25"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="25"/>
-      <c r="F161" s="25"/>
-    </row>
-    <row r="162">
-      <c r="B162" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="19" t="s">
+      <c r="C162" s="25"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="25"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="13" t="s">
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B164" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="G163" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H163" t="s" s="20">
-        <v>240</v>
-      </c>
-      <c r="I163" t="s" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="13"/>
-      <c r="B164" s="13"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
@@ -4839,30 +4815,37 @@
         <v>4</v>
       </c>
       <c r="H164" t="s" s="20">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I164" t="s" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="165">
-      <c r="B165" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="19" t="s">
+      <c r="A165" s="13"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H165" t="s" s="20">
+        <v>241</v>
+      </c>
+      <c r="I165" t="s" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-    </row>
-    <row r="166">
-      <c r="C166" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D166" s="19" t="s">
-        <v>243</v>
-      </c>
+      <c r="D166" s="19"/>
       <c r="E166" s="19"/>
       <c r="F166" s="19"/>
     </row>
@@ -4871,19 +4854,18 @@
         <v>4</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E167" s="19"/>
       <c r="F167" s="19"/>
     </row>
     <row r="168">
-      <c r="B168" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="C168" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D168" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>244</v>
+      </c>
       <c r="E168" s="19"/>
       <c r="F168" s="19"/>
     </row>
@@ -4892,7 +4874,7 @@
         <v>4</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D169" s="19"/>
       <c r="E169" s="19"/>
@@ -4903,7 +4885,7 @@
         <v>4</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D170" s="19"/>
       <c r="E170" s="19"/>
@@ -4914,7 +4896,7 @@
         <v>4</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D171" s="19"/>
       <c r="E171" s="19"/>
@@ -4925,19 +4907,20 @@
         <v>4</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D172" s="19"/>
       <c r="E172" s="19"/>
       <c r="F172" s="19"/>
     </row>
     <row r="173">
+      <c r="B173" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="C173" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D173" s="19" t="s">
-        <v>250</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="D173" s="19"/>
       <c r="E173" s="19"/>
       <c r="F173" s="19"/>
     </row>
@@ -4946,109 +4929,121 @@
         <v>4</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D174" s="19"/>
       <c r="E174" s="19"/>
       <c r="F174" s="19"/>
-      <c r="G174" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H174" t="s" s="20">
-        <v>252</v>
-      </c>
-      <c r="I174" t="s" s="41">
-        <v>65</v>
-      </c>
     </row>
     <row r="175">
       <c r="B175" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D175" s="19"/>
       <c r="E175" s="19"/>
       <c r="F175" s="19"/>
+      <c r="G175" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H175" t="s" s="20">
+        <v>252</v>
+      </c>
+      <c r="I175" t="s" s="41">
+        <v>65</v>
+      </c>
     </row>
     <row r="176">
       <c r="B176" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
       <c r="F176" s="19"/>
     </row>
     <row r="177">
-      <c r="A177" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
+      <c r="B177" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
     </row>
     <row r="178">
       <c r="B178" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D178" s="19"/>
       <c r="E178" s="19"/>
       <c r="F178" s="19"/>
     </row>
     <row r="179">
-      <c r="A179" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B179" s="19" t="s">
+      <c r="A179" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C180" s="19"/>
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
       <c r="F180" s="19"/>
     </row>
     <row r="181">
-      <c r="A181" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B181" s="19" t="s">
+      <c r="A181" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H181" t="s" s="19">
         <v>259</v>
       </c>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
+      <c r="I181" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J181" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K181" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L181" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>260</v>
-      </c>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5057,19 +5052,19 @@
         <v>4</v>
       </c>
       <c r="H182" t="s" s="19">
-        <v>261</v>
-      </c>
-      <c r="I182" t="s" s="45">
-        <v>18</v>
+        <v>113</v>
+      </c>
+      <c r="I182" t="s" s="35">
+        <v>260</v>
       </c>
       <c r="J182" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K182" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="L182" t="s" s="11">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="L182" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -5079,64 +5074,48 @@
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-      <c r="G183" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H183" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="I183" t="s" s="35">
-        <v>262</v>
-      </c>
-      <c r="J183" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K183" t="s" s="41">
-        <v>77</v>
-      </c>
-      <c r="L183" t="s" s="17">
-        <v>3</v>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K183" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L183" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="B184" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K184" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L184" t="s" s="11">
-        <v>6</v>
-      </c>
     </row>
     <row r="185">
       <c r="B185" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
     <row r="186">
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D186" s="1"/>
+      <c r="D186" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
@@ -5145,18 +5124,19 @@
         <v>200</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
     <row r="188">
+      <c r="B188" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="C188" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>266</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
@@ -5165,20 +5145,19 @@
         <v>200</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
     <row r="190">
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D190" s="1"/>
+      <c r="D190" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
@@ -5187,18 +5166,19 @@
         <v>200</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
     <row r="192">
+      <c r="B192" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="C192" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>270</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
     </row>
@@ -5207,7 +5187,7 @@
         <v>200</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5218,20 +5198,19 @@
         <v>200</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
     </row>
     <row r="195">
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D195" s="1"/>
+      <c r="D195" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
     </row>
@@ -5240,29 +5219,29 @@
         <v>200</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
     </row>
     <row r="197">
+      <c r="B197" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="C197" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
     </row>
     <row r="198">
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D198" s="1"/>
+      <c r="D198" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
     </row>
@@ -5271,58 +5250,74 @@
         <v>200</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
     </row>
     <row r="200">
-      <c r="C200" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D200" s="1" t="s">
+      <c r="A200" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B200" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B201" s="21" t="s">
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="19"/>
+      <c r="G201" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H201" t="s" s="41">
         <v>279</v>
       </c>
-      <c r="C201" s="21"/>
-      <c r="D201" s="21"/>
-      <c r="E201" s="21"/>
-      <c r="F201" s="21"/>
+      <c r="I201" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J201" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K201" t="s" s="19">
+        <v>280</v>
+      </c>
+      <c r="L201" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="202">
-      <c r="A202" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B202" s="19" t="s">
-        <v>280</v>
-      </c>
+      <c r="A202" s="19"/>
+      <c r="B202" s="19"/>
       <c r="C202" s="19"/>
       <c r="D202" s="19"/>
       <c r="E202" s="19"/>
       <c r="F202" s="19"/>
-      <c r="G202" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H202" t="s" s="41">
+      <c r="G202" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H202" t="s" s="19">
         <v>281</v>
       </c>
-      <c r="I202" t="s" s="41">
-        <v>15</v>
-      </c>
-      <c r="J202" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K202" t="s" s="19">
+      <c r="I202" t="s" s="19">
         <v>282</v>
+      </c>
+      <c r="J202" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K202" t="s" s="41">
+        <v>13</v>
       </c>
       <c r="L202" t="s" s="11">
         <v>6</v>
@@ -5335,20 +5330,14 @@
       <c r="D203" s="19"/>
       <c r="E203" s="19"/>
       <c r="F203" s="19"/>
-      <c r="G203" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H203" t="s" s="19">
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K203" t="s" s="19">
         <v>283</v>
-      </c>
-      <c r="I203" t="s" s="19">
-        <v>284</v>
-      </c>
-      <c r="J203" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K203" t="s" s="41">
-        <v>13</v>
       </c>
       <c r="L203" t="s" s="11">
         <v>6</v>
@@ -5368,10 +5357,10 @@
         <v>4</v>
       </c>
       <c r="K204" t="s" s="19">
+        <v>284</v>
+      </c>
+      <c r="L204" t="s" s="11">
         <v>285</v>
-      </c>
-      <c r="L204" t="s" s="11">
-        <v>6</v>
       </c>
     </row>
     <row r="205">
@@ -5388,38 +5377,29 @@
         <v>4</v>
       </c>
       <c r="K205" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L205" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="L205" t="s" s="11">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="19"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
       <c r="D206" s="19"/>
       <c r="E206" s="19"/>
       <c r="F206" s="19"/>
-      <c r="G206" s="19"/>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K206" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L206" t="s" s="11">
-        <v>6</v>
-      </c>
     </row>
     <row r="207">
       <c r="B207" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D207" s="19"/>
       <c r="E207" s="19"/>
@@ -5430,7 +5410,7 @@
         <v>4</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D208" s="19"/>
       <c r="E208" s="19"/>
@@ -5441,63 +5421,78 @@
         <v>4</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D209" s="19"/>
       <c r="E209" s="19"/>
       <c r="F209" s="19"/>
     </row>
     <row r="210">
-      <c r="B210" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C210" s="19" t="s">
+      <c r="A210" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="D210" s="19"/>
-      <c r="E210" s="19"/>
-      <c r="F210" s="19"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="19"/>
+      <c r="G211" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H211" t="s" s="43">
+        <v>72</v>
+      </c>
+      <c r="I211" t="s" s="19">
+        <v>80</v>
+      </c>
+      <c r="J211" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K211" t="s" s="41">
+        <v>77</v>
+      </c>
+      <c r="L211" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B212" s="19" t="s">
-        <v>293</v>
-      </c>
+      <c r="A212" s="19"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="19"/>
       <c r="D212" s="19"/>
       <c r="E212" s="19"/>
       <c r="F212" s="19"/>
-      <c r="G212" t="s" s="43">
-        <v>71</v>
-      </c>
-      <c r="H212" t="s" s="43">
-        <v>72</v>
-      </c>
-      <c r="I212" t="s" s="19">
-        <v>80</v>
-      </c>
-      <c r="J212" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K212" t="s" s="41">
-        <v>77</v>
-      </c>
-      <c r="L212" t="s" s="17">
-        <v>3</v>
+      <c r="G212" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H212" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I212" t="s" s="41">
+        <v>76</v>
+      </c>
+      <c r="J212" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K212" t="s" s="20">
+        <v>292</v>
+      </c>
+      <c r="L212" t="s" s="11">
+        <v>102</v>
       </c>
     </row>
     <row r="213">
@@ -5507,23 +5502,14 @@
       <c r="D213" s="19"/>
       <c r="E213" s="19"/>
       <c r="F213" s="19"/>
-      <c r="G213" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H213" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I213" t="s" s="41">
-        <v>76</v>
-      </c>
-      <c r="J213" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K213" t="s" s="20">
+      <c r="G213" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H213" t="s" s="19">
+        <v>293</v>
+      </c>
+      <c r="I213" t="s" s="19">
         <v>294</v>
-      </c>
-      <c r="L213" t="s" s="11">
-        <v>102</v>
       </c>
     </row>
     <row r="214">
@@ -5537,10 +5523,10 @@
         <v>4</v>
       </c>
       <c r="H214" t="s" s="19">
-        <v>295</v>
-      </c>
-      <c r="I214" t="s" s="19">
-        <v>296</v>
+        <v>139</v>
+      </c>
+      <c r="I214" t="s" s="41">
+        <v>168</v>
       </c>
     </row>
     <row r="215">
@@ -5554,35 +5540,29 @@
         <v>4</v>
       </c>
       <c r="H215" t="s" s="19">
-        <v>139</v>
-      </c>
-      <c r="I215" t="s" s="41">
-        <v>168</v>
+        <v>82</v>
+      </c>
+      <c r="I215" t="s" s="19">
+        <v>158</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="19"/>
-      <c r="B216" s="19"/>
-      <c r="C216" s="19"/>
+      <c r="B216" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="19" t="s">
+        <v>295</v>
+      </c>
       <c r="D216" s="19"/>
       <c r="E216" s="19"/>
       <c r="F216" s="19"/>
-      <c r="G216" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H216" t="s" s="19">
-        <v>82</v>
-      </c>
-      <c r="I216" t="s" s="19">
-        <v>158</v>
-      </c>
     </row>
     <row r="217">
       <c r="B217" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D217" s="19"/>
       <c r="E217" s="19"/>
@@ -5593,7 +5573,7 @@
         <v>4</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D218" s="19"/>
       <c r="E218" s="19"/>
@@ -5604,51 +5584,66 @@
         <v>4</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D219" s="19"/>
       <c r="E219" s="19"/>
       <c r="F219" s="19"/>
     </row>
     <row r="220">
+      <c r="A220" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="B220" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C220" s="19" t="s">
-        <v>300</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C220" s="19"/>
       <c r="D220" s="19"/>
       <c r="E220" s="19"/>
       <c r="F220" s="19"/>
+      <c r="G220" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H220" t="s" s="43">
+        <v>300</v>
+      </c>
+      <c r="I220" t="s" s="19">
+        <v>301</v>
+      </c>
+      <c r="J220" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K220" t="s" s="19">
+        <v>280</v>
+      </c>
+      <c r="L220" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B221" s="19" t="s">
-        <v>301</v>
-      </c>
+      <c r="A221" s="19"/>
+      <c r="B221" s="19"/>
       <c r="C221" s="19"/>
       <c r="D221" s="19"/>
       <c r="E221" s="19"/>
       <c r="F221" s="19"/>
-      <c r="G221" t="s" s="43">
-        <v>71</v>
-      </c>
-      <c r="H221" t="s" s="43">
-        <v>302</v>
-      </c>
-      <c r="I221" t="s" s="19">
-        <v>303</v>
+      <c r="G221" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H221" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I221" t="s" s="41">
+        <v>76</v>
       </c>
       <c r="J221" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K221" t="s" s="19">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L221" t="s" s="11">
-        <v>6</v>
+        <v>285</v>
       </c>
     </row>
     <row r="222">
@@ -5658,91 +5653,91 @@
       <c r="D222" s="19"/>
       <c r="E222" s="19"/>
       <c r="F222" s="19"/>
-      <c r="G222" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H222" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I222" t="s" s="41">
-        <v>76</v>
-      </c>
-      <c r="J222" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K222" t="s" s="19">
-        <v>286</v>
-      </c>
-      <c r="L222" t="s" s="11">
-        <v>287</v>
+      <c r="G222" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H222" t="s" s="19">
+        <v>302</v>
+      </c>
+      <c r="I222" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="19"/>
-      <c r="B223" s="19"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="19"/>
-      <c r="E223" s="19"/>
-      <c r="F223" s="19"/>
-      <c r="G223" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H223" t="s" s="19">
+      <c r="A223" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="C223" s="41"/>
+      <c r="D223" s="41"/>
+      <c r="E223" s="41"/>
+      <c r="F223" s="41"/>
+      <c r="G223" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H223" t="s" s="20">
         <v>304</v>
       </c>
-      <c r="I223" t="s" s="45">
-        <v>18</v>
+      <c r="I223" t="s" s="19">
+        <v>305</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B224" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="C224" s="41"/>
-      <c r="D224" s="41"/>
-      <c r="E224" s="41"/>
-      <c r="F224" s="41"/>
-      <c r="G224" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H224" t="s" s="20">
+      <c r="A224" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" s="19" t="s">
         <v>306</v>
       </c>
+      <c r="C224" s="19"/>
+      <c r="D224" s="19"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="19"/>
+      <c r="G224" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H224" t="s" s="43">
+        <v>72</v>
+      </c>
       <c r="I224" t="s" s="19">
-        <v>307</v>
+        <v>294</v>
+      </c>
+      <c r="J224" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K224" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L224" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B225" s="19" t="s">
-        <v>308</v>
-      </c>
+      <c r="A225" s="19"/>
+      <c r="B225" s="19"/>
       <c r="C225" s="19"/>
       <c r="D225" s="19"/>
       <c r="E225" s="19"/>
       <c r="F225" s="19"/>
-      <c r="G225" t="s" s="43">
-        <v>71</v>
-      </c>
-      <c r="H225" t="s" s="43">
-        <v>72</v>
-      </c>
-      <c r="I225" t="s" s="19">
-        <v>296</v>
+      <c r="G225" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H225" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I225" t="s" s="41">
+        <v>76</v>
       </c>
       <c r="J225" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K225" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="L225" t="s" s="11">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="L225" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -5752,23 +5747,23 @@
       <c r="D226" s="19"/>
       <c r="E226" s="19"/>
       <c r="F226" s="19"/>
-      <c r="G226" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H226" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I226" t="s" s="41">
-        <v>76</v>
-      </c>
-      <c r="J226" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K226" t="s" s="41">
-        <v>77</v>
-      </c>
-      <c r="L226" t="s" s="17">
-        <v>3</v>
+      <c r="G226" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H226" t="s" s="19">
+        <v>307</v>
+      </c>
+      <c r="I226" t="s" s="19">
+        <v>308</v>
+      </c>
+      <c r="J226" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K226" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L226" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="227">
@@ -5778,23 +5773,14 @@
       <c r="D227" s="19"/>
       <c r="E227" s="19"/>
       <c r="F227" s="19"/>
-      <c r="G227" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H227" t="s" s="19">
-        <v>309</v>
-      </c>
-      <c r="I227" t="s" s="19">
-        <v>310</v>
-      </c>
-      <c r="J227" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K227" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L227" t="s" s="11">
-        <v>6</v>
+      <c r="G227" t="s" s="5">
+        <v>88</v>
+      </c>
+      <c r="H227" t="s" s="5">
+        <v>89</v>
+      </c>
+      <c r="I227" t="s" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="228">
@@ -5804,14 +5790,14 @@
       <c r="D228" s="19"/>
       <c r="E228" s="19"/>
       <c r="F228" s="19"/>
-      <c r="G228" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="H228" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="I228" t="s" s="5">
-        <v>90</v>
+      <c r="G228" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H228" t="s" s="19">
+        <v>309</v>
+      </c>
+      <c r="I228" t="s" s="41">
+        <v>310</v>
       </c>
     </row>
     <row r="229">
@@ -5821,138 +5807,147 @@
       <c r="D229" s="19"/>
       <c r="E229" s="19"/>
       <c r="F229" s="19"/>
-      <c r="G229" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H229" t="s" s="19">
+      <c r="G229" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H229" t="s" s="41">
+        <v>67</v>
+      </c>
+      <c r="I229" t="s" s="19">
         <v>311</v>
       </c>
-      <c r="I229" t="s" s="41">
+    </row>
+    <row r="230">
+      <c r="A230" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" s="19" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="19"/>
-      <c r="B230" s="19"/>
       <c r="C230" s="19"/>
       <c r="D230" s="19"/>
       <c r="E230" s="19"/>
       <c r="F230" s="19"/>
-      <c r="G230" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H230" t="s" s="41">
-        <v>67</v>
+      <c r="G230" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H230" t="s" s="19">
+        <v>313</v>
       </c>
       <c r="I230" t="s" s="19">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" s="19" t="s">
-        <v>314</v>
-      </c>
+      <c r="A231" s="19"/>
+      <c r="B231" s="19"/>
       <c r="C231" s="19"/>
       <c r="D231" s="19"/>
       <c r="E231" s="19"/>
       <c r="F231" s="19"/>
-      <c r="G231" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H231" t="s" s="19">
+      <c r="G231" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H231" t="s" s="20">
+        <v>309</v>
+      </c>
+      <c r="I231" t="s" s="41">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="B232" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="I231" t="s" s="19">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="19"/>
-      <c r="B232" s="19"/>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="19"/>
-      <c r="G232" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H232" t="s" s="20">
-        <v>311</v>
-      </c>
-      <c r="I232" t="s" s="41">
-        <v>312</v>
+      <c r="C232" s="31"/>
+      <c r="D232" s="31"/>
+      <c r="E232" s="31"/>
+      <c r="F232" s="31"/>
+      <c r="G232" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H232" t="s" s="19">
+        <v>316</v>
+      </c>
+      <c r="I232" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="B233" s="31" t="s">
+      <c r="B233" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="C233" s="31"/>
-      <c r="D233" s="31"/>
-      <c r="E233" s="31"/>
-      <c r="F233" s="31"/>
-      <c r="G233" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H233" t="s" s="19">
+      <c r="C233" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="I233" t="s" s="45">
-        <v>18</v>
+      <c r="D233" s="35"/>
+      <c r="E233" s="35"/>
+      <c r="F233" s="35"/>
+      <c r="J233" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="K233" t="s" s="35">
+        <v>319</v>
+      </c>
+      <c r="L233" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
-      <c r="B234" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="C234" s="35" t="s">
+      <c r="C234" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="D234" s="35"/>
-      <c r="E234" s="35"/>
-      <c r="F234" s="35"/>
-      <c r="J234" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="K234" t="s" s="35">
-        <v>321</v>
-      </c>
-      <c r="L234" t="s" s="17">
-        <v>3</v>
+      <c r="E234" s="19"/>
+      <c r="F234" s="19"/>
+      <c r="G234" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H234" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I234" t="s" s="41">
+        <v>76</v>
+      </c>
+      <c r="J234" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K234" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L234" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="235">
-      <c r="C235" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D235" s="19" t="s">
-        <v>322</v>
-      </c>
+      <c r="A235" s="19"/>
+      <c r="B235" s="19"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="19"/>
       <c r="E235" s="19"/>
       <c r="F235" s="19"/>
       <c r="G235" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H235" t="s" s="41">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="I235" t="s" s="41">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="J235" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K235" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="L235" t="s" s="11">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="L235" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -5962,143 +5957,143 @@
       <c r="D236" s="19"/>
       <c r="E236" s="19"/>
       <c r="F236" s="19"/>
-      <c r="G236" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H236" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I236" t="s" s="41">
+      <c r="G236" s="19"/>
+      <c r="H236" s="19"/>
+      <c r="I236" s="19"/>
+      <c r="J236" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K236" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L236" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="C237" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D237" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="E237" s="35"/>
+      <c r="F237" s="35"/>
+      <c r="G237" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H237" t="s" s="41">
         <v>323</v>
       </c>
-      <c r="J236" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K236" t="s" s="41">
-        <v>77</v>
-      </c>
-      <c r="L236" t="s" s="17">
+      <c r="I237" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J237" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="K237" t="s" s="35">
+        <v>324</v>
+      </c>
+      <c r="L237" t="s" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="19"/>
-      <c r="B237" s="19"/>
-      <c r="C237" s="19"/>
-      <c r="D237" s="19"/>
-      <c r="E237" s="19"/>
-      <c r="F237" s="19"/>
-      <c r="G237" s="19"/>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K237" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L237" t="s" s="11">
-        <v>6</v>
-      </c>
-    </row>
     <row r="238">
-      <c r="C238" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D238" s="35" t="s">
-        <v>324</v>
-      </c>
+      <c r="A238" s="35"/>
+      <c r="B238" s="35"/>
+      <c r="C238" s="35"/>
+      <c r="D238" s="35"/>
       <c r="E238" s="35"/>
       <c r="F238" s="35"/>
-      <c r="G238" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H238" t="s" s="41">
+      <c r="G238" s="35"/>
+      <c r="H238" s="35"/>
+      <c r="I238" s="35"/>
+      <c r="J238" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="K238" t="s" s="35">
         <v>325</v>
-      </c>
-      <c r="I238" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J238" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="K238" t="s" s="35">
-        <v>326</v>
       </c>
       <c r="L238" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="35"/>
-      <c r="B239" s="35"/>
-      <c r="C239" s="35"/>
-      <c r="D239" s="35"/>
-      <c r="E239" s="35"/>
+      <c r="D239" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="E239" s="35" t="s">
+        <v>326</v>
+      </c>
       <c r="F239" s="35"/>
-      <c r="G239" s="35"/>
-      <c r="H239" s="35"/>
-      <c r="I239" s="35"/>
-      <c r="J239" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="K239" t="s" s="35">
-        <v>327</v>
-      </c>
-      <c r="L239" t="s" s="17">
-        <v>3</v>
+      <c r="J239" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K239" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L239" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="240">
       <c r="D240" s="35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E240" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="F240" s="35"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="C241" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="F240" s="35"/>
-      <c r="J240" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K240" t="s" s="41">
-        <v>2</v>
-      </c>
-      <c r="L240" t="s" s="11">
+      <c r="D241" s="35"/>
+      <c r="E241" s="35"/>
+      <c r="F241" s="35"/>
+      <c r="G241" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="H241" t="s" s="35">
+        <v>329</v>
+      </c>
+      <c r="I241" t="s" s="27">
+        <v>330</v>
+      </c>
+      <c r="J241" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="K241" t="s" s="35">
+        <v>331</v>
+      </c>
+      <c r="L241" t="s" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="241">
-      <c r="D241" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="E241" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="F241" s="35"/>
-    </row>
     <row r="242">
-      <c r="B242" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="C242" s="35" t="s">
-        <v>330</v>
-      </c>
+      <c r="A242" s="35"/>
+      <c r="B242" s="35"/>
+      <c r="C242" s="35"/>
       <c r="D242" s="35"/>
       <c r="E242" s="35"/>
       <c r="F242" s="35"/>
-      <c r="G242" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="H242" t="s" s="35">
-        <v>331</v>
-      </c>
-      <c r="I242" t="s" s="27">
+      <c r="G242" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H242" t="s" s="20">
         <v>332</v>
       </c>
-      <c r="J242" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="K242" t="s" s="35">
+      <c r="I242" t="s" s="45">
+        <v>195</v>
+      </c>
+      <c r="J242" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K242" t="s" s="20">
         <v>333</v>
       </c>
       <c r="L242" t="s" s="11">
@@ -6112,19 +6107,19 @@
       <c r="D243" s="35"/>
       <c r="E243" s="35"/>
       <c r="F243" s="35"/>
-      <c r="G243" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H243" t="s" s="20">
+      <c r="G243" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H243" t="s" s="19">
         <v>334</v>
       </c>
       <c r="I243" t="s" s="45">
         <v>195</v>
       </c>
-      <c r="J243" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K243" t="s" s="20">
+      <c r="J243" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="K243" t="s" s="35">
         <v>335</v>
       </c>
       <c r="L243" t="s" s="11">
@@ -6138,20 +6133,20 @@
       <c r="D244" s="35"/>
       <c r="E244" s="35"/>
       <c r="F244" s="35"/>
-      <c r="G244" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H244" t="s" s="19">
-        <v>336</v>
-      </c>
-      <c r="I244" t="s" s="45">
-        <v>195</v>
-      </c>
-      <c r="J244" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="K244" t="s" s="35">
-        <v>337</v>
+      <c r="G244" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H244" t="s" s="41">
+        <v>279</v>
+      </c>
+      <c r="I244" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J244" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K244" t="s" s="41">
+        <v>49</v>
       </c>
       <c r="L244" t="s" s="11">
         <v>6</v>
@@ -6164,23 +6159,23 @@
       <c r="D245" s="35"/>
       <c r="E245" s="35"/>
       <c r="F245" s="35"/>
-      <c r="G245" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H245" t="s" s="41">
-        <v>281</v>
-      </c>
-      <c r="I245" t="s" s="41">
-        <v>15</v>
-      </c>
-      <c r="J245" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K245" t="s" s="41">
-        <v>49</v>
-      </c>
-      <c r="L245" t="s" s="11">
-        <v>6</v>
+      <c r="G245" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H245" t="s" s="19">
+        <v>336</v>
+      </c>
+      <c r="I245" t="s" s="19">
+        <v>337</v>
+      </c>
+      <c r="J245" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="K245" t="s" s="35">
+        <v>338</v>
+      </c>
+      <c r="L245" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -6190,20 +6185,20 @@
       <c r="D246" s="35"/>
       <c r="E246" s="35"/>
       <c r="F246" s="35"/>
-      <c r="G246" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H246" t="s" s="19">
-        <v>338</v>
-      </c>
-      <c r="I246" t="s" s="19">
+      <c r="G246" t="s" s="36">
+        <v>317</v>
+      </c>
+      <c r="H246" t="s" s="36">
         <v>339</v>
       </c>
+      <c r="I246" t="s" s="35">
+        <v>340</v>
+      </c>
       <c r="J246" t="s" s="35">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K246" t="s" s="35">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L246" t="s" s="17">
         <v>3</v>
@@ -6216,23 +6211,23 @@
       <c r="D247" s="35"/>
       <c r="E247" s="35"/>
       <c r="F247" s="35"/>
-      <c r="G247" t="s" s="36">
-        <v>319</v>
-      </c>
-      <c r="H247" t="s" s="36">
-        <v>341</v>
-      </c>
-      <c r="I247" t="s" s="35">
+      <c r="G247" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H247" t="s" s="41">
         <v>342</v>
       </c>
-      <c r="J247" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="K247" t="s" s="35">
+      <c r="I247" t="s" s="41">
         <v>343</v>
       </c>
-      <c r="L247" t="s" s="17">
-        <v>3</v>
+      <c r="J247" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K247" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L247" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="248">
@@ -6242,23 +6237,23 @@
       <c r="D248" s="35"/>
       <c r="E248" s="35"/>
       <c r="F248" s="35"/>
-      <c r="G248" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H248" t="s" s="41">
+      <c r="G248" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H248" t="s" s="20">
         <v>344</v>
       </c>
-      <c r="I248" t="s" s="41">
+      <c r="I248" t="s" s="45">
+        <v>12</v>
+      </c>
+      <c r="J248" t="s" s="36">
+        <v>317</v>
+      </c>
+      <c r="K248" t="s" s="36">
         <v>345</v>
       </c>
-      <c r="J248" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K248" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L248" t="s" s="11">
-        <v>6</v>
+      <c r="L248" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -6268,23 +6263,14 @@
       <c r="D249" s="35"/>
       <c r="E249" s="35"/>
       <c r="F249" s="35"/>
-      <c r="G249" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H249" t="s" s="20">
-        <v>346</v>
+      <c r="G249" t="s" s="42">
+        <v>0</v>
+      </c>
+      <c r="H249" t="s" s="42">
+        <v>323</v>
       </c>
       <c r="I249" t="s" s="45">
         <v>12</v>
-      </c>
-      <c r="J249" t="s" s="36">
-        <v>319</v>
-      </c>
-      <c r="K249" t="s" s="36">
-        <v>347</v>
-      </c>
-      <c r="L249" t="s" s="17">
-        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -6294,60 +6280,63 @@
       <c r="D250" s="35"/>
       <c r="E250" s="35"/>
       <c r="F250" s="35"/>
-      <c r="G250" t="s" s="42">
-        <v>0</v>
-      </c>
-      <c r="H250" t="s" s="42">
-        <v>325</v>
-      </c>
-      <c r="I250" t="s" s="45">
-        <v>12</v>
+      <c r="G250" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H250" t="s" s="20">
+        <v>346</v>
+      </c>
+      <c r="I250" t="s" s="41">
+        <v>38</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="35"/>
-      <c r="B251" s="35"/>
-      <c r="C251" s="35"/>
-      <c r="D251" s="35"/>
-      <c r="E251" s="35"/>
-      <c r="F251" s="35"/>
-      <c r="G251" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H251" t="s" s="20">
+      <c r="C251" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D251" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="E251" s="41"/>
+      <c r="F251" s="41"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D252" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="I251" t="s" s="41">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="C252" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D252" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="E252" s="41"/>
-      <c r="F252" s="41"/>
+      <c r="E252" s="35"/>
+      <c r="F252" s="35"/>
+      <c r="J252" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="K252" t="s" s="35">
+        <v>335</v>
+      </c>
+      <c r="L252" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="253">
-      <c r="C253" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D253" s="35" t="s">
-        <v>350</v>
-      </c>
+      <c r="A253" s="35"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="35"/>
+      <c r="D253" s="35"/>
       <c r="E253" s="35"/>
       <c r="F253" s="35"/>
-      <c r="J253" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="K253" t="s" s="35">
-        <v>337</v>
-      </c>
-      <c r="L253" t="s" s="11">
-        <v>6</v>
+      <c r="G253" s="35"/>
+      <c r="H253" s="35"/>
+      <c r="I253" s="35"/>
+      <c r="J253" t="s" s="36">
+        <v>317</v>
+      </c>
+      <c r="K253" t="s" s="36">
+        <v>349</v>
+      </c>
+      <c r="L253" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -6360,11 +6349,11 @@
       <c r="G254" s="35"/>
       <c r="H254" s="35"/>
       <c r="I254" s="35"/>
-      <c r="J254" t="s" s="36">
-        <v>319</v>
-      </c>
-      <c r="K254" t="s" s="36">
-        <v>351</v>
+      <c r="J254" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="K254" t="s" s="35">
+        <v>338</v>
       </c>
       <c r="L254" t="s" s="17">
         <v>3</v>
@@ -6381,220 +6370,220 @@
       <c r="H255" s="35"/>
       <c r="I255" s="35"/>
       <c r="J255" t="s" s="35">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K255" t="s" s="35">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L255" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="35"/>
-      <c r="B256" s="35"/>
-      <c r="C256" s="35"/>
-      <c r="D256" s="35"/>
-      <c r="E256" s="35"/>
+      <c r="D256" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="E256" s="35" t="s">
+        <v>350</v>
+      </c>
       <c r="F256" s="35"/>
-      <c r="G256" s="35"/>
-      <c r="H256" s="35"/>
-      <c r="I256" s="35"/>
+      <c r="G256" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H256" t="s" s="41">
+        <v>342</v>
+      </c>
+      <c r="I256" t="s" s="35">
+        <v>351</v>
+      </c>
       <c r="J256" t="s" s="35">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K256" t="s" s="35">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L256" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="257">
-      <c r="D257" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="E257" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F257" s="35"/>
+      <c r="E257" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="F257" s="31" t="s">
+        <v>353</v>
+      </c>
       <c r="G257" t="s" s="41">
         <v>0</v>
       </c>
       <c r="H257" t="s" s="41">
-        <v>344</v>
-      </c>
-      <c r="I257" t="s" s="35">
-        <v>353</v>
-      </c>
-      <c r="J257" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="K257" t="s" s="35">
+        <v>14</v>
+      </c>
+      <c r="I257" t="s" s="41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="31"/>
+      <c r="B258" s="31"/>
+      <c r="C258" s="31"/>
+      <c r="D258" s="31"/>
+      <c r="E258" s="31"/>
+      <c r="F258" s="31"/>
+      <c r="G258" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H258" t="s" s="19">
         <v>354</v>
       </c>
-      <c r="L257" t="s" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="E258" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="F258" s="31" t="s">
+      <c r="I258" t="s" s="19">
         <v>355</v>
       </c>
-      <c r="G258" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H258" t="s" s="41">
-        <v>14</v>
-      </c>
-      <c r="I258" t="s" s="41">
-        <v>15</v>
-      </c>
     </row>
     <row r="259">
-      <c r="A259" s="31"/>
-      <c r="B259" s="31"/>
-      <c r="C259" s="31"/>
-      <c r="D259" s="31"/>
-      <c r="E259" s="31"/>
-      <c r="F259" s="31"/>
-      <c r="G259" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H259" t="s" s="19">
+      <c r="E259" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F259" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="I259" t="s" s="19">
+    </row>
+    <row r="260">
+      <c r="D260" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E260" s="19" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="260">
-      <c r="E260" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F260" s="19" t="s">
+      <c r="F260" s="19"/>
+    </row>
+    <row r="261">
+      <c r="D261" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E261" s="41" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="261">
-      <c r="D261" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E261" s="19" t="s">
+      <c r="F261" s="41"/>
+      <c r="G261" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="H261" t="s" s="35">
         <v>359</v>
       </c>
-      <c r="F261" s="19"/>
+      <c r="I261" t="s" s="35">
+        <v>360</v>
+      </c>
     </row>
     <row r="262">
-      <c r="D262" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E262" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="F262" s="41"/>
-      <c r="G262" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="H262" t="s" s="35">
+      <c r="E262" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F262" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="I262" t="s" s="35">
+    </row>
+    <row r="263">
+      <c r="D263" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E263" s="41" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="263">
-      <c r="E263" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F263" s="19" t="s">
-        <v>363</v>
-      </c>
+      <c r="F263" s="41"/>
     </row>
     <row r="264">
-      <c r="D264" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E264" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="F264" s="41"/>
+      <c r="D264" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E264" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="F264" s="19"/>
     </row>
     <row r="265">
       <c r="D265" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E265" s="19" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F265" s="19"/>
     </row>
     <row r="266">
-      <c r="D266" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E266" s="19" t="s">
+      <c r="C266" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D266" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="E266" s="35"/>
+      <c r="F266" s="35"/>
+    </row>
+    <row r="267">
+      <c r="D267" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E267" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="F266" s="19"/>
-    </row>
-    <row r="267">
-      <c r="C267" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D267" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="E267" s="35"/>
-      <c r="F267" s="35"/>
+      <c r="F267" s="19"/>
     </row>
     <row r="268">
       <c r="D268" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E268" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="F268" s="19"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D269" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="F268" s="19"/>
-    </row>
-    <row r="269">
-      <c r="D269" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E269" s="19" t="s">
+      <c r="E269" s="35"/>
+      <c r="F269" s="35"/>
+      <c r="G269" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H269" t="s" s="41">
+        <v>323</v>
+      </c>
+      <c r="I269" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J269" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="K269" t="s" s="35">
         <v>368</v>
       </c>
-      <c r="F269" s="19"/>
+      <c r="L269" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="270">
-      <c r="C270" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D270" s="35" t="s">
-        <v>369</v>
-      </c>
+      <c r="A270" s="35"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="35"/>
+      <c r="D270" s="35"/>
       <c r="E270" s="35"/>
       <c r="F270" s="35"/>
-      <c r="G270" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H270" t="s" s="41">
-        <v>325</v>
-      </c>
-      <c r="I270" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J270" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="K270" t="s" s="35">
-        <v>370</v>
-      </c>
-      <c r="L270" t="s" s="17">
-        <v>3</v>
+      <c r="G270" s="35"/>
+      <c r="H270" s="35"/>
+      <c r="I270" s="35"/>
+      <c r="J270" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K270" t="s" s="19">
+        <v>369</v>
+      </c>
+      <c r="L270" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="271">
@@ -6607,14 +6596,14 @@
       <c r="G271" s="35"/>
       <c r="H271" s="35"/>
       <c r="I271" s="35"/>
-      <c r="J271" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K271" t="s" s="19">
-        <v>371</v>
-      </c>
-      <c r="L271" t="s" s="11">
-        <v>6</v>
+      <c r="J271" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="K271" t="s" s="35">
+        <v>370</v>
+      </c>
+      <c r="L271" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -6627,227 +6616,227 @@
       <c r="G272" s="35"/>
       <c r="H272" s="35"/>
       <c r="I272" s="35"/>
-      <c r="J272" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="K272" t="s" s="35">
-        <v>372</v>
+      <c r="J272" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K272" t="s" s="41">
+        <v>371</v>
       </c>
       <c r="L272" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="35"/>
-      <c r="B273" s="35"/>
-      <c r="C273" s="35"/>
-      <c r="D273" s="35"/>
-      <c r="E273" s="35"/>
+      <c r="D273" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="E273" s="35" t="s">
+        <v>372</v>
+      </c>
       <c r="F273" s="35"/>
-      <c r="G273" s="35"/>
-      <c r="H273" s="35"/>
-      <c r="I273" s="35"/>
-      <c r="J273" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K273" t="s" s="41">
+    </row>
+    <row r="274">
+      <c r="C274" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D274" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="L273" t="s" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="D274" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="E274" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="F274" s="35"/>
+      <c r="E274" s="19"/>
+      <c r="F274" s="19"/>
     </row>
     <row r="275">
       <c r="C275" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D275" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E275" s="19"/>
       <c r="F275" s="19"/>
     </row>
     <row r="276">
-      <c r="C276" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D276" s="19" t="s">
+      <c r="C276" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D276" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="E276" s="35"/>
+      <c r="F276" s="35"/>
+      <c r="G276" t="s" s="25">
         <v>376</v>
       </c>
-      <c r="E276" s="19"/>
-      <c r="F276" s="19"/>
+      <c r="H276" t="s" s="25">
+        <v>377</v>
+      </c>
+      <c r="I276" t="s" s="35">
+        <v>51</v>
+      </c>
     </row>
     <row r="277">
-      <c r="C277" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D277" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="E277" s="35"/>
-      <c r="F277" s="35"/>
-      <c r="G277" t="s" s="25">
+      <c r="D277" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E277" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="H277" t="s" s="25">
+      <c r="F277" s="19"/>
+    </row>
+    <row r="278">
+      <c r="D278" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="E278" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="I277" t="s" s="35">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="D278" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E278" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="F278" s="19"/>
+      <c r="F278" s="35"/>
     </row>
     <row r="279">
       <c r="D279" s="35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E279" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="F279" s="35"/>
+      <c r="G279" t="s" s="25">
+        <v>376</v>
+      </c>
+      <c r="H279" t="s" s="25">
+        <v>377</v>
+      </c>
+      <c r="I279" t="s" s="35">
         <v>381</v>
       </c>
-      <c r="F279" s="35"/>
+      <c r="J279" t="s" s="36">
+        <v>317</v>
+      </c>
+      <c r="K279" t="s" s="36">
+        <v>349</v>
+      </c>
+      <c r="L279" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="280">
-      <c r="D280" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="E280" s="35" t="s">
+      <c r="C280" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D280" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="F280" s="35"/>
-      <c r="G280" t="s" s="25">
-        <v>378</v>
-      </c>
-      <c r="H280" t="s" s="25">
-        <v>379</v>
-      </c>
-      <c r="I280" t="s" s="35">
+      <c r="E280" s="41"/>
+      <c r="F280" s="41"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D281" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="J280" t="s" s="36">
-        <v>319</v>
-      </c>
-      <c r="K280" t="s" s="36">
-        <v>351</v>
-      </c>
-      <c r="L280" t="s" s="17">
+      <c r="E281" s="19"/>
+      <c r="F281" s="19"/>
+      <c r="G281" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H281" t="s" s="20">
+        <v>384</v>
+      </c>
+      <c r="I281" t="s" s="45">
+        <v>195</v>
+      </c>
+      <c r="J281" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K281" t="s" s="19">
+        <v>385</v>
+      </c>
+      <c r="L281" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="C282" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D282" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="E282" s="41"/>
+      <c r="F282" s="41"/>
+      <c r="G282" t="s" s="25">
+        <v>387</v>
+      </c>
+      <c r="H282" t="s" s="25">
+        <v>388</v>
+      </c>
+      <c r="I282" t="s" s="35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="C283" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D283" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="E283" s="35"/>
+      <c r="F283" s="35"/>
+      <c r="G283" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H283" t="s" s="41">
+        <v>323</v>
+      </c>
+      <c r="I283" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J283" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K283" t="s" s="41">
+        <v>371</v>
+      </c>
+      <c r="L283" t="s" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="281">
-      <c r="C281" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D281" s="41" t="s">
-        <v>384</v>
-      </c>
-      <c r="E281" s="41"/>
-      <c r="F281" s="41"/>
-    </row>
-    <row r="282">
-      <c r="C282" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D282" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="E282" s="19"/>
-      <c r="F282" s="19"/>
-      <c r="G282" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H282" t="s" s="20">
-        <v>386</v>
-      </c>
-      <c r="I282" t="s" s="45">
-        <v>195</v>
-      </c>
-      <c r="J282" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K282" t="s" s="19">
-        <v>387</v>
-      </c>
-      <c r="L282" t="s" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="C283" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D283" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="E283" s="41"/>
-      <c r="F283" s="41"/>
-      <c r="G283" t="s" s="25">
-        <v>389</v>
-      </c>
-      <c r="H283" t="s" s="25">
+    <row r="284">
+      <c r="D284" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="E284" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="I283" t="s" s="35">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="C284" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D284" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="E284" s="35"/>
       <c r="F284" s="35"/>
-      <c r="G284" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H284" t="s" s="41">
-        <v>325</v>
-      </c>
-      <c r="I284" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J284" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K284" t="s" s="41">
-        <v>373</v>
+      <c r="J284" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="K284" t="s" s="35">
+        <v>368</v>
       </c>
       <c r="L284" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="285">
-      <c r="D285" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="E285" s="35" t="s">
-        <v>392</v>
-      </c>
+      <c r="A285" s="35"/>
+      <c r="B285" s="35"/>
+      <c r="C285" s="35"/>
+      <c r="D285" s="35"/>
+      <c r="E285" s="35"/>
       <c r="F285" s="35"/>
+      <c r="G285" s="35"/>
+      <c r="H285" s="35"/>
+      <c r="I285" s="35"/>
       <c r="J285" t="s" s="35">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K285" t="s" s="35">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="L285" t="s" s="17">
         <v>3</v>
@@ -6864,118 +6853,124 @@
       <c r="H286" s="35"/>
       <c r="I286" s="35"/>
       <c r="J286" t="s" s="35">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K286" t="s" s="35">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L286" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="35"/>
-      <c r="B287" s="35"/>
-      <c r="C287" s="35"/>
-      <c r="D287" s="35"/>
-      <c r="E287" s="35"/>
-      <c r="F287" s="35"/>
-      <c r="G287" s="35"/>
-      <c r="H287" s="35"/>
-      <c r="I287" s="35"/>
-      <c r="J287" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="K287" t="s" s="35">
-        <v>343</v>
-      </c>
-      <c r="L287" t="s" s="17">
-        <v>3</v>
+      <c r="E287" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="F287" s="35" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="288">
-      <c r="E288" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="F288" s="35" t="s">
+      <c r="C288" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D288" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="E288" s="19"/>
+      <c r="F288" s="19"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D289" s="45" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="289">
-      <c r="C289" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D289" s="19" t="s">
+      <c r="E289" s="45"/>
+      <c r="F289" s="45"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D290" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="E289" s="19"/>
-      <c r="F289" s="19"/>
-    </row>
-    <row r="290">
-      <c r="C290" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D290" s="45" t="s">
+      <c r="E290" s="19"/>
+      <c r="F290" s="19"/>
+    </row>
+    <row r="291">
+      <c r="D291" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E291" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="E290" s="45"/>
-      <c r="F290" s="45"/>
-    </row>
-    <row r="291">
-      <c r="C291" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D291" s="19" t="s">
+      <c r="F291" s="19"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D292" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="E291" s="19"/>
-      <c r="F291" s="19"/>
-    </row>
-    <row r="292">
-      <c r="D292" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E292" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="F292" s="19"/>
+      <c r="E292" s="35"/>
+      <c r="F292" s="35"/>
     </row>
     <row r="293">
       <c r="C293" s="35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D293" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E293" s="35"/>
       <c r="F293" s="35"/>
+      <c r="G293" t="s" s="42">
+        <v>0</v>
+      </c>
+      <c r="H293" t="s" s="42">
+        <v>398</v>
+      </c>
+      <c r="I293" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J293" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K293" t="s" s="41">
+        <v>77</v>
+      </c>
+      <c r="L293" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="294">
-      <c r="C294" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D294" s="35" t="s">
-        <v>399</v>
-      </c>
+      <c r="A294" s="35"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="35"/>
+      <c r="D294" s="35"/>
       <c r="E294" s="35"/>
       <c r="F294" s="35"/>
-      <c r="G294" t="s" s="42">
-        <v>0</v>
-      </c>
-      <c r="H294" t="s" s="42">
-        <v>400</v>
-      </c>
-      <c r="I294" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J294" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K294" t="s" s="41">
-        <v>77</v>
-      </c>
-      <c r="L294" t="s" s="17">
-        <v>3</v>
+      <c r="G294" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H294" t="s" s="41">
+        <v>14</v>
+      </c>
+      <c r="I294" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J294" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K294" t="s" s="19">
+        <v>399</v>
+      </c>
+      <c r="L294" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="295">
@@ -6985,23 +6980,14 @@
       <c r="D295" s="35"/>
       <c r="E295" s="35"/>
       <c r="F295" s="35"/>
-      <c r="G295" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H295" t="s" s="41">
-        <v>14</v>
+      <c r="G295" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H295" t="s" s="19">
+        <v>400</v>
       </c>
       <c r="I295" t="s" s="41">
         <v>15</v>
-      </c>
-      <c r="J295" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K295" t="s" s="19">
-        <v>401</v>
-      </c>
-      <c r="L295" t="s" s="11">
-        <v>6</v>
       </c>
     </row>
     <row r="296">
@@ -7015,10 +7001,10 @@
         <v>4</v>
       </c>
       <c r="H296" t="s" s="19">
-        <v>402</v>
-      </c>
-      <c r="I296" t="s" s="41">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="I296" t="s" s="19">
+        <v>158</v>
       </c>
     </row>
     <row r="297">
@@ -7028,14 +7014,14 @@
       <c r="D297" s="35"/>
       <c r="E297" s="35"/>
       <c r="F297" s="35"/>
-      <c r="G297" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H297" t="s" s="19">
-        <v>82</v>
-      </c>
-      <c r="I297" t="s" s="19">
-        <v>158</v>
+      <c r="G297" t="s" s="5">
+        <v>88</v>
+      </c>
+      <c r="H297" t="s" s="5">
+        <v>89</v>
+      </c>
+      <c r="I297" t="s" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="298">
@@ -7045,14 +7031,14 @@
       <c r="D298" s="35"/>
       <c r="E298" s="35"/>
       <c r="F298" s="35"/>
-      <c r="G298" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="H298" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="I298" t="s" s="5">
-        <v>90</v>
+      <c r="G298" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H298" t="s" s="19">
+        <v>401</v>
+      </c>
+      <c r="I298" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="299">
@@ -7062,14 +7048,14 @@
       <c r="D299" s="35"/>
       <c r="E299" s="35"/>
       <c r="F299" s="35"/>
-      <c r="G299" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H299" t="s" s="19">
+      <c r="G299" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H299" t="s" s="20">
+        <v>402</v>
+      </c>
+      <c r="I299" t="s" s="19">
         <v>403</v>
-      </c>
-      <c r="I299" t="s" s="45">
-        <v>18</v>
       </c>
     </row>
     <row r="300">
@@ -7085,8 +7071,8 @@
       <c r="H300" t="s" s="20">
         <v>404</v>
       </c>
-      <c r="I300" t="s" s="19">
-        <v>405</v>
+      <c r="I300" t="s" s="45">
+        <v>195</v>
       </c>
     </row>
     <row r="301">
@@ -7096,60 +7082,60 @@
       <c r="D301" s="35"/>
       <c r="E301" s="35"/>
       <c r="F301" s="35"/>
-      <c r="G301" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H301" t="s" s="20">
-        <v>406</v>
+      <c r="G301" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H301" t="s" s="41">
+        <v>323</v>
       </c>
       <c r="I301" t="s" s="45">
-        <v>195</v>
+        <v>18</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="35"/>
-      <c r="B302" s="35"/>
-      <c r="C302" s="35"/>
-      <c r="D302" s="35"/>
-      <c r="E302" s="35"/>
-      <c r="F302" s="35"/>
-      <c r="G302" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H302" t="s" s="41">
-        <v>325</v>
-      </c>
-      <c r="I302" t="s" s="45">
-        <v>18</v>
-      </c>
+      <c r="C302" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D302" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="E302" s="19"/>
+      <c r="F302" s="19"/>
     </row>
     <row r="303">
-      <c r="C303" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D303" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="E303" s="19"/>
-      <c r="F303" s="19"/>
+      <c r="C303" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D303" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="E303" s="35"/>
+      <c r="F303" s="35"/>
+      <c r="G303" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H303" t="s" s="41">
+        <v>279</v>
+      </c>
+      <c r="I303" t="s" s="41">
+        <v>15</v>
+      </c>
     </row>
     <row r="304">
-      <c r="C304" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D304" s="35" t="s">
-        <v>407</v>
-      </c>
+      <c r="A304" s="35"/>
+      <c r="B304" s="35"/>
+      <c r="C304" s="35"/>
+      <c r="D304" s="35"/>
       <c r="E304" s="35"/>
       <c r="F304" s="35"/>
-      <c r="G304" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H304" t="s" s="41">
-        <v>281</v>
-      </c>
-      <c r="I304" t="s" s="41">
-        <v>15</v>
+      <c r="G304" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="H304" t="s" s="35">
+        <v>406</v>
+      </c>
+      <c r="I304" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="305">
@@ -7159,65 +7145,66 @@
       <c r="D305" s="35"/>
       <c r="E305" s="35"/>
       <c r="F305" s="35"/>
-      <c r="G305" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="H305" t="s" s="35">
-        <v>408</v>
+      <c r="G305" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H305" t="s" s="41">
+        <v>323</v>
       </c>
       <c r="I305" t="s" s="45">
         <v>18</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="35"/>
-      <c r="B306" s="35"/>
-      <c r="C306" s="35"/>
-      <c r="D306" s="35"/>
-      <c r="E306" s="35"/>
-      <c r="F306" s="35"/>
-      <c r="G306" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H306" t="s" s="41">
-        <v>325</v>
-      </c>
-      <c r="I306" t="s" s="45">
-        <v>18</v>
-      </c>
+      <c r="D306" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E306" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="F306" s="19"/>
     </row>
     <row r="307">
-      <c r="D307" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="E307" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="F307" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="F307" s="19" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="308">
       <c r="E308" s="19" t="s">
         <v>4</v>
       </c>
       <c r="F308" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="G308" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H308" t="s" s="19">
+        <v>336</v>
+      </c>
+      <c r="I308" t="s" s="19">
         <v>410</v>
       </c>
     </row>
     <row r="309">
+      <c r="D309" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="E309" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F309" s="19" t="s">
         <v>411</v>
       </c>
+      <c r="F309" s="19"/>
       <c r="G309" t="s" s="19">
         <v>4</v>
       </c>
       <c r="H309" t="s" s="19">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="I309" t="s" s="19">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="310">
@@ -7225,27 +7212,27 @@
         <v>4</v>
       </c>
       <c r="E310" s="19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F310" s="19"/>
-      <c r="G310" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H310" t="s" s="19">
-        <v>414</v>
-      </c>
-      <c r="I310" t="s" s="19">
+      <c r="G310" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H310" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="I310" t="s" s="41">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="D311" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E311" s="41" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="311">
-      <c r="D311" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E311" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="F311" s="19"/>
+      <c r="F311" s="41"/>
       <c r="G311" t="s" s="41">
         <v>0</v>
       </c>
@@ -7253,90 +7240,81 @@
         <v>37</v>
       </c>
       <c r="I311" t="s" s="41">
-        <v>65</v>
+        <v>416</v>
       </c>
     </row>
     <row r="312">
-      <c r="D312" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E312" s="41" t="s">
+      <c r="D312" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E312" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="F312" s="41"/>
-      <c r="G312" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H312" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I312" t="s" s="41">
+      <c r="F312" s="19"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D313" s="35" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="313">
-      <c r="D313" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E313" s="19" t="s">
+      <c r="E313" s="35"/>
+      <c r="F313" s="35"/>
+      <c r="G313" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H313" t="s" s="20">
         <v>419</v>
       </c>
-      <c r="F313" s="19"/>
+      <c r="I313" t="s" s="45">
+        <v>195</v>
+      </c>
+      <c r="J313" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K313" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L313" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="314">
-      <c r="C314" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D314" s="35" t="s">
-        <v>420</v>
-      </c>
+      <c r="A314" s="35"/>
+      <c r="B314" s="35"/>
+      <c r="C314" s="35"/>
+      <c r="D314" s="35"/>
       <c r="E314" s="35"/>
       <c r="F314" s="35"/>
-      <c r="G314" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H314" t="s" s="20">
-        <v>421</v>
-      </c>
-      <c r="I314" t="s" s="45">
-        <v>195</v>
-      </c>
+      <c r="G314" s="35"/>
+      <c r="H314" s="35"/>
+      <c r="I314" s="35"/>
       <c r="J314" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K314" t="s" s="41">
-        <v>2</v>
+        <v>371</v>
       </c>
       <c r="L314" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="35"/>
-      <c r="B315" s="35"/>
-      <c r="C315" s="35"/>
-      <c r="D315" s="35"/>
-      <c r="E315" s="35"/>
-      <c r="F315" s="35"/>
-      <c r="G315" s="35"/>
-      <c r="H315" s="35"/>
-      <c r="I315" s="35"/>
-      <c r="J315" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K315" t="s" s="41">
-        <v>373</v>
-      </c>
-      <c r="L315" t="s" s="17">
-        <v>3</v>
-      </c>
+      <c r="D315" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E315" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="F315" s="19"/>
     </row>
     <row r="316">
       <c r="D316" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E316" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F316" s="19"/>
     </row>
@@ -7345,105 +7323,122 @@
         <v>4</v>
       </c>
       <c r="E317" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="F317" s="19"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D318" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="F317" s="19"/>
-    </row>
-    <row r="318">
-      <c r="D318" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E318" s="19" t="s">
+      <c r="E318" s="35"/>
+      <c r="F318" s="35"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C319" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="F318" s="19"/>
-    </row>
-    <row r="319">
-      <c r="C319" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D319" s="35" t="s">
+      <c r="D319" s="31"/>
+      <c r="E319" s="31"/>
+      <c r="F319" s="31"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="D320" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="E319" s="35"/>
-      <c r="F319" s="35"/>
-    </row>
-    <row r="320">
-      <c r="B320" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="C320" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="D320" s="31"/>
       <c r="E320" s="31"/>
       <c r="F320" s="31"/>
     </row>
     <row r="321">
-      <c r="C321" s="31" t="s">
-        <v>316</v>
-      </c>
       <c r="D321" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="E321" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="F321" s="31"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="E321" s="31"/>
-      <c r="F321" s="31"/>
-    </row>
-    <row r="322">
-      <c r="D322" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="E322" s="31" t="s">
+      <c r="D322" s="19"/>
+      <c r="E322" s="19"/>
+      <c r="F322" s="19"/>
+      <c r="G322" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H322" t="s" s="41">
+        <v>279</v>
+      </c>
+      <c r="I322" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="J322" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K322" t="s" s="19">
         <v>428</v>
       </c>
-      <c r="F322" s="31"/>
+      <c r="L322" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="323">
-      <c r="B323" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="C323" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D323" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="D323" s="19"/>
       <c r="E323" s="19"/>
       <c r="F323" s="19"/>
-      <c r="G323" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H323" t="s" s="41">
-        <v>281</v>
-      </c>
-      <c r="I323" t="s" s="41">
-        <v>15</v>
+      <c r="G323" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H323" t="s" s="19">
+        <v>430</v>
+      </c>
+      <c r="I323" t="s" s="11">
+        <v>431</v>
       </c>
       <c r="J323" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K323" t="s" s="19">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L323" t="s" s="11">
-        <v>6</v>
+        <v>431</v>
       </c>
     </row>
     <row r="324">
-      <c r="C324" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D324" s="19" t="s">
-        <v>431</v>
-      </c>
+      <c r="A324" s="19"/>
+      <c r="B324" s="19"/>
+      <c r="C324" s="19"/>
+      <c r="D324" s="19"/>
       <c r="E324" s="19"/>
       <c r="F324" s="19"/>
       <c r="G324" t="s" s="19">
         <v>4</v>
       </c>
       <c r="H324" t="s" s="19">
-        <v>432</v>
-      </c>
-      <c r="I324" t="s" s="11">
         <v>433</v>
+      </c>
+      <c r="I324" t="s" s="45">
+        <v>12</v>
       </c>
       <c r="J324" t="s" s="19">
         <v>4</v>
@@ -7452,146 +7447,140 @@
         <v>434</v>
       </c>
       <c r="L324" t="s" s="11">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="19"/>
-      <c r="B325" s="19"/>
-      <c r="C325" s="19"/>
-      <c r="D325" s="19"/>
+      <c r="C325" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D325" s="19" t="s">
+        <v>435</v>
+      </c>
       <c r="E325" s="19"/>
       <c r="F325" s="19"/>
-      <c r="G325" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H325" t="s" s="19">
-        <v>435</v>
-      </c>
-      <c r="I325" t="s" s="45">
-        <v>12</v>
-      </c>
-      <c r="J325" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K325" t="s" s="19">
+    </row>
+    <row r="326">
+      <c r="D326" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E326" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="L325" t="s" s="11">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="C326" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D326" s="19" t="s">
+      <c r="F326" s="19"/>
+      <c r="J326" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K326" t="s" s="20">
         <v>437</v>
       </c>
-      <c r="E326" s="19"/>
-      <c r="F326" s="19"/>
+      <c r="L326" t="s" s="11">
+        <v>102</v>
+      </c>
     </row>
     <row r="327">
-      <c r="D327" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E327" s="19" t="s">
+      <c r="A327" s="19"/>
+      <c r="B327" s="19"/>
+      <c r="C327" s="19"/>
+      <c r="D327" s="19"/>
+      <c r="E327" s="19"/>
+      <c r="F327" s="19"/>
+      <c r="G327" s="19"/>
+      <c r="H327" s="19"/>
+      <c r="I327" s="19"/>
+      <c r="J327" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K327" t="s" s="20">
         <v>438</v>
       </c>
-      <c r="F327" s="19"/>
-      <c r="J327" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K327" t="s" s="20">
+      <c r="L327" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="E328" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F328" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="L327" t="s" s="11">
+      <c r="J328" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K328" t="s" s="19">
+        <v>437</v>
+      </c>
+      <c r="L328" t="s" s="11">
         <v>102</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="19"/>
-      <c r="B328" s="19"/>
-      <c r="C328" s="19"/>
-      <c r="D328" s="19"/>
-      <c r="E328" s="19"/>
-      <c r="F328" s="19"/>
-      <c r="G328" s="19"/>
-      <c r="H328" s="19"/>
-      <c r="I328" s="19"/>
-      <c r="J328" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K328" t="s" s="20">
+    <row r="329">
+      <c r="A329" s="19"/>
+      <c r="B329" s="19"/>
+      <c r="C329" s="19"/>
+      <c r="D329" s="19"/>
+      <c r="E329" s="19"/>
+      <c r="F329" s="19"/>
+      <c r="G329" s="19"/>
+      <c r="H329" s="19"/>
+      <c r="I329" s="19"/>
+      <c r="J329" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K329" t="s" s="19">
+        <v>438</v>
+      </c>
+      <c r="L329" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="C330" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D330" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="L328" t="s" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="E329" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F329" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="J329" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K329" t="s" s="19">
-        <v>439</v>
-      </c>
-      <c r="L329" t="s" s="11">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="19"/>
-      <c r="B330" s="19"/>
-      <c r="C330" s="19"/>
-      <c r="D330" s="19"/>
       <c r="E330" s="19"/>
       <c r="F330" s="19"/>
-      <c r="G330" s="19"/>
-      <c r="H330" s="19"/>
-      <c r="I330" s="19"/>
+      <c r="G330" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H330" t="s" s="19">
+        <v>433</v>
+      </c>
+      <c r="I330" t="s" s="31">
+        <v>441</v>
+      </c>
       <c r="J330" t="s" s="19">
         <v>4</v>
       </c>
       <c r="K330" t="s" s="19">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L330" t="s" s="11">
-        <v>6</v>
+        <v>431</v>
       </c>
     </row>
     <row r="331">
-      <c r="C331" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D331" s="19" t="s">
-        <v>442</v>
-      </c>
+      <c r="A331" s="19"/>
+      <c r="B331" s="19"/>
+      <c r="C331" s="19"/>
+      <c r="D331" s="19"/>
       <c r="E331" s="19"/>
       <c r="F331" s="19"/>
-      <c r="G331" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H331" t="s" s="19">
-        <v>435</v>
-      </c>
-      <c r="I331" t="s" s="31">
+      <c r="G331" s="19"/>
+      <c r="H331" s="19"/>
+      <c r="I331" s="19"/>
+      <c r="J331" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K331" t="s" s="19">
+        <v>442</v>
+      </c>
+      <c r="L331" t="s" s="11">
         <v>443</v>
-      </c>
-      <c r="J331" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K331" t="s" s="19">
-        <v>434</v>
-      </c>
-      <c r="L331" t="s" s="11">
-        <v>433</v>
       </c>
     </row>
     <row r="332">
@@ -7604,13 +7593,16 @@
       <c r="G332" s="19"/>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
-      <c r="J332" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K332" t="s" s="19">
+      <c r="J332" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K332" t="s" s="20">
         <v>444</v>
       </c>
       <c r="L332" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="M332" t="s" s="11">
         <v>445</v>
       </c>
     </row>
@@ -7624,56 +7616,59 @@
       <c r="G333" s="19"/>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
-      <c r="J333" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K333" t="s" s="20">
+      <c r="J333" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K333" t="s" s="19">
         <v>446</v>
       </c>
       <c r="L333" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="M333" t="s" s="11">
+    </row>
+    <row r="334">
+      <c r="C334" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D334" s="19" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="19"/>
-      <c r="B334" s="19"/>
-      <c r="C334" s="19"/>
-      <c r="D334" s="19"/>
       <c r="E334" s="19"/>
       <c r="F334" s="19"/>
-      <c r="G334" s="19"/>
-      <c r="H334" s="19"/>
-      <c r="I334" s="19"/>
-      <c r="J334" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K334" t="s" s="19">
+    </row>
+    <row r="335">
+      <c r="A335" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B335" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="L334" t="s" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="C335" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D335" s="19" t="s">
-        <v>449</v>
-      </c>
+      <c r="C335" s="19"/>
+      <c r="D335" s="19"/>
       <c r="E335" s="19"/>
       <c r="F335" s="19"/>
+      <c r="G335" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H335" t="s" s="19">
+        <v>293</v>
+      </c>
+      <c r="I335" t="s" s="19">
+        <v>294</v>
+      </c>
+      <c r="J335" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K335" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="L335" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="336">
-      <c r="A336" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B336" s="19" t="s">
-        <v>450</v>
-      </c>
+      <c r="A336" s="19"/>
+      <c r="B336" s="19"/>
       <c r="C336" s="19"/>
       <c r="D336" s="19"/>
       <c r="E336" s="19"/>
@@ -7682,16 +7677,16 @@
         <v>4</v>
       </c>
       <c r="H336" t="s" s="19">
-        <v>295</v>
-      </c>
-      <c r="I336" t="s" s="19">
-        <v>296</v>
+        <v>82</v>
+      </c>
+      <c r="I336" t="s" s="13">
+        <v>20</v>
       </c>
       <c r="J336" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K336" t="s" s="41">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L336" t="s" s="17">
         <v>3</v>
@@ -7704,23 +7699,23 @@
       <c r="D337" s="19"/>
       <c r="E337" s="19"/>
       <c r="F337" s="19"/>
-      <c r="G337" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H337" t="s" s="19">
-        <v>82</v>
-      </c>
-      <c r="I337" t="s" s="13">
-        <v>20</v>
+      <c r="G337" t="s" s="25">
+        <v>376</v>
+      </c>
+      <c r="H337" t="s" s="25">
+        <v>377</v>
+      </c>
+      <c r="I337" t="s" s="19">
+        <v>449</v>
       </c>
       <c r="J337" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K337" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="L337" t="s" s="17">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="L337" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="338">
@@ -7730,23 +7725,23 @@
       <c r="D338" s="19"/>
       <c r="E338" s="19"/>
       <c r="F338" s="19"/>
-      <c r="G338" t="s" s="25">
-        <v>378</v>
-      </c>
-      <c r="H338" t="s" s="25">
-        <v>379</v>
-      </c>
-      <c r="I338" t="s" s="19">
-        <v>451</v>
+      <c r="G338" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H338" t="s" s="20">
+        <v>450</v>
+      </c>
+      <c r="I338" t="s" s="35">
+        <v>150</v>
       </c>
       <c r="J338" t="s" s="41">
         <v>0</v>
       </c>
       <c r="K338" t="s" s="41">
-        <v>49</v>
-      </c>
-      <c r="L338" t="s" s="11">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="L338" t="s" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -7756,23 +7751,23 @@
       <c r="D339" s="19"/>
       <c r="E339" s="19"/>
       <c r="F339" s="19"/>
-      <c r="G339" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H339" t="s" s="20">
+      <c r="G339" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H339" t="s" s="19">
+        <v>451</v>
+      </c>
+      <c r="I339" t="s" s="19">
         <v>452</v>
       </c>
-      <c r="I339" t="s" s="35">
-        <v>150</v>
-      </c>
-      <c r="J339" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K339" t="s" s="41">
-        <v>77</v>
-      </c>
-      <c r="L339" t="s" s="17">
-        <v>3</v>
+      <c r="J339" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K339" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L339" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="340">
@@ -7789,16 +7784,7 @@
         <v>453</v>
       </c>
       <c r="I340" t="s" s="19">
-        <v>454</v>
-      </c>
-      <c r="J340" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K340" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L340" t="s" s="11">
-        <v>6</v>
+        <v>301</v>
       </c>
     </row>
     <row r="341">
@@ -7808,14 +7794,14 @@
       <c r="D341" s="19"/>
       <c r="E341" s="19"/>
       <c r="F341" s="19"/>
-      <c r="G341" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H341" t="s" s="19">
-        <v>455</v>
-      </c>
-      <c r="I341" t="s" s="19">
-        <v>303</v>
+      <c r="G341" t="s" s="5">
+        <v>88</v>
+      </c>
+      <c r="H341" t="s" s="5">
+        <v>89</v>
+      </c>
+      <c r="I341" t="s" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="342">
@@ -7825,14 +7811,14 @@
       <c r="D342" s="19"/>
       <c r="E342" s="19"/>
       <c r="F342" s="19"/>
-      <c r="G342" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="H342" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="I342" t="s" s="5">
-        <v>90</v>
+      <c r="G342" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H342" t="s" s="19">
+        <v>454</v>
+      </c>
+      <c r="I342" t="s" s="19">
+        <v>455</v>
       </c>
     </row>
     <row r="343">
@@ -7846,10 +7832,10 @@
         <v>4</v>
       </c>
       <c r="H343" t="s" s="19">
+        <v>113</v>
+      </c>
+      <c r="I343" t="s" s="19">
         <v>456</v>
-      </c>
-      <c r="I343" t="s" s="19">
-        <v>457</v>
       </c>
     </row>
     <row r="344">
@@ -7859,14 +7845,14 @@
       <c r="D344" s="19"/>
       <c r="E344" s="19"/>
       <c r="F344" s="19"/>
-      <c r="G344" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H344" t="s" s="19">
-        <v>113</v>
+      <c r="G344" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H344" t="s" s="41">
+        <v>67</v>
       </c>
       <c r="I344" t="s" s="19">
-        <v>458</v>
+        <v>311</v>
       </c>
     </row>
     <row r="345">
@@ -7880,10 +7866,10 @@
         <v>0</v>
       </c>
       <c r="H345" t="s" s="41">
-        <v>67</v>
-      </c>
-      <c r="I345" t="s" s="19">
-        <v>313</v>
+        <v>37</v>
+      </c>
+      <c r="I345" t="s" s="15">
+        <v>59</v>
       </c>
     </row>
     <row r="346">
@@ -7893,20 +7879,23 @@
       <c r="D346" s="19"/>
       <c r="E346" s="19"/>
       <c r="F346" s="19"/>
-      <c r="G346" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H346" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I346" t="s" s="15">
-        <v>59</v>
+      <c r="G346" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H346" t="s" s="19">
+        <v>153</v>
+      </c>
+      <c r="I346" t="s" s="19">
+        <v>457</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="19"/>
-      <c r="B347" s="19"/>
-      <c r="C347" s="19"/>
+      <c r="B347" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" s="19" t="s">
+        <v>458</v>
+      </c>
       <c r="D347" s="19"/>
       <c r="E347" s="19"/>
       <c r="F347" s="19"/>
@@ -7914,76 +7903,67 @@
         <v>4</v>
       </c>
       <c r="H347" t="s" s="19">
-        <v>153</v>
-      </c>
-      <c r="I347" t="s" s="19">
-        <v>459</v>
+        <v>401</v>
+      </c>
+      <c r="I347" t="s" s="45">
+        <v>18</v>
       </c>
     </row>
     <row r="348">
-      <c r="B348" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C348" s="19" t="s">
-        <v>460</v>
-      </c>
+      <c r="A348" s="19"/>
+      <c r="B348" s="19"/>
+      <c r="C348" s="19"/>
       <c r="D348" s="19"/>
       <c r="E348" s="19"/>
       <c r="F348" s="19"/>
-      <c r="G348" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H348" t="s" s="19">
-        <v>403</v>
-      </c>
-      <c r="I348" t="s" s="45">
-        <v>18</v>
+      <c r="G348" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H348" t="s" s="20">
+        <v>454</v>
+      </c>
+      <c r="I348" t="s" s="19">
+        <v>455</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="19"/>
-      <c r="B349" s="19"/>
-      <c r="C349" s="19"/>
-      <c r="D349" s="19"/>
-      <c r="E349" s="19"/>
-      <c r="F349" s="19"/>
+      <c r="A349" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B349" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="C349" s="21"/>
+      <c r="D349" s="21"/>
+      <c r="E349" s="21"/>
+      <c r="F349" s="21"/>
       <c r="G349" t="s" s="20">
         <v>4</v>
       </c>
       <c r="H349" t="s" s="20">
-        <v>456</v>
-      </c>
-      <c r="I349" t="s" s="19">
-        <v>457</v>
+        <v>460</v>
+      </c>
+      <c r="I349" t="s" s="45">
+        <v>12</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="21" t="s">
+      <c r="B350" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B350" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="C350" s="21"/>
+      <c r="C350" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="D350" s="21"/>
       <c r="E350" s="21"/>
       <c r="F350" s="21"/>
-      <c r="G350" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H350" t="s" s="20">
-        <v>462</v>
-      </c>
-      <c r="I350" t="s" s="45">
-        <v>12</v>
-      </c>
     </row>
     <row r="351">
       <c r="B351" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C351" s="21" t="s">
-        <v>69</v>
+        <v>461</v>
       </c>
       <c r="D351" s="21"/>
       <c r="E351" s="21"/>
@@ -7994,7 +7974,7 @@
         <v>45</v>
       </c>
       <c r="C352" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D352" s="21"/>
       <c r="E352" s="21"/>
@@ -8005,77 +7985,83 @@
         <v>45</v>
       </c>
       <c r="C353" s="21" t="s">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="D353" s="21"/>
       <c r="E353" s="21"/>
       <c r="F353" s="21"/>
     </row>
     <row r="354">
-      <c r="B354" s="21" t="s">
+      <c r="A354" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="B354" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="C354" s="27"/>
+      <c r="D354" s="27"/>
+      <c r="E354" s="27"/>
+      <c r="F354" s="27"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C354" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D354" s="21"/>
-      <c r="E354" s="21"/>
-      <c r="F354" s="21"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="27" t="s">
+      <c r="B355" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B355" s="27" t="s">
+      <c r="C355" s="21"/>
+      <c r="D355" s="21"/>
+      <c r="E355" s="21"/>
+      <c r="F355" s="21"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B356" s="41" t="s">
         <v>466</v>
       </c>
-      <c r="C355" s="27"/>
-      <c r="D355" s="27"/>
-      <c r="E355" s="27"/>
-      <c r="F355" s="27"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B356" s="21" t="s">
+      <c r="C356" s="41"/>
+      <c r="D356" s="41"/>
+      <c r="E356" s="41"/>
+      <c r="F356" s="41"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C357" s="41" t="s">
         <v>467</v>
       </c>
-      <c r="C356" s="21"/>
-      <c r="D356" s="21"/>
-      <c r="E356" s="21"/>
-      <c r="F356" s="21"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B357" s="41" t="s">
-        <v>468</v>
-      </c>
-      <c r="C357" s="41"/>
       <c r="D357" s="41"/>
       <c r="E357" s="41"/>
       <c r="F357" s="41"/>
+      <c r="G357" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H357" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I357" t="s" s="41">
+        <v>76</v>
+      </c>
     </row>
     <row r="358">
-      <c r="B358" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C358" s="41" t="s">
-        <v>469</v>
-      </c>
+      <c r="A358" s="41"/>
+      <c r="B358" s="41"/>
+      <c r="C358" s="41"/>
       <c r="D358" s="41"/>
       <c r="E358" s="41"/>
       <c r="F358" s="41"/>
-      <c r="G358" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H358" t="s" s="41">
-        <v>75</v>
+      <c r="G358" t="s" s="42">
+        <v>0</v>
+      </c>
+      <c r="H358" t="s" s="42">
+        <v>468</v>
       </c>
       <c r="I358" t="s" s="41">
-        <v>76</v>
+        <v>469</v>
       </c>
     </row>
     <row r="359">
@@ -8085,14 +8071,14 @@
       <c r="D359" s="41"/>
       <c r="E359" s="41"/>
       <c r="F359" s="41"/>
-      <c r="G359" t="s" s="42">
-        <v>0</v>
-      </c>
-      <c r="H359" t="s" s="42">
+      <c r="G359" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H359" t="s" s="41">
+        <v>19</v>
+      </c>
+      <c r="I359" t="s" s="7">
         <v>470</v>
-      </c>
-      <c r="I359" t="s" s="41">
-        <v>471</v>
       </c>
     </row>
     <row r="360">
@@ -8106,35 +8092,28 @@
         <v>0</v>
       </c>
       <c r="H360" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="I360" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="I360" t="s" s="41">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="C361" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D361" s="41" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="41"/>
-      <c r="B361" s="41"/>
-      <c r="C361" s="41"/>
-      <c r="D361" s="41"/>
       <c r="E361" s="41"/>
       <c r="F361" s="41"/>
-      <c r="G361" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H361" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I361" t="s" s="41">
-        <v>473</v>
-      </c>
     </row>
     <row r="362">
       <c r="C362" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D362" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E362" s="41"/>
       <c r="F362" s="41"/>
@@ -8144,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="D363" s="41" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E363" s="41"/>
       <c r="F363" s="41"/>
@@ -8154,28 +8133,35 @@
         <v>0</v>
       </c>
       <c r="D364" s="41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E364" s="41"/>
       <c r="F364" s="41"/>
     </row>
     <row r="365">
-      <c r="C365" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D365" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="E365" s="41"/>
-      <c r="F365" s="41"/>
+      <c r="B365" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="D365" s="19"/>
+      <c r="E365" s="19"/>
+      <c r="F365" s="19"/>
+      <c r="G365" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H365" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I365" t="s" s="41">
+        <v>76</v>
+      </c>
     </row>
     <row r="366">
-      <c r="B366" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C366" s="19" t="s">
-        <v>478</v>
-      </c>
+      <c r="A366" s="19"/>
+      <c r="B366" s="19"/>
+      <c r="C366" s="19"/>
       <c r="D366" s="19"/>
       <c r="E366" s="19"/>
       <c r="F366" s="19"/>
@@ -8183,10 +8169,10 @@
         <v>0</v>
       </c>
       <c r="H366" t="s" s="41">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="I366" t="s" s="41">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367">
@@ -8200,47 +8186,47 @@
         <v>0</v>
       </c>
       <c r="H367" t="s" s="41">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="I367" t="s" s="41">
-        <v>15</v>
+        <v>477</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="19"/>
-      <c r="B368" s="19"/>
-      <c r="C368" s="19"/>
-      <c r="D368" s="19"/>
-      <c r="E368" s="19"/>
-      <c r="F368" s="19"/>
-      <c r="G368" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H368" t="s" s="41">
-        <v>37</v>
+      <c r="B368" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="D368" s="41"/>
+      <c r="E368" s="41"/>
+      <c r="F368" s="41"/>
+      <c r="G368" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H368" t="s" s="19">
+        <v>479</v>
       </c>
       <c r="I368" t="s" s="41">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="369">
-      <c r="B369" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C369" s="41" t="s">
-        <v>480</v>
-      </c>
+      <c r="A369" s="41"/>
+      <c r="B369" s="41"/>
+      <c r="C369" s="41"/>
       <c r="D369" s="41"/>
       <c r="E369" s="41"/>
       <c r="F369" s="41"/>
-      <c r="G369" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H369" t="s" s="19">
-        <v>481</v>
+      <c r="G369" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H369" t="s" s="41">
+        <v>279</v>
       </c>
       <c r="I369" t="s" s="41">
-        <v>482</v>
+        <v>15</v>
       </c>
     </row>
     <row r="370">
@@ -8254,16 +8240,19 @@
         <v>0</v>
       </c>
       <c r="H370" t="s" s="41">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="I370" t="s" s="41">
-        <v>15</v>
+        <v>481</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="41"/>
-      <c r="B371" s="41"/>
-      <c r="C371" s="41"/>
+      <c r="B371" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C371" s="41" t="s">
+        <v>482</v>
+      </c>
       <c r="D371" s="41"/>
       <c r="E371" s="41"/>
       <c r="F371" s="41"/>
@@ -8271,39 +8260,36 @@
         <v>0</v>
       </c>
       <c r="H371" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I371" t="s" s="41">
         <v>483</v>
       </c>
+      <c r="I371" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="J371" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="K371" t="s" s="35">
+        <v>331</v>
+      </c>
+      <c r="L371" t="s" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="372">
-      <c r="B372" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C372" s="41" t="s">
-        <v>484</v>
-      </c>
+      <c r="A372" s="41"/>
+      <c r="B372" s="41"/>
+      <c r="C372" s="41"/>
       <c r="D372" s="41"/>
       <c r="E372" s="41"/>
       <c r="F372" s="41"/>
-      <c r="G372" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H372" t="s" s="41">
-        <v>485</v>
-      </c>
-      <c r="I372" t="s" s="45">
-        <v>18</v>
-      </c>
-      <c r="J372" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="K372" t="s" s="35">
-        <v>333</v>
-      </c>
-      <c r="L372" t="s" s="17">
-        <v>3</v>
+      <c r="G372" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H372" t="s" s="19">
+        <v>484</v>
+      </c>
+      <c r="I372" t="s" s="7">
+        <v>470</v>
       </c>
     </row>
     <row r="373">
@@ -8313,14 +8299,14 @@
       <c r="D373" s="41"/>
       <c r="E373" s="41"/>
       <c r="F373" s="41"/>
-      <c r="G373" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H373" t="s" s="19">
-        <v>486</v>
-      </c>
-      <c r="I373" t="s" s="7">
-        <v>472</v>
+      <c r="G373" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H373" t="s" s="20">
+        <v>485</v>
+      </c>
+      <c r="I373" t="s" s="41">
+        <v>15</v>
       </c>
     </row>
     <row r="374">
@@ -8330,14 +8316,14 @@
       <c r="D374" s="41"/>
       <c r="E374" s="41"/>
       <c r="F374" s="41"/>
-      <c r="G374" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H374" t="s" s="20">
-        <v>487</v>
+      <c r="G374" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H374" t="s" s="41">
+        <v>75</v>
       </c>
       <c r="I374" t="s" s="41">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="375">
@@ -8351,10 +8337,10 @@
         <v>0</v>
       </c>
       <c r="H375" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I375" t="s" s="41">
-        <v>76</v>
+        <v>19</v>
+      </c>
+      <c r="I375" t="s" s="13">
+        <v>20</v>
       </c>
     </row>
     <row r="376">
@@ -8368,10 +8354,10 @@
         <v>0</v>
       </c>
       <c r="H376" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="I376" t="s" s="13">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="I376" t="s" s="41">
+        <v>486</v>
       </c>
     </row>
     <row r="377">
@@ -8385,35 +8371,28 @@
         <v>0</v>
       </c>
       <c r="H377" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I377" t="s" s="41">
+        <v>487</v>
+      </c>
+      <c r="I377" t="s" s="31">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="C378" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D378" s="19" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="41"/>
-      <c r="B378" s="41"/>
-      <c r="C378" s="41"/>
-      <c r="D378" s="41"/>
-      <c r="E378" s="41"/>
-      <c r="F378" s="41"/>
-      <c r="G378" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H378" t="s" s="41">
-        <v>489</v>
-      </c>
-      <c r="I378" t="s" s="31">
-        <v>63</v>
-      </c>
+      <c r="E378" s="19"/>
+      <c r="F378" s="19"/>
     </row>
     <row r="379">
       <c r="C379" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D379" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E379" s="19"/>
       <c r="F379" s="19"/>
@@ -8423,7 +8402,7 @@
         <v>4</v>
       </c>
       <c r="D380" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E380" s="19"/>
       <c r="F380" s="19"/>
@@ -8433,48 +8412,55 @@
         <v>4</v>
       </c>
       <c r="D381" s="19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E381" s="19"/>
       <c r="F381" s="19"/>
     </row>
     <row r="382">
-      <c r="C382" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D382" s="19" t="s">
+      <c r="B382" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C382" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="D382" s="41"/>
+      <c r="E382" s="41"/>
+      <c r="F382" s="41"/>
+      <c r="G382" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H382" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I382" t="s" s="41">
+        <v>76</v>
+      </c>
+      <c r="J382" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K382" t="s" s="41">
         <v>493</v>
       </c>
-      <c r="E382" s="19"/>
-      <c r="F382" s="19"/>
+      <c r="L382" t="s" s="11">
+        <v>494</v>
+      </c>
     </row>
     <row r="383">
-      <c r="B383" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C383" s="41" t="s">
-        <v>494</v>
-      </c>
+      <c r="A383" s="41"/>
+      <c r="B383" s="41"/>
+      <c r="C383" s="41"/>
       <c r="D383" s="41"/>
       <c r="E383" s="41"/>
       <c r="F383" s="41"/>
-      <c r="G383" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H383" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I383" t="s" s="41">
-        <v>76</v>
-      </c>
-      <c r="J383" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K383" t="s" s="41">
+      <c r="G383" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="H383" t="s" s="20">
         <v>495</v>
       </c>
-      <c r="L383" t="s" s="11">
-        <v>496</v>
+      <c r="I383" t="s" s="45">
+        <v>195</v>
       </c>
     </row>
     <row r="384">
@@ -8484,51 +8470,43 @@
       <c r="D384" s="41"/>
       <c r="E384" s="41"/>
       <c r="F384" s="41"/>
-      <c r="G384" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="H384" t="s" s="20">
-        <v>497</v>
+      <c r="G384" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H384" t="s" s="41">
+        <v>37</v>
       </c>
       <c r="I384" t="s" s="45">
-        <v>195</v>
+        <v>18</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="41"/>
-      <c r="B385" s="41"/>
-      <c r="C385" s="41"/>
-      <c r="D385" s="41"/>
+      <c r="C385" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D385" s="41" t="s">
+        <v>496</v>
+      </c>
       <c r="E385" s="41"/>
       <c r="F385" s="41"/>
-      <c r="G385" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H385" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I385" t="s" s="45">
-        <v>195</v>
-      </c>
     </row>
     <row r="386">
-      <c r="C386" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D386" s="19" t="s">
+      <c r="C386" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D386" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="E386" s="41"/>
+      <c r="F386" s="41"/>
+    </row>
+    <row r="387">
+      <c r="D387" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E387" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="E386" s="19"/>
-      <c r="F386" s="19"/>
-    </row>
-    <row r="387">
-      <c r="C387" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D387" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="E387" s="19"/>
       <c r="F387" s="19"/>
     </row>
     <row r="388">
@@ -8536,200 +8514,253 @@
         <v>0</v>
       </c>
       <c r="D388" s="41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E388" s="41"/>
       <c r="F388" s="41"/>
     </row>
     <row r="389">
-      <c r="C389" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D389" s="41" t="s">
+      <c r="D389" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E389" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="F389" s="19"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D390" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="E389" s="41"/>
-      <c r="F389" s="41"/>
-    </row>
-    <row r="390">
-      <c r="D390" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E390" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="F390" s="19"/>
+      <c r="E390" s="41"/>
+      <c r="F390" s="41"/>
     </row>
     <row r="391">
       <c r="C391" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D391" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E391" s="41"/>
       <c r="F391" s="41"/>
     </row>
     <row r="392">
-      <c r="D392" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E392" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="F392" s="19"/>
+      <c r="D392" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E392" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="F392" s="41"/>
     </row>
     <row r="393">
       <c r="C393" s="41" t="s">
         <v>0</v>
       </c>
       <c r="D393" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E393" s="41"/>
       <c r="F393" s="41"/>
     </row>
     <row r="394">
-      <c r="C394" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D394" s="41" t="s">
+      <c r="C394" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D394" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="E394" s="19"/>
+      <c r="F394" s="19"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="E394" s="41"/>
-      <c r="F394" s="41"/>
-    </row>
-    <row r="395">
-      <c r="D395" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E395" s="41" t="s">
-        <v>507</v>
-      </c>
-      <c r="F395" s="41"/>
+      <c r="D395" s="19"/>
+      <c r="E395" s="19"/>
+      <c r="F395" s="19"/>
+      <c r="G395" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H395" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I395" t="s" s="41">
+        <v>76</v>
+      </c>
     </row>
     <row r="396">
-      <c r="C396" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D396" s="19" t="s">
-        <v>508</v>
-      </c>
+      <c r="A396" s="19"/>
+      <c r="B396" s="19"/>
+      <c r="C396" s="19"/>
+      <c r="D396" s="19"/>
       <c r="E396" s="19"/>
       <c r="F396" s="19"/>
+      <c r="G396" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H396" t="s" s="41">
+        <v>19</v>
+      </c>
+      <c r="I396" t="s" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="397">
-      <c r="C397" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D397" s="19" t="s">
-        <v>509</v>
-      </c>
+      <c r="A397" s="19"/>
+      <c r="B397" s="19"/>
+      <c r="C397" s="19"/>
+      <c r="D397" s="19"/>
       <c r="E397" s="19"/>
       <c r="F397" s="19"/>
+      <c r="G397" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H397" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="I397" t="s" s="19">
+        <v>507</v>
+      </c>
     </row>
     <row r="398">
-      <c r="C398" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D398" s="41" t="s">
-        <v>510</v>
-      </c>
-      <c r="E398" s="41"/>
-      <c r="F398" s="41"/>
+      <c r="B398" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C398" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="D398" s="19"/>
+      <c r="E398" s="19"/>
+      <c r="F398" s="19"/>
+      <c r="G398" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H398" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I398" t="s" s="41">
+        <v>76</v>
+      </c>
     </row>
     <row r="399">
-      <c r="C399" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D399" s="19" t="s">
-        <v>511</v>
-      </c>
+      <c r="A399" s="19"/>
+      <c r="B399" s="19"/>
+      <c r="C399" s="19"/>
+      <c r="D399" s="19"/>
       <c r="E399" s="19"/>
       <c r="F399" s="19"/>
+      <c r="G399" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H399" t="s" s="19">
+        <v>113</v>
+      </c>
+      <c r="I399" t="s" s="35">
+        <v>156</v>
+      </c>
     </row>
     <row r="400">
-      <c r="C400" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D400" s="19" t="s">
-        <v>512</v>
-      </c>
+      <c r="A400" s="19"/>
+      <c r="B400" s="19"/>
+      <c r="C400" s="19"/>
+      <c r="D400" s="19"/>
       <c r="E400" s="19"/>
       <c r="F400" s="19"/>
+      <c r="G400" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H400" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="I400" t="s" s="41">
+        <v>509</v>
+      </c>
     </row>
     <row r="401">
-      <c r="B401" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="C401" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="D401" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="D401" s="19" t="s">
+        <v>510</v>
+      </c>
       <c r="E401" s="19"/>
       <c r="F401" s="19"/>
-      <c r="G401" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H401" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I401" t="s" s="41">
-        <v>76</v>
+      <c r="G401" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H401" t="s" s="19">
+        <v>113</v>
+      </c>
+      <c r="I401" t="s" s="19">
+        <v>511</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="19"/>
-      <c r="B402" s="19"/>
-      <c r="C402" s="19"/>
-      <c r="D402" s="19"/>
+      <c r="C402" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D402" s="19" t="s">
+        <v>512</v>
+      </c>
       <c r="E402" s="19"/>
       <c r="F402" s="19"/>
-      <c r="G402" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H402" t="s" s="41">
-        <v>19</v>
-      </c>
-      <c r="I402" t="s" s="13">
-        <v>20</v>
+      <c r="G402" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H402" t="s" s="19">
+        <v>113</v>
+      </c>
+      <c r="I402" t="s" s="19">
+        <v>513</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="19"/>
-      <c r="B403" s="19"/>
-      <c r="C403" s="19"/>
-      <c r="D403" s="19"/>
+      <c r="C403" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D403" s="19" t="s">
+        <v>514</v>
+      </c>
       <c r="E403" s="19"/>
       <c r="F403" s="19"/>
-      <c r="G403" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H403" t="s" s="41">
-        <v>37</v>
+      <c r="G403" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="H403" t="s" s="19">
+        <v>113</v>
       </c>
       <c r="I403" t="s" s="19">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="404">
+      <c r="A404" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="B404" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C404" s="19" t="s">
-        <v>515</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="C404" s="19"/>
       <c r="D404" s="19"/>
       <c r="E404" s="19"/>
       <c r="F404" s="19"/>
-      <c r="G404" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H404" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I404" t="s" s="41">
-        <v>76</v>
+      <c r="G404" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="H404" t="s" s="35">
+        <v>329</v>
+      </c>
+      <c r="I404" t="s" s="27">
+        <v>330</v>
       </c>
     </row>
     <row r="405">
@@ -8743,345 +8774,289 @@
         <v>4</v>
       </c>
       <c r="H405" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="I405" t="s" s="35">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="I405" t="s" s="19">
+        <v>517</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="19"/>
-      <c r="B406" s="19"/>
-      <c r="C406" s="19"/>
+      <c r="B406" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C406" s="19" t="s">
+        <v>518</v>
+      </c>
       <c r="D406" s="19"/>
       <c r="E406" s="19"/>
       <c r="F406" s="19"/>
-      <c r="G406" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H406" t="s" s="41">
-        <v>37</v>
-      </c>
-      <c r="I406" t="s" s="41">
-        <v>516</v>
-      </c>
     </row>
     <row r="407">
       <c r="C407" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D407" s="19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E407" s="19"/>
       <c r="F407" s="19"/>
-      <c r="G407" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H407" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="I407" t="s" s="19">
-        <v>518</v>
+      <c r="J407" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="K407" t="s" s="20">
+        <v>520</v>
+      </c>
+      <c r="L407" t="s" s="11">
+        <v>431</v>
       </c>
     </row>
     <row r="408">
-      <c r="C408" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D408" s="19" t="s">
-        <v>519</v>
-      </c>
+      <c r="A408" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B408" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="C408" s="19"/>
+      <c r="D408" s="19"/>
       <c r="E408" s="19"/>
       <c r="F408" s="19"/>
-      <c r="G408" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H408" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="I408" t="s" s="19">
-        <v>520</v>
+      <c r="G408" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H408" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I408" t="s" s="41">
+        <v>76</v>
+      </c>
+      <c r="J408" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K408" t="s" s="41">
+        <v>13</v>
+      </c>
+      <c r="L408" t="s" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="409">
-      <c r="C409" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D409" s="19" t="s">
-        <v>521</v>
-      </c>
+      <c r="A409" s="19"/>
+      <c r="B409" s="19"/>
+      <c r="C409" s="19"/>
+      <c r="D409" s="19"/>
       <c r="E409" s="19"/>
       <c r="F409" s="19"/>
       <c r="G409" t="s" s="19">
         <v>4</v>
       </c>
       <c r="H409" t="s" s="19">
-        <v>113</v>
-      </c>
-      <c r="I409" t="s" s="19">
         <v>522</v>
       </c>
+      <c r="I409" t="s" s="45">
+        <v>12</v>
+      </c>
+      <c r="J409" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K409" t="s" s="41">
+        <v>49</v>
+      </c>
+      <c r="L409" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="410">
-      <c r="A410" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B410" s="19" t="s">
-        <v>523</v>
-      </c>
+      <c r="A410" s="19"/>
+      <c r="B410" s="19"/>
       <c r="C410" s="19"/>
       <c r="D410" s="19"/>
       <c r="E410" s="19"/>
       <c r="F410" s="19"/>
+      <c r="G410" s="19"/>
+      <c r="H410" s="19"/>
+      <c r="I410" s="19"/>
+      <c r="J410" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="K410" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="L410" t="s" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="411">
-      <c r="A411" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B411" s="19" t="s">
+      <c r="B411" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D411" s="1"/>
+      <c r="E411" s="1"/>
+      <c r="F411" s="1"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C412" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="C411" s="19"/>
-      <c r="D411" s="19"/>
-      <c r="E411" s="19"/>
-      <c r="F411" s="19"/>
-      <c r="G411" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="H411" t="s" s="35">
-        <v>331</v>
-      </c>
-      <c r="I411" t="s" s="27">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="19"/>
-      <c r="B412" s="19"/>
-      <c r="C412" s="19"/>
-      <c r="D412" s="19"/>
-      <c r="E412" s="19"/>
-      <c r="F412" s="19"/>
-      <c r="G412" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H412" t="s" s="19">
-        <v>153</v>
-      </c>
-      <c r="I412" t="s" s="19">
+      <c r="D412" s="41"/>
+      <c r="E412" s="41"/>
+      <c r="F412" s="41"/>
+      <c r="J412" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="K412" t="s" s="41">
+        <v>49</v>
+      </c>
+      <c r="L412" t="s" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="B413" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C413" s="41" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="413">
-      <c r="B413" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C413" s="19" t="s">
+      <c r="D413" s="41"/>
+      <c r="E413" s="41"/>
+      <c r="F413" s="41"/>
+      <c r="G413" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="H413" t="s" s="43">
+        <v>72</v>
+      </c>
+      <c r="I413" t="s" s="41">
         <v>526</v>
       </c>
-      <c r="D413" s="19"/>
-      <c r="E413" s="19"/>
-      <c r="F413" s="19"/>
     </row>
     <row r="414">
-      <c r="C414" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D414" s="19" t="s">
+      <c r="A414" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="B414" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="E414" s="19"/>
-      <c r="F414" s="19"/>
-      <c r="J414" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K414" t="s" s="20">
+      <c r="C414" s="27"/>
+      <c r="D414" s="27"/>
+      <c r="E414" s="27"/>
+      <c r="F414" s="27"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B415" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="L414" t="s" s="11">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="B415" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C415" s="19" t="s">
-        <v>527</v>
-      </c>
+      <c r="C415" s="19"/>
       <c r="D415" s="19"/>
       <c r="E415" s="19"/>
       <c r="F415" s="19"/>
-      <c r="J415" t="s" s="20">
-        <v>4</v>
-      </c>
-      <c r="K415" t="s" s="20">
-        <v>528</v>
-      </c>
-      <c r="L415" t="s" s="11">
-        <v>433</v>
+      <c r="G415" t="s" s="41">
+        <v>0</v>
+      </c>
+      <c r="H415" t="s" s="41">
+        <v>75</v>
+      </c>
+      <c r="I415" t="s" s="41">
+        <v>76</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="B416" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C416" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="C416" s="19"/>
       <c r="D416" s="19"/>
       <c r="E416" s="19"/>
       <c r="F416" s="19"/>
-      <c r="G416" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H416" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I416" t="s" s="41">
-        <v>76</v>
-      </c>
-      <c r="J416" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K416" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="L416" t="s" s="11">
-        <v>6</v>
-      </c>
     </row>
     <row r="417">
-      <c r="A417" s="19"/>
-      <c r="B417" s="19"/>
-      <c r="C417" s="19"/>
+      <c r="B417" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C417" s="19" t="s">
+        <v>530</v>
+      </c>
       <c r="D417" s="19"/>
       <c r="E417" s="19"/>
       <c r="F417" s="19"/>
-      <c r="G417" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="H417" t="s" s="19">
-        <v>530</v>
-      </c>
-      <c r="I417" t="s" s="45">
-        <v>12</v>
-      </c>
-      <c r="J417" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K417" t="s" s="41">
-        <v>49</v>
-      </c>
-      <c r="L417" t="s" s="11">
-        <v>6</v>
-      </c>
     </row>
     <row r="418">
-      <c r="A418" s="19"/>
-      <c r="B418" s="19"/>
-      <c r="C418" s="19"/>
+      <c r="B418" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C418" s="19" t="s">
+        <v>531</v>
+      </c>
       <c r="D418" s="19"/>
       <c r="E418" s="19"/>
       <c r="F418" s="19"/>
-      <c r="G418" s="19"/>
-      <c r="H418" s="19"/>
-      <c r="I418" s="19"/>
-      <c r="J418" t="s" s="19">
-        <v>4</v>
-      </c>
-      <c r="K418" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="L418" t="s" s="11">
-        <v>6</v>
-      </c>
     </row>
     <row r="419">
-      <c r="B419" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D419" s="1"/>
-      <c r="E419" s="1"/>
-      <c r="F419" s="1"/>
+      <c r="B419" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C419" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="D419" s="19"/>
+      <c r="E419" s="19"/>
+      <c r="F419" s="19"/>
     </row>
     <row r="420">
-      <c r="B420" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C420" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="D420" s="41"/>
-      <c r="E420" s="41"/>
-      <c r="F420" s="41"/>
-      <c r="J420" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="K420" t="s" s="41">
-        <v>49</v>
-      </c>
-      <c r="L420" t="s" s="11">
-        <v>6</v>
-      </c>
+      <c r="B420" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D420" s="19"/>
+      <c r="E420" s="19"/>
+      <c r="F420" s="19"/>
     </row>
     <row r="421">
-      <c r="B421" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C421" s="41" t="s">
-        <v>533</v>
-      </c>
-      <c r="D421" s="41"/>
-      <c r="E421" s="41"/>
-      <c r="F421" s="41"/>
-      <c r="G421" t="s" s="43">
-        <v>71</v>
-      </c>
-      <c r="H421" t="s" s="43">
-        <v>72</v>
-      </c>
-      <c r="I421" t="s" s="41">
+      <c r="B421" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C421" s="19" t="s">
         <v>534</v>
       </c>
+      <c r="D421" s="19"/>
+      <c r="E421" s="19"/>
+      <c r="F421" s="19"/>
     </row>
     <row r="422">
-      <c r="A422" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="B422" s="27" t="s">
+      <c r="B422" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="C422" s="27"/>
-      <c r="D422" s="27"/>
-      <c r="E422" s="27"/>
-      <c r="F422" s="27"/>
+      <c r="D422" s="19"/>
+      <c r="E422" s="19"/>
+      <c r="F422" s="19"/>
     </row>
     <row r="423">
-      <c r="A423" s="19" t="s">
-        <v>4</v>
-      </c>
       <c r="B423" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C423" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="C423" s="19"/>
       <c r="D423" s="19"/>
       <c r="E423" s="19"/>
       <c r="F423" s="19"/>
-      <c r="G423" t="s" s="41">
-        <v>0</v>
-      </c>
-      <c r="H423" t="s" s="41">
-        <v>75</v>
-      </c>
-      <c r="I423" t="s" s="41">
-        <v>76</v>
-      </c>
     </row>
     <row r="424">
       <c r="B424" s="19" t="s">
@@ -9138,96 +9113,8 @@
       <c r="E428" s="19"/>
       <c r="F428" s="19"/>
     </row>
-    <row r="429">
-      <c r="B429" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C429" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="D429" s="19"/>
-      <c r="E429" s="19"/>
-      <c r="F429" s="19"/>
-    </row>
-    <row r="430">
-      <c r="B430" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C430" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="D430" s="19"/>
-      <c r="E430" s="19"/>
-      <c r="F430" s="19"/>
-    </row>
-    <row r="431">
-      <c r="B431" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C431" s="19" t="s">
-        <v>544</v>
-      </c>
-      <c r="D431" s="19"/>
-      <c r="E431" s="19"/>
-      <c r="F431" s="19"/>
-    </row>
-    <row r="432">
-      <c r="B432" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C432" s="19" t="s">
-        <v>545</v>
-      </c>
-      <c r="D432" s="19"/>
-      <c r="E432" s="19"/>
-      <c r="F432" s="19"/>
-    </row>
-    <row r="433">
-      <c r="B433" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C433" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="D433" s="19"/>
-      <c r="E433" s="19"/>
-      <c r="F433" s="19"/>
-    </row>
-    <row r="434">
-      <c r="B434" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C434" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="D434" s="19"/>
-      <c r="E434" s="19"/>
-      <c r="F434" s="19"/>
-    </row>
-    <row r="435">
-      <c r="B435" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C435" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="D435" s="19"/>
-      <c r="E435" s="19"/>
-      <c r="F435" s="19"/>
-    </row>
-    <row r="436">
-      <c r="B436" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C436" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="D436" s="19"/>
-      <c r="E436" s="19"/>
-      <c r="F436" s="19"/>
-    </row>
   </sheetData>
-  <mergeCells count="429">
+  <mergeCells count="421">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C3:F3"/>
@@ -9328,27 +9215,27 @@
     <mergeCell ref="A98:F98"/>
     <mergeCell ref="A99:F99"/>
     <mergeCell ref="A100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="C102:F102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="D104:F104"/>
     <mergeCell ref="A105:F105"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="C110:F110"/>
     <mergeCell ref="A111:F111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="B114:F114"/>
     <mergeCell ref="A115:F115"/>
     <mergeCell ref="A116:F116"/>
     <mergeCell ref="A117:F117"/>
     <mergeCell ref="A118:F118"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="C120:F120"/>
+    <mergeCell ref="D121:F121"/>
     <mergeCell ref="C122:F122"/>
     <mergeCell ref="C123:F123"/>
     <mergeCell ref="C124:F124"/>
@@ -9356,120 +9243,120 @@
     <mergeCell ref="C126:F126"/>
     <mergeCell ref="C127:F127"/>
     <mergeCell ref="C128:F128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="E131:F131"/>
     <mergeCell ref="D132:F132"/>
     <mergeCell ref="D133:F133"/>
     <mergeCell ref="D134:F134"/>
     <mergeCell ref="D135:F135"/>
-    <mergeCell ref="C136:F136"/>
-    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="C137:F137"/>
     <mergeCell ref="D138:F138"/>
-    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="D139:F139"/>
     <mergeCell ref="C140:F140"/>
     <mergeCell ref="C141:F141"/>
     <mergeCell ref="C142:F142"/>
     <mergeCell ref="C143:F143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="C145:F145"/>
+    <mergeCell ref="C144:F144"/>
+    <mergeCell ref="D145:F145"/>
     <mergeCell ref="C146:F146"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="C147:F147"/>
+    <mergeCell ref="D148:F148"/>
     <mergeCell ref="E149:F149"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="D151:F151"/>
     <mergeCell ref="C152:F152"/>
     <mergeCell ref="C153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="C155:F155"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="D155:F155"/>
     <mergeCell ref="C156:F156"/>
     <mergeCell ref="C157:F157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="C159:F159"/>
+    <mergeCell ref="C158:F158"/>
+    <mergeCell ref="D159:F159"/>
     <mergeCell ref="C160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="C162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="A164:F164"/>
-    <mergeCell ref="C165:F165"/>
-    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="C161:F161"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="C163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="A165:F165"/>
+    <mergeCell ref="C166:F166"/>
     <mergeCell ref="D167:F167"/>
-    <mergeCell ref="C168:F168"/>
+    <mergeCell ref="D168:F168"/>
     <mergeCell ref="C169:F169"/>
     <mergeCell ref="C170:F170"/>
     <mergeCell ref="C171:F171"/>
     <mergeCell ref="C172:F172"/>
-    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="C173:F173"/>
     <mergeCell ref="C174:F174"/>
     <mergeCell ref="C175:F175"/>
     <mergeCell ref="C176:F176"/>
-    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="C177:F177"/>
     <mergeCell ref="C178:F178"/>
     <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="C180:F180"/>
     <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="A183:F183"/>
-    <mergeCell ref="A184:I184"/>
+    <mergeCell ref="A182:F182"/>
+    <mergeCell ref="A183:I183"/>
+    <mergeCell ref="C184:F184"/>
     <mergeCell ref="C185:F185"/>
-    <mergeCell ref="C186:F186"/>
+    <mergeCell ref="D186:F186"/>
     <mergeCell ref="D187:F187"/>
-    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="C188:F188"/>
     <mergeCell ref="C189:F189"/>
-    <mergeCell ref="C190:F190"/>
+    <mergeCell ref="D190:F190"/>
     <mergeCell ref="D191:F191"/>
-    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="C192:F192"/>
     <mergeCell ref="C193:F193"/>
     <mergeCell ref="C194:F194"/>
-    <mergeCell ref="C195:F195"/>
+    <mergeCell ref="D195:F195"/>
     <mergeCell ref="D196:F196"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="C198:F198"/>
+    <mergeCell ref="C197:F197"/>
+    <mergeCell ref="D198:F198"/>
     <mergeCell ref="D199:F199"/>
-    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="B200:F200"/>
     <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="A203:I203"/>
     <mergeCell ref="A204:I204"/>
     <mergeCell ref="A205:I205"/>
-    <mergeCell ref="A206:I206"/>
+    <mergeCell ref="C206:F206"/>
     <mergeCell ref="C207:F207"/>
     <mergeCell ref="C208:F208"/>
     <mergeCell ref="C209:F209"/>
-    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="B210:F210"/>
     <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="A212:F212"/>
     <mergeCell ref="A213:F213"/>
     <mergeCell ref="A214:F214"/>
     <mergeCell ref="A215:F215"/>
-    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="C216:F216"/>
     <mergeCell ref="C217:F217"/>
     <mergeCell ref="C218:F218"/>
     <mergeCell ref="C219:F219"/>
-    <mergeCell ref="C220:F220"/>
-    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="A221:F221"/>
     <mergeCell ref="A222:F222"/>
-    <mergeCell ref="A223:F223"/>
+    <mergeCell ref="B223:F223"/>
     <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="A225:F225"/>
     <mergeCell ref="A226:F226"/>
     <mergeCell ref="A227:F227"/>
     <mergeCell ref="A228:F228"/>
     <mergeCell ref="A229:F229"/>
-    <mergeCell ref="A230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="A232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="C234:F234"/>
-    <mergeCell ref="D235:F235"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="A237:I237"/>
-    <mergeCell ref="D238:F238"/>
-    <mergeCell ref="A239:I239"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="A231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A236:I236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="A238:I238"/>
+    <mergeCell ref="E239:F239"/>
     <mergeCell ref="E240:F240"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="C242:F242"/>
+    <mergeCell ref="C241:F241"/>
+    <mergeCell ref="A242:F242"/>
     <mergeCell ref="A243:F243"/>
     <mergeCell ref="A244:F244"/>
     <mergeCell ref="A245:F245"/>
@@ -9478,46 +9365,46 @@
     <mergeCell ref="A248:F248"/>
     <mergeCell ref="A249:F249"/>
     <mergeCell ref="A250:F250"/>
-    <mergeCell ref="A251:F251"/>
+    <mergeCell ref="D251:F251"/>
     <mergeCell ref="D252:F252"/>
-    <mergeCell ref="D253:F253"/>
+    <mergeCell ref="A253:I253"/>
     <mergeCell ref="A254:I254"/>
     <mergeCell ref="A255:I255"/>
-    <mergeCell ref="A256:I256"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="A259:F259"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="A258:F258"/>
+    <mergeCell ref="E260:F260"/>
     <mergeCell ref="E261:F261"/>
-    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="E263:F263"/>
     <mergeCell ref="E264:F264"/>
     <mergeCell ref="E265:F265"/>
-    <mergeCell ref="E266:F266"/>
-    <mergeCell ref="D267:F267"/>
+    <mergeCell ref="D266:F266"/>
+    <mergeCell ref="E267:F267"/>
     <mergeCell ref="E268:F268"/>
-    <mergeCell ref="E269:F269"/>
-    <mergeCell ref="D270:F270"/>
+    <mergeCell ref="D269:F269"/>
+    <mergeCell ref="A270:I270"/>
     <mergeCell ref="A271:I271"/>
     <mergeCell ref="A272:I272"/>
-    <mergeCell ref="A273:I273"/>
-    <mergeCell ref="E274:F274"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="D274:F274"/>
     <mergeCell ref="D275:F275"/>
     <mergeCell ref="D276:F276"/>
-    <mergeCell ref="D277:F277"/>
+    <mergeCell ref="E277:F277"/>
     <mergeCell ref="E278:F278"/>
     <mergeCell ref="E279:F279"/>
-    <mergeCell ref="E280:F280"/>
+    <mergeCell ref="D280:F280"/>
     <mergeCell ref="D281:F281"/>
     <mergeCell ref="D282:F282"/>
     <mergeCell ref="D283:F283"/>
-    <mergeCell ref="D284:F284"/>
-    <mergeCell ref="E285:F285"/>
+    <mergeCell ref="E284:F284"/>
+    <mergeCell ref="A285:I285"/>
     <mergeCell ref="A286:I286"/>
-    <mergeCell ref="A287:I287"/>
+    <mergeCell ref="D288:F288"/>
     <mergeCell ref="D289:F289"/>
     <mergeCell ref="D290:F290"/>
-    <mergeCell ref="D291:F291"/>
-    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="E291:F291"/>
+    <mergeCell ref="D292:F292"/>
     <mergeCell ref="D293:F293"/>
-    <mergeCell ref="D294:F294"/>
+    <mergeCell ref="A294:F294"/>
     <mergeCell ref="A295:F295"/>
     <mergeCell ref="A296:F296"/>
     <mergeCell ref="A297:F297"/>
@@ -9525,38 +9412,38 @@
     <mergeCell ref="A299:F299"/>
     <mergeCell ref="A300:F300"/>
     <mergeCell ref="A301:F301"/>
-    <mergeCell ref="A302:F302"/>
+    <mergeCell ref="D302:F302"/>
     <mergeCell ref="D303:F303"/>
-    <mergeCell ref="D304:F304"/>
+    <mergeCell ref="A304:F304"/>
     <mergeCell ref="A305:F305"/>
-    <mergeCell ref="A306:F306"/>
-    <mergeCell ref="E307:F307"/>
+    <mergeCell ref="E306:F306"/>
+    <mergeCell ref="E309:F309"/>
     <mergeCell ref="E310:F310"/>
     <mergeCell ref="E311:F311"/>
     <mergeCell ref="E312:F312"/>
-    <mergeCell ref="E313:F313"/>
-    <mergeCell ref="D314:F314"/>
-    <mergeCell ref="A315:I315"/>
+    <mergeCell ref="D313:F313"/>
+    <mergeCell ref="A314:I314"/>
+    <mergeCell ref="E315:F315"/>
     <mergeCell ref="E316:F316"/>
     <mergeCell ref="E317:F317"/>
-    <mergeCell ref="E318:F318"/>
-    <mergeCell ref="D319:F319"/>
-    <mergeCell ref="C320:F320"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="E322:F322"/>
-    <mergeCell ref="C323:F323"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="D326:F326"/>
-    <mergeCell ref="E327:F327"/>
-    <mergeCell ref="A328:I328"/>
-    <mergeCell ref="A330:I330"/>
-    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="D318:F318"/>
+    <mergeCell ref="C319:F319"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="E321:F321"/>
+    <mergeCell ref="C322:F322"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="A324:F324"/>
+    <mergeCell ref="D325:F325"/>
+    <mergeCell ref="E326:F326"/>
+    <mergeCell ref="A327:I327"/>
+    <mergeCell ref="A329:I329"/>
+    <mergeCell ref="D330:F330"/>
+    <mergeCell ref="A331:I331"/>
     <mergeCell ref="A332:I332"/>
     <mergeCell ref="A333:I333"/>
-    <mergeCell ref="A334:I334"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="D334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="A336:F336"/>
     <mergeCell ref="A337:F337"/>
     <mergeCell ref="A338:F338"/>
     <mergeCell ref="A339:F339"/>
@@ -9567,96 +9454,88 @@
     <mergeCell ref="A344:F344"/>
     <mergeCell ref="A345:F345"/>
     <mergeCell ref="A346:F346"/>
-    <mergeCell ref="A347:F347"/>
-    <mergeCell ref="C348:F348"/>
-    <mergeCell ref="A349:F349"/>
-    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="C347:F347"/>
+    <mergeCell ref="A348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="C350:F350"/>
     <mergeCell ref="C351:F351"/>
     <mergeCell ref="C352:F352"/>
     <mergeCell ref="C353:F353"/>
-    <mergeCell ref="C354:F354"/>
+    <mergeCell ref="B354:F354"/>
     <mergeCell ref="B355:F355"/>
     <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="C358:F358"/>
+    <mergeCell ref="C357:F357"/>
+    <mergeCell ref="A358:F358"/>
     <mergeCell ref="A359:F359"/>
     <mergeCell ref="A360:F360"/>
-    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="D361:F361"/>
     <mergeCell ref="D362:F362"/>
     <mergeCell ref="D363:F363"/>
     <mergeCell ref="D364:F364"/>
-    <mergeCell ref="D365:F365"/>
-    <mergeCell ref="C366:F366"/>
+    <mergeCell ref="C365:F365"/>
+    <mergeCell ref="A366:F366"/>
     <mergeCell ref="A367:F367"/>
-    <mergeCell ref="A368:F368"/>
-    <mergeCell ref="C369:F369"/>
+    <mergeCell ref="C368:F368"/>
+    <mergeCell ref="A369:F369"/>
     <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A371:F371"/>
-    <mergeCell ref="C372:F372"/>
+    <mergeCell ref="C371:F371"/>
+    <mergeCell ref="A372:F372"/>
     <mergeCell ref="A373:F373"/>
     <mergeCell ref="A374:F374"/>
     <mergeCell ref="A375:F375"/>
     <mergeCell ref="A376:F376"/>
     <mergeCell ref="A377:F377"/>
-    <mergeCell ref="A378:F378"/>
+    <mergeCell ref="D378:F378"/>
     <mergeCell ref="D379:F379"/>
     <mergeCell ref="D380:F380"/>
     <mergeCell ref="D381:F381"/>
-    <mergeCell ref="D382:F382"/>
-    <mergeCell ref="C383:F383"/>
+    <mergeCell ref="C382:F382"/>
+    <mergeCell ref="A383:F383"/>
     <mergeCell ref="A384:F384"/>
-    <mergeCell ref="A385:F385"/>
+    <mergeCell ref="D385:F385"/>
     <mergeCell ref="D386:F386"/>
-    <mergeCell ref="D387:F387"/>
+    <mergeCell ref="E387:F387"/>
     <mergeCell ref="D388:F388"/>
-    <mergeCell ref="D389:F389"/>
-    <mergeCell ref="E390:F390"/>
+    <mergeCell ref="E389:F389"/>
+    <mergeCell ref="D390:F390"/>
     <mergeCell ref="D391:F391"/>
     <mergeCell ref="E392:F392"/>
     <mergeCell ref="D393:F393"/>
     <mergeCell ref="D394:F394"/>
-    <mergeCell ref="E395:F395"/>
-    <mergeCell ref="D396:F396"/>
-    <mergeCell ref="D397:F397"/>
-    <mergeCell ref="D398:F398"/>
-    <mergeCell ref="D399:F399"/>
-    <mergeCell ref="D400:F400"/>
-    <mergeCell ref="C401:F401"/>
-    <mergeCell ref="A402:F402"/>
-    <mergeCell ref="A403:F403"/>
-    <mergeCell ref="C404:F404"/>
+    <mergeCell ref="C395:F395"/>
+    <mergeCell ref="A396:F396"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="C398:F398"/>
+    <mergeCell ref="A399:F399"/>
+    <mergeCell ref="A400:F400"/>
+    <mergeCell ref="D401:F401"/>
+    <mergeCell ref="D402:F402"/>
+    <mergeCell ref="D403:F403"/>
+    <mergeCell ref="B404:F404"/>
     <mergeCell ref="A405:F405"/>
-    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="C406:F406"/>
     <mergeCell ref="D407:F407"/>
-    <mergeCell ref="D408:F408"/>
-    <mergeCell ref="D409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="A412:F412"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="A409:F409"/>
+    <mergeCell ref="A410:I410"/>
+    <mergeCell ref="C411:F411"/>
+    <mergeCell ref="C412:F412"/>
     <mergeCell ref="C413:F413"/>
-    <mergeCell ref="D414:F414"/>
-    <mergeCell ref="C415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="A417:F417"/>
-    <mergeCell ref="A418:I418"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="C416:F416"/>
+    <mergeCell ref="C417:F417"/>
+    <mergeCell ref="C418:F418"/>
     <mergeCell ref="C419:F419"/>
     <mergeCell ref="C420:F420"/>
     <mergeCell ref="C421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="C422:F422"/>
+    <mergeCell ref="C423:F423"/>
     <mergeCell ref="C424:F424"/>
     <mergeCell ref="C425:F425"/>
     <mergeCell ref="C426:F426"/>
     <mergeCell ref="C427:F427"/>
     <mergeCell ref="C428:F428"/>
-    <mergeCell ref="C429:F429"/>
-    <mergeCell ref="C430:F430"/>
-    <mergeCell ref="C431:F431"/>
-    <mergeCell ref="C432:F432"/>
-    <mergeCell ref="C433:F433"/>
-    <mergeCell ref="C434:F434"/>
-    <mergeCell ref="C435:F435"/>
-    <mergeCell ref="C436:F436"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
